--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,158 +391,158 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.690602</v>
+        <v>-37.718987</v>
       </c>
       <c r="C2" t="n">
-        <v>144.869104</v>
+        <v>144.992857</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.933332</v>
+        <v>-37.690602</v>
       </c>
       <c r="C3" t="n">
-        <v>145.000542</v>
+        <v>144.869104</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.773754</v>
+        <v>-37.933332</v>
       </c>
       <c r="C4" t="n">
-        <v>144.888956</v>
+        <v>145.000542</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.744387</v>
+        <v>-37.773754</v>
       </c>
       <c r="C5" t="n">
-        <v>144.774297</v>
+        <v>144.888956</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.711211</v>
+        <v>-37.744387</v>
       </c>
       <c r="C6" t="n">
-        <v>144.738802</v>
+        <v>144.774297</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.816363</v>
+        <v>-37.711211</v>
       </c>
       <c r="C7" t="n">
-        <v>145.06656</v>
+        <v>144.738802</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-38.102082</v>
+        <v>-37.816363</v>
       </c>
       <c r="C8" t="n">
-        <v>145.265397</v>
+        <v>145.06656</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.684606</v>
+        <v>-38.102082</v>
       </c>
       <c r="C9" t="n">
-        <v>144.760227</v>
+        <v>145.265397</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.715384</v>
+        <v>-37.684606</v>
       </c>
       <c r="C10" t="n">
-        <v>144.811994</v>
+        <v>144.760227</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -553,500 +553,500 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.738834</v>
+        <v>-37.715384</v>
       </c>
       <c r="C11" t="n">
-        <v>145.030187</v>
+        <v>144.811994</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-38.075826</v>
+        <v>-37.738834</v>
       </c>
       <c r="C12" t="n">
-        <v>145.473885</v>
+        <v>145.030187</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.837404</v>
+        <v>-38.075826</v>
       </c>
       <c r="C13" t="n">
-        <v>144.996291</v>
+        <v>145.473885</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.898104</v>
+        <v>-37.837404</v>
       </c>
       <c r="C14" t="n">
-        <v>145.160876</v>
+        <v>144.996291</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.890643</v>
+        <v>-37.898104</v>
       </c>
       <c r="C15" t="n">
-        <v>145.062546</v>
+        <v>145.160876</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.8135</v>
+        <v>-37.890643</v>
       </c>
       <c r="C16" t="n">
-        <v>144.969933</v>
+        <v>145.062546</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.581295</v>
+        <v>-37.8135</v>
       </c>
       <c r="C17" t="n">
-        <v>144.738024</v>
+        <v>144.969933</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.735247</v>
+        <v>-37.581295</v>
       </c>
       <c r="C18" t="n">
-        <v>144.917023</v>
+        <v>144.738024</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.975685</v>
+        <v>-37.744387</v>
       </c>
       <c r="C19" t="n">
-        <v>145.216529</v>
+        <v>144.774297</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.688119</v>
+        <v>-37.735247</v>
       </c>
       <c r="C20" t="n">
-        <v>144.884379</v>
+        <v>144.917023</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.691402</v>
+        <v>-37.975685</v>
       </c>
       <c r="C21" t="n">
-        <v>145.213889</v>
+        <v>145.216529</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.760449</v>
+        <v>-37.688119</v>
       </c>
       <c r="C22" t="n">
-        <v>145.348691</v>
+        <v>144.884379</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-38.085076</v>
+        <v>-37.691402</v>
       </c>
       <c r="C23" t="n">
-        <v>145.46966</v>
+        <v>145.213889</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.740107</v>
+        <v>-37.760449</v>
       </c>
       <c r="C24" t="n">
-        <v>144.956047</v>
+        <v>145.348691</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.772859</v>
+        <v>-38.085076</v>
       </c>
       <c r="C25" t="n">
-        <v>145.294713</v>
+        <v>145.46966</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.798171</v>
+        <v>-37.740107</v>
       </c>
       <c r="C26" t="n">
-        <v>144.956665</v>
+        <v>144.956047</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-38.012111</v>
+        <v>-37.772859</v>
       </c>
       <c r="C27" t="n">
-        <v>145.090154</v>
+        <v>145.294713</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-36.732518</v>
+        <v>-37.798171</v>
       </c>
       <c r="C28" t="n">
-        <v>146.967357</v>
+        <v>144.956665</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.811362</v>
+        <v>-38.012111</v>
       </c>
       <c r="C29" t="n">
-        <v>144.973203</v>
+        <v>145.090154</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.927427</v>
+        <v>-36.732518</v>
       </c>
       <c r="C30" t="n">
-        <v>145.116157</v>
+        <v>146.967357</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.571236</v>
+        <v>-37.811362</v>
       </c>
       <c r="C31" t="n">
-        <v>144.90978</v>
+        <v>144.973203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.685249</v>
+        <v>-37.927427</v>
       </c>
       <c r="C32" t="n">
-        <v>144.92446</v>
+        <v>145.116157</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.704175</v>
+        <v>-37.571236</v>
       </c>
       <c r="C33" t="n">
-        <v>144.998741</v>
+        <v>144.90978</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.726306</v>
+        <v>-37.685249</v>
       </c>
       <c r="C34" t="n">
-        <v>145.069914</v>
+        <v>144.92446</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C35" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.8163949</v>
+        <v>-37.726306</v>
       </c>
       <c r="C36" t="n">
-        <v>144.9526066</v>
+        <v>145.069914</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.667111</v>
+        <v>-37.801332</v>
       </c>
       <c r="C37" t="n">
-        <v>144.8334808</v>
+        <v>144.963635</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C38" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1057,18 +1057,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.836082</v>
+        <v>-37.667111</v>
       </c>
       <c r="C39" t="n">
-        <v>144.915383</v>
+        <v>144.8334808</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -1093,36 +1093,36 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C41" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C42" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -1147,702 +1147,702 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C44" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C45" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C46" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.715384</v>
+        <v>-37.841635</v>
       </c>
       <c r="C47" t="n">
-        <v>144.811994</v>
+        <v>145.086235</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.884267</v>
+        <v>-37.756286</v>
       </c>
       <c r="C48" t="n">
-        <v>145.017115</v>
+        <v>144.811104</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-36.314871</v>
+        <v>-37.715384</v>
       </c>
       <c r="C49" t="n">
-        <v>145.04197</v>
+        <v>144.811994</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.92849</v>
+        <v>-37.884267</v>
       </c>
       <c r="C50" t="n">
-        <v>145.007454</v>
+        <v>145.017115</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.841635</v>
+        <v>-36.314871</v>
       </c>
       <c r="C51" t="n">
-        <v>145.086235</v>
+        <v>145.04197</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.884267</v>
+        <v>-37.92849</v>
       </c>
       <c r="C52" t="n">
-        <v>145.017115</v>
+        <v>145.007454</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.69261</v>
+        <v>-37.841635</v>
       </c>
       <c r="C53" t="n">
-        <v>145.063821</v>
+        <v>145.086235</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.689223</v>
+        <v>-37.884267</v>
       </c>
       <c r="C54" t="n">
-        <v>144.604708</v>
+        <v>145.017115</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.843632</v>
+        <v>-37.69261</v>
       </c>
       <c r="C55" t="n">
-        <v>144.781559</v>
+        <v>145.063821</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.730748</v>
+        <v>-37.689223</v>
       </c>
       <c r="C56" t="n">
-        <v>145.086489</v>
+        <v>144.604708</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.702513</v>
+        <v>-37.843632</v>
       </c>
       <c r="C57" t="n">
-        <v>144.802326</v>
+        <v>144.781559</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.673996</v>
+        <v>-37.730748</v>
       </c>
       <c r="C58" t="n">
-        <v>144.955354</v>
+        <v>145.086489</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.576594</v>
+        <v>-37.702513</v>
       </c>
       <c r="C59" t="n">
-        <v>144.728665</v>
+        <v>144.802326</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.879995</v>
+        <v>-37.673996</v>
       </c>
       <c r="C60" t="n">
-        <v>144.701577</v>
+        <v>144.955354</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.834014</v>
+        <v>-37.576594</v>
       </c>
       <c r="C61" t="n">
-        <v>144.652853</v>
+        <v>144.728665</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.942099</v>
+        <v>-37.879995</v>
       </c>
       <c r="C62" t="n">
-        <v>145.167684</v>
+        <v>144.701577</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.664667</v>
+        <v>-37.834014</v>
       </c>
       <c r="C63" t="n">
-        <v>144.74749</v>
+        <v>144.652853</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.665417</v>
+        <v>-37.942099</v>
       </c>
       <c r="C64" t="n">
-        <v>144.753359</v>
+        <v>145.167684</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.73899</v>
+        <v>-37.664667</v>
       </c>
       <c r="C65" t="n">
-        <v>144.679976</v>
+        <v>144.74749</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.596123</v>
+        <v>-37.665417</v>
       </c>
       <c r="C66" t="n">
-        <v>144.921401</v>
+        <v>144.753359</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.77238</v>
+        <v>-37.73899</v>
       </c>
       <c r="C67" t="n">
-        <v>144.888195</v>
+        <v>144.679976</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.783105</v>
+        <v>-37.596123</v>
       </c>
       <c r="C68" t="n">
-        <v>144.785398</v>
+        <v>144.921401</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.766147</v>
+        <v>-37.77238</v>
       </c>
       <c r="C69" t="n">
-        <v>145.020052</v>
+        <v>144.888195</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.689366</v>
+        <v>-37.783105</v>
       </c>
       <c r="C70" t="n">
-        <v>144.958878</v>
+        <v>144.785398</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.678278</v>
+        <v>-37.766147</v>
       </c>
       <c r="C71" t="n">
-        <v>144.432689</v>
+        <v>145.020052</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.810712</v>
+        <v>-37.689366</v>
       </c>
       <c r="C72" t="n">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.667111</v>
+        <v>-37.678278</v>
       </c>
       <c r="C73" t="n">
-        <v>144.8334808</v>
+        <v>144.432689</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.811678</v>
+        <v>-37.810712</v>
       </c>
       <c r="C74" t="n">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.797177</v>
+        <v>-37.667111</v>
       </c>
       <c r="C75" t="n">
-        <v>144.894632</v>
+        <v>144.8334808</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.759223</v>
+        <v>-37.811678</v>
       </c>
       <c r="C76" t="n">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.844318</v>
+        <v>-37.797177</v>
       </c>
       <c r="C77" t="n">
-        <v>145.009818</v>
+        <v>144.894632</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.813239</v>
+        <v>-37.759223</v>
       </c>
       <c r="C78" t="n">
-        <v>145.048047</v>
+        <v>144.816754</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.7769407</v>
+        <v>-37.844318</v>
       </c>
       <c r="C79" t="n">
-        <v>144.987025</v>
+        <v>145.009818</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.772096</v>
+        <v>-37.813239</v>
       </c>
       <c r="C80" t="n">
-        <v>144.916095</v>
+        <v>145.048047</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C81" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C82" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -1939,122 +1939,122 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C88" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C89" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.790783</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C90" t="n">
-        <v>144.998162</v>
+        <v>144.983472</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.8249813</v>
+        <v>-37.800963</v>
       </c>
       <c r="C91" t="n">
-        <v>144.983613</v>
+        <v>145.0729384</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.8411037</v>
+        <v>-37.790783</v>
       </c>
       <c r="C92" t="n">
-        <v>144.955806</v>
+        <v>144.998162</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C93" t="n">
-        <v>144.9564881</v>
+        <v>144.983613</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C94" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -2065,198 +2065,198 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C95" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C96" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C97" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.809265</v>
+        <v>-38.199003</v>
       </c>
       <c r="C98" t="n">
-        <v>144.994951</v>
+        <v>144.318418</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.667111</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C99" t="n">
-        <v>144.8334808</v>
+        <v>145.0868276</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.7978092</v>
+        <v>-37.809265</v>
       </c>
       <c r="C100" t="n">
-        <v>144.9680124</v>
+        <v>144.994951</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C101" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-38.1450096</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C102" t="n">
-        <v>144.3568376</v>
+        <v>144.9680124</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.028215</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C103" t="n">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C104" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C105" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -2281,126 +2281,126 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C107" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C108" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C109" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C110" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C111" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C112" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C113" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -2461,36 +2461,36 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C117" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C118" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -2507,6 +2507,42 @@
         <v>144.8334808</v>
       </c>
       <c r="D119" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C120" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C121" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D121" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,698 +391,698 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.718987</v>
+        <v>-37.764884</v>
       </c>
       <c r="C2" t="n">
-        <v>144.992857</v>
+        <v>144.979606</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.690602</v>
+        <v>-37.717149</v>
       </c>
       <c r="C3" t="n">
-        <v>144.869104</v>
+        <v>144.808867</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.933332</v>
+        <v>-37.718987</v>
       </c>
       <c r="C4" t="n">
-        <v>145.000542</v>
+        <v>144.992857</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.773754</v>
+        <v>-37.690602</v>
       </c>
       <c r="C5" t="n">
-        <v>144.888956</v>
+        <v>144.869104</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.744387</v>
+        <v>-37.933332</v>
       </c>
       <c r="C6" t="n">
-        <v>144.774297</v>
+        <v>145.000542</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.711211</v>
+        <v>-37.773754</v>
       </c>
       <c r="C7" t="n">
-        <v>144.738802</v>
+        <v>144.888956</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.816363</v>
+        <v>-37.744387</v>
       </c>
       <c r="C8" t="n">
-        <v>145.06656</v>
+        <v>144.774297</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-38.102082</v>
+        <v>-37.711211</v>
       </c>
       <c r="C9" t="n">
-        <v>145.265397</v>
+        <v>144.738802</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.684606</v>
+        <v>-37.816363</v>
       </c>
       <c r="C10" t="n">
-        <v>144.760227</v>
+        <v>145.06656</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.715384</v>
+        <v>-38.102082</v>
       </c>
       <c r="C11" t="n">
-        <v>144.811994</v>
+        <v>145.265397</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.738834</v>
+        <v>-37.684606</v>
       </c>
       <c r="C12" t="n">
-        <v>145.030187</v>
+        <v>144.760227</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-38.075826</v>
+        <v>-37.715384</v>
       </c>
       <c r="C13" t="n">
-        <v>145.473885</v>
+        <v>144.811994</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.837404</v>
+        <v>-37.738834</v>
       </c>
       <c r="C14" t="n">
-        <v>144.996291</v>
+        <v>145.030187</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.898104</v>
+        <v>-38.075826</v>
       </c>
       <c r="C15" t="n">
-        <v>145.160876</v>
+        <v>145.473885</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.890643</v>
+        <v>-37.837404</v>
       </c>
       <c r="C16" t="n">
-        <v>145.062546</v>
+        <v>144.996291</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.8135</v>
+        <v>-37.898104</v>
       </c>
       <c r="C17" t="n">
-        <v>144.969933</v>
+        <v>145.160876</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.581295</v>
+        <v>-37.890643</v>
       </c>
       <c r="C18" t="n">
-        <v>144.738024</v>
+        <v>145.062546</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.744387</v>
+        <v>-37.8135</v>
       </c>
       <c r="C19" t="n">
-        <v>144.774297</v>
+        <v>144.969933</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.735247</v>
+        <v>-37.581295</v>
       </c>
       <c r="C20" t="n">
-        <v>144.917023</v>
+        <v>144.738024</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.975685</v>
+        <v>-37.744387</v>
       </c>
       <c r="C21" t="n">
-        <v>145.216529</v>
+        <v>144.774297</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.688119</v>
+        <v>-37.735247</v>
       </c>
       <c r="C22" t="n">
-        <v>144.884379</v>
+        <v>144.917023</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.691402</v>
+        <v>-37.975685</v>
       </c>
       <c r="C23" t="n">
-        <v>145.213889</v>
+        <v>145.216529</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.760449</v>
+        <v>-37.688119</v>
       </c>
       <c r="C24" t="n">
-        <v>145.348691</v>
+        <v>144.884379</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-38.085076</v>
+        <v>-37.691402</v>
       </c>
       <c r="C25" t="n">
-        <v>145.46966</v>
+        <v>145.213889</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.740107</v>
+        <v>-37.760449</v>
       </c>
       <c r="C26" t="n">
-        <v>144.956047</v>
+        <v>145.348691</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.772859</v>
+        <v>-38.085076</v>
       </c>
       <c r="C27" t="n">
-        <v>145.294713</v>
+        <v>145.46966</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.798171</v>
+        <v>-37.740107</v>
       </c>
       <c r="C28" t="n">
-        <v>144.956665</v>
+        <v>144.956047</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-38.012111</v>
+        <v>-37.772859</v>
       </c>
       <c r="C29" t="n">
-        <v>145.090154</v>
+        <v>145.294713</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-36.732518</v>
+        <v>-37.798171</v>
       </c>
       <c r="C30" t="n">
-        <v>146.967357</v>
+        <v>144.956665</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.811362</v>
+        <v>-38.012111</v>
       </c>
       <c r="C31" t="n">
-        <v>144.973203</v>
+        <v>145.090154</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.927427</v>
+        <v>-36.732518</v>
       </c>
       <c r="C32" t="n">
-        <v>145.116157</v>
+        <v>146.967357</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.571236</v>
+        <v>-37.811362</v>
       </c>
       <c r="C33" t="n">
-        <v>144.90978</v>
+        <v>144.973203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.685249</v>
+        <v>-37.927427</v>
       </c>
       <c r="C34" t="n">
-        <v>144.92446</v>
+        <v>145.116157</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.704175</v>
+        <v>-37.571236</v>
       </c>
       <c r="C35" t="n">
-        <v>144.998741</v>
+        <v>144.90978</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.726306</v>
+        <v>-37.685249</v>
       </c>
       <c r="C36" t="n">
-        <v>145.069914</v>
+        <v>144.92446</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C37" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.8163949</v>
+        <v>-37.726306</v>
       </c>
       <c r="C38" t="n">
-        <v>144.9526066</v>
+        <v>145.069914</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.667111</v>
+        <v>-37.801332</v>
       </c>
       <c r="C39" t="n">
-        <v>144.8334808</v>
+        <v>144.963635</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C40" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,18 +1093,18 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.836082</v>
+        <v>-37.667111</v>
       </c>
       <c r="C41" t="n">
-        <v>144.915383</v>
+        <v>144.8334808</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -1129,36 +1129,36 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C43" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C44" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -1183,702 +1183,702 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C46" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C47" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C48" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.715384</v>
+        <v>-37.841635</v>
       </c>
       <c r="C49" t="n">
-        <v>144.811994</v>
+        <v>145.086235</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.884267</v>
+        <v>-37.756286</v>
       </c>
       <c r="C50" t="n">
-        <v>145.017115</v>
+        <v>144.811104</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-36.314871</v>
+        <v>-37.715384</v>
       </c>
       <c r="C51" t="n">
-        <v>145.04197</v>
+        <v>144.811994</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.92849</v>
+        <v>-37.884267</v>
       </c>
       <c r="C52" t="n">
-        <v>145.007454</v>
+        <v>145.017115</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.841635</v>
+        <v>-36.314871</v>
       </c>
       <c r="C53" t="n">
-        <v>145.086235</v>
+        <v>145.04197</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.884267</v>
+        <v>-37.92849</v>
       </c>
       <c r="C54" t="n">
-        <v>145.017115</v>
+        <v>145.007454</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.69261</v>
+        <v>-37.841635</v>
       </c>
       <c r="C55" t="n">
-        <v>145.063821</v>
+        <v>145.086235</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.689223</v>
+        <v>-37.884267</v>
       </c>
       <c r="C56" t="n">
-        <v>144.604708</v>
+        <v>145.017115</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.843632</v>
+        <v>-37.69261</v>
       </c>
       <c r="C57" t="n">
-        <v>144.781559</v>
+        <v>145.063821</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.730748</v>
+        <v>-37.689223</v>
       </c>
       <c r="C58" t="n">
-        <v>145.086489</v>
+        <v>144.604708</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.702513</v>
+        <v>-37.843632</v>
       </c>
       <c r="C59" t="n">
-        <v>144.802326</v>
+        <v>144.781559</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.673996</v>
+        <v>-37.730748</v>
       </c>
       <c r="C60" t="n">
-        <v>144.955354</v>
+        <v>145.086489</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.576594</v>
+        <v>-37.702513</v>
       </c>
       <c r="C61" t="n">
-        <v>144.728665</v>
+        <v>144.802326</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.879995</v>
+        <v>-37.673996</v>
       </c>
       <c r="C62" t="n">
-        <v>144.701577</v>
+        <v>144.955354</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.834014</v>
+        <v>-37.576594</v>
       </c>
       <c r="C63" t="n">
-        <v>144.652853</v>
+        <v>144.728665</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.942099</v>
+        <v>-37.879995</v>
       </c>
       <c r="C64" t="n">
-        <v>145.167684</v>
+        <v>144.701577</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.664667</v>
+        <v>-37.834014</v>
       </c>
       <c r="C65" t="n">
-        <v>144.74749</v>
+        <v>144.652853</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.665417</v>
+        <v>-37.942099</v>
       </c>
       <c r="C66" t="n">
-        <v>144.753359</v>
+        <v>145.167684</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.73899</v>
+        <v>-37.664667</v>
       </c>
       <c r="C67" t="n">
-        <v>144.679976</v>
+        <v>144.74749</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.596123</v>
+        <v>-37.665417</v>
       </c>
       <c r="C68" t="n">
-        <v>144.921401</v>
+        <v>144.753359</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.77238</v>
+        <v>-37.73899</v>
       </c>
       <c r="C69" t="n">
-        <v>144.888195</v>
+        <v>144.679976</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.783105</v>
+        <v>-37.596123</v>
       </c>
       <c r="C70" t="n">
-        <v>144.785398</v>
+        <v>144.921401</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.766147</v>
+        <v>-37.77238</v>
       </c>
       <c r="C71" t="n">
-        <v>145.020052</v>
+        <v>144.888195</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.689366</v>
+        <v>-37.783105</v>
       </c>
       <c r="C72" t="n">
-        <v>144.958878</v>
+        <v>144.785398</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.678278</v>
+        <v>-37.766147</v>
       </c>
       <c r="C73" t="n">
-        <v>144.432689</v>
+        <v>145.020052</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.810712</v>
+        <v>-37.689366</v>
       </c>
       <c r="C74" t="n">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.667111</v>
+        <v>-37.678278</v>
       </c>
       <c r="C75" t="n">
-        <v>144.8334808</v>
+        <v>144.432689</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.811678</v>
+        <v>-37.810712</v>
       </c>
       <c r="C76" t="n">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.797177</v>
+        <v>-37.667111</v>
       </c>
       <c r="C77" t="n">
-        <v>144.894632</v>
+        <v>144.8334808</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.759223</v>
+        <v>-37.811678</v>
       </c>
       <c r="C78" t="n">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.844318</v>
+        <v>-37.797177</v>
       </c>
       <c r="C79" t="n">
-        <v>145.009818</v>
+        <v>144.894632</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.813239</v>
+        <v>-37.759223</v>
       </c>
       <c r="C80" t="n">
-        <v>145.048047</v>
+        <v>144.816754</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.7769407</v>
+        <v>-37.844318</v>
       </c>
       <c r="C81" t="n">
-        <v>144.987025</v>
+        <v>145.009818</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.772096</v>
+        <v>-37.813239</v>
       </c>
       <c r="C82" t="n">
-        <v>144.916095</v>
+        <v>145.048047</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C83" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C84" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -1975,122 +1975,122 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C90" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C91" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.790783</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C92" t="n">
-        <v>144.998162</v>
+        <v>144.983472</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.8249813</v>
+        <v>-37.800963</v>
       </c>
       <c r="C93" t="n">
-        <v>144.983613</v>
+        <v>145.0729384</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.8411037</v>
+        <v>-37.790783</v>
       </c>
       <c r="C94" t="n">
-        <v>144.955806</v>
+        <v>144.998162</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C95" t="n">
-        <v>144.9564881</v>
+        <v>144.983613</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C96" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -2101,198 +2101,198 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C97" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C98" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C99" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.809265</v>
+        <v>-38.199003</v>
       </c>
       <c r="C100" t="n">
-        <v>144.994951</v>
+        <v>144.318418</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.667111</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C101" t="n">
-        <v>144.8334808</v>
+        <v>145.0868276</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.7978092</v>
+        <v>-37.809265</v>
       </c>
       <c r="C102" t="n">
-        <v>144.9680124</v>
+        <v>144.994951</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C103" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-38.1450096</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C104" t="n">
-        <v>144.3568376</v>
+        <v>144.9680124</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.028215</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C105" t="n">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C106" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C107" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -2317,126 +2317,126 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C109" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C110" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C111" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C112" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C113" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C114" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C115" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -2497,36 +2497,36 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C119" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C120" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -2543,6 +2543,42 @@
         <v>144.8334808</v>
       </c>
       <c r="D121" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C122" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C123" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D123" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D123"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,140 +463,140 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.933332</v>
+        <v>-37.814598</v>
       </c>
       <c r="C6" t="n">
-        <v>145.000542</v>
+        <v>144.762011</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.773754</v>
+        <v>-37.933332</v>
       </c>
       <c r="C7" t="n">
-        <v>144.888956</v>
+        <v>145.000542</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.744387</v>
+        <v>-37.773754</v>
       </c>
       <c r="C8" t="n">
-        <v>144.774297</v>
+        <v>144.888956</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.711211</v>
+        <v>-37.744387</v>
       </c>
       <c r="C9" t="n">
-        <v>144.738802</v>
+        <v>144.774297</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.816363</v>
+        <v>-37.711211</v>
       </c>
       <c r="C10" t="n">
-        <v>145.06656</v>
+        <v>144.738802</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-38.102082</v>
+        <v>-37.816363</v>
       </c>
       <c r="C11" t="n">
-        <v>145.265397</v>
+        <v>145.06656</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.684606</v>
+        <v>-38.102082</v>
       </c>
       <c r="C12" t="n">
-        <v>144.760227</v>
+        <v>145.265397</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.715384</v>
+        <v>-37.684606</v>
       </c>
       <c r="C13" t="n">
-        <v>144.811994</v>
+        <v>144.760227</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,410 +607,410 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.738834</v>
+        <v>-37.715384</v>
       </c>
       <c r="C14" t="n">
-        <v>145.030187</v>
+        <v>144.811994</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-38.075826</v>
+        <v>-37.738834</v>
       </c>
       <c r="C15" t="n">
-        <v>145.473885</v>
+        <v>145.030187</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.837404</v>
+        <v>-38.075826</v>
       </c>
       <c r="C16" t="n">
-        <v>144.996291</v>
+        <v>145.473885</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.898104</v>
+        <v>-37.837404</v>
       </c>
       <c r="C17" t="n">
-        <v>145.160876</v>
+        <v>144.996291</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.890643</v>
+        <v>-37.898104</v>
       </c>
       <c r="C18" t="n">
-        <v>145.062546</v>
+        <v>145.160876</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.8135</v>
+        <v>-37.890643</v>
       </c>
       <c r="C19" t="n">
-        <v>144.969933</v>
+        <v>145.062546</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.581295</v>
+        <v>-37.8135</v>
       </c>
       <c r="C20" t="n">
-        <v>144.738024</v>
+        <v>144.969933</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.744387</v>
+        <v>-37.581295</v>
       </c>
       <c r="C21" t="n">
-        <v>144.774297</v>
+        <v>144.738024</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.735247</v>
+        <v>-37.744387</v>
       </c>
       <c r="C22" t="n">
-        <v>144.917023</v>
+        <v>144.774297</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.975685</v>
+        <v>-37.735247</v>
       </c>
       <c r="C23" t="n">
-        <v>145.216529</v>
+        <v>144.917023</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.688119</v>
+        <v>-37.975685</v>
       </c>
       <c r="C24" t="n">
-        <v>144.884379</v>
+        <v>145.216529</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.691402</v>
+        <v>-37.688119</v>
       </c>
       <c r="C25" t="n">
-        <v>145.213889</v>
+        <v>144.884379</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.760449</v>
+        <v>-37.691402</v>
       </c>
       <c r="C26" t="n">
-        <v>145.348691</v>
+        <v>145.213889</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-38.085076</v>
+        <v>-37.760449</v>
       </c>
       <c r="C27" t="n">
-        <v>145.46966</v>
+        <v>145.348691</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.740107</v>
+        <v>-38.085076</v>
       </c>
       <c r="C28" t="n">
-        <v>144.956047</v>
+        <v>145.46966</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.772859</v>
+        <v>-37.740107</v>
       </c>
       <c r="C29" t="n">
-        <v>145.294713</v>
+        <v>144.956047</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.798171</v>
+        <v>-37.772859</v>
       </c>
       <c r="C30" t="n">
-        <v>144.956665</v>
+        <v>145.294713</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-38.012111</v>
+        <v>-37.798171</v>
       </c>
       <c r="C31" t="n">
-        <v>145.090154</v>
+        <v>144.956665</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-36.732518</v>
+        <v>-38.012111</v>
       </c>
       <c r="C32" t="n">
-        <v>146.967357</v>
+        <v>145.090154</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.811362</v>
+        <v>-36.732518</v>
       </c>
       <c r="C33" t="n">
-        <v>144.973203</v>
+        <v>146.967357</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.927427</v>
+        <v>-37.811362</v>
       </c>
       <c r="C34" t="n">
-        <v>145.116157</v>
+        <v>144.973203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.571236</v>
+        <v>-37.927427</v>
       </c>
       <c r="C35" t="n">
-        <v>144.90978</v>
+        <v>145.116157</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.685249</v>
+        <v>-37.571236</v>
       </c>
       <c r="C36" t="n">
-        <v>144.92446</v>
+        <v>144.90978</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1021,68 +1021,68 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.704175</v>
+        <v>-37.685249</v>
       </c>
       <c r="C37" t="n">
-        <v>144.998741</v>
+        <v>144.92446</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.726306</v>
+        <v>-37.704175</v>
       </c>
       <c r="C38" t="n">
-        <v>145.069914</v>
+        <v>144.998741</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C39" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.8163949</v>
+        <v>-37.801332</v>
       </c>
       <c r="C40" t="n">
-        <v>144.9526066</v>
+        <v>144.963635</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,72 +1093,72 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C41" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C42" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.836082</v>
+        <v>-37.801332</v>
       </c>
       <c r="C43" t="n">
-        <v>144.915383</v>
+        <v>144.963635</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C44" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -1183,36 +1183,36 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C46" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C47" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
@@ -1237,50 +1237,50 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C49" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.756286</v>
+        <v>-37.841635</v>
       </c>
       <c r="C50" t="n">
-        <v>144.811104</v>
+        <v>145.086235</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.715384</v>
+        <v>-37.756286</v>
       </c>
       <c r="C51" t="n">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1291,212 +1291,212 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.884267</v>
+        <v>-37.715384</v>
       </c>
       <c r="C52" t="n">
-        <v>145.017115</v>
+        <v>144.811994</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-36.314871</v>
+        <v>-37.884267</v>
       </c>
       <c r="C53" t="n">
-        <v>145.04197</v>
+        <v>145.017115</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.92849</v>
+        <v>-36.314871</v>
       </c>
       <c r="C54" t="n">
-        <v>145.007454</v>
+        <v>145.04197</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.841635</v>
+        <v>-37.92849</v>
       </c>
       <c r="C55" t="n">
-        <v>145.086235</v>
+        <v>145.007454</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.884267</v>
+        <v>-37.841635</v>
       </c>
       <c r="C56" t="n">
-        <v>145.017115</v>
+        <v>145.086235</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.69261</v>
+        <v>-37.884267</v>
       </c>
       <c r="C57" t="n">
-        <v>145.063821</v>
+        <v>145.017115</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.689223</v>
+        <v>-37.69261</v>
       </c>
       <c r="C58" t="n">
-        <v>144.604708</v>
+        <v>145.063821</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.843632</v>
+        <v>-37.689223</v>
       </c>
       <c r="C59" t="n">
-        <v>144.781559</v>
+        <v>144.604708</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.730748</v>
+        <v>-37.843632</v>
       </c>
       <c r="C60" t="n">
-        <v>145.086489</v>
+        <v>144.781559</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.702513</v>
+        <v>-37.730748</v>
       </c>
       <c r="C61" t="n">
-        <v>144.802326</v>
+        <v>145.086489</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.673996</v>
+        <v>-37.702513</v>
       </c>
       <c r="C62" t="n">
-        <v>144.955354</v>
+        <v>144.802326</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.576594</v>
+        <v>-37.673996</v>
       </c>
       <c r="C63" t="n">
-        <v>144.728665</v>
+        <v>144.955354</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1507,32 +1507,32 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.879995</v>
+        <v>-37.576594</v>
       </c>
       <c r="C64" t="n">
-        <v>144.701577</v>
+        <v>144.728665</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.834014</v>
+        <v>-37.879995</v>
       </c>
       <c r="C65" t="n">
-        <v>144.652853</v>
+        <v>144.701577</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1543,50 +1543,50 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.942099</v>
+        <v>-37.834014</v>
       </c>
       <c r="C66" t="n">
-        <v>145.167684</v>
+        <v>144.652853</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.664667</v>
+        <v>-37.942099</v>
       </c>
       <c r="C67" t="n">
-        <v>144.74749</v>
+        <v>145.167684</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.665417</v>
+        <v>-37.664667</v>
       </c>
       <c r="C68" t="n">
-        <v>144.753359</v>
+        <v>144.74749</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1597,194 +1597,194 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.73899</v>
+        <v>-37.665417</v>
       </c>
       <c r="C69" t="n">
-        <v>144.679976</v>
+        <v>144.753359</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.596123</v>
+        <v>-37.73899</v>
       </c>
       <c r="C70" t="n">
-        <v>144.921401</v>
+        <v>144.679976</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.77238</v>
+        <v>-37.596123</v>
       </c>
       <c r="C71" t="n">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.783105</v>
+        <v>-37.77238</v>
       </c>
       <c r="C72" t="n">
-        <v>144.785398</v>
+        <v>144.888195</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.766147</v>
+        <v>-37.783105</v>
       </c>
       <c r="C73" t="n">
-        <v>145.020052</v>
+        <v>144.785398</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.689366</v>
+        <v>-37.766147</v>
       </c>
       <c r="C74" t="n">
-        <v>144.958878</v>
+        <v>145.020052</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.678278</v>
+        <v>-37.689366</v>
       </c>
       <c r="C75" t="n">
-        <v>144.432689</v>
+        <v>144.958878</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.810712</v>
+        <v>-37.678278</v>
       </c>
       <c r="C76" t="n">
-        <v>144.836118</v>
+        <v>144.432689</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C77" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.811678</v>
+        <v>-37.667111</v>
       </c>
       <c r="C78" t="n">
-        <v>144.889926</v>
+        <v>144.8334808</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.797177</v>
+        <v>-37.811678</v>
       </c>
       <c r="C79" t="n">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1795,108 +1795,108 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.759223</v>
+        <v>-37.797177</v>
       </c>
       <c r="C80" t="n">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.844318</v>
+        <v>-37.759223</v>
       </c>
       <c r="C81" t="n">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.813239</v>
+        <v>-37.844318</v>
       </c>
       <c r="C82" t="n">
-        <v>145.048047</v>
+        <v>145.009818</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.7769407</v>
+        <v>-37.813239</v>
       </c>
       <c r="C83" t="n">
-        <v>144.987025</v>
+        <v>145.048047</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.772096</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C84" t="n">
-        <v>144.916095</v>
+        <v>144.987025</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C85" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2011,104 +2011,104 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C92" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.800963</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C93" t="n">
-        <v>145.0729384</v>
+        <v>144.983472</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.790783</v>
+        <v>-37.800963</v>
       </c>
       <c r="C94" t="n">
-        <v>144.998162</v>
+        <v>145.0729384</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.8249813</v>
+        <v>-37.790783</v>
       </c>
       <c r="C95" t="n">
-        <v>144.983613</v>
+        <v>144.998162</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.8411037</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C96" t="n">
-        <v>144.955806</v>
+        <v>144.983613</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C97" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2137,18 +2137,18 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C99" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -2173,86 +2173,86 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C101" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.809265</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C102" t="n">
-        <v>144.994951</v>
+        <v>145.0868276</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C103" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.7978092</v>
+        <v>-37.667111</v>
       </c>
       <c r="C104" t="n">
-        <v>144.9680124</v>
+        <v>144.8334808</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C105" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -2263,54 +2263,54 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C106" t="n">
-        <v>144.3568376</v>
+        <v>144.9526066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.028215</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C107" t="n">
-        <v>145.14336</v>
+        <v>144.3568376</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C108" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -2353,54 +2353,54 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C111" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C112" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C113" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
@@ -2425,36 +2425,36 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C115" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C116" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -2533,18 +2533,18 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C121" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -2579,6 +2579,24 @@
         <v>144.8334808</v>
       </c>
       <c r="D123" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C124" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D124" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,752 +391,752 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.764884</v>
+        <v>-37.655759</v>
       </c>
       <c r="C2" t="n">
-        <v>144.979606</v>
+        <v>145.032038</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.717149</v>
+        <v>-37.764884</v>
       </c>
       <c r="C3" t="n">
-        <v>144.808867</v>
+        <v>144.979606</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.718987</v>
+        <v>-37.717149</v>
       </c>
       <c r="C4" t="n">
-        <v>144.992857</v>
+        <v>144.808867</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.690602</v>
+        <v>-37.718987</v>
       </c>
       <c r="C5" t="n">
-        <v>144.869104</v>
+        <v>144.992857</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.814598</v>
+        <v>-37.778539</v>
       </c>
       <c r="C6" t="n">
-        <v>144.762011</v>
+        <v>144.875831</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.933332</v>
+        <v>-37.690602</v>
       </c>
       <c r="C7" t="n">
-        <v>145.000542</v>
+        <v>144.869104</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.773754</v>
+        <v>-37.814598</v>
       </c>
       <c r="C8" t="n">
-        <v>144.888956</v>
+        <v>144.762011</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.744387</v>
+        <v>-37.933332</v>
       </c>
       <c r="C9" t="n">
-        <v>144.774297</v>
+        <v>145.000542</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.711211</v>
+        <v>-37.773754</v>
       </c>
       <c r="C10" t="n">
-        <v>144.738802</v>
+        <v>144.888956</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.816363</v>
+        <v>-37.744387</v>
       </c>
       <c r="C11" t="n">
-        <v>145.06656</v>
+        <v>144.774297</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-38.102082</v>
+        <v>-37.711211</v>
       </c>
       <c r="C12" t="n">
-        <v>145.265397</v>
+        <v>144.738802</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.684606</v>
+        <v>-37.816363</v>
       </c>
       <c r="C13" t="n">
-        <v>144.760227</v>
+        <v>145.06656</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.715384</v>
+        <v>-38.102082</v>
       </c>
       <c r="C14" t="n">
-        <v>144.811994</v>
+        <v>145.265397</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.738834</v>
+        <v>-37.684606</v>
       </c>
       <c r="C15" t="n">
-        <v>145.030187</v>
+        <v>144.760227</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-38.075826</v>
+        <v>-37.715384</v>
       </c>
       <c r="C16" t="n">
-        <v>145.473885</v>
+        <v>144.811994</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.837404</v>
+        <v>-37.738834</v>
       </c>
       <c r="C17" t="n">
-        <v>144.996291</v>
+        <v>145.030187</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.898104</v>
+        <v>-38.075826</v>
       </c>
       <c r="C18" t="n">
-        <v>145.160876</v>
+        <v>145.473885</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.890643</v>
+        <v>-37.837404</v>
       </c>
       <c r="C19" t="n">
-        <v>145.062546</v>
+        <v>144.996291</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.8135</v>
+        <v>-37.898104</v>
       </c>
       <c r="C20" t="n">
-        <v>144.969933</v>
+        <v>145.160876</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.581295</v>
+        <v>-37.890643</v>
       </c>
       <c r="C21" t="n">
-        <v>144.738024</v>
+        <v>145.062546</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.744387</v>
+        <v>-37.8135</v>
       </c>
       <c r="C22" t="n">
-        <v>144.774297</v>
+        <v>144.969933</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.735247</v>
+        <v>-37.581295</v>
       </c>
       <c r="C23" t="n">
-        <v>144.917023</v>
+        <v>144.738024</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.975685</v>
+        <v>-37.744387</v>
       </c>
       <c r="C24" t="n">
-        <v>145.216529</v>
+        <v>144.774297</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.688119</v>
+        <v>-37.735247</v>
       </c>
       <c r="C25" t="n">
-        <v>144.884379</v>
+        <v>144.917023</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.691402</v>
+        <v>-37.975685</v>
       </c>
       <c r="C26" t="n">
-        <v>145.213889</v>
+        <v>145.216529</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.760449</v>
+        <v>-37.688119</v>
       </c>
       <c r="C27" t="n">
-        <v>145.348691</v>
+        <v>144.884379</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-38.085076</v>
+        <v>-37.691402</v>
       </c>
       <c r="C28" t="n">
-        <v>145.46966</v>
+        <v>145.213889</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.740107</v>
+        <v>-37.760449</v>
       </c>
       <c r="C29" t="n">
-        <v>144.956047</v>
+        <v>145.348691</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.772859</v>
+        <v>-38.085076</v>
       </c>
       <c r="C30" t="n">
-        <v>145.294713</v>
+        <v>145.46966</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.798171</v>
+        <v>-37.740107</v>
       </c>
       <c r="C31" t="n">
-        <v>144.956665</v>
+        <v>144.956047</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-38.012111</v>
+        <v>-37.772859</v>
       </c>
       <c r="C32" t="n">
-        <v>145.090154</v>
+        <v>145.294713</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-36.732518</v>
+        <v>-37.798171</v>
       </c>
       <c r="C33" t="n">
-        <v>146.967357</v>
+        <v>144.956665</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.811362</v>
+        <v>-38.012111</v>
       </c>
       <c r="C34" t="n">
-        <v>144.973203</v>
+        <v>145.090154</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.927427</v>
+        <v>-36.732518</v>
       </c>
       <c r="C35" t="n">
-        <v>145.116157</v>
+        <v>146.967357</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.571236</v>
+        <v>-37.811362</v>
       </c>
       <c r="C36" t="n">
-        <v>144.90978</v>
+        <v>144.973203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.685249</v>
+        <v>-37.927427</v>
       </c>
       <c r="C37" t="n">
-        <v>144.92446</v>
+        <v>145.116157</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.704175</v>
+        <v>-37.571236</v>
       </c>
       <c r="C38" t="n">
-        <v>144.998741</v>
+        <v>144.90978</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.726306</v>
+        <v>-37.685249</v>
       </c>
       <c r="C39" t="n">
-        <v>145.069914</v>
+        <v>144.92446</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C40" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.8163949</v>
+        <v>-37.726306</v>
       </c>
       <c r="C41" t="n">
-        <v>144.9526066</v>
+        <v>145.069914</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.667111</v>
+        <v>-37.801332</v>
       </c>
       <c r="C42" t="n">
-        <v>144.8334808</v>
+        <v>144.963635</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C43" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1147,18 +1147,18 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.836082</v>
+        <v>-37.667111</v>
       </c>
       <c r="C44" t="n">
-        <v>144.915383</v>
+        <v>144.8334808</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -1183,36 +1183,36 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C46" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C47" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -1237,702 +1237,702 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C49" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C50" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C51" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.715384</v>
+        <v>-37.841635</v>
       </c>
       <c r="C52" t="n">
-        <v>144.811994</v>
+        <v>145.086235</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.884267</v>
+        <v>-37.756286</v>
       </c>
       <c r="C53" t="n">
-        <v>145.017115</v>
+        <v>144.811104</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-36.314871</v>
+        <v>-37.715384</v>
       </c>
       <c r="C54" t="n">
-        <v>145.04197</v>
+        <v>144.811994</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.92849</v>
+        <v>-37.884267</v>
       </c>
       <c r="C55" t="n">
-        <v>145.007454</v>
+        <v>145.017115</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.841635</v>
+        <v>-36.314871</v>
       </c>
       <c r="C56" t="n">
-        <v>145.086235</v>
+        <v>145.04197</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.884267</v>
+        <v>-37.92849</v>
       </c>
       <c r="C57" t="n">
-        <v>145.017115</v>
+        <v>145.007454</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.69261</v>
+        <v>-37.841635</v>
       </c>
       <c r="C58" t="n">
-        <v>145.063821</v>
+        <v>145.086235</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.689223</v>
+        <v>-37.884267</v>
       </c>
       <c r="C59" t="n">
-        <v>144.604708</v>
+        <v>145.017115</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.843632</v>
+        <v>-37.69261</v>
       </c>
       <c r="C60" t="n">
-        <v>144.781559</v>
+        <v>145.063821</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.730748</v>
+        <v>-37.689223</v>
       </c>
       <c r="C61" t="n">
-        <v>145.086489</v>
+        <v>144.604708</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.702513</v>
+        <v>-37.843632</v>
       </c>
       <c r="C62" t="n">
-        <v>144.802326</v>
+        <v>144.781559</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.673996</v>
+        <v>-37.730748</v>
       </c>
       <c r="C63" t="n">
-        <v>144.955354</v>
+        <v>145.086489</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.576594</v>
+        <v>-37.702513</v>
       </c>
       <c r="C64" t="n">
-        <v>144.728665</v>
+        <v>144.802326</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.879995</v>
+        <v>-37.673996</v>
       </c>
       <c r="C65" t="n">
-        <v>144.701577</v>
+        <v>144.955354</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.834014</v>
+        <v>-37.576594</v>
       </c>
       <c r="C66" t="n">
-        <v>144.652853</v>
+        <v>144.728665</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.942099</v>
+        <v>-37.879995</v>
       </c>
       <c r="C67" t="n">
-        <v>145.167684</v>
+        <v>144.701577</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.664667</v>
+        <v>-37.834014</v>
       </c>
       <c r="C68" t="n">
-        <v>144.74749</v>
+        <v>144.652853</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.665417</v>
+        <v>-37.942099</v>
       </c>
       <c r="C69" t="n">
-        <v>144.753359</v>
+        <v>145.167684</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.73899</v>
+        <v>-37.664667</v>
       </c>
       <c r="C70" t="n">
-        <v>144.679976</v>
+        <v>144.74749</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.596123</v>
+        <v>-37.665417</v>
       </c>
       <c r="C71" t="n">
-        <v>144.921401</v>
+        <v>144.753359</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.77238</v>
+        <v>-37.73899</v>
       </c>
       <c r="C72" t="n">
-        <v>144.888195</v>
+        <v>144.679976</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.783105</v>
+        <v>-37.596123</v>
       </c>
       <c r="C73" t="n">
-        <v>144.785398</v>
+        <v>144.921401</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.766147</v>
+        <v>-37.77238</v>
       </c>
       <c r="C74" t="n">
-        <v>145.020052</v>
+        <v>144.888195</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.689366</v>
+        <v>-37.783105</v>
       </c>
       <c r="C75" t="n">
-        <v>144.958878</v>
+        <v>144.785398</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.678278</v>
+        <v>-37.766147</v>
       </c>
       <c r="C76" t="n">
-        <v>144.432689</v>
+        <v>145.020052</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.810712</v>
+        <v>-37.689366</v>
       </c>
       <c r="C77" t="n">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.667111</v>
+        <v>-37.678278</v>
       </c>
       <c r="C78" t="n">
-        <v>144.8334808</v>
+        <v>144.432689</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.811678</v>
+        <v>-37.810712</v>
       </c>
       <c r="C79" t="n">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.797177</v>
+        <v>-37.667111</v>
       </c>
       <c r="C80" t="n">
-        <v>144.894632</v>
+        <v>144.8334808</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.759223</v>
+        <v>-37.811678</v>
       </c>
       <c r="C81" t="n">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.844318</v>
+        <v>-37.797177</v>
       </c>
       <c r="C82" t="n">
-        <v>145.009818</v>
+        <v>144.894632</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.813239</v>
+        <v>-37.759223</v>
       </c>
       <c r="C83" t="n">
-        <v>145.048047</v>
+        <v>144.816754</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.7769407</v>
+        <v>-37.844318</v>
       </c>
       <c r="C84" t="n">
-        <v>144.987025</v>
+        <v>145.009818</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.772096</v>
+        <v>-37.813239</v>
       </c>
       <c r="C85" t="n">
-        <v>144.916095</v>
+        <v>145.048047</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C86" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C87" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2029,122 +2029,122 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C93" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C94" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.790783</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C95" t="n">
-        <v>144.998162</v>
+        <v>144.983472</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.8249813</v>
+        <v>-37.800963</v>
       </c>
       <c r="C96" t="n">
-        <v>144.983613</v>
+        <v>145.0729384</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.8411037</v>
+        <v>-37.790783</v>
       </c>
       <c r="C97" t="n">
-        <v>144.955806</v>
+        <v>144.998162</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C98" t="n">
-        <v>144.9564881</v>
+        <v>144.983613</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C99" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2155,198 +2155,198 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C100" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C101" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C102" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.809265</v>
+        <v>-38.199003</v>
       </c>
       <c r="C103" t="n">
-        <v>144.994951</v>
+        <v>144.318418</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.667111</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C104" t="n">
-        <v>144.8334808</v>
+        <v>145.0868276</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.7978092</v>
+        <v>-37.809265</v>
       </c>
       <c r="C105" t="n">
-        <v>144.9680124</v>
+        <v>144.994951</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C106" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-38.1450096</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C107" t="n">
-        <v>144.3568376</v>
+        <v>144.9680124</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.028215</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C108" t="n">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C109" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C110" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -2371,126 +2371,126 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C112" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C113" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C114" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C115" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C116" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C117" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C118" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -2551,36 +2551,36 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C122" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C123" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -2597,6 +2597,42 @@
         <v>144.8334808</v>
       </c>
       <c r="D124" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C125" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C126" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D126" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,14 +391,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.655759</v>
+        <v>-37.658638</v>
       </c>
       <c r="C2" t="n">
-        <v>145.032038</v>
+        <v>145.076922</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -409,140 +409,140 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.764884</v>
+        <v>-37.675501</v>
       </c>
       <c r="C3" t="n">
-        <v>144.979606</v>
+        <v>145.135999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.717149</v>
+        <v>-37.819298</v>
       </c>
       <c r="C4" t="n">
-        <v>144.808867</v>
+        <v>145.129263</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.718987</v>
+        <v>-37.791185</v>
       </c>
       <c r="C5" t="n">
-        <v>144.992857</v>
+        <v>144.886937</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.778539</v>
+        <v>-37.655759</v>
       </c>
       <c r="C6" t="n">
-        <v>144.875831</v>
+        <v>145.032038</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.690602</v>
+        <v>-37.764884</v>
       </c>
       <c r="C7" t="n">
-        <v>144.869104</v>
+        <v>144.979606</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.814598</v>
+        <v>-37.717149</v>
       </c>
       <c r="C8" t="n">
-        <v>144.762011</v>
+        <v>144.808867</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.933332</v>
+        <v>-37.718987</v>
       </c>
       <c r="C9" t="n">
-        <v>145.000542</v>
+        <v>144.992857</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.773754</v>
+        <v>-37.778539</v>
       </c>
       <c r="C10" t="n">
-        <v>144.888956</v>
+        <v>144.875831</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -553,86 +553,86 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.744387</v>
+        <v>-37.690602</v>
       </c>
       <c r="C11" t="n">
-        <v>144.774297</v>
+        <v>144.869104</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.711211</v>
+        <v>-37.814598</v>
       </c>
       <c r="C12" t="n">
-        <v>144.738802</v>
+        <v>144.762011</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.816363</v>
+        <v>-37.933332</v>
       </c>
       <c r="C13" t="n">
-        <v>145.06656</v>
+        <v>145.000542</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-38.102082</v>
+        <v>-37.773754</v>
       </c>
       <c r="C14" t="n">
-        <v>145.265397</v>
+        <v>144.888956</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.684606</v>
+        <v>-37.744387</v>
       </c>
       <c r="C15" t="n">
-        <v>144.760227</v>
+        <v>144.774297</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -643,212 +643,212 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.715384</v>
+        <v>-37.711211</v>
       </c>
       <c r="C16" t="n">
-        <v>144.811994</v>
+        <v>144.738802</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.738834</v>
+        <v>-37.816363</v>
       </c>
       <c r="C17" t="n">
-        <v>145.030187</v>
+        <v>145.06656</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-38.075826</v>
+        <v>-38.102082</v>
       </c>
       <c r="C18" t="n">
-        <v>145.473885</v>
+        <v>145.265397</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.837404</v>
+        <v>-37.684606</v>
       </c>
       <c r="C19" t="n">
-        <v>144.996291</v>
+        <v>144.760227</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.898104</v>
+        <v>-37.715384</v>
       </c>
       <c r="C20" t="n">
-        <v>145.160876</v>
+        <v>144.811994</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.890643</v>
+        <v>-37.738834</v>
       </c>
       <c r="C21" t="n">
-        <v>145.062546</v>
+        <v>145.030187</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.8135</v>
+        <v>-38.075826</v>
       </c>
       <c r="C22" t="n">
-        <v>144.969933</v>
+        <v>145.473885</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.581295</v>
+        <v>-37.837404</v>
       </c>
       <c r="C23" t="n">
-        <v>144.738024</v>
+        <v>144.996291</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.744387</v>
+        <v>-37.898104</v>
       </c>
       <c r="C24" t="n">
-        <v>144.774297</v>
+        <v>145.160876</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.735247</v>
+        <v>-37.890643</v>
       </c>
       <c r="C25" t="n">
-        <v>144.917023</v>
+        <v>145.062546</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.975685</v>
+        <v>-37.8135</v>
       </c>
       <c r="C26" t="n">
-        <v>145.216529</v>
+        <v>144.969933</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.688119</v>
+        <v>-37.581295</v>
       </c>
       <c r="C27" t="n">
-        <v>144.884379</v>
+        <v>144.738024</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -859,356 +859,356 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.691402</v>
+        <v>-37.744387</v>
       </c>
       <c r="C28" t="n">
-        <v>145.213889</v>
+        <v>144.774297</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.760449</v>
+        <v>-37.735247</v>
       </c>
       <c r="C29" t="n">
-        <v>145.348691</v>
+        <v>144.917023</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-38.085076</v>
+        <v>-37.975685</v>
       </c>
       <c r="C30" t="n">
-        <v>145.46966</v>
+        <v>145.216529</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.740107</v>
+        <v>-37.688119</v>
       </c>
       <c r="C31" t="n">
-        <v>144.956047</v>
+        <v>144.884379</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.772859</v>
+        <v>-37.691402</v>
       </c>
       <c r="C32" t="n">
-        <v>145.294713</v>
+        <v>145.213889</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.798171</v>
+        <v>-37.760449</v>
       </c>
       <c r="C33" t="n">
-        <v>144.956665</v>
+        <v>145.348691</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-38.012111</v>
+        <v>-38.085076</v>
       </c>
       <c r="C34" t="n">
-        <v>145.090154</v>
+        <v>145.46966</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-36.732518</v>
+        <v>-37.740107</v>
       </c>
       <c r="C35" t="n">
-        <v>146.967357</v>
+        <v>144.956047</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.811362</v>
+        <v>-37.772859</v>
       </c>
       <c r="C36" t="n">
-        <v>144.973203</v>
+        <v>145.294713</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.927427</v>
+        <v>-37.798171</v>
       </c>
       <c r="C37" t="n">
-        <v>145.116157</v>
+        <v>144.956665</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.571236</v>
+        <v>-38.012111</v>
       </c>
       <c r="C38" t="n">
-        <v>144.90978</v>
+        <v>145.090154</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.685249</v>
+        <v>-36.732518</v>
       </c>
       <c r="C39" t="n">
-        <v>144.92446</v>
+        <v>146.967357</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.704175</v>
+        <v>-37.811362</v>
       </c>
       <c r="C40" t="n">
-        <v>144.998741</v>
+        <v>144.973203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.726306</v>
+        <v>-37.927427</v>
       </c>
       <c r="C41" t="n">
-        <v>145.069914</v>
+        <v>145.116157</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.801332</v>
+        <v>-37.571236</v>
       </c>
       <c r="C42" t="n">
-        <v>144.963635</v>
+        <v>144.90978</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.8163949</v>
+        <v>-37.685249</v>
       </c>
       <c r="C43" t="n">
-        <v>144.9526066</v>
+        <v>144.92446</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.667111</v>
+        <v>-37.704175</v>
       </c>
       <c r="C44" t="n">
-        <v>144.8334808</v>
+        <v>144.998741</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C45" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.836082</v>
+        <v>-37.801332</v>
       </c>
       <c r="C46" t="n">
-        <v>144.915383</v>
+        <v>144.963635</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C47" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1219,54 +1219,54 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C48" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C49" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C50" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -1291,126 +1291,126 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C52" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.756286</v>
+        <v>-37.837908</v>
       </c>
       <c r="C53" t="n">
-        <v>144.811104</v>
+        <v>144.786218</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C54" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C55" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-36.314871</v>
+        <v>-37.841635</v>
       </c>
       <c r="C56" t="n">
-        <v>145.04197</v>
+        <v>145.086235</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.92849</v>
+        <v>-37.756286</v>
       </c>
       <c r="C57" t="n">
-        <v>145.007454</v>
+        <v>144.811104</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.841635</v>
+        <v>-37.715384</v>
       </c>
       <c r="C58" t="n">
-        <v>145.086235</v>
+        <v>144.811994</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -1435,284 +1435,284 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.69261</v>
+        <v>-36.314871</v>
       </c>
       <c r="C60" t="n">
-        <v>145.063821</v>
+        <v>145.04197</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.689223</v>
+        <v>-37.92849</v>
       </c>
       <c r="C61" t="n">
-        <v>144.604708</v>
+        <v>145.007454</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.843632</v>
+        <v>-37.841635</v>
       </c>
       <c r="C62" t="n">
-        <v>144.781559</v>
+        <v>145.086235</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.730748</v>
+        <v>-37.884267</v>
       </c>
       <c r="C63" t="n">
-        <v>145.086489</v>
+        <v>145.017115</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.702513</v>
+        <v>-37.69261</v>
       </c>
       <c r="C64" t="n">
-        <v>144.802326</v>
+        <v>145.063821</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.673996</v>
+        <v>-37.689223</v>
       </c>
       <c r="C65" t="n">
-        <v>144.955354</v>
+        <v>144.604708</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.576594</v>
+        <v>-37.843632</v>
       </c>
       <c r="C66" t="n">
-        <v>144.728665</v>
+        <v>144.781559</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.879995</v>
+        <v>-37.730748</v>
       </c>
       <c r="C67" t="n">
-        <v>144.701577</v>
+        <v>145.086489</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.834014</v>
+        <v>-37.702513</v>
       </c>
       <c r="C68" t="n">
-        <v>144.652853</v>
+        <v>144.802326</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.942099</v>
+        <v>-37.673996</v>
       </c>
       <c r="C69" t="n">
-        <v>145.167684</v>
+        <v>144.955354</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.664667</v>
+        <v>-37.576594</v>
       </c>
       <c r="C70" t="n">
-        <v>144.74749</v>
+        <v>144.728665</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.665417</v>
+        <v>-37.879995</v>
       </c>
       <c r="C71" t="n">
-        <v>144.753359</v>
+        <v>144.701577</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.73899</v>
+        <v>-37.834014</v>
       </c>
       <c r="C72" t="n">
-        <v>144.679976</v>
+        <v>144.652853</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.596123</v>
+        <v>-37.942099</v>
       </c>
       <c r="C73" t="n">
-        <v>144.921401</v>
+        <v>145.167684</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.77238</v>
+        <v>-37.664667</v>
       </c>
       <c r="C74" t="n">
-        <v>144.888195</v>
+        <v>144.74749</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.783105</v>
+        <v>-37.665417</v>
       </c>
       <c r="C75" t="n">
-        <v>144.785398</v>
+        <v>144.753359</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -1723,32 +1723,32 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.766147</v>
+        <v>-37.73899</v>
       </c>
       <c r="C76" t="n">
-        <v>145.020052</v>
+        <v>144.679976</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.689366</v>
+        <v>-37.596123</v>
       </c>
       <c r="C77" t="n">
-        <v>144.958878</v>
+        <v>144.921401</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -1759,32 +1759,32 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.678278</v>
+        <v>-37.77238</v>
       </c>
       <c r="C78" t="n">
-        <v>144.432689</v>
+        <v>144.888195</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.810712</v>
+        <v>-37.783105</v>
       </c>
       <c r="C79" t="n">
-        <v>144.836118</v>
+        <v>144.785398</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1795,68 +1795,68 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.667111</v>
+        <v>-37.766147</v>
       </c>
       <c r="C80" t="n">
-        <v>144.8334808</v>
+        <v>145.020052</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.811678</v>
+        <v>-37.689366</v>
       </c>
       <c r="C81" t="n">
-        <v>144.889926</v>
+        <v>144.958878</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.797177</v>
+        <v>-37.678278</v>
       </c>
       <c r="C82" t="n">
-        <v>144.894632</v>
+        <v>144.432689</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.759223</v>
+        <v>-37.810712</v>
       </c>
       <c r="C83" t="n">
-        <v>144.816754</v>
+        <v>144.836118</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1867,144 +1867,144 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.844318</v>
+        <v>-37.667111</v>
       </c>
       <c r="C84" t="n">
-        <v>145.009818</v>
+        <v>144.8334808</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.813239</v>
+        <v>-37.811678</v>
       </c>
       <c r="C85" t="n">
-        <v>145.048047</v>
+        <v>144.889926</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.7769407</v>
+        <v>-37.797177</v>
       </c>
       <c r="C86" t="n">
-        <v>144.987025</v>
+        <v>144.894632</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.772096</v>
+        <v>-37.759223</v>
       </c>
       <c r="C87" t="n">
-        <v>144.916095</v>
+        <v>144.816754</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C88" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C89" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C90" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C91" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2065,504 +2065,504 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C95" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C96" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C97" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C98" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.8411037</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C99" t="n">
-        <v>144.955806</v>
+        <v>144.983472</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.8321731</v>
+        <v>-37.800963</v>
       </c>
       <c r="C100" t="n">
-        <v>144.9564881</v>
+        <v>145.0729384</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.8321731</v>
+        <v>-37.790783</v>
       </c>
       <c r="C101" t="n">
-        <v>144.9564881</v>
+        <v>144.998162</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-38.199003</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C102" t="n">
-        <v>144.318418</v>
+        <v>144.983613</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-38.199003</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C103" t="n">
-        <v>144.318418</v>
+        <v>144.955806</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C104" t="n">
-        <v>145.0868276</v>
+        <v>144.9564881</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.809265</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C105" t="n">
-        <v>144.994951</v>
+        <v>144.9564881</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.667111</v>
+        <v>-38.199003</v>
       </c>
       <c r="C106" t="n">
-        <v>144.8334808</v>
+        <v>144.318418</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.7978092</v>
+        <v>-38.199003</v>
       </c>
       <c r="C107" t="n">
-        <v>144.9680124</v>
+        <v>144.318418</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C108" t="n">
-        <v>144.9526066</v>
+        <v>145.0868276</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-38.1450096</v>
+        <v>-37.809265</v>
       </c>
       <c r="C109" t="n">
-        <v>144.3568376</v>
+        <v>144.994951</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.028215</v>
+        <v>-37.667111</v>
       </c>
       <c r="C110" t="n">
-        <v>145.14336</v>
+        <v>144.8334808</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.720557</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C111" t="n">
-        <v>145.048232</v>
+        <v>144.9680124</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.720557</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C112" t="n">
-        <v>145.048232</v>
+        <v>144.9526066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C113" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.667111</v>
+        <v>-37.028215</v>
       </c>
       <c r="C114" t="n">
-        <v>144.8334808</v>
+        <v>145.14336</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C115" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C116" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C117" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.8266608</v>
+        <v>-37.667111</v>
       </c>
       <c r="C118" t="n">
-        <v>145.0587903</v>
+        <v>144.8334808</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C119" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C120" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C121" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C122" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -2587,52 +2587,124 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C124" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C125" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C126" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C127" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B126" t="n">
+      <c r="B128" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C128" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C129" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C130" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D130" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,698 +391,698 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.658638</v>
+        <v>-37.798908</v>
       </c>
       <c r="C2" t="n">
-        <v>145.076922</v>
+        <v>144.956176</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.675501</v>
+        <v>-37.774352</v>
       </c>
       <c r="C3" t="n">
-        <v>145.135999</v>
+        <v>144.92733</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.819298</v>
+        <v>-37.755176</v>
       </c>
       <c r="C4" t="n">
-        <v>145.129263</v>
+        <v>144.90226</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.791185</v>
+        <v>-37.658638</v>
       </c>
       <c r="C5" t="n">
-        <v>144.886937</v>
+        <v>145.076922</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.655759</v>
+        <v>-37.675501</v>
       </c>
       <c r="C6" t="n">
-        <v>145.032038</v>
+        <v>145.135999</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.764884</v>
+        <v>-37.819298</v>
       </c>
       <c r="C7" t="n">
-        <v>144.979606</v>
+        <v>145.129263</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.717149</v>
+        <v>-37.791185</v>
       </c>
       <c r="C8" t="n">
-        <v>144.808867</v>
+        <v>144.886937</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.718987</v>
+        <v>-37.655759</v>
       </c>
       <c r="C9" t="n">
-        <v>144.992857</v>
+        <v>145.032038</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.778539</v>
+        <v>-37.764884</v>
       </c>
       <c r="C10" t="n">
-        <v>144.875831</v>
+        <v>144.979606</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.690602</v>
+        <v>-37.717149</v>
       </c>
       <c r="C11" t="n">
-        <v>144.869104</v>
+        <v>144.808867</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.814598</v>
+        <v>-37.718987</v>
       </c>
       <c r="C12" t="n">
-        <v>144.762011</v>
+        <v>144.992857</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.933332</v>
+        <v>-37.778539</v>
       </c>
       <c r="C13" t="n">
-        <v>145.000542</v>
+        <v>144.875831</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.773754</v>
+        <v>-37.690602</v>
       </c>
       <c r="C14" t="n">
-        <v>144.888956</v>
+        <v>144.869104</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.744387</v>
+        <v>-37.814598</v>
       </c>
       <c r="C15" t="n">
-        <v>144.774297</v>
+        <v>144.762011</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.711211</v>
+        <v>-37.933332</v>
       </c>
       <c r="C16" t="n">
-        <v>144.738802</v>
+        <v>145.000542</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.816363</v>
+        <v>-37.773754</v>
       </c>
       <c r="C17" t="n">
-        <v>145.06656</v>
+        <v>144.888956</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-38.102082</v>
+        <v>-37.744387</v>
       </c>
       <c r="C18" t="n">
-        <v>145.265397</v>
+        <v>144.774297</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.684606</v>
+        <v>-37.711211</v>
       </c>
       <c r="C19" t="n">
-        <v>144.760227</v>
+        <v>144.738802</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.715384</v>
+        <v>-37.816363</v>
       </c>
       <c r="C20" t="n">
-        <v>144.811994</v>
+        <v>145.06656</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.738834</v>
+        <v>-38.102082</v>
       </c>
       <c r="C21" t="n">
-        <v>145.030187</v>
+        <v>145.265397</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-38.075826</v>
+        <v>-37.684606</v>
       </c>
       <c r="C22" t="n">
-        <v>145.473885</v>
+        <v>144.760227</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.837404</v>
+        <v>-37.715384</v>
       </c>
       <c r="C23" t="n">
-        <v>144.996291</v>
+        <v>144.811994</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.898104</v>
+        <v>-37.738834</v>
       </c>
       <c r="C24" t="n">
-        <v>145.160876</v>
+        <v>145.030187</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.890643</v>
+        <v>-38.075826</v>
       </c>
       <c r="C25" t="n">
-        <v>145.062546</v>
+        <v>145.473885</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.8135</v>
+        <v>-37.837404</v>
       </c>
       <c r="C26" t="n">
-        <v>144.969933</v>
+        <v>144.996291</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.581295</v>
+        <v>-37.898104</v>
       </c>
       <c r="C27" t="n">
-        <v>144.738024</v>
+        <v>145.160876</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.744387</v>
+        <v>-37.890643</v>
       </c>
       <c r="C28" t="n">
-        <v>144.774297</v>
+        <v>145.062546</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.735247</v>
+        <v>-37.8135</v>
       </c>
       <c r="C29" t="n">
-        <v>144.917023</v>
+        <v>144.969933</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.975685</v>
+        <v>-37.581295</v>
       </c>
       <c r="C30" t="n">
-        <v>145.216529</v>
+        <v>144.738024</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.688119</v>
+        <v>-37.744387</v>
       </c>
       <c r="C31" t="n">
-        <v>144.884379</v>
+        <v>144.774297</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.691402</v>
+        <v>-37.735247</v>
       </c>
       <c r="C32" t="n">
-        <v>145.213889</v>
+        <v>144.917023</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.760449</v>
+        <v>-37.975685</v>
       </c>
       <c r="C33" t="n">
-        <v>145.348691</v>
+        <v>145.216529</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-38.085076</v>
+        <v>-37.688119</v>
       </c>
       <c r="C34" t="n">
-        <v>145.46966</v>
+        <v>144.884379</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.740107</v>
+        <v>-37.691402</v>
       </c>
       <c r="C35" t="n">
-        <v>144.956047</v>
+        <v>145.213889</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.772859</v>
+        <v>-37.760449</v>
       </c>
       <c r="C36" t="n">
-        <v>145.294713</v>
+        <v>145.348691</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.798171</v>
+        <v>-38.085076</v>
       </c>
       <c r="C37" t="n">
-        <v>144.956665</v>
+        <v>145.46966</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-38.012111</v>
+        <v>-37.740107</v>
       </c>
       <c r="C38" t="n">
-        <v>145.090154</v>
+        <v>144.956047</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-36.732518</v>
+        <v>-37.772859</v>
       </c>
       <c r="C39" t="n">
-        <v>146.967357</v>
+        <v>145.294713</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.811362</v>
+        <v>-37.798171</v>
       </c>
       <c r="C40" t="n">
-        <v>144.973203</v>
+        <v>144.956665</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,144 +1093,144 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.927427</v>
+        <v>-38.012111</v>
       </c>
       <c r="C41" t="n">
-        <v>145.116157</v>
+        <v>145.090154</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.571236</v>
+        <v>-36.732518</v>
       </c>
       <c r="C42" t="n">
-        <v>144.90978</v>
+        <v>146.967357</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.685249</v>
+        <v>-37.811362</v>
       </c>
       <c r="C43" t="n">
-        <v>144.92446</v>
+        <v>144.973203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.704175</v>
+        <v>-37.927427</v>
       </c>
       <c r="C44" t="n">
-        <v>144.998741</v>
+        <v>145.116157</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.726306</v>
+        <v>-37.571236</v>
       </c>
       <c r="C45" t="n">
-        <v>145.069914</v>
+        <v>144.90978</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C46" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.8163949</v>
+        <v>-37.704175</v>
       </c>
       <c r="C47" t="n">
-        <v>144.9526066</v>
+        <v>144.998741</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.667111</v>
+        <v>-37.726306</v>
       </c>
       <c r="C48" t="n">
-        <v>144.8334808</v>
+        <v>145.069914</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -1255,36 +1255,36 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.836082</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C50" t="n">
-        <v>144.915383</v>
+        <v>144.9526066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C51" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -1309,18 +1309,18 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.837908</v>
+        <v>-37.836082</v>
       </c>
       <c r="C53" t="n">
-        <v>144.786218</v>
+        <v>144.915383</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -1363,212 +1363,212 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.841635</v>
+        <v>-37.837908</v>
       </c>
       <c r="C56" t="n">
-        <v>145.086235</v>
+        <v>144.786218</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C57" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C58" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.884267</v>
+        <v>-37.841635</v>
       </c>
       <c r="C59" t="n">
-        <v>145.017115</v>
+        <v>145.086235</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-36.314871</v>
+        <v>-37.756286</v>
       </c>
       <c r="C60" t="n">
-        <v>145.04197</v>
+        <v>144.811104</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.92849</v>
+        <v>-37.715384</v>
       </c>
       <c r="C61" t="n">
-        <v>145.007454</v>
+        <v>144.811994</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.841635</v>
+        <v>-37.884267</v>
       </c>
       <c r="C62" t="n">
-        <v>145.086235</v>
+        <v>145.017115</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.884267</v>
+        <v>-36.314871</v>
       </c>
       <c r="C63" t="n">
-        <v>145.017115</v>
+        <v>145.04197</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.69261</v>
+        <v>-37.92849</v>
       </c>
       <c r="C64" t="n">
-        <v>145.063821</v>
+        <v>145.007454</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.689223</v>
+        <v>-37.841635</v>
       </c>
       <c r="C65" t="n">
-        <v>144.604708</v>
+        <v>145.086235</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.843632</v>
+        <v>-37.884267</v>
       </c>
       <c r="C66" t="n">
-        <v>144.781559</v>
+        <v>145.017115</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.730748</v>
+        <v>-37.69261</v>
       </c>
       <c r="C67" t="n">
-        <v>145.086489</v>
+        <v>145.063821</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1579,302 +1579,302 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.702513</v>
+        <v>-37.689223</v>
       </c>
       <c r="C68" t="n">
-        <v>144.802326</v>
+        <v>144.604708</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.673996</v>
+        <v>-37.843632</v>
       </c>
       <c r="C69" t="n">
-        <v>144.955354</v>
+        <v>144.781559</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.576594</v>
+        <v>-37.730748</v>
       </c>
       <c r="C70" t="n">
-        <v>144.728665</v>
+        <v>145.086489</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.879995</v>
+        <v>-37.702513</v>
       </c>
       <c r="C71" t="n">
-        <v>144.701577</v>
+        <v>144.802326</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.834014</v>
+        <v>-37.673996</v>
       </c>
       <c r="C72" t="n">
-        <v>144.652853</v>
+        <v>144.955354</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.942099</v>
+        <v>-37.576594</v>
       </c>
       <c r="C73" t="n">
-        <v>145.167684</v>
+        <v>144.728665</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.664667</v>
+        <v>-37.879995</v>
       </c>
       <c r="C74" t="n">
-        <v>144.74749</v>
+        <v>144.701577</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.665417</v>
+        <v>-37.834014</v>
       </c>
       <c r="C75" t="n">
-        <v>144.753359</v>
+        <v>144.652853</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.73899</v>
+        <v>-37.942099</v>
       </c>
       <c r="C76" t="n">
-        <v>144.679976</v>
+        <v>145.167684</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.596123</v>
+        <v>-37.664667</v>
       </c>
       <c r="C77" t="n">
-        <v>144.921401</v>
+        <v>144.74749</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.77238</v>
+        <v>-37.665417</v>
       </c>
       <c r="C78" t="n">
-        <v>144.888195</v>
+        <v>144.753359</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.783105</v>
+        <v>-37.73899</v>
       </c>
       <c r="C79" t="n">
-        <v>144.785398</v>
+        <v>144.679976</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.766147</v>
+        <v>-37.596123</v>
       </c>
       <c r="C80" t="n">
-        <v>145.020052</v>
+        <v>144.921401</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.689366</v>
+        <v>-37.77238</v>
       </c>
       <c r="C81" t="n">
-        <v>144.958878</v>
+        <v>144.888195</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.678278</v>
+        <v>-37.783105</v>
       </c>
       <c r="C82" t="n">
-        <v>144.432689</v>
+        <v>144.785398</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.810712</v>
+        <v>-37.766147</v>
       </c>
       <c r="C83" t="n">
-        <v>144.836118</v>
+        <v>145.020052</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.667111</v>
+        <v>-37.689366</v>
       </c>
       <c r="C84" t="n">
-        <v>144.8334808</v>
+        <v>144.958878</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1885,180 +1885,180 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.811678</v>
+        <v>-37.678278</v>
       </c>
       <c r="C85" t="n">
-        <v>144.889926</v>
+        <v>144.432689</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.797177</v>
+        <v>-37.810712</v>
       </c>
       <c r="C86" t="n">
-        <v>144.894632</v>
+        <v>144.836118</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.759223</v>
+        <v>-37.667111</v>
       </c>
       <c r="C87" t="n">
-        <v>144.816754</v>
+        <v>144.8334808</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.844318</v>
+        <v>-37.811678</v>
       </c>
       <c r="C88" t="n">
-        <v>145.009818</v>
+        <v>144.889926</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.813239</v>
+        <v>-37.797177</v>
       </c>
       <c r="C89" t="n">
-        <v>145.048047</v>
+        <v>144.894632</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.7769407</v>
+        <v>-37.759223</v>
       </c>
       <c r="C90" t="n">
-        <v>144.987025</v>
+        <v>144.816754</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.772096</v>
+        <v>-37.844318</v>
       </c>
       <c r="C91" t="n">
-        <v>144.916095</v>
+        <v>145.009818</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C92" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C93" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C94" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2137,68 +2137,68 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C99" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C100" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C101" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.8249813</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C102" t="n">
-        <v>144.983613</v>
+        <v>144.983472</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2209,414 +2209,414 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.8411037</v>
+        <v>-37.800963</v>
       </c>
       <c r="C103" t="n">
-        <v>144.955806</v>
+        <v>145.0729384</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.8321731</v>
+        <v>-37.790783</v>
       </c>
       <c r="C104" t="n">
-        <v>144.9564881</v>
+        <v>144.998162</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C105" t="n">
-        <v>144.9564881</v>
+        <v>144.983613</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-38.199003</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C106" t="n">
-        <v>144.318418</v>
+        <v>144.955806</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C107" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C108" t="n">
-        <v>145.0868276</v>
+        <v>144.9564881</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.809265</v>
+        <v>-38.199003</v>
       </c>
       <c r="C109" t="n">
-        <v>144.994951</v>
+        <v>144.318418</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.667111</v>
+        <v>-38.199003</v>
       </c>
       <c r="C110" t="n">
-        <v>144.8334808</v>
+        <v>144.318418</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C111" t="n">
-        <v>144.9680124</v>
+        <v>145.0868276</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.8163949</v>
+        <v>-37.809265</v>
       </c>
       <c r="C112" t="n">
-        <v>144.9526066</v>
+        <v>144.994951</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C113" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.028215</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C114" t="n">
-        <v>145.14336</v>
+        <v>144.9680124</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.720557</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C115" t="n">
-        <v>145.048232</v>
+        <v>144.9526066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C116" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C117" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C118" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C119" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C120" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C121" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.8266608</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C122" t="n">
-        <v>145.0587903</v>
+        <v>144.3568376</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C123" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C124" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C125" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -2659,52 +2659,106 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C128" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C129" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C130" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B130" t="n">
+      <c r="B131" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C131" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C132" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C133" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D133" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D133"/>
+  <dimension ref="A1:D142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,122 +391,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.798908</v>
+        <v>-37.812264</v>
       </c>
       <c r="C2" t="n">
-        <v>144.956176</v>
+        <v>144.991241</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.774352</v>
+        <v>-37.813934</v>
       </c>
       <c r="C3" t="n">
-        <v>144.92733</v>
+        <v>144.999135</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.755176</v>
+        <v>-37.81693</v>
       </c>
       <c r="C4" t="n">
-        <v>144.90226</v>
+        <v>144.962296</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.658638</v>
+        <v>-37.798908</v>
       </c>
       <c r="C5" t="n">
-        <v>145.076922</v>
+        <v>144.956176</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.675501</v>
+        <v>-37.875675</v>
       </c>
       <c r="C6" t="n">
-        <v>145.135999</v>
+        <v>144.79145</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.819298</v>
+        <v>-37.601756</v>
       </c>
       <c r="C7" t="n">
-        <v>145.129263</v>
+        <v>144.905386</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.791185</v>
+        <v>-37.778017</v>
       </c>
       <c r="C8" t="n">
-        <v>144.886937</v>
+        <v>144.889266</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,158 +517,158 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.655759</v>
+        <v>-37.799002</v>
       </c>
       <c r="C9" t="n">
-        <v>145.032038</v>
+        <v>144.894926</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.764884</v>
+        <v>-37.837112</v>
       </c>
       <c r="C10" t="n">
-        <v>144.979606</v>
+        <v>144.941595</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.717149</v>
+        <v>-37.854529</v>
       </c>
       <c r="C11" t="n">
-        <v>144.808867</v>
+        <v>144.721868</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.718987</v>
+        <v>-37.774352</v>
       </c>
       <c r="C12" t="n">
-        <v>144.992857</v>
+        <v>144.92733</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.778539</v>
+        <v>-37.755176</v>
       </c>
       <c r="C13" t="n">
-        <v>144.875831</v>
+        <v>144.90226</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.690602</v>
+        <v>-37.658638</v>
       </c>
       <c r="C14" t="n">
-        <v>144.869104</v>
+        <v>145.076922</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.814598</v>
+        <v>-37.675501</v>
       </c>
       <c r="C15" t="n">
-        <v>144.762011</v>
+        <v>145.135999</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.933332</v>
+        <v>-37.819298</v>
       </c>
       <c r="C16" t="n">
-        <v>145.000542</v>
+        <v>145.129263</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.773754</v>
+        <v>-37.791185</v>
       </c>
       <c r="C17" t="n">
-        <v>144.888956</v>
+        <v>144.886937</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -679,248 +679,248 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.744387</v>
+        <v>-37.655759</v>
       </c>
       <c r="C18" t="n">
-        <v>144.774297</v>
+        <v>145.032038</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.711211</v>
+        <v>-37.764884</v>
       </c>
       <c r="C19" t="n">
-        <v>144.738802</v>
+        <v>144.979606</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.816363</v>
+        <v>-37.717149</v>
       </c>
       <c r="C20" t="n">
-        <v>145.06656</v>
+        <v>144.808867</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-38.102082</v>
+        <v>-37.718987</v>
       </c>
       <c r="C21" t="n">
-        <v>145.265397</v>
+        <v>144.992857</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.684606</v>
+        <v>-37.778539</v>
       </c>
       <c r="C22" t="n">
-        <v>144.760227</v>
+        <v>144.875831</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.715384</v>
+        <v>-37.690602</v>
       </c>
       <c r="C23" t="n">
-        <v>144.811994</v>
+        <v>144.869104</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.738834</v>
+        <v>-37.814598</v>
       </c>
       <c r="C24" t="n">
-        <v>145.030187</v>
+        <v>144.762011</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-38.075826</v>
+        <v>-37.933332</v>
       </c>
       <c r="C25" t="n">
-        <v>145.473885</v>
+        <v>145.000542</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.837404</v>
+        <v>-37.773754</v>
       </c>
       <c r="C26" t="n">
-        <v>144.996291</v>
+        <v>144.888956</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.898104</v>
+        <v>-37.744387</v>
       </c>
       <c r="C27" t="n">
-        <v>145.160876</v>
+        <v>144.774297</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.890643</v>
+        <v>-37.711211</v>
       </c>
       <c r="C28" t="n">
-        <v>145.062546</v>
+        <v>144.738802</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.8135</v>
+        <v>-37.816363</v>
       </c>
       <c r="C29" t="n">
-        <v>144.969933</v>
+        <v>145.06656</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.581295</v>
+        <v>-38.102082</v>
       </c>
       <c r="C30" t="n">
-        <v>144.738024</v>
+        <v>145.265397</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.744387</v>
+        <v>-37.684606</v>
       </c>
       <c r="C31" t="n">
-        <v>144.774297</v>
+        <v>144.760227</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -931,320 +931,320 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.735247</v>
+        <v>-37.715384</v>
       </c>
       <c r="C32" t="n">
-        <v>144.917023</v>
+        <v>144.811994</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.975685</v>
+        <v>-37.738834</v>
       </c>
       <c r="C33" t="n">
-        <v>145.216529</v>
+        <v>145.030187</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.688119</v>
+        <v>-38.075826</v>
       </c>
       <c r="C34" t="n">
-        <v>144.884379</v>
+        <v>145.473885</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.691402</v>
+        <v>-37.837404</v>
       </c>
       <c r="C35" t="n">
-        <v>145.213889</v>
+        <v>144.996291</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.760449</v>
+        <v>-37.898104</v>
       </c>
       <c r="C36" t="n">
-        <v>145.348691</v>
+        <v>145.160876</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-38.085076</v>
+        <v>-37.890643</v>
       </c>
       <c r="C37" t="n">
-        <v>145.46966</v>
+        <v>145.062546</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.740107</v>
+        <v>-37.8135</v>
       </c>
       <c r="C38" t="n">
-        <v>144.956047</v>
+        <v>144.969933</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.772859</v>
+        <v>-37.581295</v>
       </c>
       <c r="C39" t="n">
-        <v>145.294713</v>
+        <v>144.738024</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.798171</v>
+        <v>-37.744387</v>
       </c>
       <c r="C40" t="n">
-        <v>144.956665</v>
+        <v>144.774297</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-38.012111</v>
+        <v>-37.735247</v>
       </c>
       <c r="C41" t="n">
-        <v>145.090154</v>
+        <v>144.917023</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-36.732518</v>
+        <v>-37.975685</v>
       </c>
       <c r="C42" t="n">
-        <v>146.967357</v>
+        <v>145.216529</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.811362</v>
+        <v>-37.688119</v>
       </c>
       <c r="C43" t="n">
-        <v>144.973203</v>
+        <v>144.884379</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.927427</v>
+        <v>-37.691402</v>
       </c>
       <c r="C44" t="n">
-        <v>145.116157</v>
+        <v>145.213889</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.571236</v>
+        <v>-37.760449</v>
       </c>
       <c r="C45" t="n">
-        <v>144.90978</v>
+        <v>145.348691</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.685249</v>
+        <v>-38.085076</v>
       </c>
       <c r="C46" t="n">
-        <v>144.92446</v>
+        <v>145.46966</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.704175</v>
+        <v>-37.740107</v>
       </c>
       <c r="C47" t="n">
-        <v>144.998741</v>
+        <v>144.956047</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.726306</v>
+        <v>-37.772859</v>
       </c>
       <c r="C48" t="n">
-        <v>145.069914</v>
+        <v>145.294713</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.801332</v>
+        <v>-37.798171</v>
       </c>
       <c r="C49" t="n">
-        <v>144.963635</v>
+        <v>144.956665</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1255,50 +1255,50 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.8163949</v>
+        <v>-38.012111</v>
       </c>
       <c r="C50" t="n">
-        <v>144.9526066</v>
+        <v>145.090154</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.667111</v>
+        <v>-36.732518</v>
       </c>
       <c r="C51" t="n">
-        <v>144.8334808</v>
+        <v>146.967357</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C52" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1309,90 +1309,90 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.836082</v>
+        <v>-37.927427</v>
       </c>
       <c r="C53" t="n">
-        <v>144.915383</v>
+        <v>145.116157</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.801332</v>
+        <v>-37.571236</v>
       </c>
       <c r="C54" t="n">
-        <v>144.963635</v>
+        <v>144.90978</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C55" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.837908</v>
+        <v>-37.704175</v>
       </c>
       <c r="C56" t="n">
-        <v>144.786218</v>
+        <v>144.998741</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C57" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -1417,500 +1417,500 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.841635</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C59" t="n">
-        <v>145.086235</v>
+        <v>144.9526066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.756286</v>
+        <v>-37.667111</v>
       </c>
       <c r="C60" t="n">
-        <v>144.811104</v>
+        <v>144.8334808</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C61" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.884267</v>
+        <v>-37.836082</v>
       </c>
       <c r="C62" t="n">
-        <v>145.017115</v>
+        <v>144.915383</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C63" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C64" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.841635</v>
+        <v>-37.837908</v>
       </c>
       <c r="C65" t="n">
-        <v>145.086235</v>
+        <v>144.786218</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C66" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.69261</v>
+        <v>-37.801332</v>
       </c>
       <c r="C67" t="n">
-        <v>145.063821</v>
+        <v>144.963635</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.689223</v>
+        <v>-37.841635</v>
       </c>
       <c r="C68" t="n">
-        <v>144.604708</v>
+        <v>145.086235</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.843632</v>
+        <v>-37.756286</v>
       </c>
       <c r="C69" t="n">
-        <v>144.781559</v>
+        <v>144.811104</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.730748</v>
+        <v>-37.715384</v>
       </c>
       <c r="C70" t="n">
-        <v>145.086489</v>
+        <v>144.811994</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.702513</v>
+        <v>-37.884267</v>
       </c>
       <c r="C71" t="n">
-        <v>144.802326</v>
+        <v>145.017115</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.673996</v>
+        <v>-36.314871</v>
       </c>
       <c r="C72" t="n">
-        <v>144.955354</v>
+        <v>145.04197</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.576594</v>
+        <v>-37.92849</v>
       </c>
       <c r="C73" t="n">
-        <v>144.728665</v>
+        <v>145.007454</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.879995</v>
+        <v>-37.841635</v>
       </c>
       <c r="C74" t="n">
-        <v>144.701577</v>
+        <v>145.086235</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.834014</v>
+        <v>-37.884267</v>
       </c>
       <c r="C75" t="n">
-        <v>144.652853</v>
+        <v>145.017115</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.942099</v>
+        <v>-37.69261</v>
       </c>
       <c r="C76" t="n">
-        <v>145.167684</v>
+        <v>145.063821</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.664667</v>
+        <v>-37.689223</v>
       </c>
       <c r="C77" t="n">
-        <v>144.74749</v>
+        <v>144.604708</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.665417</v>
+        <v>-37.843632</v>
       </c>
       <c r="C78" t="n">
-        <v>144.753359</v>
+        <v>144.781559</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.73899</v>
+        <v>-37.730748</v>
       </c>
       <c r="C79" t="n">
-        <v>144.679976</v>
+        <v>145.086489</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.596123</v>
+        <v>-37.702513</v>
       </c>
       <c r="C80" t="n">
-        <v>144.921401</v>
+        <v>144.802326</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.77238</v>
+        <v>-37.673996</v>
       </c>
       <c r="C81" t="n">
-        <v>144.888195</v>
+        <v>144.955354</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.783105</v>
+        <v>-37.576594</v>
       </c>
       <c r="C82" t="n">
-        <v>144.785398</v>
+        <v>144.728665</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.766147</v>
+        <v>-37.879995</v>
       </c>
       <c r="C83" t="n">
-        <v>145.020052</v>
+        <v>144.701577</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.689366</v>
+        <v>-37.834014</v>
       </c>
       <c r="C84" t="n">
-        <v>144.958878</v>
+        <v>144.652853</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.678278</v>
+        <v>-37.942099</v>
       </c>
       <c r="C85" t="n">
-        <v>144.432689</v>
+        <v>145.167684</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.810712</v>
+        <v>-37.664667</v>
       </c>
       <c r="C86" t="n">
-        <v>144.836118</v>
+        <v>144.74749</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1921,162 +1921,162 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.667111</v>
+        <v>-37.665417</v>
       </c>
       <c r="C87" t="n">
-        <v>144.8334808</v>
+        <v>144.753359</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.811678</v>
+        <v>-37.73899</v>
       </c>
       <c r="C88" t="n">
-        <v>144.889926</v>
+        <v>144.679976</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.797177</v>
+        <v>-37.596123</v>
       </c>
       <c r="C89" t="n">
-        <v>144.894632</v>
+        <v>144.921401</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.759223</v>
+        <v>-37.77238</v>
       </c>
       <c r="C90" t="n">
-        <v>144.816754</v>
+        <v>144.888195</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.844318</v>
+        <v>-37.783105</v>
       </c>
       <c r="C91" t="n">
-        <v>145.009818</v>
+        <v>144.785398</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.813239</v>
+        <v>-37.766147</v>
       </c>
       <c r="C92" t="n">
-        <v>145.048047</v>
+        <v>145.020052</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.7769407</v>
+        <v>-37.689366</v>
       </c>
       <c r="C93" t="n">
-        <v>144.987025</v>
+        <v>144.958878</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.772096</v>
+        <v>-37.678278</v>
       </c>
       <c r="C94" t="n">
-        <v>144.916095</v>
+        <v>144.432689</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C95" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -2101,320 +2101,320 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C97" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C98" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C99" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C100" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C101" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.8214527</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C102" t="n">
-        <v>144.983472</v>
+        <v>144.987025</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.800963</v>
+        <v>-37.772096</v>
       </c>
       <c r="C103" t="n">
-        <v>145.0729384</v>
+        <v>144.916095</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C104" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C105" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C106" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C107" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C108" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C109" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C110" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C111" t="n">
-        <v>145.0868276</v>
+        <v>144.983472</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.809265</v>
+        <v>-37.800963</v>
       </c>
       <c r="C112" t="n">
-        <v>144.994951</v>
+        <v>145.0729384</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.667111</v>
+        <v>-37.790783</v>
       </c>
       <c r="C113" t="n">
-        <v>144.8334808</v>
+        <v>144.998162</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C114" t="n">
-        <v>144.9680124</v>
+        <v>144.983613</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2425,158 +2425,158 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C115" t="n">
-        <v>144.9526066</v>
+        <v>144.955806</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C116" t="n">
-        <v>144.3568376</v>
+        <v>144.9564881</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.028215</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C117" t="n">
-        <v>145.14336</v>
+        <v>144.9564881</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C118" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C119" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.720557</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C120" t="n">
-        <v>145.048232</v>
+        <v>145.0868276</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C121" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C122" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C123" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2605,160 +2605,322 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.8266608</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C125" t="n">
-        <v>145.0587903</v>
+        <v>144.3568376</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.848232</v>
+        <v>-37.028215</v>
       </c>
       <c r="C126" t="n">
-        <v>145.005508</v>
+        <v>145.14336</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C127" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C128" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C129" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C130" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.667111</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C131" t="n">
-        <v>144.8334808</v>
+        <v>144.3568376</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C132" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>-37.8163949</v>
+      </c>
+      <c r="C133" t="n">
+        <v>144.9526066</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Melbourne (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>-37.8266608</v>
+      </c>
+      <c r="C134" t="n">
+        <v>145.0587903</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Boroondara (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C135" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C136" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C137" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C138" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C139" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B133" t="n">
+      <c r="B140" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C140" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C141" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C142" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D142" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D142"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,212 +391,212 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.812264</v>
+        <v>-37.704738</v>
       </c>
       <c r="C2" t="n">
-        <v>144.991241</v>
+        <v>144.86329</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.813934</v>
+        <v>-37.815499</v>
       </c>
       <c r="C3" t="n">
-        <v>144.999135</v>
+        <v>144.965882</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.81693</v>
+        <v>-37.724684</v>
       </c>
       <c r="C4" t="n">
-        <v>144.962296</v>
+        <v>144.940008</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.798908</v>
+        <v>-37.752048</v>
       </c>
       <c r="C5" t="n">
-        <v>144.956176</v>
+        <v>144.970526</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.875675</v>
+        <v>-37.787776</v>
       </c>
       <c r="C6" t="n">
-        <v>144.79145</v>
+        <v>144.829839</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.601756</v>
+        <v>-37.817826</v>
       </c>
       <c r="C7" t="n">
-        <v>144.905386</v>
+        <v>144.878737</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.778017</v>
+        <v>-37.785683</v>
       </c>
       <c r="C8" t="n">
-        <v>144.889266</v>
+        <v>144.994154</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.799002</v>
+        <v>-37.812264</v>
       </c>
       <c r="C9" t="n">
-        <v>144.894926</v>
+        <v>144.991241</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.837112</v>
+        <v>-37.813934</v>
       </c>
       <c r="C10" t="n">
-        <v>144.941595</v>
+        <v>144.999135</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.854529</v>
+        <v>-37.81693</v>
       </c>
       <c r="C11" t="n">
-        <v>144.721868</v>
+        <v>144.962296</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.774352</v>
+        <v>-37.798908</v>
       </c>
       <c r="C12" t="n">
-        <v>144.92733</v>
+        <v>144.956176</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.755176</v>
+        <v>-37.74954</v>
       </c>
       <c r="C13" t="n">
-        <v>144.90226</v>
+        <v>144.883252</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,68 +607,68 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.658638</v>
+        <v>-37.754926</v>
       </c>
       <c r="C14" t="n">
-        <v>145.076922</v>
+        <v>144.966324</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.675501</v>
+        <v>-37.875675</v>
       </c>
       <c r="C15" t="n">
-        <v>145.135999</v>
+        <v>144.79145</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.819298</v>
+        <v>-37.601756</v>
       </c>
       <c r="C16" t="n">
-        <v>145.129263</v>
+        <v>144.905386</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.791185</v>
+        <v>-37.778017</v>
       </c>
       <c r="C17" t="n">
-        <v>144.886937</v>
+        <v>144.889266</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -679,158 +679,158 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.655759</v>
+        <v>-37.799002</v>
       </c>
       <c r="C18" t="n">
-        <v>145.032038</v>
+        <v>144.894926</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.764884</v>
+        <v>-37.837112</v>
       </c>
       <c r="C19" t="n">
-        <v>144.979606</v>
+        <v>144.941595</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.717149</v>
+        <v>-37.854529</v>
       </c>
       <c r="C20" t="n">
-        <v>144.808867</v>
+        <v>144.721868</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.718987</v>
+        <v>-37.774352</v>
       </c>
       <c r="C21" t="n">
-        <v>144.992857</v>
+        <v>144.92733</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.778539</v>
+        <v>-37.755176</v>
       </c>
       <c r="C22" t="n">
-        <v>144.875831</v>
+        <v>144.90226</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.690602</v>
+        <v>-37.658638</v>
       </c>
       <c r="C23" t="n">
-        <v>144.869104</v>
+        <v>145.076922</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.814598</v>
+        <v>-37.675501</v>
       </c>
       <c r="C24" t="n">
-        <v>144.762011</v>
+        <v>145.135999</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.933332</v>
+        <v>-37.819298</v>
       </c>
       <c r="C25" t="n">
-        <v>145.000542</v>
+        <v>145.129263</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.773754</v>
+        <v>-37.791185</v>
       </c>
       <c r="C26" t="n">
-        <v>144.888956</v>
+        <v>144.886937</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,248 +841,248 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.744387</v>
+        <v>-37.655759</v>
       </c>
       <c r="C27" t="n">
-        <v>144.774297</v>
+        <v>145.032038</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.711211</v>
+        <v>-37.764884</v>
       </c>
       <c r="C28" t="n">
-        <v>144.738802</v>
+        <v>144.979606</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.816363</v>
+        <v>-37.717149</v>
       </c>
       <c r="C29" t="n">
-        <v>145.06656</v>
+        <v>144.808867</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-38.102082</v>
+        <v>-37.718987</v>
       </c>
       <c r="C30" t="n">
-        <v>145.265397</v>
+        <v>144.992857</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.684606</v>
+        <v>-37.778539</v>
       </c>
       <c r="C31" t="n">
-        <v>144.760227</v>
+        <v>144.875831</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.715384</v>
+        <v>-37.690602</v>
       </c>
       <c r="C32" t="n">
-        <v>144.811994</v>
+        <v>144.869104</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.738834</v>
+        <v>-37.814598</v>
       </c>
       <c r="C33" t="n">
-        <v>145.030187</v>
+        <v>144.762011</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-38.075826</v>
+        <v>-37.933332</v>
       </c>
       <c r="C34" t="n">
-        <v>145.473885</v>
+        <v>145.000542</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.837404</v>
+        <v>-37.773754</v>
       </c>
       <c r="C35" t="n">
-        <v>144.996291</v>
+        <v>144.888956</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.898104</v>
+        <v>-37.744387</v>
       </c>
       <c r="C36" t="n">
-        <v>145.160876</v>
+        <v>144.774297</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.890643</v>
+        <v>-37.711211</v>
       </c>
       <c r="C37" t="n">
-        <v>145.062546</v>
+        <v>144.738802</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.8135</v>
+        <v>-37.816363</v>
       </c>
       <c r="C38" t="n">
-        <v>144.969933</v>
+        <v>145.06656</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.581295</v>
+        <v>-38.102082</v>
       </c>
       <c r="C39" t="n">
-        <v>144.738024</v>
+        <v>145.265397</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.744387</v>
+        <v>-37.684606</v>
       </c>
       <c r="C40" t="n">
-        <v>144.774297</v>
+        <v>144.760227</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,320 +1093,320 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.735247</v>
+        <v>-37.715384</v>
       </c>
       <c r="C41" t="n">
-        <v>144.917023</v>
+        <v>144.811994</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.975685</v>
+        <v>-37.738834</v>
       </c>
       <c r="C42" t="n">
-        <v>145.216529</v>
+        <v>145.030187</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.688119</v>
+        <v>-38.075826</v>
       </c>
       <c r="C43" t="n">
-        <v>144.884379</v>
+        <v>145.473885</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.691402</v>
+        <v>-37.837404</v>
       </c>
       <c r="C44" t="n">
-        <v>145.213889</v>
+        <v>144.996291</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.760449</v>
+        <v>-37.898104</v>
       </c>
       <c r="C45" t="n">
-        <v>145.348691</v>
+        <v>145.160876</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-38.085076</v>
+        <v>-37.890643</v>
       </c>
       <c r="C46" t="n">
-        <v>145.46966</v>
+        <v>145.062546</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.740107</v>
+        <v>-37.8135</v>
       </c>
       <c r="C47" t="n">
-        <v>144.956047</v>
+        <v>144.969933</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.772859</v>
+        <v>-37.581295</v>
       </c>
       <c r="C48" t="n">
-        <v>145.294713</v>
+        <v>144.738024</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.798171</v>
+        <v>-37.744387</v>
       </c>
       <c r="C49" t="n">
-        <v>144.956665</v>
+        <v>144.774297</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-38.012111</v>
+        <v>-37.735247</v>
       </c>
       <c r="C50" t="n">
-        <v>145.090154</v>
+        <v>144.917023</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-36.732518</v>
+        <v>-37.975685</v>
       </c>
       <c r="C51" t="n">
-        <v>146.967357</v>
+        <v>145.216529</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.811362</v>
+        <v>-37.688119</v>
       </c>
       <c r="C52" t="n">
-        <v>144.973203</v>
+        <v>144.884379</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.927427</v>
+        <v>-37.691402</v>
       </c>
       <c r="C53" t="n">
-        <v>145.116157</v>
+        <v>145.213889</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.571236</v>
+        <v>-37.760449</v>
       </c>
       <c r="C54" t="n">
-        <v>144.90978</v>
+        <v>145.348691</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.685249</v>
+        <v>-38.085076</v>
       </c>
       <c r="C55" t="n">
-        <v>144.92446</v>
+        <v>145.46966</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.704175</v>
+        <v>-37.740107</v>
       </c>
       <c r="C56" t="n">
-        <v>144.998741</v>
+        <v>144.956047</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.726306</v>
+        <v>-37.772859</v>
       </c>
       <c r="C57" t="n">
-        <v>145.069914</v>
+        <v>145.294713</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.801332</v>
+        <v>-37.798171</v>
       </c>
       <c r="C58" t="n">
-        <v>144.963635</v>
+        <v>144.956665</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1417,50 +1417,50 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.8163949</v>
+        <v>-38.012111</v>
       </c>
       <c r="C59" t="n">
-        <v>144.9526066</v>
+        <v>145.090154</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.667111</v>
+        <v>-36.732518</v>
       </c>
       <c r="C60" t="n">
-        <v>144.8334808</v>
+        <v>146.967357</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C61" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1471,90 +1471,90 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.836082</v>
+        <v>-37.927427</v>
       </c>
       <c r="C62" t="n">
-        <v>144.915383</v>
+        <v>145.116157</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.801332</v>
+        <v>-37.571236</v>
       </c>
       <c r="C63" t="n">
-        <v>144.963635</v>
+        <v>144.90978</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C64" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.837908</v>
+        <v>-37.704175</v>
       </c>
       <c r="C65" t="n">
-        <v>144.786218</v>
+        <v>144.998741</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C66" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -1579,500 +1579,500 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.841635</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C68" t="n">
-        <v>145.086235</v>
+        <v>144.9526066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.756286</v>
+        <v>-37.667111</v>
       </c>
       <c r="C69" t="n">
-        <v>144.811104</v>
+        <v>144.8334808</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C70" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.884267</v>
+        <v>-37.836082</v>
       </c>
       <c r="C71" t="n">
-        <v>145.017115</v>
+        <v>144.915383</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C72" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C73" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.841635</v>
+        <v>-37.837908</v>
       </c>
       <c r="C74" t="n">
-        <v>145.086235</v>
+        <v>144.786218</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C75" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.69261</v>
+        <v>-37.801332</v>
       </c>
       <c r="C76" t="n">
-        <v>145.063821</v>
+        <v>144.963635</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.689223</v>
+        <v>-37.841635</v>
       </c>
       <c r="C77" t="n">
-        <v>144.604708</v>
+        <v>145.086235</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.843632</v>
+        <v>-37.756286</v>
       </c>
       <c r="C78" t="n">
-        <v>144.781559</v>
+        <v>144.811104</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.730748</v>
+        <v>-37.715384</v>
       </c>
       <c r="C79" t="n">
-        <v>145.086489</v>
+        <v>144.811994</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.702513</v>
+        <v>-37.884267</v>
       </c>
       <c r="C80" t="n">
-        <v>144.802326</v>
+        <v>145.017115</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.673996</v>
+        <v>-36.314871</v>
       </c>
       <c r="C81" t="n">
-        <v>144.955354</v>
+        <v>145.04197</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.576594</v>
+        <v>-37.92849</v>
       </c>
       <c r="C82" t="n">
-        <v>144.728665</v>
+        <v>145.007454</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.879995</v>
+        <v>-37.841635</v>
       </c>
       <c r="C83" t="n">
-        <v>144.701577</v>
+        <v>145.086235</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.834014</v>
+        <v>-37.884267</v>
       </c>
       <c r="C84" t="n">
-        <v>144.652853</v>
+        <v>145.017115</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.942099</v>
+        <v>-37.69261</v>
       </c>
       <c r="C85" t="n">
-        <v>145.167684</v>
+        <v>145.063821</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.664667</v>
+        <v>-37.689223</v>
       </c>
       <c r="C86" t="n">
-        <v>144.74749</v>
+        <v>144.604708</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.665417</v>
+        <v>-37.843632</v>
       </c>
       <c r="C87" t="n">
-        <v>144.753359</v>
+        <v>144.781559</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.73899</v>
+        <v>-37.730748</v>
       </c>
       <c r="C88" t="n">
-        <v>144.679976</v>
+        <v>145.086489</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.596123</v>
+        <v>-37.702513</v>
       </c>
       <c r="C89" t="n">
-        <v>144.921401</v>
+        <v>144.802326</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.77238</v>
+        <v>-37.673996</v>
       </c>
       <c r="C90" t="n">
-        <v>144.888195</v>
+        <v>144.955354</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.783105</v>
+        <v>-37.576594</v>
       </c>
       <c r="C91" t="n">
-        <v>144.785398</v>
+        <v>144.728665</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.766147</v>
+        <v>-37.879995</v>
       </c>
       <c r="C92" t="n">
-        <v>145.020052</v>
+        <v>144.701577</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.689366</v>
+        <v>-37.834014</v>
       </c>
       <c r="C93" t="n">
-        <v>144.958878</v>
+        <v>144.652853</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.678278</v>
+        <v>-37.942099</v>
       </c>
       <c r="C94" t="n">
-        <v>144.432689</v>
+        <v>145.167684</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.810712</v>
+        <v>-37.664667</v>
       </c>
       <c r="C95" t="n">
-        <v>144.836118</v>
+        <v>144.74749</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2083,162 +2083,162 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.667111</v>
+        <v>-37.665417</v>
       </c>
       <c r="C96" t="n">
-        <v>144.8334808</v>
+        <v>144.753359</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.811678</v>
+        <v>-37.73899</v>
       </c>
       <c r="C97" t="n">
-        <v>144.889926</v>
+        <v>144.679976</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.797177</v>
+        <v>-37.596123</v>
       </c>
       <c r="C98" t="n">
-        <v>144.894632</v>
+        <v>144.921401</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.759223</v>
+        <v>-37.77238</v>
       </c>
       <c r="C99" t="n">
-        <v>144.816754</v>
+        <v>144.888195</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.844318</v>
+        <v>-37.783105</v>
       </c>
       <c r="C100" t="n">
-        <v>145.009818</v>
+        <v>144.785398</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.813239</v>
+        <v>-37.766147</v>
       </c>
       <c r="C101" t="n">
-        <v>145.048047</v>
+        <v>145.020052</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.7769407</v>
+        <v>-37.689366</v>
       </c>
       <c r="C102" t="n">
-        <v>144.987025</v>
+        <v>144.958878</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.772096</v>
+        <v>-37.678278</v>
       </c>
       <c r="C103" t="n">
-        <v>144.916095</v>
+        <v>144.432689</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C104" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -2263,320 +2263,320 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C106" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C107" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C108" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C109" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C110" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.8214527</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C111" t="n">
-        <v>144.983472</v>
+        <v>144.987025</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.800963</v>
+        <v>-37.772096</v>
       </c>
       <c r="C112" t="n">
-        <v>145.0729384</v>
+        <v>144.916095</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C113" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C114" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C115" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C116" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C117" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C118" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C119" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C120" t="n">
-        <v>145.0868276</v>
+        <v>144.983472</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.809265</v>
+        <v>-37.800963</v>
       </c>
       <c r="C121" t="n">
-        <v>144.994951</v>
+        <v>145.0729384</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.667111</v>
+        <v>-37.790783</v>
       </c>
       <c r="C122" t="n">
-        <v>144.8334808</v>
+        <v>144.998162</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C123" t="n">
-        <v>144.9680124</v>
+        <v>144.983613</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -2587,158 +2587,158 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C124" t="n">
-        <v>144.9526066</v>
+        <v>144.955806</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C125" t="n">
-        <v>144.3568376</v>
+        <v>144.9564881</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.028215</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C126" t="n">
-        <v>145.14336</v>
+        <v>144.9564881</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C127" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C128" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.720557</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C129" t="n">
-        <v>145.048232</v>
+        <v>145.0868276</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C130" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C131" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C132" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2767,160 +2767,322 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.8266608</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C134" t="n">
-        <v>145.0587903</v>
+        <v>144.3568376</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.848232</v>
+        <v>-37.028215</v>
       </c>
       <c r="C135" t="n">
-        <v>145.005508</v>
+        <v>145.14336</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C136" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C137" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C138" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C139" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.667111</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C140" t="n">
-        <v>144.8334808</v>
+        <v>144.3568376</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C141" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>-37.8163949</v>
+      </c>
+      <c r="C142" t="n">
+        <v>144.9526066</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Melbourne (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-37.8266608</v>
+      </c>
+      <c r="C143" t="n">
+        <v>145.0587903</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Boroondara (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C144" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C145" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C146" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C147" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C148" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B142" t="n">
+      <c r="B149" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C149" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C150" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C151" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D151" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,356 +391,356 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.704738</v>
+        <v>-37.759288</v>
       </c>
       <c r="C2" t="n">
-        <v>144.86329</v>
+        <v>144.817921</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.815499</v>
+        <v>-37.817743</v>
       </c>
       <c r="C3" t="n">
-        <v>144.965882</v>
+        <v>144.992936</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.724684</v>
+        <v>-37.813381</v>
       </c>
       <c r="C4" t="n">
-        <v>144.940008</v>
+        <v>144.967076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.752048</v>
+        <v>-37.598146</v>
       </c>
       <c r="C5" t="n">
-        <v>144.970526</v>
+        <v>145.068782</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.787776</v>
+        <v>-37.704738</v>
       </c>
       <c r="C6" t="n">
-        <v>144.829839</v>
+        <v>144.86329</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.817826</v>
+        <v>-37.815499</v>
       </c>
       <c r="C7" t="n">
-        <v>144.878737</v>
+        <v>144.965882</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.785683</v>
+        <v>-37.724684</v>
       </c>
       <c r="C8" t="n">
-        <v>144.994154</v>
+        <v>144.940008</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.812264</v>
+        <v>-37.752048</v>
       </c>
       <c r="C9" t="n">
-        <v>144.991241</v>
+        <v>144.970526</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.813934</v>
+        <v>-37.787776</v>
       </c>
       <c r="C10" t="n">
-        <v>144.999135</v>
+        <v>144.829839</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.81693</v>
+        <v>-37.817826</v>
       </c>
       <c r="C11" t="n">
-        <v>144.962296</v>
+        <v>144.878737</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.798908</v>
+        <v>-37.785683</v>
       </c>
       <c r="C12" t="n">
-        <v>144.956176</v>
+        <v>144.994154</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.74954</v>
+        <v>-37.812264</v>
       </c>
       <c r="C13" t="n">
-        <v>144.883252</v>
+        <v>144.991241</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.754926</v>
+        <v>-37.813934</v>
       </c>
       <c r="C14" t="n">
-        <v>144.966324</v>
+        <v>144.999135</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.875675</v>
+        <v>-37.81693</v>
       </c>
       <c r="C15" t="n">
-        <v>144.79145</v>
+        <v>144.962296</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.601756</v>
+        <v>-37.798908</v>
       </c>
       <c r="C16" t="n">
-        <v>144.905386</v>
+        <v>144.956176</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.778017</v>
+        <v>-37.870336</v>
       </c>
       <c r="C17" t="n">
-        <v>144.889266</v>
+        <v>144.696569</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.799002</v>
+        <v>-37.735123</v>
       </c>
       <c r="C18" t="n">
-        <v>144.894926</v>
+        <v>144.738736</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.837112</v>
+        <v>-37.581979</v>
       </c>
       <c r="C19" t="n">
-        <v>144.941595</v>
+        <v>144.905951</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.854529</v>
+        <v>-37.71597</v>
       </c>
       <c r="C20" t="n">
-        <v>144.721868</v>
+        <v>144.935826</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.774352</v>
+        <v>-37.74954</v>
       </c>
       <c r="C21" t="n">
-        <v>144.92733</v>
+        <v>144.883252</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -751,86 +751,86 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.755176</v>
+        <v>-37.754926</v>
       </c>
       <c r="C22" t="n">
-        <v>144.90226</v>
+        <v>144.966324</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.658638</v>
+        <v>-37.875675</v>
       </c>
       <c r="C23" t="n">
-        <v>145.076922</v>
+        <v>144.79145</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.675501</v>
+        <v>-37.601756</v>
       </c>
       <c r="C24" t="n">
-        <v>145.135999</v>
+        <v>144.905386</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.819298</v>
+        <v>-37.778017</v>
       </c>
       <c r="C25" t="n">
-        <v>145.129263</v>
+        <v>144.889266</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.791185</v>
+        <v>-37.799002</v>
       </c>
       <c r="C26" t="n">
-        <v>144.886937</v>
+        <v>144.894926</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,410 +841,410 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.655759</v>
+        <v>-37.837112</v>
       </c>
       <c r="C27" t="n">
-        <v>145.032038</v>
+        <v>144.941595</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.764884</v>
+        <v>-37.854529</v>
       </c>
       <c r="C28" t="n">
-        <v>144.979606</v>
+        <v>144.721868</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.717149</v>
+        <v>-37.774352</v>
       </c>
       <c r="C29" t="n">
-        <v>144.808867</v>
+        <v>144.92733</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.718987</v>
+        <v>-37.755176</v>
       </c>
       <c r="C30" t="n">
-        <v>144.992857</v>
+        <v>144.90226</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.778539</v>
+        <v>-37.658638</v>
       </c>
       <c r="C31" t="n">
-        <v>144.875831</v>
+        <v>145.076922</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.690602</v>
+        <v>-37.675501</v>
       </c>
       <c r="C32" t="n">
-        <v>144.869104</v>
+        <v>145.135999</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.814598</v>
+        <v>-37.819298</v>
       </c>
       <c r="C33" t="n">
-        <v>144.762011</v>
+        <v>145.129263</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.933332</v>
+        <v>-37.791185</v>
       </c>
       <c r="C34" t="n">
-        <v>145.000542</v>
+        <v>144.886937</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.773754</v>
+        <v>-37.655759</v>
       </c>
       <c r="C35" t="n">
-        <v>144.888956</v>
+        <v>145.032038</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.744387</v>
+        <v>-37.764884</v>
       </c>
       <c r="C36" t="n">
-        <v>144.774297</v>
+        <v>144.979606</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.711211</v>
+        <v>-37.717149</v>
       </c>
       <c r="C37" t="n">
-        <v>144.738802</v>
+        <v>144.808867</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.816363</v>
+        <v>-37.718987</v>
       </c>
       <c r="C38" t="n">
-        <v>145.06656</v>
+        <v>144.992857</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-38.102082</v>
+        <v>-37.778539</v>
       </c>
       <c r="C39" t="n">
-        <v>145.265397</v>
+        <v>144.875831</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.684606</v>
+        <v>-37.690602</v>
       </c>
       <c r="C40" t="n">
-        <v>144.760227</v>
+        <v>144.869104</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.715384</v>
+        <v>-37.814598</v>
       </c>
       <c r="C41" t="n">
-        <v>144.811994</v>
+        <v>144.762011</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.738834</v>
+        <v>-37.933332</v>
       </c>
       <c r="C42" t="n">
-        <v>145.030187</v>
+        <v>145.000542</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-38.075826</v>
+        <v>-37.773754</v>
       </c>
       <c r="C43" t="n">
-        <v>145.473885</v>
+        <v>144.888956</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.837404</v>
+        <v>-37.744387</v>
       </c>
       <c r="C44" t="n">
-        <v>144.996291</v>
+        <v>144.774297</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.898104</v>
+        <v>-37.711211</v>
       </c>
       <c r="C45" t="n">
-        <v>145.160876</v>
+        <v>144.738802</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.890643</v>
+        <v>-37.816363</v>
       </c>
       <c r="C46" t="n">
-        <v>145.062546</v>
+        <v>145.06656</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.8135</v>
+        <v>-38.102082</v>
       </c>
       <c r="C47" t="n">
-        <v>144.969933</v>
+        <v>145.265397</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.581295</v>
+        <v>-37.684606</v>
       </c>
       <c r="C48" t="n">
-        <v>144.738024</v>
+        <v>144.760227</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.744387</v>
+        <v>-37.715384</v>
       </c>
       <c r="C49" t="n">
-        <v>144.774297</v>
+        <v>144.811994</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1255,450 +1255,450 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.735247</v>
+        <v>-37.738834</v>
       </c>
       <c r="C50" t="n">
-        <v>144.917023</v>
+        <v>145.030187</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.975685</v>
+        <v>-38.075826</v>
       </c>
       <c r="C51" t="n">
-        <v>145.216529</v>
+        <v>145.473885</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.688119</v>
+        <v>-37.837404</v>
       </c>
       <c r="C52" t="n">
-        <v>144.884379</v>
+        <v>144.996291</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.691402</v>
+        <v>-37.898104</v>
       </c>
       <c r="C53" t="n">
-        <v>145.213889</v>
+        <v>145.160876</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.760449</v>
+        <v>-37.890643</v>
       </c>
       <c r="C54" t="n">
-        <v>145.348691</v>
+        <v>145.062546</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-38.085076</v>
+        <v>-37.8135</v>
       </c>
       <c r="C55" t="n">
-        <v>145.46966</v>
+        <v>144.969933</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.740107</v>
+        <v>-37.581295</v>
       </c>
       <c r="C56" t="n">
-        <v>144.956047</v>
+        <v>144.738024</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.772859</v>
+        <v>-37.744387</v>
       </c>
       <c r="C57" t="n">
-        <v>145.294713</v>
+        <v>144.774297</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.798171</v>
+        <v>-37.735247</v>
       </c>
       <c r="C58" t="n">
-        <v>144.956665</v>
+        <v>144.917023</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-38.012111</v>
+        <v>-37.975685</v>
       </c>
       <c r="C59" t="n">
-        <v>145.090154</v>
+        <v>145.216529</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-36.732518</v>
+        <v>-37.688119</v>
       </c>
       <c r="C60" t="n">
-        <v>146.967357</v>
+        <v>144.884379</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.811362</v>
+        <v>-37.691402</v>
       </c>
       <c r="C61" t="n">
-        <v>144.973203</v>
+        <v>145.213889</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.927427</v>
+        <v>-37.760449</v>
       </c>
       <c r="C62" t="n">
-        <v>145.116157</v>
+        <v>145.348691</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.571236</v>
+        <v>-38.085076</v>
       </c>
       <c r="C63" t="n">
-        <v>144.90978</v>
+        <v>145.46966</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.685249</v>
+        <v>-37.740107</v>
       </c>
       <c r="C64" t="n">
-        <v>144.92446</v>
+        <v>144.956047</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.704175</v>
+        <v>-37.772859</v>
       </c>
       <c r="C65" t="n">
-        <v>144.998741</v>
+        <v>145.294713</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.726306</v>
+        <v>-37.798171</v>
       </c>
       <c r="C66" t="n">
-        <v>145.069914</v>
+        <v>144.956665</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.801332</v>
+        <v>-38.012111</v>
       </c>
       <c r="C67" t="n">
-        <v>144.963635</v>
+        <v>145.090154</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.8163949</v>
+        <v>-36.732518</v>
       </c>
       <c r="C68" t="n">
-        <v>144.9526066</v>
+        <v>146.967357</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.667111</v>
+        <v>-37.811362</v>
       </c>
       <c r="C69" t="n">
-        <v>144.8334808</v>
+        <v>144.973203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.801332</v>
+        <v>-37.927427</v>
       </c>
       <c r="C70" t="n">
-        <v>144.963635</v>
+        <v>145.116157</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.836082</v>
+        <v>-37.571236</v>
       </c>
       <c r="C71" t="n">
-        <v>144.915383</v>
+        <v>144.90978</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C72" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C73" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.837908</v>
+        <v>-37.726306</v>
       </c>
       <c r="C74" t="n">
-        <v>144.786218</v>
+        <v>145.069914</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -1723,14 +1723,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C76" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1741,392 +1741,392 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.841635</v>
+        <v>-37.667111</v>
       </c>
       <c r="C77" t="n">
-        <v>145.086235</v>
+        <v>144.8334808</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C78" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.715384</v>
+        <v>-37.836082</v>
       </c>
       <c r="C79" t="n">
-        <v>144.811994</v>
+        <v>144.915383</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C80" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C81" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.92849</v>
+        <v>-37.837908</v>
       </c>
       <c r="C82" t="n">
-        <v>145.007454</v>
+        <v>144.786218</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C83" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C84" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.69261</v>
+        <v>-37.841635</v>
       </c>
       <c r="C85" t="n">
-        <v>145.063821</v>
+        <v>145.086235</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.689223</v>
+        <v>-37.756286</v>
       </c>
       <c r="C86" t="n">
-        <v>144.604708</v>
+        <v>144.811104</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.843632</v>
+        <v>-37.715384</v>
       </c>
       <c r="C87" t="n">
-        <v>144.781559</v>
+        <v>144.811994</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.730748</v>
+        <v>-37.884267</v>
       </c>
       <c r="C88" t="n">
-        <v>145.086489</v>
+        <v>145.017115</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.702513</v>
+        <v>-36.314871</v>
       </c>
       <c r="C89" t="n">
-        <v>144.802326</v>
+        <v>145.04197</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.673996</v>
+        <v>-37.92849</v>
       </c>
       <c r="C90" t="n">
-        <v>144.955354</v>
+        <v>145.007454</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.576594</v>
+        <v>-37.841635</v>
       </c>
       <c r="C91" t="n">
-        <v>144.728665</v>
+        <v>145.086235</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.879995</v>
+        <v>-37.884267</v>
       </c>
       <c r="C92" t="n">
-        <v>144.701577</v>
+        <v>145.017115</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.834014</v>
+        <v>-37.69261</v>
       </c>
       <c r="C93" t="n">
-        <v>144.652853</v>
+        <v>145.063821</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.942099</v>
+        <v>-37.689223</v>
       </c>
       <c r="C94" t="n">
-        <v>145.167684</v>
+        <v>144.604708</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.664667</v>
+        <v>-37.843632</v>
       </c>
       <c r="C95" t="n">
-        <v>144.74749</v>
+        <v>144.781559</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.665417</v>
+        <v>-37.730748</v>
       </c>
       <c r="C96" t="n">
-        <v>144.753359</v>
+        <v>145.086489</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.73899</v>
+        <v>-37.702513</v>
       </c>
       <c r="C97" t="n">
-        <v>144.679976</v>
+        <v>144.802326</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.596123</v>
+        <v>-37.673996</v>
       </c>
       <c r="C98" t="n">
-        <v>144.921401</v>
+        <v>144.955354</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -2137,104 +2137,104 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.77238</v>
+        <v>-37.576594</v>
       </c>
       <c r="C99" t="n">
-        <v>144.888195</v>
+        <v>144.728665</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.783105</v>
+        <v>-37.879995</v>
       </c>
       <c r="C100" t="n">
-        <v>144.785398</v>
+        <v>144.701577</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.766147</v>
+        <v>-37.834014</v>
       </c>
       <c r="C101" t="n">
-        <v>145.020052</v>
+        <v>144.652853</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.689366</v>
+        <v>-37.942099</v>
       </c>
       <c r="C102" t="n">
-        <v>144.958878</v>
+        <v>145.167684</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.678278</v>
+        <v>-37.664667</v>
       </c>
       <c r="C103" t="n">
-        <v>144.432689</v>
+        <v>144.74749</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.810712</v>
+        <v>-37.665417</v>
       </c>
       <c r="C104" t="n">
-        <v>144.836118</v>
+        <v>144.753359</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2245,50 +2245,50 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.667111</v>
+        <v>-37.73899</v>
       </c>
       <c r="C105" t="n">
-        <v>144.8334808</v>
+        <v>144.679976</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.811678</v>
+        <v>-37.596123</v>
       </c>
       <c r="C106" t="n">
-        <v>144.889926</v>
+        <v>144.921401</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.797177</v>
+        <v>-37.77238</v>
       </c>
       <c r="C107" t="n">
-        <v>144.894632</v>
+        <v>144.888195</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2299,14 +2299,14 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.759223</v>
+        <v>-37.783105</v>
       </c>
       <c r="C108" t="n">
-        <v>144.816754</v>
+        <v>144.785398</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -2317,72 +2317,72 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.844318</v>
+        <v>-37.766147</v>
       </c>
       <c r="C109" t="n">
-        <v>145.009818</v>
+        <v>145.020052</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.813239</v>
+        <v>-37.689366</v>
       </c>
       <c r="C110" t="n">
-        <v>145.048047</v>
+        <v>144.958878</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.7769407</v>
+        <v>-37.678278</v>
       </c>
       <c r="C111" t="n">
-        <v>144.987025</v>
+        <v>144.432689</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.772096</v>
+        <v>-37.810712</v>
       </c>
       <c r="C112" t="n">
-        <v>144.916095</v>
+        <v>144.836118</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -2407,284 +2407,284 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C114" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C115" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C116" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C117" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C118" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C119" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.8214527</v>
+        <v>-37.772096</v>
       </c>
       <c r="C120" t="n">
-        <v>144.983472</v>
+        <v>144.916095</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C121" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C122" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C123" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C124" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C125" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C126" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C127" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-38.199003</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C128" t="n">
-        <v>144.318418</v>
+        <v>144.983472</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.8633444</v>
+        <v>-37.800963</v>
       </c>
       <c r="C129" t="n">
-        <v>145.0868276</v>
+        <v>145.0729384</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2695,14 +2695,14 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.809265</v>
+        <v>-37.790783</v>
       </c>
       <c r="C130" t="n">
-        <v>144.994951</v>
+        <v>144.998162</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2713,144 +2713,144 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.667111</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C131" t="n">
-        <v>144.8334808</v>
+        <v>144.983613</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C132" t="n">
-        <v>144.9680124</v>
+        <v>144.955806</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C133" t="n">
-        <v>144.9526066</v>
+        <v>144.9564881</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C134" t="n">
-        <v>144.3568376</v>
+        <v>144.9564881</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.028215</v>
+        <v>-38.199003</v>
       </c>
       <c r="C135" t="n">
-        <v>145.14336</v>
+        <v>144.318418</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C136" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.720557</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C137" t="n">
-        <v>145.048232</v>
+        <v>145.0868276</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.720557</v>
+        <v>-37.809265</v>
       </c>
       <c r="C138" t="n">
-        <v>145.048232</v>
+        <v>144.994951</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
@@ -2875,18 +2875,18 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-38.1450096</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C140" t="n">
-        <v>144.3568376</v>
+        <v>144.9680124</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -2911,178 +2911,322 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C142" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.8266608</v>
+        <v>-37.028215</v>
       </c>
       <c r="C143" t="n">
-        <v>145.0587903</v>
+        <v>145.14336</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C144" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C145" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C146" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C147" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C148" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C149" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C150" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-37.8266608</v>
+      </c>
+      <c r="C151" t="n">
+        <v>145.0587903</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Boroondara (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C152" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C153" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C154" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C155" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C156" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B151" t="n">
+      <c r="B157" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C157" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C158" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C159" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D159" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D159"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,140 +391,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.759288</v>
+        <v>-37.741667</v>
       </c>
       <c r="C2" t="n">
-        <v>144.817921</v>
+        <v>144.908954</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.817743</v>
+        <v>-37.759288</v>
       </c>
       <c r="C3" t="n">
-        <v>144.992936</v>
+        <v>144.817921</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.813381</v>
+        <v>-37.817743</v>
       </c>
       <c r="C4" t="n">
-        <v>144.967076</v>
+        <v>144.992936</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.598146</v>
+        <v>-37.813381</v>
       </c>
       <c r="C5" t="n">
-        <v>145.068782</v>
+        <v>144.967076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.704738</v>
+        <v>-37.598146</v>
       </c>
       <c r="C6" t="n">
-        <v>144.86329</v>
+        <v>145.068782</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.815499</v>
+        <v>-37.704738</v>
       </c>
       <c r="C7" t="n">
-        <v>144.965882</v>
+        <v>144.86329</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.724684</v>
+        <v>-37.815499</v>
       </c>
       <c r="C8" t="n">
-        <v>144.940008</v>
+        <v>144.965882</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.752048</v>
+        <v>-37.724684</v>
       </c>
       <c r="C9" t="n">
-        <v>144.970526</v>
+        <v>144.940008</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -535,68 +535,68 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.787776</v>
+        <v>-37.752048</v>
       </c>
       <c r="C10" t="n">
-        <v>144.829839</v>
+        <v>144.970526</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.817826</v>
+        <v>-37.787776</v>
       </c>
       <c r="C11" t="n">
-        <v>144.878737</v>
+        <v>144.829839</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.785683</v>
+        <v>-37.817826</v>
       </c>
       <c r="C12" t="n">
-        <v>144.994154</v>
+        <v>144.878737</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.812264</v>
+        <v>-37.785683</v>
       </c>
       <c r="C13" t="n">
-        <v>144.991241</v>
+        <v>144.994154</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,14 +607,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.813934</v>
+        <v>-37.812264</v>
       </c>
       <c r="C14" t="n">
-        <v>144.999135</v>
+        <v>144.991241</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -625,32 +625,32 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.81693</v>
+        <v>-37.813934</v>
       </c>
       <c r="C15" t="n">
-        <v>144.962296</v>
+        <v>144.999135</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.798908</v>
+        <v>-37.81693</v>
       </c>
       <c r="C16" t="n">
-        <v>144.956176</v>
+        <v>144.962296</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -661,176 +661,176 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.870336</v>
+        <v>-37.798908</v>
       </c>
       <c r="C17" t="n">
-        <v>144.696569</v>
+        <v>144.956176</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.735123</v>
+        <v>-37.870336</v>
       </c>
       <c r="C18" t="n">
-        <v>144.738736</v>
+        <v>144.696569</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.581979</v>
+        <v>-37.735123</v>
       </c>
       <c r="C19" t="n">
-        <v>144.905951</v>
+        <v>144.738736</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.71597</v>
+        <v>-37.581979</v>
       </c>
       <c r="C20" t="n">
-        <v>144.935826</v>
+        <v>144.905951</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.74954</v>
+        <v>-37.71597</v>
       </c>
       <c r="C21" t="n">
-        <v>144.883252</v>
+        <v>144.935826</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.754926</v>
+        <v>-37.74954</v>
       </c>
       <c r="C22" t="n">
-        <v>144.966324</v>
+        <v>144.883252</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.875675</v>
+        <v>-37.754926</v>
       </c>
       <c r="C23" t="n">
-        <v>144.79145</v>
+        <v>144.966324</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.601756</v>
+        <v>-37.875675</v>
       </c>
       <c r="C24" t="n">
-        <v>144.905386</v>
+        <v>144.79145</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.778017</v>
+        <v>-37.601756</v>
       </c>
       <c r="C25" t="n">
-        <v>144.889266</v>
+        <v>144.905386</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.799002</v>
+        <v>-37.778017</v>
       </c>
       <c r="C26" t="n">
-        <v>144.894926</v>
+        <v>144.889266</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,68 +841,68 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.837112</v>
+        <v>-37.799002</v>
       </c>
       <c r="C27" t="n">
-        <v>144.941595</v>
+        <v>144.894926</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.854529</v>
+        <v>-37.837112</v>
       </c>
       <c r="C28" t="n">
-        <v>144.721868</v>
+        <v>144.941595</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.774352</v>
+        <v>-37.854529</v>
       </c>
       <c r="C29" t="n">
-        <v>144.92733</v>
+        <v>144.721868</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.755176</v>
+        <v>-37.774352</v>
       </c>
       <c r="C30" t="n">
-        <v>144.90226</v>
+        <v>144.92733</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -913,338 +913,338 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.658638</v>
+        <v>-37.755176</v>
       </c>
       <c r="C31" t="n">
-        <v>145.076922</v>
+        <v>144.90226</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.675501</v>
+        <v>-37.658638</v>
       </c>
       <c r="C32" t="n">
-        <v>145.135999</v>
+        <v>145.076922</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.819298</v>
+        <v>-37.675501</v>
       </c>
       <c r="C33" t="n">
-        <v>145.129263</v>
+        <v>145.135999</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.791185</v>
+        <v>-37.819298</v>
       </c>
       <c r="C34" t="n">
-        <v>144.886937</v>
+        <v>145.129263</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.655759</v>
+        <v>-37.791185</v>
       </c>
       <c r="C35" t="n">
-        <v>145.032038</v>
+        <v>144.886937</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.764884</v>
+        <v>-37.655759</v>
       </c>
       <c r="C36" t="n">
-        <v>144.979606</v>
+        <v>145.032038</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.717149</v>
+        <v>-37.764884</v>
       </c>
       <c r="C37" t="n">
-        <v>144.808867</v>
+        <v>144.979606</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.718987</v>
+        <v>-37.717149</v>
       </c>
       <c r="C38" t="n">
-        <v>144.992857</v>
+        <v>144.808867</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.778539</v>
+        <v>-37.718987</v>
       </c>
       <c r="C39" t="n">
-        <v>144.875831</v>
+        <v>144.992857</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.690602</v>
+        <v>-37.778539</v>
       </c>
       <c r="C40" t="n">
-        <v>144.869104</v>
+        <v>144.875831</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.814598</v>
+        <v>-37.690602</v>
       </c>
       <c r="C41" t="n">
-        <v>144.762011</v>
+        <v>144.869104</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.933332</v>
+        <v>-37.814598</v>
       </c>
       <c r="C42" t="n">
-        <v>145.000542</v>
+        <v>144.762011</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.773754</v>
+        <v>-37.933332</v>
       </c>
       <c r="C43" t="n">
-        <v>144.888956</v>
+        <v>145.000542</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.744387</v>
+        <v>-37.773754</v>
       </c>
       <c r="C44" t="n">
-        <v>144.774297</v>
+        <v>144.888956</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.711211</v>
+        <v>-37.744387</v>
       </c>
       <c r="C45" t="n">
-        <v>144.738802</v>
+        <v>144.774297</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.816363</v>
+        <v>-37.711211</v>
       </c>
       <c r="C46" t="n">
-        <v>145.06656</v>
+        <v>144.738802</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-38.102082</v>
+        <v>-37.816363</v>
       </c>
       <c r="C47" t="n">
-        <v>145.265397</v>
+        <v>145.06656</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.684606</v>
+        <v>-38.102082</v>
       </c>
       <c r="C48" t="n">
-        <v>144.760227</v>
+        <v>145.265397</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.715384</v>
+        <v>-37.684606</v>
       </c>
       <c r="C49" t="n">
-        <v>144.811994</v>
+        <v>144.760227</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1255,410 +1255,410 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.738834</v>
+        <v>-37.715384</v>
       </c>
       <c r="C50" t="n">
-        <v>145.030187</v>
+        <v>144.811994</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-38.075826</v>
+        <v>-37.738834</v>
       </c>
       <c r="C51" t="n">
-        <v>145.473885</v>
+        <v>145.030187</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.837404</v>
+        <v>-38.075826</v>
       </c>
       <c r="C52" t="n">
-        <v>144.996291</v>
+        <v>145.473885</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.898104</v>
+        <v>-37.837404</v>
       </c>
       <c r="C53" t="n">
-        <v>145.160876</v>
+        <v>144.996291</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.890643</v>
+        <v>-37.898104</v>
       </c>
       <c r="C54" t="n">
-        <v>145.062546</v>
+        <v>145.160876</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.8135</v>
+        <v>-37.890643</v>
       </c>
       <c r="C55" t="n">
-        <v>144.969933</v>
+        <v>145.062546</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.581295</v>
+        <v>-37.8135</v>
       </c>
       <c r="C56" t="n">
-        <v>144.738024</v>
+        <v>144.969933</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.744387</v>
+        <v>-37.581295</v>
       </c>
       <c r="C57" t="n">
-        <v>144.774297</v>
+        <v>144.738024</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.735247</v>
+        <v>-37.744387</v>
       </c>
       <c r="C58" t="n">
-        <v>144.917023</v>
+        <v>144.774297</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.975685</v>
+        <v>-37.735247</v>
       </c>
       <c r="C59" t="n">
-        <v>145.216529</v>
+        <v>144.917023</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.688119</v>
+        <v>-37.975685</v>
       </c>
       <c r="C60" t="n">
-        <v>144.884379</v>
+        <v>145.216529</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.691402</v>
+        <v>-37.688119</v>
       </c>
       <c r="C61" t="n">
-        <v>145.213889</v>
+        <v>144.884379</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.760449</v>
+        <v>-37.691402</v>
       </c>
       <c r="C62" t="n">
-        <v>145.348691</v>
+        <v>145.213889</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-38.085076</v>
+        <v>-37.760449</v>
       </c>
       <c r="C63" t="n">
-        <v>145.46966</v>
+        <v>145.348691</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.740107</v>
+        <v>-38.085076</v>
       </c>
       <c r="C64" t="n">
-        <v>144.956047</v>
+        <v>145.46966</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.772859</v>
+        <v>-37.740107</v>
       </c>
       <c r="C65" t="n">
-        <v>145.294713</v>
+        <v>144.956047</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.798171</v>
+        <v>-37.772859</v>
       </c>
       <c r="C66" t="n">
-        <v>144.956665</v>
+        <v>145.294713</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-38.012111</v>
+        <v>-37.798171</v>
       </c>
       <c r="C67" t="n">
-        <v>145.090154</v>
+        <v>144.956665</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-36.732518</v>
+        <v>-38.012111</v>
       </c>
       <c r="C68" t="n">
-        <v>146.967357</v>
+        <v>145.090154</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.811362</v>
+        <v>-36.732518</v>
       </c>
       <c r="C69" t="n">
-        <v>144.973203</v>
+        <v>146.967357</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.927427</v>
+        <v>-37.811362</v>
       </c>
       <c r="C70" t="n">
-        <v>145.116157</v>
+        <v>144.973203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.571236</v>
+        <v>-37.927427</v>
       </c>
       <c r="C71" t="n">
-        <v>144.90978</v>
+        <v>145.116157</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.685249</v>
+        <v>-37.571236</v>
       </c>
       <c r="C72" t="n">
-        <v>144.92446</v>
+        <v>144.90978</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1669,68 +1669,68 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.704175</v>
+        <v>-37.685249</v>
       </c>
       <c r="C73" t="n">
-        <v>144.998741</v>
+        <v>144.92446</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.726306</v>
+        <v>-37.704175</v>
       </c>
       <c r="C74" t="n">
-        <v>145.069914</v>
+        <v>144.998741</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C75" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.8163949</v>
+        <v>-37.801332</v>
       </c>
       <c r="C76" t="n">
-        <v>144.9526066</v>
+        <v>144.963635</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1741,72 +1741,72 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C77" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C78" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.836082</v>
+        <v>-37.801332</v>
       </c>
       <c r="C79" t="n">
-        <v>144.915383</v>
+        <v>144.963635</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C80" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -1831,36 +1831,36 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C82" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C83" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
@@ -1885,50 +1885,50 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C85" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.756286</v>
+        <v>-37.841635</v>
       </c>
       <c r="C86" t="n">
-        <v>144.811104</v>
+        <v>145.086235</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.715384</v>
+        <v>-37.756286</v>
       </c>
       <c r="C87" t="n">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1939,212 +1939,212 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.884267</v>
+        <v>-37.715384</v>
       </c>
       <c r="C88" t="n">
-        <v>145.017115</v>
+        <v>144.811994</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-36.314871</v>
+        <v>-37.884267</v>
       </c>
       <c r="C89" t="n">
-        <v>145.04197</v>
+        <v>145.017115</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.92849</v>
+        <v>-36.314871</v>
       </c>
       <c r="C90" t="n">
-        <v>145.007454</v>
+        <v>145.04197</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.841635</v>
+        <v>-37.92849</v>
       </c>
       <c r="C91" t="n">
-        <v>145.086235</v>
+        <v>145.007454</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.884267</v>
+        <v>-37.841635</v>
       </c>
       <c r="C92" t="n">
-        <v>145.017115</v>
+        <v>145.086235</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.69261</v>
+        <v>-37.884267</v>
       </c>
       <c r="C93" t="n">
-        <v>145.063821</v>
+        <v>145.017115</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.689223</v>
+        <v>-37.69261</v>
       </c>
       <c r="C94" t="n">
-        <v>144.604708</v>
+        <v>145.063821</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.843632</v>
+        <v>-37.689223</v>
       </c>
       <c r="C95" t="n">
-        <v>144.781559</v>
+        <v>144.604708</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.730748</v>
+        <v>-37.843632</v>
       </c>
       <c r="C96" t="n">
-        <v>145.086489</v>
+        <v>144.781559</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.702513</v>
+        <v>-37.730748</v>
       </c>
       <c r="C97" t="n">
-        <v>144.802326</v>
+        <v>145.086489</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.673996</v>
+        <v>-37.702513</v>
       </c>
       <c r="C98" t="n">
-        <v>144.955354</v>
+        <v>144.802326</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.576594</v>
+        <v>-37.673996</v>
       </c>
       <c r="C99" t="n">
-        <v>144.728665</v>
+        <v>144.955354</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2155,32 +2155,32 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.879995</v>
+        <v>-37.576594</v>
       </c>
       <c r="C100" t="n">
-        <v>144.701577</v>
+        <v>144.728665</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.834014</v>
+        <v>-37.879995</v>
       </c>
       <c r="C101" t="n">
-        <v>144.652853</v>
+        <v>144.701577</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2191,50 +2191,50 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.942099</v>
+        <v>-37.834014</v>
       </c>
       <c r="C102" t="n">
-        <v>145.167684</v>
+        <v>144.652853</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.664667</v>
+        <v>-37.942099</v>
       </c>
       <c r="C103" t="n">
-        <v>144.74749</v>
+        <v>145.167684</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.665417</v>
+        <v>-37.664667</v>
       </c>
       <c r="C104" t="n">
-        <v>144.753359</v>
+        <v>144.74749</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2245,194 +2245,194 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.73899</v>
+        <v>-37.665417</v>
       </c>
       <c r="C105" t="n">
-        <v>144.679976</v>
+        <v>144.753359</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.596123</v>
+        <v>-37.73899</v>
       </c>
       <c r="C106" t="n">
-        <v>144.921401</v>
+        <v>144.679976</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.77238</v>
+        <v>-37.596123</v>
       </c>
       <c r="C107" t="n">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.783105</v>
+        <v>-37.77238</v>
       </c>
       <c r="C108" t="n">
-        <v>144.785398</v>
+        <v>144.888195</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.766147</v>
+        <v>-37.783105</v>
       </c>
       <c r="C109" t="n">
-        <v>145.020052</v>
+        <v>144.785398</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.689366</v>
+        <v>-37.766147</v>
       </c>
       <c r="C110" t="n">
-        <v>144.958878</v>
+        <v>145.020052</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.678278</v>
+        <v>-37.689366</v>
       </c>
       <c r="C111" t="n">
-        <v>144.432689</v>
+        <v>144.958878</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.810712</v>
+        <v>-37.678278</v>
       </c>
       <c r="C112" t="n">
-        <v>144.836118</v>
+        <v>144.432689</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C113" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.811678</v>
+        <v>-37.667111</v>
       </c>
       <c r="C114" t="n">
-        <v>144.889926</v>
+        <v>144.8334808</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.797177</v>
+        <v>-37.811678</v>
       </c>
       <c r="C115" t="n">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2443,108 +2443,108 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.759223</v>
+        <v>-37.797177</v>
       </c>
       <c r="C116" t="n">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.844318</v>
+        <v>-37.759223</v>
       </c>
       <c r="C117" t="n">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.813239</v>
+        <v>-37.844318</v>
       </c>
       <c r="C118" t="n">
-        <v>145.048047</v>
+        <v>145.009818</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.7769407</v>
+        <v>-37.813239</v>
       </c>
       <c r="C119" t="n">
-        <v>144.987025</v>
+        <v>145.048047</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.772096</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C120" t="n">
-        <v>144.916095</v>
+        <v>144.987025</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C121" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2659,104 +2659,104 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C128" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.800963</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C129" t="n">
-        <v>145.0729384</v>
+        <v>144.983472</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.790783</v>
+        <v>-37.800963</v>
       </c>
       <c r="C130" t="n">
-        <v>144.998162</v>
+        <v>145.0729384</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.8249813</v>
+        <v>-37.790783</v>
       </c>
       <c r="C131" t="n">
-        <v>144.983613</v>
+        <v>144.998162</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.8411037</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C132" t="n">
-        <v>144.955806</v>
+        <v>144.983613</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C133" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -2785,18 +2785,18 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C135" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -2821,86 +2821,86 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C137" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.809265</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C138" t="n">
-        <v>144.994951</v>
+        <v>145.0868276</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C139" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.7978092</v>
+        <v>-37.667111</v>
       </c>
       <c r="C140" t="n">
-        <v>144.9680124</v>
+        <v>144.8334808</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C141" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -2911,54 +2911,54 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C142" t="n">
-        <v>144.3568376</v>
+        <v>144.9526066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.028215</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C143" t="n">
-        <v>145.14336</v>
+        <v>144.3568376</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C144" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -3001,54 +3001,54 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C147" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C148" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C149" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
@@ -3073,36 +3073,36 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C151" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C152" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -3181,18 +3181,18 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C157" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -3227,6 +3227,24 @@
         <v>144.8334808</v>
       </c>
       <c r="D159" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C160" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D160" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,248 +391,248 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.741667</v>
+        <v>-37.653023</v>
       </c>
       <c r="C2" t="n">
-        <v>144.908954</v>
+        <v>145.014685</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.759288</v>
+        <v>-37.766715</v>
       </c>
       <c r="C3" t="n">
-        <v>144.817921</v>
+        <v>145.021149</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.817743</v>
+        <v>-37.741667</v>
       </c>
       <c r="C4" t="n">
-        <v>144.992936</v>
+        <v>144.908954</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.813381</v>
+        <v>-37.759288</v>
       </c>
       <c r="C5" t="n">
-        <v>144.967076</v>
+        <v>144.817921</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.598146</v>
+        <v>-37.817743</v>
       </c>
       <c r="C6" t="n">
-        <v>145.068782</v>
+        <v>144.992936</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.704738</v>
+        <v>-37.813381</v>
       </c>
       <c r="C7" t="n">
-        <v>144.86329</v>
+        <v>144.967076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.815499</v>
+        <v>-37.598146</v>
       </c>
       <c r="C8" t="n">
-        <v>144.965882</v>
+        <v>145.068782</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.724684</v>
+        <v>-37.704738</v>
       </c>
       <c r="C9" t="n">
-        <v>144.940008</v>
+        <v>144.86329</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.752048</v>
+        <v>-37.815499</v>
       </c>
       <c r="C10" t="n">
-        <v>144.970526</v>
+        <v>144.965882</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.787776</v>
+        <v>-37.724684</v>
       </c>
       <c r="C11" t="n">
-        <v>144.829839</v>
+        <v>144.940008</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.817826</v>
+        <v>-37.752048</v>
       </c>
       <c r="C12" t="n">
-        <v>144.878737</v>
+        <v>144.970526</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.785683</v>
+        <v>-37.787776</v>
       </c>
       <c r="C13" t="n">
-        <v>144.994154</v>
+        <v>144.829839</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.812264</v>
+        <v>-37.817826</v>
       </c>
       <c r="C14" t="n">
-        <v>144.991241</v>
+        <v>144.878737</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.813934</v>
+        <v>-37.785683</v>
       </c>
       <c r="C15" t="n">
-        <v>144.999135</v>
+        <v>144.994154</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -643,140 +643,140 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.81693</v>
+        <v>-37.812264</v>
       </c>
       <c r="C16" t="n">
-        <v>144.962296</v>
+        <v>144.991241</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.798908</v>
+        <v>-37.813934</v>
       </c>
       <c r="C17" t="n">
-        <v>144.956176</v>
+        <v>144.999135</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.870336</v>
+        <v>-37.81693</v>
       </c>
       <c r="C18" t="n">
-        <v>144.696569</v>
+        <v>144.962296</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.735123</v>
+        <v>-37.798908</v>
       </c>
       <c r="C19" t="n">
-        <v>144.738736</v>
+        <v>144.956176</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.581979</v>
+        <v>-37.870336</v>
       </c>
       <c r="C20" t="n">
-        <v>144.905951</v>
+        <v>144.696569</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.71597</v>
+        <v>-37.735123</v>
       </c>
       <c r="C21" t="n">
-        <v>144.935826</v>
+        <v>144.738736</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.74954</v>
+        <v>-37.581979</v>
       </c>
       <c r="C22" t="n">
-        <v>144.883252</v>
+        <v>144.905951</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.754926</v>
+        <v>-37.71597</v>
       </c>
       <c r="C23" t="n">
-        <v>144.966324</v>
+        <v>144.935826</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -787,1004 +787,1004 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.875675</v>
+        <v>-37.74954</v>
       </c>
       <c r="C24" t="n">
-        <v>144.79145</v>
+        <v>144.883252</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.601756</v>
+        <v>-37.754926</v>
       </c>
       <c r="C25" t="n">
-        <v>144.905386</v>
+        <v>144.966324</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.778017</v>
+        <v>-37.875675</v>
       </c>
       <c r="C26" t="n">
-        <v>144.889266</v>
+        <v>144.79145</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.799002</v>
+        <v>-37.601756</v>
       </c>
       <c r="C27" t="n">
-        <v>144.894926</v>
+        <v>144.905386</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.837112</v>
+        <v>-37.778017</v>
       </c>
       <c r="C28" t="n">
-        <v>144.941595</v>
+        <v>144.889266</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.854529</v>
+        <v>-37.799002</v>
       </c>
       <c r="C29" t="n">
-        <v>144.721868</v>
+        <v>144.894926</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.774352</v>
+        <v>-37.837112</v>
       </c>
       <c r="C30" t="n">
-        <v>144.92733</v>
+        <v>144.941595</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.755176</v>
+        <v>-37.854529</v>
       </c>
       <c r="C31" t="n">
-        <v>144.90226</v>
+        <v>144.721868</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.658638</v>
+        <v>-37.774352</v>
       </c>
       <c r="C32" t="n">
-        <v>145.076922</v>
+        <v>144.92733</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.675501</v>
+        <v>-37.755176</v>
       </c>
       <c r="C33" t="n">
-        <v>145.135999</v>
+        <v>144.90226</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.819298</v>
+        <v>-37.658638</v>
       </c>
       <c r="C34" t="n">
-        <v>145.129263</v>
+        <v>145.076922</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.791185</v>
+        <v>-37.675501</v>
       </c>
       <c r="C35" t="n">
-        <v>144.886937</v>
+        <v>145.135999</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.655759</v>
+        <v>-37.819298</v>
       </c>
       <c r="C36" t="n">
-        <v>145.032038</v>
+        <v>145.129263</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.764884</v>
+        <v>-37.791185</v>
       </c>
       <c r="C37" t="n">
-        <v>144.979606</v>
+        <v>144.886937</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.717149</v>
+        <v>-37.655759</v>
       </c>
       <c r="C38" t="n">
-        <v>144.808867</v>
+        <v>145.032038</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.718987</v>
+        <v>-37.764884</v>
       </c>
       <c r="C39" t="n">
-        <v>144.992857</v>
+        <v>144.979606</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.778539</v>
+        <v>-37.717149</v>
       </c>
       <c r="C40" t="n">
-        <v>144.875831</v>
+        <v>144.808867</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.690602</v>
+        <v>-37.718987</v>
       </c>
       <c r="C41" t="n">
-        <v>144.869104</v>
+        <v>144.992857</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.814598</v>
+        <v>-37.778539</v>
       </c>
       <c r="C42" t="n">
-        <v>144.762011</v>
+        <v>144.875831</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.933332</v>
+        <v>-37.690602</v>
       </c>
       <c r="C43" t="n">
-        <v>145.000542</v>
+        <v>144.869104</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.773754</v>
+        <v>-37.814598</v>
       </c>
       <c r="C44" t="n">
-        <v>144.888956</v>
+        <v>144.762011</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.744387</v>
+        <v>-37.933332</v>
       </c>
       <c r="C45" t="n">
-        <v>144.774297</v>
+        <v>145.000542</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.711211</v>
+        <v>-37.773754</v>
       </c>
       <c r="C46" t="n">
-        <v>144.738802</v>
+        <v>144.888956</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.816363</v>
+        <v>-37.744387</v>
       </c>
       <c r="C47" t="n">
-        <v>145.06656</v>
+        <v>144.774297</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-38.102082</v>
+        <v>-37.711211</v>
       </c>
       <c r="C48" t="n">
-        <v>145.265397</v>
+        <v>144.738802</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.684606</v>
+        <v>-37.816363</v>
       </c>
       <c r="C49" t="n">
-        <v>144.760227</v>
+        <v>145.06656</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.715384</v>
+        <v>-38.102082</v>
       </c>
       <c r="C50" t="n">
-        <v>144.811994</v>
+        <v>145.265397</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.738834</v>
+        <v>-37.684606</v>
       </c>
       <c r="C51" t="n">
-        <v>145.030187</v>
+        <v>144.760227</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-38.075826</v>
+        <v>-37.715384</v>
       </c>
       <c r="C52" t="n">
-        <v>145.473885</v>
+        <v>144.811994</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.837404</v>
+        <v>-37.738834</v>
       </c>
       <c r="C53" t="n">
-        <v>144.996291</v>
+        <v>145.030187</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.898104</v>
+        <v>-38.075826</v>
       </c>
       <c r="C54" t="n">
-        <v>145.160876</v>
+        <v>145.473885</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.890643</v>
+        <v>-37.837404</v>
       </c>
       <c r="C55" t="n">
-        <v>145.062546</v>
+        <v>144.996291</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.8135</v>
+        <v>-37.898104</v>
       </c>
       <c r="C56" t="n">
-        <v>144.969933</v>
+        <v>145.160876</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.581295</v>
+        <v>-37.890643</v>
       </c>
       <c r="C57" t="n">
-        <v>144.738024</v>
+        <v>145.062546</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.744387</v>
+        <v>-37.8135</v>
       </c>
       <c r="C58" t="n">
-        <v>144.774297</v>
+        <v>144.969933</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.735247</v>
+        <v>-37.581295</v>
       </c>
       <c r="C59" t="n">
-        <v>144.917023</v>
+        <v>144.738024</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.975685</v>
+        <v>-37.744387</v>
       </c>
       <c r="C60" t="n">
-        <v>145.216529</v>
+        <v>144.774297</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.688119</v>
+        <v>-37.735247</v>
       </c>
       <c r="C61" t="n">
-        <v>144.884379</v>
+        <v>144.917023</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.691402</v>
+        <v>-37.975685</v>
       </c>
       <c r="C62" t="n">
-        <v>145.213889</v>
+        <v>145.216529</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.760449</v>
+        <v>-37.688119</v>
       </c>
       <c r="C63" t="n">
-        <v>145.348691</v>
+        <v>144.884379</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-38.085076</v>
+        <v>-37.691402</v>
       </c>
       <c r="C64" t="n">
-        <v>145.46966</v>
+        <v>145.213889</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.740107</v>
+        <v>-37.760449</v>
       </c>
       <c r="C65" t="n">
-        <v>144.956047</v>
+        <v>145.348691</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.772859</v>
+        <v>-38.085076</v>
       </c>
       <c r="C66" t="n">
-        <v>145.294713</v>
+        <v>145.46966</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.798171</v>
+        <v>-37.740107</v>
       </c>
       <c r="C67" t="n">
-        <v>144.956665</v>
+        <v>144.956047</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-38.012111</v>
+        <v>-37.772859</v>
       </c>
       <c r="C68" t="n">
-        <v>145.090154</v>
+        <v>145.294713</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-36.732518</v>
+        <v>-37.798171</v>
       </c>
       <c r="C69" t="n">
-        <v>146.967357</v>
+        <v>144.956665</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.811362</v>
+        <v>-38.012111</v>
       </c>
       <c r="C70" t="n">
-        <v>144.973203</v>
+        <v>145.090154</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.927427</v>
+        <v>-36.732518</v>
       </c>
       <c r="C71" t="n">
-        <v>145.116157</v>
+        <v>146.967357</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.571236</v>
+        <v>-37.811362</v>
       </c>
       <c r="C72" t="n">
-        <v>144.90978</v>
+        <v>144.973203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.685249</v>
+        <v>-37.927427</v>
       </c>
       <c r="C73" t="n">
-        <v>144.92446</v>
+        <v>145.116157</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.704175</v>
+        <v>-37.571236</v>
       </c>
       <c r="C74" t="n">
-        <v>144.998741</v>
+        <v>144.90978</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.726306</v>
+        <v>-37.685249</v>
       </c>
       <c r="C75" t="n">
-        <v>145.069914</v>
+        <v>144.92446</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C76" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.8163949</v>
+        <v>-37.726306</v>
       </c>
       <c r="C77" t="n">
-        <v>144.9526066</v>
+        <v>145.069914</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.667111</v>
+        <v>-37.801332</v>
       </c>
       <c r="C78" t="n">
-        <v>144.8334808</v>
+        <v>144.963635</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C79" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1795,18 +1795,18 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.836082</v>
+        <v>-37.667111</v>
       </c>
       <c r="C80" t="n">
-        <v>144.915383</v>
+        <v>144.8334808</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -1831,36 +1831,36 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C82" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C83" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -1885,702 +1885,702 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C85" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C86" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C87" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.715384</v>
+        <v>-37.841635</v>
       </c>
       <c r="C88" t="n">
-        <v>144.811994</v>
+        <v>145.086235</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.884267</v>
+        <v>-37.756286</v>
       </c>
       <c r="C89" t="n">
-        <v>145.017115</v>
+        <v>144.811104</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-36.314871</v>
+        <v>-37.715384</v>
       </c>
       <c r="C90" t="n">
-        <v>145.04197</v>
+        <v>144.811994</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.92849</v>
+        <v>-37.884267</v>
       </c>
       <c r="C91" t="n">
-        <v>145.007454</v>
+        <v>145.017115</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.841635</v>
+        <v>-36.314871</v>
       </c>
       <c r="C92" t="n">
-        <v>145.086235</v>
+        <v>145.04197</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.884267</v>
+        <v>-37.92849</v>
       </c>
       <c r="C93" t="n">
-        <v>145.017115</v>
+        <v>145.007454</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.69261</v>
+        <v>-37.841635</v>
       </c>
       <c r="C94" t="n">
-        <v>145.063821</v>
+        <v>145.086235</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.689223</v>
+        <v>-37.884267</v>
       </c>
       <c r="C95" t="n">
-        <v>144.604708</v>
+        <v>145.017115</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.843632</v>
+        <v>-37.69261</v>
       </c>
       <c r="C96" t="n">
-        <v>144.781559</v>
+        <v>145.063821</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.730748</v>
+        <v>-37.689223</v>
       </c>
       <c r="C97" t="n">
-        <v>145.086489</v>
+        <v>144.604708</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.702513</v>
+        <v>-37.843632</v>
       </c>
       <c r="C98" t="n">
-        <v>144.802326</v>
+        <v>144.781559</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.673996</v>
+        <v>-37.730748</v>
       </c>
       <c r="C99" t="n">
-        <v>144.955354</v>
+        <v>145.086489</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.576594</v>
+        <v>-37.702513</v>
       </c>
       <c r="C100" t="n">
-        <v>144.728665</v>
+        <v>144.802326</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.879995</v>
+        <v>-37.673996</v>
       </c>
       <c r="C101" t="n">
-        <v>144.701577</v>
+        <v>144.955354</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.834014</v>
+        <v>-37.576594</v>
       </c>
       <c r="C102" t="n">
-        <v>144.652853</v>
+        <v>144.728665</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.942099</v>
+        <v>-37.879995</v>
       </c>
       <c r="C103" t="n">
-        <v>145.167684</v>
+        <v>144.701577</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.664667</v>
+        <v>-37.834014</v>
       </c>
       <c r="C104" t="n">
-        <v>144.74749</v>
+        <v>144.652853</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.665417</v>
+        <v>-37.942099</v>
       </c>
       <c r="C105" t="n">
-        <v>144.753359</v>
+        <v>145.167684</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.73899</v>
+        <v>-37.664667</v>
       </c>
       <c r="C106" t="n">
-        <v>144.679976</v>
+        <v>144.74749</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.596123</v>
+        <v>-37.665417</v>
       </c>
       <c r="C107" t="n">
-        <v>144.921401</v>
+        <v>144.753359</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.77238</v>
+        <v>-37.73899</v>
       </c>
       <c r="C108" t="n">
-        <v>144.888195</v>
+        <v>144.679976</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.783105</v>
+        <v>-37.596123</v>
       </c>
       <c r="C109" t="n">
-        <v>144.785398</v>
+        <v>144.921401</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.766147</v>
+        <v>-37.77238</v>
       </c>
       <c r="C110" t="n">
-        <v>145.020052</v>
+        <v>144.888195</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.689366</v>
+        <v>-37.783105</v>
       </c>
       <c r="C111" t="n">
-        <v>144.958878</v>
+        <v>144.785398</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.678278</v>
+        <v>-37.766147</v>
       </c>
       <c r="C112" t="n">
-        <v>144.432689</v>
+        <v>145.020052</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.810712</v>
+        <v>-37.689366</v>
       </c>
       <c r="C113" t="n">
-        <v>144.836118</v>
+        <v>144.958878</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.667111</v>
+        <v>-37.678278</v>
       </c>
       <c r="C114" t="n">
-        <v>144.8334808</v>
+        <v>144.432689</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.811678</v>
+        <v>-37.810712</v>
       </c>
       <c r="C115" t="n">
-        <v>144.889926</v>
+        <v>144.836118</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.797177</v>
+        <v>-37.667111</v>
       </c>
       <c r="C116" t="n">
-        <v>144.894632</v>
+        <v>144.8334808</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.759223</v>
+        <v>-37.811678</v>
       </c>
       <c r="C117" t="n">
-        <v>144.816754</v>
+        <v>144.889926</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.844318</v>
+        <v>-37.797177</v>
       </c>
       <c r="C118" t="n">
-        <v>145.009818</v>
+        <v>144.894632</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.813239</v>
+        <v>-37.759223</v>
       </c>
       <c r="C119" t="n">
-        <v>145.048047</v>
+        <v>144.816754</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.7769407</v>
+        <v>-37.844318</v>
       </c>
       <c r="C120" t="n">
-        <v>144.987025</v>
+        <v>145.009818</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.772096</v>
+        <v>-37.813239</v>
       </c>
       <c r="C121" t="n">
-        <v>144.916095</v>
+        <v>145.048047</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C122" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C123" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2677,122 +2677,122 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C129" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C130" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.790783</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C131" t="n">
-        <v>144.998162</v>
+        <v>144.983472</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.8249813</v>
+        <v>-37.800963</v>
       </c>
       <c r="C132" t="n">
-        <v>144.983613</v>
+        <v>145.0729384</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.8411037</v>
+        <v>-37.790783</v>
       </c>
       <c r="C133" t="n">
-        <v>144.955806</v>
+        <v>144.998162</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C134" t="n">
-        <v>144.9564881</v>
+        <v>144.983613</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C135" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2803,198 +2803,198 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C136" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C137" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C138" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.809265</v>
+        <v>-38.199003</v>
       </c>
       <c r="C139" t="n">
-        <v>144.994951</v>
+        <v>144.318418</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.667111</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C140" t="n">
-        <v>144.8334808</v>
+        <v>145.0868276</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.7978092</v>
+        <v>-37.809265</v>
       </c>
       <c r="C141" t="n">
-        <v>144.9680124</v>
+        <v>144.994951</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C142" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-38.1450096</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C143" t="n">
-        <v>144.3568376</v>
+        <v>144.9680124</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.028215</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C144" t="n">
-        <v>145.14336</v>
+        <v>144.9526066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C145" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C146" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -3019,126 +3019,126 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C148" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C149" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C150" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C151" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C152" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C153" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C154" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -3199,36 +3199,36 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C158" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C159" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -3245,6 +3245,42 @@
         <v>144.8334808</v>
       </c>
       <c r="D160" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C161" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C162" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D162" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,32 +391,32 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.653023</v>
+        <v>-37.788414</v>
       </c>
       <c r="C2" t="n">
-        <v>145.014685</v>
+        <v>144.936951</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.766715</v>
+        <v>-37.73908</v>
       </c>
       <c r="C3" t="n">
-        <v>145.021149</v>
+        <v>145.002236</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -427,14 +427,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.741667</v>
+        <v>-37.785949</v>
       </c>
       <c r="C4" t="n">
-        <v>144.908954</v>
+        <v>144.935308</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -445,50 +445,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.759288</v>
+        <v>-37.670681</v>
       </c>
       <c r="C5" t="n">
-        <v>144.817921</v>
+        <v>144.850306</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.817743</v>
+        <v>-37.817011</v>
       </c>
       <c r="C6" t="n">
-        <v>144.992936</v>
+        <v>144.962265</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.813381</v>
+        <v>-37.791989</v>
       </c>
       <c r="C7" t="n">
-        <v>144.967076</v>
+        <v>144.940508</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -499,14 +499,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.598146</v>
+        <v>-37.653023</v>
       </c>
       <c r="C8" t="n">
-        <v>145.068782</v>
+        <v>145.014685</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,1256 +517,1256 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.704738</v>
+        <v>-37.766715</v>
       </c>
       <c r="C9" t="n">
-        <v>144.86329</v>
+        <v>145.021149</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.815499</v>
+        <v>-37.741667</v>
       </c>
       <c r="C10" t="n">
-        <v>144.965882</v>
+        <v>144.908954</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.724684</v>
+        <v>-37.759288</v>
       </c>
       <c r="C11" t="n">
-        <v>144.940008</v>
+        <v>144.817921</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.752048</v>
+        <v>-37.817743</v>
       </c>
       <c r="C12" t="n">
-        <v>144.970526</v>
+        <v>144.992936</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.787776</v>
+        <v>-37.813381</v>
       </c>
       <c r="C13" t="n">
-        <v>144.829839</v>
+        <v>144.967076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.817826</v>
+        <v>-37.598146</v>
       </c>
       <c r="C14" t="n">
-        <v>144.878737</v>
+        <v>145.068782</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.785683</v>
+        <v>-37.704738</v>
       </c>
       <c r="C15" t="n">
-        <v>144.994154</v>
+        <v>144.86329</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.812264</v>
+        <v>-37.815499</v>
       </c>
       <c r="C16" t="n">
-        <v>144.991241</v>
+        <v>144.965882</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.813934</v>
+        <v>-37.724684</v>
       </c>
       <c r="C17" t="n">
-        <v>144.999135</v>
+        <v>144.940008</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.81693</v>
+        <v>-37.752048</v>
       </c>
       <c r="C18" t="n">
-        <v>144.962296</v>
+        <v>144.970526</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.798908</v>
+        <v>-37.787776</v>
       </c>
       <c r="C19" t="n">
-        <v>144.956176</v>
+        <v>144.829839</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.870336</v>
+        <v>-37.817826</v>
       </c>
       <c r="C20" t="n">
-        <v>144.696569</v>
+        <v>144.878737</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.735123</v>
+        <v>-37.785683</v>
       </c>
       <c r="C21" t="n">
-        <v>144.738736</v>
+        <v>144.994154</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.581979</v>
+        <v>-37.812264</v>
       </c>
       <c r="C22" t="n">
-        <v>144.905951</v>
+        <v>144.991241</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.71597</v>
+        <v>-37.813934</v>
       </c>
       <c r="C23" t="n">
-        <v>144.935826</v>
+        <v>144.999135</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.74954</v>
+        <v>-37.81693</v>
       </c>
       <c r="C24" t="n">
-        <v>144.883252</v>
+        <v>144.962296</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.754926</v>
+        <v>-37.798908</v>
       </c>
       <c r="C25" t="n">
-        <v>144.966324</v>
+        <v>144.956176</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.875675</v>
+        <v>-37.870336</v>
       </c>
       <c r="C26" t="n">
-        <v>144.79145</v>
+        <v>144.696569</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.601756</v>
+        <v>-37.735123</v>
       </c>
       <c r="C27" t="n">
-        <v>144.905386</v>
+        <v>144.738736</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.778017</v>
+        <v>-37.581979</v>
       </c>
       <c r="C28" t="n">
-        <v>144.889266</v>
+        <v>144.905951</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.799002</v>
+        <v>-37.71597</v>
       </c>
       <c r="C29" t="n">
-        <v>144.894926</v>
+        <v>144.935826</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.837112</v>
+        <v>-37.74954</v>
       </c>
       <c r="C30" t="n">
-        <v>144.941595</v>
+        <v>144.883252</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.854529</v>
+        <v>-37.754926</v>
       </c>
       <c r="C31" t="n">
-        <v>144.721868</v>
+        <v>144.966324</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.774352</v>
+        <v>-37.875675</v>
       </c>
       <c r="C32" t="n">
-        <v>144.92733</v>
+        <v>144.79145</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.755176</v>
+        <v>-37.601756</v>
       </c>
       <c r="C33" t="n">
-        <v>144.90226</v>
+        <v>144.905386</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.658638</v>
+        <v>-37.778017</v>
       </c>
       <c r="C34" t="n">
-        <v>145.076922</v>
+        <v>144.889266</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.675501</v>
+        <v>-37.799002</v>
       </c>
       <c r="C35" t="n">
-        <v>145.135999</v>
+        <v>144.894926</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.819298</v>
+        <v>-37.837112</v>
       </c>
       <c r="C36" t="n">
-        <v>145.129263</v>
+        <v>144.941595</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.791185</v>
+        <v>-37.854529</v>
       </c>
       <c r="C37" t="n">
-        <v>144.886937</v>
+        <v>144.721868</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.655759</v>
+        <v>-37.774352</v>
       </c>
       <c r="C38" t="n">
-        <v>145.032038</v>
+        <v>144.92733</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.764884</v>
+        <v>-37.755176</v>
       </c>
       <c r="C39" t="n">
-        <v>144.979606</v>
+        <v>144.90226</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.717149</v>
+        <v>-37.658638</v>
       </c>
       <c r="C40" t="n">
-        <v>144.808867</v>
+        <v>145.076922</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.718987</v>
+        <v>-37.675501</v>
       </c>
       <c r="C41" t="n">
-        <v>144.992857</v>
+        <v>145.135999</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.778539</v>
+        <v>-37.819298</v>
       </c>
       <c r="C42" t="n">
-        <v>144.875831</v>
+        <v>145.129263</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.690602</v>
+        <v>-37.791185</v>
       </c>
       <c r="C43" t="n">
-        <v>144.869104</v>
+        <v>144.886937</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.814598</v>
+        <v>-37.655759</v>
       </c>
       <c r="C44" t="n">
-        <v>144.762011</v>
+        <v>145.032038</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.933332</v>
+        <v>-37.764884</v>
       </c>
       <c r="C45" t="n">
-        <v>145.000542</v>
+        <v>144.979606</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.773754</v>
+        <v>-37.717149</v>
       </c>
       <c r="C46" t="n">
-        <v>144.888956</v>
+        <v>144.808867</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.744387</v>
+        <v>-37.718987</v>
       </c>
       <c r="C47" t="n">
-        <v>144.774297</v>
+        <v>144.992857</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.711211</v>
+        <v>-37.778539</v>
       </c>
       <c r="C48" t="n">
-        <v>144.738802</v>
+        <v>144.875831</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.816363</v>
+        <v>-37.690602</v>
       </c>
       <c r="C49" t="n">
-        <v>145.06656</v>
+        <v>144.869104</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-38.102082</v>
+        <v>-37.814598</v>
       </c>
       <c r="C50" t="n">
-        <v>145.265397</v>
+        <v>144.762011</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.684606</v>
+        <v>-37.933332</v>
       </c>
       <c r="C51" t="n">
-        <v>144.760227</v>
+        <v>145.000542</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.715384</v>
+        <v>-37.773754</v>
       </c>
       <c r="C52" t="n">
-        <v>144.811994</v>
+        <v>144.888956</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.738834</v>
+        <v>-37.744387</v>
       </c>
       <c r="C53" t="n">
-        <v>145.030187</v>
+        <v>144.774297</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-38.075826</v>
+        <v>-37.711211</v>
       </c>
       <c r="C54" t="n">
-        <v>145.473885</v>
+        <v>144.738802</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.837404</v>
+        <v>-37.816363</v>
       </c>
       <c r="C55" t="n">
-        <v>144.996291</v>
+        <v>145.06656</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.898104</v>
+        <v>-38.102082</v>
       </c>
       <c r="C56" t="n">
-        <v>145.160876</v>
+        <v>145.265397</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.890643</v>
+        <v>-37.684606</v>
       </c>
       <c r="C57" t="n">
-        <v>145.062546</v>
+        <v>144.760227</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.8135</v>
+        <v>-37.715384</v>
       </c>
       <c r="C58" t="n">
-        <v>144.969933</v>
+        <v>144.811994</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.581295</v>
+        <v>-37.738834</v>
       </c>
       <c r="C59" t="n">
-        <v>144.738024</v>
+        <v>145.030187</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.744387</v>
+        <v>-38.075826</v>
       </c>
       <c r="C60" t="n">
-        <v>144.774297</v>
+        <v>145.473885</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.735247</v>
+        <v>-37.837404</v>
       </c>
       <c r="C61" t="n">
-        <v>144.917023</v>
+        <v>144.996291</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.975685</v>
+        <v>-37.898104</v>
       </c>
       <c r="C62" t="n">
-        <v>145.216529</v>
+        <v>145.160876</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.688119</v>
+        <v>-37.890643</v>
       </c>
       <c r="C63" t="n">
-        <v>144.884379</v>
+        <v>145.062546</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.691402</v>
+        <v>-37.8135</v>
       </c>
       <c r="C64" t="n">
-        <v>145.213889</v>
+        <v>144.969933</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.760449</v>
+        <v>-37.581295</v>
       </c>
       <c r="C65" t="n">
-        <v>145.348691</v>
+        <v>144.738024</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-38.085076</v>
+        <v>-37.744387</v>
       </c>
       <c r="C66" t="n">
-        <v>145.46966</v>
+        <v>144.774297</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.740107</v>
+        <v>-37.735247</v>
       </c>
       <c r="C67" t="n">
-        <v>144.956047</v>
+        <v>144.917023</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.772859</v>
+        <v>-37.975685</v>
       </c>
       <c r="C68" t="n">
-        <v>145.294713</v>
+        <v>145.216529</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.798171</v>
+        <v>-37.688119</v>
       </c>
       <c r="C69" t="n">
-        <v>144.956665</v>
+        <v>144.884379</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-38.012111</v>
+        <v>-37.691402</v>
       </c>
       <c r="C70" t="n">
-        <v>145.090154</v>
+        <v>145.213889</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-36.732518</v>
+        <v>-37.760449</v>
       </c>
       <c r="C71" t="n">
-        <v>146.967357</v>
+        <v>145.348691</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.811362</v>
+        <v>-38.085076</v>
       </c>
       <c r="C72" t="n">
-        <v>144.973203</v>
+        <v>145.46966</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.927427</v>
+        <v>-37.740107</v>
       </c>
       <c r="C73" t="n">
-        <v>145.116157</v>
+        <v>144.956047</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.571236</v>
+        <v>-37.772859</v>
       </c>
       <c r="C74" t="n">
-        <v>144.90978</v>
+        <v>145.294713</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.685249</v>
+        <v>-37.798171</v>
       </c>
       <c r="C75" t="n">
-        <v>144.92446</v>
+        <v>144.956665</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.704175</v>
+        <v>-38.012111</v>
       </c>
       <c r="C76" t="n">
-        <v>144.998741</v>
+        <v>145.090154</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.726306</v>
+        <v>-36.732518</v>
       </c>
       <c r="C77" t="n">
-        <v>145.069914</v>
+        <v>146.967357</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C78" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1777,32 +1777,32 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.8163949</v>
+        <v>-37.927427</v>
       </c>
       <c r="C79" t="n">
-        <v>144.9526066</v>
+        <v>145.116157</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.667111</v>
+        <v>-37.571236</v>
       </c>
       <c r="C80" t="n">
-        <v>144.8334808</v>
+        <v>144.90978</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1813,54 +1813,54 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C81" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.836082</v>
+        <v>-37.704175</v>
       </c>
       <c r="C82" t="n">
-        <v>144.915383</v>
+        <v>144.998741</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C83" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -1885,36 +1885,36 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.837908</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C85" t="n">
-        <v>144.786218</v>
+        <v>144.9526066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C86" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -1939,108 +1939,108 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.841635</v>
+        <v>-37.836082</v>
       </c>
       <c r="C88" t="n">
-        <v>145.086235</v>
+        <v>144.915383</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C89" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C90" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.884267</v>
+        <v>-37.837908</v>
       </c>
       <c r="C91" t="n">
-        <v>145.017115</v>
+        <v>144.786218</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C92" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C93" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -2065,176 +2065,176 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.884267</v>
+        <v>-37.756286</v>
       </c>
       <c r="C95" t="n">
-        <v>145.017115</v>
+        <v>144.811104</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.69261</v>
+        <v>-37.715384</v>
       </c>
       <c r="C96" t="n">
-        <v>145.063821</v>
+        <v>144.811994</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.689223</v>
+        <v>-37.884267</v>
       </c>
       <c r="C97" t="n">
-        <v>144.604708</v>
+        <v>145.017115</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.843632</v>
+        <v>-36.314871</v>
       </c>
       <c r="C98" t="n">
-        <v>144.781559</v>
+        <v>145.04197</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.730748</v>
+        <v>-37.92849</v>
       </c>
       <c r="C99" t="n">
-        <v>145.086489</v>
+        <v>145.007454</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.702513</v>
+        <v>-37.841635</v>
       </c>
       <c r="C100" t="n">
-        <v>144.802326</v>
+        <v>145.086235</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.673996</v>
+        <v>-37.884267</v>
       </c>
       <c r="C101" t="n">
-        <v>144.955354</v>
+        <v>145.017115</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.576594</v>
+        <v>-37.69261</v>
       </c>
       <c r="C102" t="n">
-        <v>144.728665</v>
+        <v>145.063821</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.879995</v>
+        <v>-37.689223</v>
       </c>
       <c r="C103" t="n">
-        <v>144.701577</v>
+        <v>144.604708</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.834014</v>
+        <v>-37.843632</v>
       </c>
       <c r="C104" t="n">
-        <v>144.652853</v>
+        <v>144.781559</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -2245,32 +2245,32 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.942099</v>
+        <v>-37.730748</v>
       </c>
       <c r="C105" t="n">
-        <v>145.167684</v>
+        <v>145.086489</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.664667</v>
+        <v>-37.702513</v>
       </c>
       <c r="C106" t="n">
-        <v>144.74749</v>
+        <v>144.802326</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -2281,414 +2281,414 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.665417</v>
+        <v>-37.673996</v>
       </c>
       <c r="C107" t="n">
-        <v>144.753359</v>
+        <v>144.955354</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.73899</v>
+        <v>-37.576594</v>
       </c>
       <c r="C108" t="n">
-        <v>144.679976</v>
+        <v>144.728665</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.596123</v>
+        <v>-37.879995</v>
       </c>
       <c r="C109" t="n">
-        <v>144.921401</v>
+        <v>144.701577</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.77238</v>
+        <v>-37.834014</v>
       </c>
       <c r="C110" t="n">
-        <v>144.888195</v>
+        <v>144.652853</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.783105</v>
+        <v>-37.942099</v>
       </c>
       <c r="C111" t="n">
-        <v>144.785398</v>
+        <v>145.167684</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.766147</v>
+        <v>-37.664667</v>
       </c>
       <c r="C112" t="n">
-        <v>145.020052</v>
+        <v>144.74749</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.689366</v>
+        <v>-37.665417</v>
       </c>
       <c r="C113" t="n">
-        <v>144.958878</v>
+        <v>144.753359</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.678278</v>
+        <v>-37.73899</v>
       </c>
       <c r="C114" t="n">
-        <v>144.432689</v>
+        <v>144.679976</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.810712</v>
+        <v>-37.596123</v>
       </c>
       <c r="C115" t="n">
-        <v>144.836118</v>
+        <v>144.921401</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.667111</v>
+        <v>-37.77238</v>
       </c>
       <c r="C116" t="n">
-        <v>144.8334808</v>
+        <v>144.888195</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.811678</v>
+        <v>-37.783105</v>
       </c>
       <c r="C117" t="n">
-        <v>144.889926</v>
+        <v>144.785398</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.797177</v>
+        <v>-37.766147</v>
       </c>
       <c r="C118" t="n">
-        <v>144.894632</v>
+        <v>145.020052</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.759223</v>
+        <v>-37.689366</v>
       </c>
       <c r="C119" t="n">
-        <v>144.816754</v>
+        <v>144.958878</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.844318</v>
+        <v>-37.678278</v>
       </c>
       <c r="C120" t="n">
-        <v>145.009818</v>
+        <v>144.432689</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.813239</v>
+        <v>-37.810712</v>
       </c>
       <c r="C121" t="n">
-        <v>145.048047</v>
+        <v>144.836118</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.7769407</v>
+        <v>-37.667111</v>
       </c>
       <c r="C122" t="n">
-        <v>144.987025</v>
+        <v>144.8334808</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.772096</v>
+        <v>-37.811678</v>
       </c>
       <c r="C123" t="n">
-        <v>144.916095</v>
+        <v>144.889926</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C124" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C125" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C126" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C127" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C128" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C129" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2713,266 +2713,266 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C131" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C132" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C133" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C134" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C135" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C136" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C137" t="n">
-        <v>144.9564881</v>
+        <v>144.983472</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-38.199003</v>
+        <v>-37.800963</v>
       </c>
       <c r="C138" t="n">
-        <v>144.318418</v>
+        <v>145.0729384</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-38.199003</v>
+        <v>-37.790783</v>
       </c>
       <c r="C139" t="n">
-        <v>144.318418</v>
+        <v>144.998162</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C140" t="n">
-        <v>145.0868276</v>
+        <v>144.983613</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.809265</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C141" t="n">
-        <v>144.994951</v>
+        <v>144.955806</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.667111</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C142" t="n">
-        <v>144.8334808</v>
+        <v>144.9564881</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C143" t="n">
-        <v>144.9680124</v>
+        <v>144.9564881</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.8163949</v>
+        <v>-38.199003</v>
       </c>
       <c r="C144" t="n">
-        <v>144.9526066</v>
+        <v>144.318418</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-38.1450096</v>
+        <v>-38.199003</v>
       </c>
       <c r="C145" t="n">
-        <v>144.3568376</v>
+        <v>144.318418</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2983,90 +2983,90 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.028215</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C146" t="n">
-        <v>145.14336</v>
+        <v>145.0868276</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.720557</v>
+        <v>-37.809265</v>
       </c>
       <c r="C147" t="n">
-        <v>145.048232</v>
+        <v>144.994951</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.720557</v>
+        <v>-37.667111</v>
       </c>
       <c r="C148" t="n">
-        <v>145.048232</v>
+        <v>144.8334808</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.720557</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C149" t="n">
-        <v>145.048232</v>
+        <v>144.9680124</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C150" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -3091,196 +3091,304 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.8163949</v>
+        <v>-37.028215</v>
       </c>
       <c r="C152" t="n">
-        <v>144.9526066</v>
+        <v>145.14336</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C153" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.8266608</v>
+        <v>-37.720557</v>
       </c>
       <c r="C154" t="n">
-        <v>145.0587903</v>
+        <v>145.048232</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C155" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C156" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C157" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C158" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C159" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.667111</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C160" t="n">
-        <v>144.8334808</v>
+        <v>145.0587903</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C161" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C162" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C163" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C164" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C165" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B162" t="n">
+      <c r="B166" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C166" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C167" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C168" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D168" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,104 +391,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.788414</v>
+        <v>-37.845667</v>
       </c>
       <c r="C2" t="n">
-        <v>144.936951</v>
+        <v>144.981921</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.73908</v>
+        <v>-37.813306</v>
       </c>
       <c r="C3" t="n">
-        <v>145.002236</v>
+        <v>144.849237</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.785949</v>
+        <v>-37.690076</v>
       </c>
       <c r="C4" t="n">
-        <v>144.935308</v>
+        <v>144.996836</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.670681</v>
+        <v>-37.813215</v>
       </c>
       <c r="C5" t="n">
-        <v>144.850306</v>
+        <v>144.965914</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.817011</v>
+        <v>-37.796258</v>
       </c>
       <c r="C6" t="n">
-        <v>144.962265</v>
+        <v>144.862235</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.791989</v>
+        <v>-37.798908</v>
       </c>
       <c r="C7" t="n">
-        <v>144.940508</v>
+        <v>144.956176</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -499,32 +499,32 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.653023</v>
+        <v>-37.788414</v>
       </c>
       <c r="C8" t="n">
-        <v>145.014685</v>
+        <v>144.936951</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.766715</v>
+        <v>-37.73908</v>
       </c>
       <c r="C9" t="n">
-        <v>145.021149</v>
+        <v>145.002236</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -535,14 +535,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.741667</v>
+        <v>-37.785949</v>
       </c>
       <c r="C10" t="n">
-        <v>144.908954</v>
+        <v>144.935308</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -553,50 +553,50 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.759288</v>
+        <v>-37.670681</v>
       </c>
       <c r="C11" t="n">
-        <v>144.817921</v>
+        <v>144.850306</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.817743</v>
+        <v>-37.817011</v>
       </c>
       <c r="C12" t="n">
-        <v>144.992936</v>
+        <v>144.962265</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.813381</v>
+        <v>-37.791989</v>
       </c>
       <c r="C13" t="n">
-        <v>144.967076</v>
+        <v>144.940508</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,14 +607,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.598146</v>
+        <v>-37.653023</v>
       </c>
       <c r="C14" t="n">
-        <v>145.068782</v>
+        <v>145.014685</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -625,1256 +625,1256 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.704738</v>
+        <v>-37.766715</v>
       </c>
       <c r="C15" t="n">
-        <v>144.86329</v>
+        <v>145.021149</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.815499</v>
+        <v>-37.741667</v>
       </c>
       <c r="C16" t="n">
-        <v>144.965882</v>
+        <v>144.908954</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.724684</v>
+        <v>-37.759288</v>
       </c>
       <c r="C17" t="n">
-        <v>144.940008</v>
+        <v>144.817921</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.752048</v>
+        <v>-37.817743</v>
       </c>
       <c r="C18" t="n">
-        <v>144.970526</v>
+        <v>144.992936</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.787776</v>
+        <v>-37.813381</v>
       </c>
       <c r="C19" t="n">
-        <v>144.829839</v>
+        <v>144.967076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.817826</v>
+        <v>-37.598146</v>
       </c>
       <c r="C20" t="n">
-        <v>144.878737</v>
+        <v>145.068782</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.785683</v>
+        <v>-37.704738</v>
       </c>
       <c r="C21" t="n">
-        <v>144.994154</v>
+        <v>144.86329</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.812264</v>
+        <v>-37.815499</v>
       </c>
       <c r="C22" t="n">
-        <v>144.991241</v>
+        <v>144.965882</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.813934</v>
+        <v>-37.724684</v>
       </c>
       <c r="C23" t="n">
-        <v>144.999135</v>
+        <v>144.940008</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.81693</v>
+        <v>-37.752048</v>
       </c>
       <c r="C24" t="n">
-        <v>144.962296</v>
+        <v>144.970526</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.798908</v>
+        <v>-37.787776</v>
       </c>
       <c r="C25" t="n">
-        <v>144.956176</v>
+        <v>144.829839</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.870336</v>
+        <v>-37.817826</v>
       </c>
       <c r="C26" t="n">
-        <v>144.696569</v>
+        <v>144.878737</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.735123</v>
+        <v>-37.785683</v>
       </c>
       <c r="C27" t="n">
-        <v>144.738736</v>
+        <v>144.994154</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.581979</v>
+        <v>-37.812264</v>
       </c>
       <c r="C28" t="n">
-        <v>144.905951</v>
+        <v>144.991241</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.71597</v>
+        <v>-37.813934</v>
       </c>
       <c r="C29" t="n">
-        <v>144.935826</v>
+        <v>144.999135</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.74954</v>
+        <v>-37.81693</v>
       </c>
       <c r="C30" t="n">
-        <v>144.883252</v>
+        <v>144.962296</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.754926</v>
+        <v>-37.798908</v>
       </c>
       <c r="C31" t="n">
-        <v>144.966324</v>
+        <v>144.956176</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.875675</v>
+        <v>-37.870336</v>
       </c>
       <c r="C32" t="n">
-        <v>144.79145</v>
+        <v>144.696569</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.601756</v>
+        <v>-37.735123</v>
       </c>
       <c r="C33" t="n">
-        <v>144.905386</v>
+        <v>144.738736</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.778017</v>
+        <v>-37.581979</v>
       </c>
       <c r="C34" t="n">
-        <v>144.889266</v>
+        <v>144.905951</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.799002</v>
+        <v>-37.71597</v>
       </c>
       <c r="C35" t="n">
-        <v>144.894926</v>
+        <v>144.935826</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.837112</v>
+        <v>-37.74954</v>
       </c>
       <c r="C36" t="n">
-        <v>144.941595</v>
+        <v>144.883252</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.854529</v>
+        <v>-37.754926</v>
       </c>
       <c r="C37" t="n">
-        <v>144.721868</v>
+        <v>144.966324</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.774352</v>
+        <v>-37.875675</v>
       </c>
       <c r="C38" t="n">
-        <v>144.92733</v>
+        <v>144.79145</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.755176</v>
+        <v>-37.601756</v>
       </c>
       <c r="C39" t="n">
-        <v>144.90226</v>
+        <v>144.905386</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.658638</v>
+        <v>-37.778017</v>
       </c>
       <c r="C40" t="n">
-        <v>145.076922</v>
+        <v>144.889266</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.675501</v>
+        <v>-37.799002</v>
       </c>
       <c r="C41" t="n">
-        <v>145.135999</v>
+        <v>144.894926</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.819298</v>
+        <v>-37.837112</v>
       </c>
       <c r="C42" t="n">
-        <v>145.129263</v>
+        <v>144.941595</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.791185</v>
+        <v>-37.854529</v>
       </c>
       <c r="C43" t="n">
-        <v>144.886937</v>
+        <v>144.721868</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.655759</v>
+        <v>-37.774352</v>
       </c>
       <c r="C44" t="n">
-        <v>145.032038</v>
+        <v>144.92733</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.764884</v>
+        <v>-37.755176</v>
       </c>
       <c r="C45" t="n">
-        <v>144.979606</v>
+        <v>144.90226</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.717149</v>
+        <v>-37.658638</v>
       </c>
       <c r="C46" t="n">
-        <v>144.808867</v>
+        <v>145.076922</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.718987</v>
+        <v>-37.675501</v>
       </c>
       <c r="C47" t="n">
-        <v>144.992857</v>
+        <v>145.135999</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.778539</v>
+        <v>-37.819298</v>
       </c>
       <c r="C48" t="n">
-        <v>144.875831</v>
+        <v>145.129263</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.690602</v>
+        <v>-37.791185</v>
       </c>
       <c r="C49" t="n">
-        <v>144.869104</v>
+        <v>144.886937</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.814598</v>
+        <v>-37.655759</v>
       </c>
       <c r="C50" t="n">
-        <v>144.762011</v>
+        <v>145.032038</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.933332</v>
+        <v>-37.764884</v>
       </c>
       <c r="C51" t="n">
-        <v>145.000542</v>
+        <v>144.979606</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.773754</v>
+        <v>-37.717149</v>
       </c>
       <c r="C52" t="n">
-        <v>144.888956</v>
+        <v>144.808867</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.744387</v>
+        <v>-37.718987</v>
       </c>
       <c r="C53" t="n">
-        <v>144.774297</v>
+        <v>144.992857</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.711211</v>
+        <v>-37.778539</v>
       </c>
       <c r="C54" t="n">
-        <v>144.738802</v>
+        <v>144.875831</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.816363</v>
+        <v>-37.690602</v>
       </c>
       <c r="C55" t="n">
-        <v>145.06656</v>
+        <v>144.869104</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-38.102082</v>
+        <v>-37.814598</v>
       </c>
       <c r="C56" t="n">
-        <v>145.265397</v>
+        <v>144.762011</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.684606</v>
+        <v>-37.933332</v>
       </c>
       <c r="C57" t="n">
-        <v>144.760227</v>
+        <v>145.000542</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.715384</v>
+        <v>-37.773754</v>
       </c>
       <c r="C58" t="n">
-        <v>144.811994</v>
+        <v>144.888956</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.738834</v>
+        <v>-37.744387</v>
       </c>
       <c r="C59" t="n">
-        <v>145.030187</v>
+        <v>144.774297</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-38.075826</v>
+        <v>-37.711211</v>
       </c>
       <c r="C60" t="n">
-        <v>145.473885</v>
+        <v>144.738802</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.837404</v>
+        <v>-37.816363</v>
       </c>
       <c r="C61" t="n">
-        <v>144.996291</v>
+        <v>145.06656</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.898104</v>
+        <v>-38.102082</v>
       </c>
       <c r="C62" t="n">
-        <v>145.160876</v>
+        <v>145.265397</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.890643</v>
+        <v>-37.684606</v>
       </c>
       <c r="C63" t="n">
-        <v>145.062546</v>
+        <v>144.760227</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.8135</v>
+        <v>-37.715384</v>
       </c>
       <c r="C64" t="n">
-        <v>144.969933</v>
+        <v>144.811994</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.581295</v>
+        <v>-37.738834</v>
       </c>
       <c r="C65" t="n">
-        <v>144.738024</v>
+        <v>145.030187</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.744387</v>
+        <v>-38.075826</v>
       </c>
       <c r="C66" t="n">
-        <v>144.774297</v>
+        <v>145.473885</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.735247</v>
+        <v>-37.837404</v>
       </c>
       <c r="C67" t="n">
-        <v>144.917023</v>
+        <v>144.996291</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.975685</v>
+        <v>-37.898104</v>
       </c>
       <c r="C68" t="n">
-        <v>145.216529</v>
+        <v>145.160876</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.688119</v>
+        <v>-37.890643</v>
       </c>
       <c r="C69" t="n">
-        <v>144.884379</v>
+        <v>145.062546</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.691402</v>
+        <v>-37.8135</v>
       </c>
       <c r="C70" t="n">
-        <v>145.213889</v>
+        <v>144.969933</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.760449</v>
+        <v>-37.581295</v>
       </c>
       <c r="C71" t="n">
-        <v>145.348691</v>
+        <v>144.738024</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-38.085076</v>
+        <v>-37.744387</v>
       </c>
       <c r="C72" t="n">
-        <v>145.46966</v>
+        <v>144.774297</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.740107</v>
+        <v>-37.735247</v>
       </c>
       <c r="C73" t="n">
-        <v>144.956047</v>
+        <v>144.917023</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.772859</v>
+        <v>-37.975685</v>
       </c>
       <c r="C74" t="n">
-        <v>145.294713</v>
+        <v>145.216529</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.798171</v>
+        <v>-37.688119</v>
       </c>
       <c r="C75" t="n">
-        <v>144.956665</v>
+        <v>144.884379</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-38.012111</v>
+        <v>-37.691402</v>
       </c>
       <c r="C76" t="n">
-        <v>145.090154</v>
+        <v>145.213889</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-36.732518</v>
+        <v>-37.760449</v>
       </c>
       <c r="C77" t="n">
-        <v>146.967357</v>
+        <v>145.348691</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.811362</v>
+        <v>-38.085076</v>
       </c>
       <c r="C78" t="n">
-        <v>144.973203</v>
+        <v>145.46966</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.927427</v>
+        <v>-37.740107</v>
       </c>
       <c r="C79" t="n">
-        <v>145.116157</v>
+        <v>144.956047</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.571236</v>
+        <v>-37.772859</v>
       </c>
       <c r="C80" t="n">
-        <v>144.90978</v>
+        <v>145.294713</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.685249</v>
+        <v>-37.798171</v>
       </c>
       <c r="C81" t="n">
-        <v>144.92446</v>
+        <v>144.956665</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.704175</v>
+        <v>-38.012111</v>
       </c>
       <c r="C82" t="n">
-        <v>144.998741</v>
+        <v>145.090154</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.726306</v>
+        <v>-36.732518</v>
       </c>
       <c r="C83" t="n">
-        <v>145.069914</v>
+        <v>146.967357</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C84" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1885,32 +1885,32 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.8163949</v>
+        <v>-37.927427</v>
       </c>
       <c r="C85" t="n">
-        <v>144.9526066</v>
+        <v>145.116157</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.667111</v>
+        <v>-37.571236</v>
       </c>
       <c r="C86" t="n">
-        <v>144.8334808</v>
+        <v>144.90978</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -1921,54 +1921,54 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C87" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.836082</v>
+        <v>-37.704175</v>
       </c>
       <c r="C88" t="n">
-        <v>144.915383</v>
+        <v>144.998741</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C89" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -1993,36 +1993,36 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.837908</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C91" t="n">
-        <v>144.786218</v>
+        <v>144.9526066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C92" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -2047,108 +2047,108 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.841635</v>
+        <v>-37.836082</v>
       </c>
       <c r="C94" t="n">
-        <v>145.086235</v>
+        <v>144.915383</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C95" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C96" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.884267</v>
+        <v>-37.837908</v>
       </c>
       <c r="C97" t="n">
-        <v>145.017115</v>
+        <v>144.786218</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C98" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C99" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -2173,176 +2173,176 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.884267</v>
+        <v>-37.756286</v>
       </c>
       <c r="C101" t="n">
-        <v>145.017115</v>
+        <v>144.811104</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.69261</v>
+        <v>-37.715384</v>
       </c>
       <c r="C102" t="n">
-        <v>145.063821</v>
+        <v>144.811994</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.689223</v>
+        <v>-37.884267</v>
       </c>
       <c r="C103" t="n">
-        <v>144.604708</v>
+        <v>145.017115</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.843632</v>
+        <v>-36.314871</v>
       </c>
       <c r="C104" t="n">
-        <v>144.781559</v>
+        <v>145.04197</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.730748</v>
+        <v>-37.92849</v>
       </c>
       <c r="C105" t="n">
-        <v>145.086489</v>
+        <v>145.007454</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.702513</v>
+        <v>-37.841635</v>
       </c>
       <c r="C106" t="n">
-        <v>144.802326</v>
+        <v>145.086235</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.673996</v>
+        <v>-37.884267</v>
       </c>
       <c r="C107" t="n">
-        <v>144.955354</v>
+        <v>145.017115</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.576594</v>
+        <v>-37.69261</v>
       </c>
       <c r="C108" t="n">
-        <v>144.728665</v>
+        <v>145.063821</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.879995</v>
+        <v>-37.689223</v>
       </c>
       <c r="C109" t="n">
-        <v>144.701577</v>
+        <v>144.604708</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.834014</v>
+        <v>-37.843632</v>
       </c>
       <c r="C110" t="n">
-        <v>144.652853</v>
+        <v>144.781559</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -2353,32 +2353,32 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.942099</v>
+        <v>-37.730748</v>
       </c>
       <c r="C111" t="n">
-        <v>145.167684</v>
+        <v>145.086489</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.664667</v>
+        <v>-37.702513</v>
       </c>
       <c r="C112" t="n">
-        <v>144.74749</v>
+        <v>144.802326</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2389,414 +2389,414 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.665417</v>
+        <v>-37.673996</v>
       </c>
       <c r="C113" t="n">
-        <v>144.753359</v>
+        <v>144.955354</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.73899</v>
+        <v>-37.576594</v>
       </c>
       <c r="C114" t="n">
-        <v>144.679976</v>
+        <v>144.728665</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.596123</v>
+        <v>-37.879995</v>
       </c>
       <c r="C115" t="n">
-        <v>144.921401</v>
+        <v>144.701577</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.77238</v>
+        <v>-37.834014</v>
       </c>
       <c r="C116" t="n">
-        <v>144.888195</v>
+        <v>144.652853</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.783105</v>
+        <v>-37.942099</v>
       </c>
       <c r="C117" t="n">
-        <v>144.785398</v>
+        <v>145.167684</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.766147</v>
+        <v>-37.664667</v>
       </c>
       <c r="C118" t="n">
-        <v>145.020052</v>
+        <v>144.74749</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.689366</v>
+        <v>-37.665417</v>
       </c>
       <c r="C119" t="n">
-        <v>144.958878</v>
+        <v>144.753359</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.678278</v>
+        <v>-37.73899</v>
       </c>
       <c r="C120" t="n">
-        <v>144.432689</v>
+        <v>144.679976</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.810712</v>
+        <v>-37.596123</v>
       </c>
       <c r="C121" t="n">
-        <v>144.836118</v>
+        <v>144.921401</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.667111</v>
+        <v>-37.77238</v>
       </c>
       <c r="C122" t="n">
-        <v>144.8334808</v>
+        <v>144.888195</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.811678</v>
+        <v>-37.783105</v>
       </c>
       <c r="C123" t="n">
-        <v>144.889926</v>
+        <v>144.785398</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.797177</v>
+        <v>-37.766147</v>
       </c>
       <c r="C124" t="n">
-        <v>144.894632</v>
+        <v>145.020052</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.759223</v>
+        <v>-37.689366</v>
       </c>
       <c r="C125" t="n">
-        <v>144.816754</v>
+        <v>144.958878</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.844318</v>
+        <v>-37.678278</v>
       </c>
       <c r="C126" t="n">
-        <v>145.009818</v>
+        <v>144.432689</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.813239</v>
+        <v>-37.810712</v>
       </c>
       <c r="C127" t="n">
-        <v>145.048047</v>
+        <v>144.836118</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.7769407</v>
+        <v>-37.667111</v>
       </c>
       <c r="C128" t="n">
-        <v>144.987025</v>
+        <v>144.8334808</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.772096</v>
+        <v>-37.811678</v>
       </c>
       <c r="C129" t="n">
-        <v>144.916095</v>
+        <v>144.889926</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C130" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C131" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C132" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C133" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C134" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C135" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2821,266 +2821,266 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C137" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C138" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C139" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C140" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C141" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C142" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C143" t="n">
-        <v>144.9564881</v>
+        <v>144.983472</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-38.199003</v>
+        <v>-37.800963</v>
       </c>
       <c r="C144" t="n">
-        <v>144.318418</v>
+        <v>145.0729384</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-38.199003</v>
+        <v>-37.790783</v>
       </c>
       <c r="C145" t="n">
-        <v>144.318418</v>
+        <v>144.998162</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C146" t="n">
-        <v>145.0868276</v>
+        <v>144.983613</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.809265</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C147" t="n">
-        <v>144.994951</v>
+        <v>144.955806</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.667111</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C148" t="n">
-        <v>144.8334808</v>
+        <v>144.9564881</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C149" t="n">
-        <v>144.9680124</v>
+        <v>144.9564881</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.8163949</v>
+        <v>-38.199003</v>
       </c>
       <c r="C150" t="n">
-        <v>144.9526066</v>
+        <v>144.318418</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-38.1450096</v>
+        <v>-38.199003</v>
       </c>
       <c r="C151" t="n">
-        <v>144.3568376</v>
+        <v>144.318418</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3091,90 +3091,90 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.028215</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C152" t="n">
-        <v>145.14336</v>
+        <v>145.0868276</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.720557</v>
+        <v>-37.809265</v>
       </c>
       <c r="C153" t="n">
-        <v>145.048232</v>
+        <v>144.994951</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.720557</v>
+        <v>-37.667111</v>
       </c>
       <c r="C154" t="n">
-        <v>145.048232</v>
+        <v>144.8334808</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.720557</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C155" t="n">
-        <v>145.048232</v>
+        <v>144.9680124</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C156" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -3199,196 +3199,304 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.8163949</v>
+        <v>-37.028215</v>
       </c>
       <c r="C158" t="n">
-        <v>144.9526066</v>
+        <v>145.14336</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C159" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.8266608</v>
+        <v>-37.720557</v>
       </c>
       <c r="C160" t="n">
-        <v>145.0587903</v>
+        <v>145.048232</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C161" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C162" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C163" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C164" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C165" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.667111</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C166" t="n">
-        <v>144.8334808</v>
+        <v>145.0587903</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C167" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C168" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C169" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C170" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C171" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B168" t="n">
+      <c r="B172" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C172" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C173" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C174" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D174" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,212 +391,212 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.845667</v>
+        <v>-37.740508</v>
       </c>
       <c r="C2" t="n">
-        <v>144.981921</v>
+        <v>145.075152</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.813306</v>
+        <v>-37.845667</v>
       </c>
       <c r="C3" t="n">
-        <v>144.849237</v>
+        <v>144.981921</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.690076</v>
+        <v>-37.813306</v>
       </c>
       <c r="C4" t="n">
-        <v>144.996836</v>
+        <v>144.849237</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.813215</v>
+        <v>-37.690076</v>
       </c>
       <c r="C5" t="n">
-        <v>144.965914</v>
+        <v>144.996836</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.796258</v>
+        <v>-37.813215</v>
       </c>
       <c r="C6" t="n">
-        <v>144.862235</v>
+        <v>144.965914</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.798908</v>
+        <v>-37.796258</v>
       </c>
       <c r="C7" t="n">
-        <v>144.956176</v>
+        <v>144.862235</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.788414</v>
+        <v>-37.798908</v>
       </c>
       <c r="C8" t="n">
-        <v>144.936951</v>
+        <v>144.956176</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.73908</v>
+        <v>-37.788414</v>
       </c>
       <c r="C9" t="n">
-        <v>145.002236</v>
+        <v>144.936951</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.785949</v>
+        <v>-37.73908</v>
       </c>
       <c r="C10" t="n">
-        <v>144.935308</v>
+        <v>145.002236</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.670681</v>
+        <v>-37.785949</v>
       </c>
       <c r="C11" t="n">
-        <v>144.850306</v>
+        <v>144.935308</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.817011</v>
+        <v>-37.670681</v>
       </c>
       <c r="C12" t="n">
-        <v>144.962265</v>
+        <v>144.850306</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.791989</v>
+        <v>-37.817011</v>
       </c>
       <c r="C13" t="n">
-        <v>144.940508</v>
+        <v>144.962265</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,194 +607,194 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.653023</v>
+        <v>-37.791989</v>
       </c>
       <c r="C14" t="n">
-        <v>145.014685</v>
+        <v>144.940508</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.766715</v>
+        <v>-37.653023</v>
       </c>
       <c r="C15" t="n">
-        <v>145.021149</v>
+        <v>145.014685</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.741667</v>
+        <v>-37.766715</v>
       </c>
       <c r="C16" t="n">
-        <v>144.908954</v>
+        <v>145.021149</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.759288</v>
+        <v>-37.741667</v>
       </c>
       <c r="C17" t="n">
-        <v>144.817921</v>
+        <v>144.908954</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.817743</v>
+        <v>-37.759288</v>
       </c>
       <c r="C18" t="n">
-        <v>144.992936</v>
+        <v>144.817921</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.813381</v>
+        <v>-37.817743</v>
       </c>
       <c r="C19" t="n">
-        <v>144.967076</v>
+        <v>144.992936</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.598146</v>
+        <v>-37.813381</v>
       </c>
       <c r="C20" t="n">
-        <v>145.068782</v>
+        <v>144.967076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.704738</v>
+        <v>-37.598146</v>
       </c>
       <c r="C21" t="n">
-        <v>144.86329</v>
+        <v>145.068782</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.815499</v>
+        <v>-37.704738</v>
       </c>
       <c r="C22" t="n">
-        <v>144.965882</v>
+        <v>144.86329</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.724684</v>
+        <v>-37.815499</v>
       </c>
       <c r="C23" t="n">
-        <v>144.940008</v>
+        <v>144.965882</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.752048</v>
+        <v>-37.724684</v>
       </c>
       <c r="C24" t="n">
-        <v>144.970526</v>
+        <v>144.940008</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -805,68 +805,68 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.787776</v>
+        <v>-37.752048</v>
       </c>
       <c r="C25" t="n">
-        <v>144.829839</v>
+        <v>144.970526</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.817826</v>
+        <v>-37.787776</v>
       </c>
       <c r="C26" t="n">
-        <v>144.878737</v>
+        <v>144.829839</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.785683</v>
+        <v>-37.817826</v>
       </c>
       <c r="C27" t="n">
-        <v>144.994154</v>
+        <v>144.878737</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.812264</v>
+        <v>-37.785683</v>
       </c>
       <c r="C28" t="n">
-        <v>144.991241</v>
+        <v>144.994154</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.813934</v>
+        <v>-37.812264</v>
       </c>
       <c r="C29" t="n">
-        <v>144.999135</v>
+        <v>144.991241</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -895,32 +895,32 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.81693</v>
+        <v>-37.813934</v>
       </c>
       <c r="C30" t="n">
-        <v>144.962296</v>
+        <v>144.999135</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.798908</v>
+        <v>-37.81693</v>
       </c>
       <c r="C31" t="n">
-        <v>144.956176</v>
+        <v>144.962296</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -931,176 +931,176 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.870336</v>
+        <v>-37.798908</v>
       </c>
       <c r="C32" t="n">
-        <v>144.696569</v>
+        <v>144.956176</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.735123</v>
+        <v>-37.870336</v>
       </c>
       <c r="C33" t="n">
-        <v>144.738736</v>
+        <v>144.696569</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.581979</v>
+        <v>-37.735123</v>
       </c>
       <c r="C34" t="n">
-        <v>144.905951</v>
+        <v>144.738736</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.71597</v>
+        <v>-37.581979</v>
       </c>
       <c r="C35" t="n">
-        <v>144.935826</v>
+        <v>144.905951</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.74954</v>
+        <v>-37.71597</v>
       </c>
       <c r="C36" t="n">
-        <v>144.883252</v>
+        <v>144.935826</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.754926</v>
+        <v>-37.74954</v>
       </c>
       <c r="C37" t="n">
-        <v>144.966324</v>
+        <v>144.883252</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.875675</v>
+        <v>-37.754926</v>
       </c>
       <c r="C38" t="n">
-        <v>144.79145</v>
+        <v>144.966324</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.601756</v>
+        <v>-37.875675</v>
       </c>
       <c r="C39" t="n">
-        <v>144.905386</v>
+        <v>144.79145</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.778017</v>
+        <v>-37.601756</v>
       </c>
       <c r="C40" t="n">
-        <v>144.889266</v>
+        <v>144.905386</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.799002</v>
+        <v>-37.778017</v>
       </c>
       <c r="C41" t="n">
-        <v>144.894926</v>
+        <v>144.889266</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1111,68 +1111,68 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.837112</v>
+        <v>-37.799002</v>
       </c>
       <c r="C42" t="n">
-        <v>144.941595</v>
+        <v>144.894926</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.854529</v>
+        <v>-37.837112</v>
       </c>
       <c r="C43" t="n">
-        <v>144.721868</v>
+        <v>144.941595</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.774352</v>
+        <v>-37.854529</v>
       </c>
       <c r="C44" t="n">
-        <v>144.92733</v>
+        <v>144.721868</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.755176</v>
+        <v>-37.774352</v>
       </c>
       <c r="C45" t="n">
-        <v>144.90226</v>
+        <v>144.92733</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1183,338 +1183,338 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.658638</v>
+        <v>-37.755176</v>
       </c>
       <c r="C46" t="n">
-        <v>145.076922</v>
+        <v>144.90226</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.675501</v>
+        <v>-37.658638</v>
       </c>
       <c r="C47" t="n">
-        <v>145.135999</v>
+        <v>145.076922</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.819298</v>
+        <v>-37.675501</v>
       </c>
       <c r="C48" t="n">
-        <v>145.129263</v>
+        <v>145.135999</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.791185</v>
+        <v>-37.819298</v>
       </c>
       <c r="C49" t="n">
-        <v>144.886937</v>
+        <v>145.129263</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.655759</v>
+        <v>-37.791185</v>
       </c>
       <c r="C50" t="n">
-        <v>145.032038</v>
+        <v>144.886937</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.764884</v>
+        <v>-37.655759</v>
       </c>
       <c r="C51" t="n">
-        <v>144.979606</v>
+        <v>145.032038</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.717149</v>
+        <v>-37.764884</v>
       </c>
       <c r="C52" t="n">
-        <v>144.808867</v>
+        <v>144.979606</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.718987</v>
+        <v>-37.717149</v>
       </c>
       <c r="C53" t="n">
-        <v>144.992857</v>
+        <v>144.808867</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.778539</v>
+        <v>-37.718987</v>
       </c>
       <c r="C54" t="n">
-        <v>144.875831</v>
+        <v>144.992857</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.690602</v>
+        <v>-37.778539</v>
       </c>
       <c r="C55" t="n">
-        <v>144.869104</v>
+        <v>144.875831</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.814598</v>
+        <v>-37.690602</v>
       </c>
       <c r="C56" t="n">
-        <v>144.762011</v>
+        <v>144.869104</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.933332</v>
+        <v>-37.814598</v>
       </c>
       <c r="C57" t="n">
-        <v>145.000542</v>
+        <v>144.762011</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.773754</v>
+        <v>-37.933332</v>
       </c>
       <c r="C58" t="n">
-        <v>144.888956</v>
+        <v>145.000542</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.744387</v>
+        <v>-37.773754</v>
       </c>
       <c r="C59" t="n">
-        <v>144.774297</v>
+        <v>144.888956</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.711211</v>
+        <v>-37.744387</v>
       </c>
       <c r="C60" t="n">
-        <v>144.738802</v>
+        <v>144.774297</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.816363</v>
+        <v>-37.711211</v>
       </c>
       <c r="C61" t="n">
-        <v>145.06656</v>
+        <v>144.738802</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-38.102082</v>
+        <v>-37.816363</v>
       </c>
       <c r="C62" t="n">
-        <v>145.265397</v>
+        <v>145.06656</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.684606</v>
+        <v>-38.102082</v>
       </c>
       <c r="C63" t="n">
-        <v>144.760227</v>
+        <v>145.265397</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.715384</v>
+        <v>-37.684606</v>
       </c>
       <c r="C64" t="n">
-        <v>144.811994</v>
+        <v>144.760227</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1525,410 +1525,410 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.738834</v>
+        <v>-37.715384</v>
       </c>
       <c r="C65" t="n">
-        <v>145.030187</v>
+        <v>144.811994</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-38.075826</v>
+        <v>-37.738834</v>
       </c>
       <c r="C66" t="n">
-        <v>145.473885</v>
+        <v>145.030187</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.837404</v>
+        <v>-38.075826</v>
       </c>
       <c r="C67" t="n">
-        <v>144.996291</v>
+        <v>145.473885</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.898104</v>
+        <v>-37.837404</v>
       </c>
       <c r="C68" t="n">
-        <v>145.160876</v>
+        <v>144.996291</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.890643</v>
+        <v>-37.898104</v>
       </c>
       <c r="C69" t="n">
-        <v>145.062546</v>
+        <v>145.160876</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.8135</v>
+        <v>-37.890643</v>
       </c>
       <c r="C70" t="n">
-        <v>144.969933</v>
+        <v>145.062546</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.581295</v>
+        <v>-37.8135</v>
       </c>
       <c r="C71" t="n">
-        <v>144.738024</v>
+        <v>144.969933</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.744387</v>
+        <v>-37.581295</v>
       </c>
       <c r="C72" t="n">
-        <v>144.774297</v>
+        <v>144.738024</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.735247</v>
+        <v>-37.744387</v>
       </c>
       <c r="C73" t="n">
-        <v>144.917023</v>
+        <v>144.774297</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.975685</v>
+        <v>-37.735247</v>
       </c>
       <c r="C74" t="n">
-        <v>145.216529</v>
+        <v>144.917023</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.688119</v>
+        <v>-37.975685</v>
       </c>
       <c r="C75" t="n">
-        <v>144.884379</v>
+        <v>145.216529</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.691402</v>
+        <v>-37.688119</v>
       </c>
       <c r="C76" t="n">
-        <v>145.213889</v>
+        <v>144.884379</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.760449</v>
+        <v>-37.691402</v>
       </c>
       <c r="C77" t="n">
-        <v>145.348691</v>
+        <v>145.213889</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-38.085076</v>
+        <v>-37.760449</v>
       </c>
       <c r="C78" t="n">
-        <v>145.46966</v>
+        <v>145.348691</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.740107</v>
+        <v>-38.085076</v>
       </c>
       <c r="C79" t="n">
-        <v>144.956047</v>
+        <v>145.46966</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.772859</v>
+        <v>-37.740107</v>
       </c>
       <c r="C80" t="n">
-        <v>145.294713</v>
+        <v>144.956047</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.798171</v>
+        <v>-37.772859</v>
       </c>
       <c r="C81" t="n">
-        <v>144.956665</v>
+        <v>145.294713</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-38.012111</v>
+        <v>-37.798171</v>
       </c>
       <c r="C82" t="n">
-        <v>145.090154</v>
+        <v>144.956665</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-36.732518</v>
+        <v>-38.012111</v>
       </c>
       <c r="C83" t="n">
-        <v>146.967357</v>
+        <v>145.090154</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.811362</v>
+        <v>-36.732518</v>
       </c>
       <c r="C84" t="n">
-        <v>144.973203</v>
+        <v>146.967357</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.927427</v>
+        <v>-37.811362</v>
       </c>
       <c r="C85" t="n">
-        <v>145.116157</v>
+        <v>144.973203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.571236</v>
+        <v>-37.927427</v>
       </c>
       <c r="C86" t="n">
-        <v>144.90978</v>
+        <v>145.116157</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.685249</v>
+        <v>-37.571236</v>
       </c>
       <c r="C87" t="n">
-        <v>144.92446</v>
+        <v>144.90978</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -1939,68 +1939,68 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.704175</v>
+        <v>-37.685249</v>
       </c>
       <c r="C88" t="n">
-        <v>144.998741</v>
+        <v>144.92446</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.726306</v>
+        <v>-37.704175</v>
       </c>
       <c r="C89" t="n">
-        <v>145.069914</v>
+        <v>144.998741</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C90" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.8163949</v>
+        <v>-37.801332</v>
       </c>
       <c r="C91" t="n">
-        <v>144.9526066</v>
+        <v>144.963635</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2011,72 +2011,72 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C92" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C93" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.836082</v>
+        <v>-37.801332</v>
       </c>
       <c r="C94" t="n">
-        <v>144.915383</v>
+        <v>144.963635</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C95" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -2101,36 +2101,36 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C97" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C98" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
@@ -2155,50 +2155,50 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C100" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.756286</v>
+        <v>-37.841635</v>
       </c>
       <c r="C101" t="n">
-        <v>144.811104</v>
+        <v>145.086235</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.715384</v>
+        <v>-37.756286</v>
       </c>
       <c r="C102" t="n">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -2209,212 +2209,212 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.884267</v>
+        <v>-37.715384</v>
       </c>
       <c r="C103" t="n">
-        <v>145.017115</v>
+        <v>144.811994</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-36.314871</v>
+        <v>-37.884267</v>
       </c>
       <c r="C104" t="n">
-        <v>145.04197</v>
+        <v>145.017115</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.92849</v>
+        <v>-36.314871</v>
       </c>
       <c r="C105" t="n">
-        <v>145.007454</v>
+        <v>145.04197</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.841635</v>
+        <v>-37.92849</v>
       </c>
       <c r="C106" t="n">
-        <v>145.086235</v>
+        <v>145.007454</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.884267</v>
+        <v>-37.841635</v>
       </c>
       <c r="C107" t="n">
-        <v>145.017115</v>
+        <v>145.086235</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.69261</v>
+        <v>-37.884267</v>
       </c>
       <c r="C108" t="n">
-        <v>145.063821</v>
+        <v>145.017115</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.689223</v>
+        <v>-37.69261</v>
       </c>
       <c r="C109" t="n">
-        <v>144.604708</v>
+        <v>145.063821</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.843632</v>
+        <v>-37.689223</v>
       </c>
       <c r="C110" t="n">
-        <v>144.781559</v>
+        <v>144.604708</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.730748</v>
+        <v>-37.843632</v>
       </c>
       <c r="C111" t="n">
-        <v>145.086489</v>
+        <v>144.781559</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.702513</v>
+        <v>-37.730748</v>
       </c>
       <c r="C112" t="n">
-        <v>144.802326</v>
+        <v>145.086489</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.673996</v>
+        <v>-37.702513</v>
       </c>
       <c r="C113" t="n">
-        <v>144.955354</v>
+        <v>144.802326</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.576594</v>
+        <v>-37.673996</v>
       </c>
       <c r="C114" t="n">
-        <v>144.728665</v>
+        <v>144.955354</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -2425,32 +2425,32 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.879995</v>
+        <v>-37.576594</v>
       </c>
       <c r="C115" t="n">
-        <v>144.701577</v>
+        <v>144.728665</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.834014</v>
+        <v>-37.879995</v>
       </c>
       <c r="C116" t="n">
-        <v>144.652853</v>
+        <v>144.701577</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -2461,50 +2461,50 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.942099</v>
+        <v>-37.834014</v>
       </c>
       <c r="C117" t="n">
-        <v>145.167684</v>
+        <v>144.652853</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.664667</v>
+        <v>-37.942099</v>
       </c>
       <c r="C118" t="n">
-        <v>144.74749</v>
+        <v>145.167684</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.665417</v>
+        <v>-37.664667</v>
       </c>
       <c r="C119" t="n">
-        <v>144.753359</v>
+        <v>144.74749</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2515,194 +2515,194 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.73899</v>
+        <v>-37.665417</v>
       </c>
       <c r="C120" t="n">
-        <v>144.679976</v>
+        <v>144.753359</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.596123</v>
+        <v>-37.73899</v>
       </c>
       <c r="C121" t="n">
-        <v>144.921401</v>
+        <v>144.679976</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.77238</v>
+        <v>-37.596123</v>
       </c>
       <c r="C122" t="n">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.783105</v>
+        <v>-37.77238</v>
       </c>
       <c r="C123" t="n">
-        <v>144.785398</v>
+        <v>144.888195</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.766147</v>
+        <v>-37.783105</v>
       </c>
       <c r="C124" t="n">
-        <v>145.020052</v>
+        <v>144.785398</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.689366</v>
+        <v>-37.766147</v>
       </c>
       <c r="C125" t="n">
-        <v>144.958878</v>
+        <v>145.020052</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.678278</v>
+        <v>-37.689366</v>
       </c>
       <c r="C126" t="n">
-        <v>144.432689</v>
+        <v>144.958878</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.810712</v>
+        <v>-37.678278</v>
       </c>
       <c r="C127" t="n">
-        <v>144.836118</v>
+        <v>144.432689</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C128" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.811678</v>
+        <v>-37.667111</v>
       </c>
       <c r="C129" t="n">
-        <v>144.889926</v>
+        <v>144.8334808</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.797177</v>
+        <v>-37.811678</v>
       </c>
       <c r="C130" t="n">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2713,108 +2713,108 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.759223</v>
+        <v>-37.797177</v>
       </c>
       <c r="C131" t="n">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.844318</v>
+        <v>-37.759223</v>
       </c>
       <c r="C132" t="n">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.813239</v>
+        <v>-37.844318</v>
       </c>
       <c r="C133" t="n">
-        <v>145.048047</v>
+        <v>145.009818</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.7769407</v>
+        <v>-37.813239</v>
       </c>
       <c r="C134" t="n">
-        <v>144.987025</v>
+        <v>145.048047</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.772096</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C135" t="n">
-        <v>144.916095</v>
+        <v>144.987025</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C136" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2929,104 +2929,104 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C143" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.800963</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C144" t="n">
-        <v>145.0729384</v>
+        <v>144.983472</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.790783</v>
+        <v>-37.800963</v>
       </c>
       <c r="C145" t="n">
-        <v>144.998162</v>
+        <v>145.0729384</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.8249813</v>
+        <v>-37.790783</v>
       </c>
       <c r="C146" t="n">
-        <v>144.983613</v>
+        <v>144.998162</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.8411037</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C147" t="n">
-        <v>144.955806</v>
+        <v>144.983613</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C148" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -3055,18 +3055,18 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C150" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -3091,86 +3091,86 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C152" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.809265</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C153" t="n">
-        <v>144.994951</v>
+        <v>145.0868276</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C154" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.7978092</v>
+        <v>-37.667111</v>
       </c>
       <c r="C155" t="n">
-        <v>144.9680124</v>
+        <v>144.8334808</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C156" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -3181,54 +3181,54 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C157" t="n">
-        <v>144.3568376</v>
+        <v>144.9526066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.028215</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C158" t="n">
-        <v>145.14336</v>
+        <v>144.3568376</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C159" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -3271,54 +3271,54 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C162" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C163" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C164" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
@@ -3343,36 +3343,36 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C166" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C167" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -3451,18 +3451,18 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C172" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -3497,6 +3497,24 @@
         <v>144.8334808</v>
       </c>
       <c r="D174" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C175" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D175" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,122 +391,122 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.740508</v>
+        <v>-37.684151</v>
       </c>
       <c r="C2" t="n">
-        <v>145.075152</v>
+        <v>144.948507</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.845667</v>
+        <v>-37.756487</v>
       </c>
       <c r="C3" t="n">
-        <v>144.981921</v>
+        <v>144.972167</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.813306</v>
+        <v>-37.87778</v>
       </c>
       <c r="C4" t="n">
-        <v>144.849237</v>
+        <v>144.676933</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.690076</v>
+        <v>-37.741374</v>
       </c>
       <c r="C5" t="n">
-        <v>144.996836</v>
+        <v>144.992388</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.813215</v>
+        <v>-37.801718</v>
       </c>
       <c r="C6" t="n">
-        <v>144.965914</v>
+        <v>145.032141</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.796258</v>
+        <v>-37.740508</v>
       </c>
       <c r="C7" t="n">
-        <v>144.862235</v>
+        <v>145.075152</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.798908</v>
+        <v>-37.845667</v>
       </c>
       <c r="C8" t="n">
-        <v>144.956176</v>
+        <v>144.981921</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,86 +517,86 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.788414</v>
+        <v>-37.813306</v>
       </c>
       <c r="C9" t="n">
-        <v>144.936951</v>
+        <v>144.849237</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.73908</v>
+        <v>-37.690076</v>
       </c>
       <c r="C10" t="n">
-        <v>145.002236</v>
+        <v>144.996836</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.785949</v>
+        <v>-37.813215</v>
       </c>
       <c r="C11" t="n">
-        <v>144.935308</v>
+        <v>144.965914</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.670681</v>
+        <v>-37.796258</v>
       </c>
       <c r="C12" t="n">
-        <v>144.850306</v>
+        <v>144.862235</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.817011</v>
+        <v>-37.798908</v>
       </c>
       <c r="C13" t="n">
-        <v>144.962265</v>
+        <v>144.956176</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,122 +607,122 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.791989</v>
+        <v>-37.788414</v>
       </c>
       <c r="C14" t="n">
-        <v>144.940508</v>
+        <v>144.936951</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.653023</v>
+        <v>-37.73908</v>
       </c>
       <c r="C15" t="n">
-        <v>145.014685</v>
+        <v>145.002236</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.766715</v>
+        <v>-37.785949</v>
       </c>
       <c r="C16" t="n">
-        <v>145.021149</v>
+        <v>144.935308</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.741667</v>
+        <v>-37.670681</v>
       </c>
       <c r="C17" t="n">
-        <v>144.908954</v>
+        <v>144.850306</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.759288</v>
+        <v>-37.817011</v>
       </c>
       <c r="C18" t="n">
-        <v>144.817921</v>
+        <v>144.962265</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.817743</v>
+        <v>-37.789871</v>
       </c>
       <c r="C19" t="n">
-        <v>144.992936</v>
+        <v>144.926734</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.813381</v>
+        <v>-37.791989</v>
       </c>
       <c r="C20" t="n">
-        <v>144.967076</v>
+        <v>144.940508</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -733,14 +733,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.598146</v>
+        <v>-37.653023</v>
       </c>
       <c r="C21" t="n">
-        <v>145.068782</v>
+        <v>145.014685</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -751,1256 +751,1256 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.704738</v>
+        <v>-37.766715</v>
       </c>
       <c r="C22" t="n">
-        <v>144.86329</v>
+        <v>145.021149</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.815499</v>
+        <v>-37.741667</v>
       </c>
       <c r="C23" t="n">
-        <v>144.965882</v>
+        <v>144.908954</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.724684</v>
+        <v>-37.759288</v>
       </c>
       <c r="C24" t="n">
-        <v>144.940008</v>
+        <v>144.817921</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.752048</v>
+        <v>-37.817743</v>
       </c>
       <c r="C25" t="n">
-        <v>144.970526</v>
+        <v>144.992936</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.787776</v>
+        <v>-37.813381</v>
       </c>
       <c r="C26" t="n">
-        <v>144.829839</v>
+        <v>144.967076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.817826</v>
+        <v>-37.598146</v>
       </c>
       <c r="C27" t="n">
-        <v>144.878737</v>
+        <v>145.068782</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.785683</v>
+        <v>-37.704738</v>
       </c>
       <c r="C28" t="n">
-        <v>144.994154</v>
+        <v>144.86329</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.812264</v>
+        <v>-37.815499</v>
       </c>
       <c r="C29" t="n">
-        <v>144.991241</v>
+        <v>144.965882</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.813934</v>
+        <v>-37.724684</v>
       </c>
       <c r="C30" t="n">
-        <v>144.999135</v>
+        <v>144.940008</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.81693</v>
+        <v>-37.752048</v>
       </c>
       <c r="C31" t="n">
-        <v>144.962296</v>
+        <v>144.970526</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.798908</v>
+        <v>-37.787776</v>
       </c>
       <c r="C32" t="n">
-        <v>144.956176</v>
+        <v>144.829839</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.870336</v>
+        <v>-37.817826</v>
       </c>
       <c r="C33" t="n">
-        <v>144.696569</v>
+        <v>144.878737</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.735123</v>
+        <v>-37.785683</v>
       </c>
       <c r="C34" t="n">
-        <v>144.738736</v>
+        <v>144.994154</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.581979</v>
+        <v>-37.812264</v>
       </c>
       <c r="C35" t="n">
-        <v>144.905951</v>
+        <v>144.991241</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.71597</v>
+        <v>-37.813934</v>
       </c>
       <c r="C36" t="n">
-        <v>144.935826</v>
+        <v>144.999135</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.74954</v>
+        <v>-37.81693</v>
       </c>
       <c r="C37" t="n">
-        <v>144.883252</v>
+        <v>144.962296</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.754926</v>
+        <v>-37.798908</v>
       </c>
       <c r="C38" t="n">
-        <v>144.966324</v>
+        <v>144.956176</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.875675</v>
+        <v>-37.870336</v>
       </c>
       <c r="C39" t="n">
-        <v>144.79145</v>
+        <v>144.696569</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.601756</v>
+        <v>-37.735123</v>
       </c>
       <c r="C40" t="n">
-        <v>144.905386</v>
+        <v>144.738736</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.778017</v>
+        <v>-37.581979</v>
       </c>
       <c r="C41" t="n">
-        <v>144.889266</v>
+        <v>144.905951</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.799002</v>
+        <v>-37.71597</v>
       </c>
       <c r="C42" t="n">
-        <v>144.894926</v>
+        <v>144.935826</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.837112</v>
+        <v>-37.74954</v>
       </c>
       <c r="C43" t="n">
-        <v>144.941595</v>
+        <v>144.883252</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.854529</v>
+        <v>-37.754926</v>
       </c>
       <c r="C44" t="n">
-        <v>144.721868</v>
+        <v>144.966324</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.774352</v>
+        <v>-37.875675</v>
       </c>
       <c r="C45" t="n">
-        <v>144.92733</v>
+        <v>144.79145</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.755176</v>
+        <v>-37.601756</v>
       </c>
       <c r="C46" t="n">
-        <v>144.90226</v>
+        <v>144.905386</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.658638</v>
+        <v>-37.778017</v>
       </c>
       <c r="C47" t="n">
-        <v>145.076922</v>
+        <v>144.889266</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.675501</v>
+        <v>-37.799002</v>
       </c>
       <c r="C48" t="n">
-        <v>145.135999</v>
+        <v>144.894926</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.819298</v>
+        <v>-37.837112</v>
       </c>
       <c r="C49" t="n">
-        <v>145.129263</v>
+        <v>144.941595</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.791185</v>
+        <v>-37.854529</v>
       </c>
       <c r="C50" t="n">
-        <v>144.886937</v>
+        <v>144.721868</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.655759</v>
+        <v>-37.774352</v>
       </c>
       <c r="C51" t="n">
-        <v>145.032038</v>
+        <v>144.92733</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.764884</v>
+        <v>-37.755176</v>
       </c>
       <c r="C52" t="n">
-        <v>144.979606</v>
+        <v>144.90226</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.717149</v>
+        <v>-37.658638</v>
       </c>
       <c r="C53" t="n">
-        <v>144.808867</v>
+        <v>145.076922</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.718987</v>
+        <v>-37.675501</v>
       </c>
       <c r="C54" t="n">
-        <v>144.992857</v>
+        <v>145.135999</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.778539</v>
+        <v>-37.819298</v>
       </c>
       <c r="C55" t="n">
-        <v>144.875831</v>
+        <v>145.129263</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.690602</v>
+        <v>-37.791185</v>
       </c>
       <c r="C56" t="n">
-        <v>144.869104</v>
+        <v>144.886937</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.814598</v>
+        <v>-37.655759</v>
       </c>
       <c r="C57" t="n">
-        <v>144.762011</v>
+        <v>145.032038</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.933332</v>
+        <v>-37.764884</v>
       </c>
       <c r="C58" t="n">
-        <v>145.000542</v>
+        <v>144.979606</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.773754</v>
+        <v>-37.717149</v>
       </c>
       <c r="C59" t="n">
-        <v>144.888956</v>
+        <v>144.808867</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.744387</v>
+        <v>-37.718987</v>
       </c>
       <c r="C60" t="n">
-        <v>144.774297</v>
+        <v>144.992857</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.711211</v>
+        <v>-37.778539</v>
       </c>
       <c r="C61" t="n">
-        <v>144.738802</v>
+        <v>144.875831</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.816363</v>
+        <v>-37.690602</v>
       </c>
       <c r="C62" t="n">
-        <v>145.06656</v>
+        <v>144.869104</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-38.102082</v>
+        <v>-37.814598</v>
       </c>
       <c r="C63" t="n">
-        <v>145.265397</v>
+        <v>144.762011</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.684606</v>
+        <v>-37.933332</v>
       </c>
       <c r="C64" t="n">
-        <v>144.760227</v>
+        <v>145.000542</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.715384</v>
+        <v>-37.773754</v>
       </c>
       <c r="C65" t="n">
-        <v>144.811994</v>
+        <v>144.888956</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.738834</v>
+        <v>-37.744387</v>
       </c>
       <c r="C66" t="n">
-        <v>145.030187</v>
+        <v>144.774297</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-38.075826</v>
+        <v>-37.711211</v>
       </c>
       <c r="C67" t="n">
-        <v>145.473885</v>
+        <v>144.738802</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.837404</v>
+        <v>-37.816363</v>
       </c>
       <c r="C68" t="n">
-        <v>144.996291</v>
+        <v>145.06656</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.898104</v>
+        <v>-38.102082</v>
       </c>
       <c r="C69" t="n">
-        <v>145.160876</v>
+        <v>145.265397</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.890643</v>
+        <v>-37.684606</v>
       </c>
       <c r="C70" t="n">
-        <v>145.062546</v>
+        <v>144.760227</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.8135</v>
+        <v>-37.715384</v>
       </c>
       <c r="C71" t="n">
-        <v>144.969933</v>
+        <v>144.811994</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.581295</v>
+        <v>-37.738834</v>
       </c>
       <c r="C72" t="n">
-        <v>144.738024</v>
+        <v>145.030187</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.744387</v>
+        <v>-38.075826</v>
       </c>
       <c r="C73" t="n">
-        <v>144.774297</v>
+        <v>145.473885</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.735247</v>
+        <v>-37.837404</v>
       </c>
       <c r="C74" t="n">
-        <v>144.917023</v>
+        <v>144.996291</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.975685</v>
+        <v>-37.898104</v>
       </c>
       <c r="C75" t="n">
-        <v>145.216529</v>
+        <v>145.160876</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.688119</v>
+        <v>-37.890643</v>
       </c>
       <c r="C76" t="n">
-        <v>144.884379</v>
+        <v>145.062546</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.691402</v>
+        <v>-37.8135</v>
       </c>
       <c r="C77" t="n">
-        <v>145.213889</v>
+        <v>144.969933</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.760449</v>
+        <v>-37.581295</v>
       </c>
       <c r="C78" t="n">
-        <v>145.348691</v>
+        <v>144.738024</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-38.085076</v>
+        <v>-37.744387</v>
       </c>
       <c r="C79" t="n">
-        <v>145.46966</v>
+        <v>144.774297</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.740107</v>
+        <v>-37.735247</v>
       </c>
       <c r="C80" t="n">
-        <v>144.956047</v>
+        <v>144.917023</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.772859</v>
+        <v>-37.975685</v>
       </c>
       <c r="C81" t="n">
-        <v>145.294713</v>
+        <v>145.216529</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.798171</v>
+        <v>-37.688119</v>
       </c>
       <c r="C82" t="n">
-        <v>144.956665</v>
+        <v>144.884379</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-38.012111</v>
+        <v>-37.691402</v>
       </c>
       <c r="C83" t="n">
-        <v>145.090154</v>
+        <v>145.213889</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-36.732518</v>
+        <v>-37.760449</v>
       </c>
       <c r="C84" t="n">
-        <v>146.967357</v>
+        <v>145.348691</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.811362</v>
+        <v>-38.085076</v>
       </c>
       <c r="C85" t="n">
-        <v>144.973203</v>
+        <v>145.46966</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.927427</v>
+        <v>-37.740107</v>
       </c>
       <c r="C86" t="n">
-        <v>145.116157</v>
+        <v>144.956047</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.571236</v>
+        <v>-37.772859</v>
       </c>
       <c r="C87" t="n">
-        <v>144.90978</v>
+        <v>145.294713</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.685249</v>
+        <v>-37.798171</v>
       </c>
       <c r="C88" t="n">
-        <v>144.92446</v>
+        <v>144.956665</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.704175</v>
+        <v>-38.012111</v>
       </c>
       <c r="C89" t="n">
-        <v>144.998741</v>
+        <v>145.090154</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.726306</v>
+        <v>-36.732518</v>
       </c>
       <c r="C90" t="n">
-        <v>145.069914</v>
+        <v>146.967357</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C91" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2011,32 +2011,32 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.8163949</v>
+        <v>-37.927427</v>
       </c>
       <c r="C92" t="n">
-        <v>144.9526066</v>
+        <v>145.116157</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.667111</v>
+        <v>-37.571236</v>
       </c>
       <c r="C93" t="n">
-        <v>144.8334808</v>
+        <v>144.90978</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -2047,54 +2047,54 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C94" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.836082</v>
+        <v>-37.704175</v>
       </c>
       <c r="C95" t="n">
-        <v>144.915383</v>
+        <v>144.998741</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C96" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -2119,36 +2119,36 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.837908</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C98" t="n">
-        <v>144.786218</v>
+        <v>144.9526066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C99" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -2173,108 +2173,108 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.841635</v>
+        <v>-37.836082</v>
       </c>
       <c r="C101" t="n">
-        <v>145.086235</v>
+        <v>144.915383</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C102" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C103" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.884267</v>
+        <v>-37.837908</v>
       </c>
       <c r="C104" t="n">
-        <v>145.017115</v>
+        <v>144.786218</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C105" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C106" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -2299,176 +2299,176 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.884267</v>
+        <v>-37.756286</v>
       </c>
       <c r="C108" t="n">
-        <v>145.017115</v>
+        <v>144.811104</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.69261</v>
+        <v>-37.715384</v>
       </c>
       <c r="C109" t="n">
-        <v>145.063821</v>
+        <v>144.811994</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.689223</v>
+        <v>-37.884267</v>
       </c>
       <c r="C110" t="n">
-        <v>144.604708</v>
+        <v>145.017115</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.843632</v>
+        <v>-36.314871</v>
       </c>
       <c r="C111" t="n">
-        <v>144.781559</v>
+        <v>145.04197</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.730748</v>
+        <v>-37.92849</v>
       </c>
       <c r="C112" t="n">
-        <v>145.086489</v>
+        <v>145.007454</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.702513</v>
+        <v>-37.841635</v>
       </c>
       <c r="C113" t="n">
-        <v>144.802326</v>
+        <v>145.086235</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.673996</v>
+        <v>-37.884267</v>
       </c>
       <c r="C114" t="n">
-        <v>144.955354</v>
+        <v>145.017115</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.576594</v>
+        <v>-37.69261</v>
       </c>
       <c r="C115" t="n">
-        <v>144.728665</v>
+        <v>145.063821</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.879995</v>
+        <v>-37.689223</v>
       </c>
       <c r="C116" t="n">
-        <v>144.701577</v>
+        <v>144.604708</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.834014</v>
+        <v>-37.843632</v>
       </c>
       <c r="C117" t="n">
-        <v>144.652853</v>
+        <v>144.781559</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -2479,32 +2479,32 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.942099</v>
+        <v>-37.730748</v>
       </c>
       <c r="C118" t="n">
-        <v>145.167684</v>
+        <v>145.086489</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.664667</v>
+        <v>-37.702513</v>
       </c>
       <c r="C119" t="n">
-        <v>144.74749</v>
+        <v>144.802326</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -2515,414 +2515,414 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.665417</v>
+        <v>-37.673996</v>
       </c>
       <c r="C120" t="n">
-        <v>144.753359</v>
+        <v>144.955354</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.73899</v>
+        <v>-37.576594</v>
       </c>
       <c r="C121" t="n">
-        <v>144.679976</v>
+        <v>144.728665</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.596123</v>
+        <v>-37.879995</v>
       </c>
       <c r="C122" t="n">
-        <v>144.921401</v>
+        <v>144.701577</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.77238</v>
+        <v>-37.834014</v>
       </c>
       <c r="C123" t="n">
-        <v>144.888195</v>
+        <v>144.652853</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.783105</v>
+        <v>-37.942099</v>
       </c>
       <c r="C124" t="n">
-        <v>144.785398</v>
+        <v>145.167684</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.766147</v>
+        <v>-37.664667</v>
       </c>
       <c r="C125" t="n">
-        <v>145.020052</v>
+        <v>144.74749</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.689366</v>
+        <v>-37.665417</v>
       </c>
       <c r="C126" t="n">
-        <v>144.958878</v>
+        <v>144.753359</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.678278</v>
+        <v>-37.73899</v>
       </c>
       <c r="C127" t="n">
-        <v>144.432689</v>
+        <v>144.679976</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.810712</v>
+        <v>-37.596123</v>
       </c>
       <c r="C128" t="n">
-        <v>144.836118</v>
+        <v>144.921401</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.667111</v>
+        <v>-37.77238</v>
       </c>
       <c r="C129" t="n">
-        <v>144.8334808</v>
+        <v>144.888195</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.811678</v>
+        <v>-37.783105</v>
       </c>
       <c r="C130" t="n">
-        <v>144.889926</v>
+        <v>144.785398</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.797177</v>
+        <v>-37.766147</v>
       </c>
       <c r="C131" t="n">
-        <v>144.894632</v>
+        <v>145.020052</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.759223</v>
+        <v>-37.689366</v>
       </c>
       <c r="C132" t="n">
-        <v>144.816754</v>
+        <v>144.958878</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.844318</v>
+        <v>-37.678278</v>
       </c>
       <c r="C133" t="n">
-        <v>145.009818</v>
+        <v>144.432689</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.813239</v>
+        <v>-37.810712</v>
       </c>
       <c r="C134" t="n">
-        <v>145.048047</v>
+        <v>144.836118</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.7769407</v>
+        <v>-37.667111</v>
       </c>
       <c r="C135" t="n">
-        <v>144.987025</v>
+        <v>144.8334808</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.772096</v>
+        <v>-37.811678</v>
       </c>
       <c r="C136" t="n">
-        <v>144.916095</v>
+        <v>144.889926</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C137" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C138" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C139" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C140" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C141" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C142" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -2947,266 +2947,266 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C144" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C145" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C146" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C147" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C148" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C149" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C150" t="n">
-        <v>144.9564881</v>
+        <v>144.983472</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-38.199003</v>
+        <v>-37.800963</v>
       </c>
       <c r="C151" t="n">
-        <v>144.318418</v>
+        <v>145.0729384</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-38.199003</v>
+        <v>-37.790783</v>
       </c>
       <c r="C152" t="n">
-        <v>144.318418</v>
+        <v>144.998162</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C153" t="n">
-        <v>145.0868276</v>
+        <v>144.983613</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.809265</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C154" t="n">
-        <v>144.994951</v>
+        <v>144.955806</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.667111</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C155" t="n">
-        <v>144.8334808</v>
+        <v>144.9564881</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C156" t="n">
-        <v>144.9680124</v>
+        <v>144.9564881</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.8163949</v>
+        <v>-38.199003</v>
       </c>
       <c r="C157" t="n">
-        <v>144.9526066</v>
+        <v>144.318418</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-38.1450096</v>
+        <v>-38.199003</v>
       </c>
       <c r="C158" t="n">
-        <v>144.3568376</v>
+        <v>144.318418</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3217,90 +3217,90 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.028215</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C159" t="n">
-        <v>145.14336</v>
+        <v>145.0868276</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.720557</v>
+        <v>-37.809265</v>
       </c>
       <c r="C160" t="n">
-        <v>145.048232</v>
+        <v>144.994951</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.720557</v>
+        <v>-37.667111</v>
       </c>
       <c r="C161" t="n">
-        <v>145.048232</v>
+        <v>144.8334808</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.720557</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C162" t="n">
-        <v>145.048232</v>
+        <v>144.9680124</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C163" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -3325,196 +3325,304 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.8163949</v>
+        <v>-37.028215</v>
       </c>
       <c r="C165" t="n">
-        <v>144.9526066</v>
+        <v>145.14336</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C166" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.8266608</v>
+        <v>-37.720557</v>
       </c>
       <c r="C167" t="n">
-        <v>145.0587903</v>
+        <v>145.048232</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C168" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C169" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C170" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C171" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C172" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.667111</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C173" t="n">
-        <v>144.8334808</v>
+        <v>145.0587903</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C174" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C175" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C176" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C177" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C178" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B175" t="n">
+      <c r="B179" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C179" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C180" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C181" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D181" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,338 +391,338 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>1 Saintly Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.684151</v>
+        <v>-37.807645</v>
       </c>
       <c r="C2" t="n">
-        <v>144.948507</v>
+        <v>144.746483</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.756487</v>
+        <v>-37.798908</v>
       </c>
       <c r="C3" t="n">
-        <v>144.972167</v>
+        <v>144.956176</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.87778</v>
+        <v>-37.759223</v>
       </c>
       <c r="C4" t="n">
-        <v>144.676933</v>
+        <v>144.816754</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.741374</v>
+        <v>-37.653023</v>
       </c>
       <c r="C5" t="n">
-        <v>144.992388</v>
+        <v>145.014685</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>10 Fletcher St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.801718</v>
+        <v>-37.755206</v>
       </c>
       <c r="C6" t="n">
-        <v>145.032141</v>
+        <v>144.925092</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.740508</v>
+        <v>-37.766695</v>
       </c>
       <c r="C7" t="n">
-        <v>145.075152</v>
+        <v>145.170655</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Manningham (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.845667</v>
+        <v>-37.758211</v>
       </c>
       <c r="C8" t="n">
-        <v>144.981921</v>
+        <v>145.044162</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.813306</v>
+        <v>-37.661037</v>
       </c>
       <c r="C9" t="n">
-        <v>144.849237</v>
+        <v>145.508141</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.690076</v>
+        <v>-37.66148</v>
       </c>
       <c r="C10" t="n">
-        <v>144.996836</v>
+        <v>145.516046</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.813215</v>
+        <v>-37.684151</v>
       </c>
       <c r="C11" t="n">
-        <v>144.965914</v>
+        <v>144.948507</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.796258</v>
+        <v>-37.756487</v>
       </c>
       <c r="C12" t="n">
-        <v>144.862235</v>
+        <v>144.972167</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.798908</v>
+        <v>-37.87778</v>
       </c>
       <c r="C13" t="n">
-        <v>144.956176</v>
+        <v>144.676933</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.788414</v>
+        <v>-37.741374</v>
       </c>
       <c r="C14" t="n">
-        <v>144.936951</v>
+        <v>144.992388</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.73908</v>
+        <v>-37.801718</v>
       </c>
       <c r="C15" t="n">
-        <v>145.002236</v>
+        <v>145.032141</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.785949</v>
+        <v>-37.740508</v>
       </c>
       <c r="C16" t="n">
-        <v>144.935308</v>
+        <v>145.075152</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.670681</v>
+        <v>-37.845667</v>
       </c>
       <c r="C17" t="n">
-        <v>144.850306</v>
+        <v>144.981921</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.817011</v>
+        <v>-37.813306</v>
       </c>
       <c r="C18" t="n">
-        <v>144.962265</v>
+        <v>144.849237</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.789871</v>
+        <v>-37.690076</v>
       </c>
       <c r="C19" t="n">
-        <v>144.926734</v>
+        <v>144.996836</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.791989</v>
+        <v>-37.813215</v>
       </c>
       <c r="C20" t="n">
-        <v>144.940508</v>
+        <v>144.965914</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -733,50 +733,50 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.653023</v>
+        <v>-37.796258</v>
       </c>
       <c r="C21" t="n">
-        <v>145.014685</v>
+        <v>144.862235</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.766715</v>
+        <v>-37.798908</v>
       </c>
       <c r="C22" t="n">
-        <v>145.021149</v>
+        <v>144.956176</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.741667</v>
+        <v>-37.788414</v>
       </c>
       <c r="C23" t="n">
-        <v>144.908954</v>
+        <v>144.936951</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -787,104 +787,104 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.759288</v>
+        <v>-37.73908</v>
       </c>
       <c r="C24" t="n">
-        <v>144.817921</v>
+        <v>145.002236</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.817743</v>
+        <v>-37.785949</v>
       </c>
       <c r="C25" t="n">
-        <v>144.992936</v>
+        <v>144.935308</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.813381</v>
+        <v>-37.670681</v>
       </c>
       <c r="C26" t="n">
-        <v>144.967076</v>
+        <v>144.850306</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.598146</v>
+        <v>-37.817011</v>
       </c>
       <c r="C27" t="n">
-        <v>145.068782</v>
+        <v>144.962265</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.704738</v>
+        <v>-37.789871</v>
       </c>
       <c r="C28" t="n">
-        <v>144.86329</v>
+        <v>144.926734</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.815499</v>
+        <v>-37.791989</v>
       </c>
       <c r="C29" t="n">
-        <v>144.965882</v>
+        <v>144.940508</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -895,86 +895,86 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.724684</v>
+        <v>-37.653023</v>
       </c>
       <c r="C30" t="n">
-        <v>144.940008</v>
+        <v>145.014685</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.752048</v>
+        <v>-37.766715</v>
       </c>
       <c r="C31" t="n">
-        <v>144.970526</v>
+        <v>145.021149</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.787776</v>
+        <v>-37.741667</v>
       </c>
       <c r="C32" t="n">
-        <v>144.829839</v>
+        <v>144.908954</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.817826</v>
+        <v>-37.759288</v>
       </c>
       <c r="C33" t="n">
-        <v>144.878737</v>
+        <v>144.817921</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.785683</v>
+        <v>-37.817743</v>
       </c>
       <c r="C34" t="n">
-        <v>144.994154</v>
+        <v>144.992936</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -985,68 +985,68 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.812264</v>
+        <v>-37.813381</v>
       </c>
       <c r="C35" t="n">
-        <v>144.991241</v>
+        <v>144.967076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.813934</v>
+        <v>-37.598146</v>
       </c>
       <c r="C36" t="n">
-        <v>144.999135</v>
+        <v>145.068782</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.81693</v>
+        <v>-37.704738</v>
       </c>
       <c r="C37" t="n">
-        <v>144.962296</v>
+        <v>144.86329</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.798908</v>
+        <v>-37.815499</v>
       </c>
       <c r="C38" t="n">
-        <v>144.956176</v>
+        <v>144.965882</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1057,248 +1057,248 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.870336</v>
+        <v>-37.724684</v>
       </c>
       <c r="C39" t="n">
-        <v>144.696569</v>
+        <v>144.940008</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.735123</v>
+        <v>-37.752048</v>
       </c>
       <c r="C40" t="n">
-        <v>144.738736</v>
+        <v>144.970526</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.581979</v>
+        <v>-37.787776</v>
       </c>
       <c r="C41" t="n">
-        <v>144.905951</v>
+        <v>144.829839</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.71597</v>
+        <v>-37.817826</v>
       </c>
       <c r="C42" t="n">
-        <v>144.935826</v>
+        <v>144.878737</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.74954</v>
+        <v>-37.785683</v>
       </c>
       <c r="C43" t="n">
-        <v>144.883252</v>
+        <v>144.994154</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.754926</v>
+        <v>-37.812264</v>
       </c>
       <c r="C44" t="n">
-        <v>144.966324</v>
+        <v>144.991241</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.875675</v>
+        <v>-37.813934</v>
       </c>
       <c r="C45" t="n">
-        <v>144.79145</v>
+        <v>144.999135</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.601756</v>
+        <v>-37.81693</v>
       </c>
       <c r="C46" t="n">
-        <v>144.905386</v>
+        <v>144.962296</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.778017</v>
+        <v>-37.798908</v>
       </c>
       <c r="C47" t="n">
-        <v>144.889266</v>
+        <v>144.956176</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.799002</v>
+        <v>-37.870336</v>
       </c>
       <c r="C48" t="n">
-        <v>144.894926</v>
+        <v>144.696569</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.837112</v>
+        <v>-37.735123</v>
       </c>
       <c r="C49" t="n">
-        <v>144.941595</v>
+        <v>144.738736</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.854529</v>
+        <v>-37.581979</v>
       </c>
       <c r="C50" t="n">
-        <v>144.721868</v>
+        <v>144.905951</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.774352</v>
+        <v>-37.71597</v>
       </c>
       <c r="C51" t="n">
-        <v>144.92733</v>
+        <v>144.935826</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.755176</v>
+        <v>-37.74954</v>
       </c>
       <c r="C52" t="n">
-        <v>144.90226</v>
+        <v>144.883252</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1309,68 +1309,68 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.658638</v>
+        <v>-37.754926</v>
       </c>
       <c r="C53" t="n">
-        <v>145.076922</v>
+        <v>144.966324</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.675501</v>
+        <v>-37.875675</v>
       </c>
       <c r="C54" t="n">
-        <v>145.135999</v>
+        <v>144.79145</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.819298</v>
+        <v>-37.601756</v>
       </c>
       <c r="C55" t="n">
-        <v>145.129263</v>
+        <v>144.905386</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.791185</v>
+        <v>-37.778017</v>
       </c>
       <c r="C56" t="n">
-        <v>144.886937</v>
+        <v>144.889266</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1381,158 +1381,158 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.655759</v>
+        <v>-37.799002</v>
       </c>
       <c r="C57" t="n">
-        <v>145.032038</v>
+        <v>144.894926</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.764884</v>
+        <v>-37.837112</v>
       </c>
       <c r="C58" t="n">
-        <v>144.979606</v>
+        <v>144.941595</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.717149</v>
+        <v>-37.854529</v>
       </c>
       <c r="C59" t="n">
-        <v>144.808867</v>
+        <v>144.721868</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.718987</v>
+        <v>-37.774352</v>
       </c>
       <c r="C60" t="n">
-        <v>144.992857</v>
+        <v>144.92733</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.778539</v>
+        <v>-37.755176</v>
       </c>
       <c r="C61" t="n">
-        <v>144.875831</v>
+        <v>144.90226</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.690602</v>
+        <v>-37.658638</v>
       </c>
       <c r="C62" t="n">
-        <v>144.869104</v>
+        <v>145.076922</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.814598</v>
+        <v>-37.675501</v>
       </c>
       <c r="C63" t="n">
-        <v>144.762011</v>
+        <v>145.135999</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.933332</v>
+        <v>-37.819298</v>
       </c>
       <c r="C64" t="n">
-        <v>145.000542</v>
+        <v>145.129263</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.773754</v>
+        <v>-37.791185</v>
       </c>
       <c r="C65" t="n">
-        <v>144.888956</v>
+        <v>144.886937</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1543,248 +1543,248 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.744387</v>
+        <v>-37.655759</v>
       </c>
       <c r="C66" t="n">
-        <v>144.774297</v>
+        <v>145.032038</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.711211</v>
+        <v>-37.764884</v>
       </c>
       <c r="C67" t="n">
-        <v>144.738802</v>
+        <v>144.979606</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.816363</v>
+        <v>-37.717149</v>
       </c>
       <c r="C68" t="n">
-        <v>145.06656</v>
+        <v>144.808867</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-38.102082</v>
+        <v>-37.718987</v>
       </c>
       <c r="C69" t="n">
-        <v>145.265397</v>
+        <v>144.992857</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.684606</v>
+        <v>-37.778539</v>
       </c>
       <c r="C70" t="n">
-        <v>144.760227</v>
+        <v>144.875831</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.715384</v>
+        <v>-37.690602</v>
       </c>
       <c r="C71" t="n">
-        <v>144.811994</v>
+        <v>144.869104</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.738834</v>
+        <v>-37.814598</v>
       </c>
       <c r="C72" t="n">
-        <v>145.030187</v>
+        <v>144.762011</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-38.075826</v>
+        <v>-37.933332</v>
       </c>
       <c r="C73" t="n">
-        <v>145.473885</v>
+        <v>145.000542</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.837404</v>
+        <v>-37.773754</v>
       </c>
       <c r="C74" t="n">
-        <v>144.996291</v>
+        <v>144.888956</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.898104</v>
+        <v>-37.744387</v>
       </c>
       <c r="C75" t="n">
-        <v>145.160876</v>
+        <v>144.774297</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.890643</v>
+        <v>-37.711211</v>
       </c>
       <c r="C76" t="n">
-        <v>145.062546</v>
+        <v>144.738802</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.8135</v>
+        <v>-37.816363</v>
       </c>
       <c r="C77" t="n">
-        <v>144.969933</v>
+        <v>145.06656</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.581295</v>
+        <v>-38.102082</v>
       </c>
       <c r="C78" t="n">
-        <v>144.738024</v>
+        <v>145.265397</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.744387</v>
+        <v>-37.684606</v>
       </c>
       <c r="C79" t="n">
-        <v>144.774297</v>
+        <v>144.760227</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -1795,320 +1795,320 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.735247</v>
+        <v>-37.715384</v>
       </c>
       <c r="C80" t="n">
-        <v>144.917023</v>
+        <v>144.811994</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.975685</v>
+        <v>-37.738834</v>
       </c>
       <c r="C81" t="n">
-        <v>145.216529</v>
+        <v>145.030187</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.688119</v>
+        <v>-38.075826</v>
       </c>
       <c r="C82" t="n">
-        <v>144.884379</v>
+        <v>145.473885</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.691402</v>
+        <v>-37.837404</v>
       </c>
       <c r="C83" t="n">
-        <v>145.213889</v>
+        <v>144.996291</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.760449</v>
+        <v>-37.898104</v>
       </c>
       <c r="C84" t="n">
-        <v>145.348691</v>
+        <v>145.160876</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-38.085076</v>
+        <v>-37.890643</v>
       </c>
       <c r="C85" t="n">
-        <v>145.46966</v>
+        <v>145.062546</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.740107</v>
+        <v>-37.8135</v>
       </c>
       <c r="C86" t="n">
-        <v>144.956047</v>
+        <v>144.969933</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.772859</v>
+        <v>-37.581295</v>
       </c>
       <c r="C87" t="n">
-        <v>145.294713</v>
+        <v>144.738024</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.798171</v>
+        <v>-37.744387</v>
       </c>
       <c r="C88" t="n">
-        <v>144.956665</v>
+        <v>144.774297</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-38.012111</v>
+        <v>-37.735247</v>
       </c>
       <c r="C89" t="n">
-        <v>145.090154</v>
+        <v>144.917023</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-36.732518</v>
+        <v>-37.975685</v>
       </c>
       <c r="C90" t="n">
-        <v>146.967357</v>
+        <v>145.216529</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.811362</v>
+        <v>-37.688119</v>
       </c>
       <c r="C91" t="n">
-        <v>144.973203</v>
+        <v>144.884379</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.927427</v>
+        <v>-37.691402</v>
       </c>
       <c r="C92" t="n">
-        <v>145.116157</v>
+        <v>145.213889</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.571236</v>
+        <v>-37.760449</v>
       </c>
       <c r="C93" t="n">
-        <v>144.90978</v>
+        <v>145.348691</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.685249</v>
+        <v>-38.085076</v>
       </c>
       <c r="C94" t="n">
-        <v>144.92446</v>
+        <v>145.46966</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.704175</v>
+        <v>-37.740107</v>
       </c>
       <c r="C95" t="n">
-        <v>144.998741</v>
+        <v>144.956047</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.726306</v>
+        <v>-37.772859</v>
       </c>
       <c r="C96" t="n">
-        <v>145.069914</v>
+        <v>145.294713</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.801332</v>
+        <v>-37.798171</v>
       </c>
       <c r="C97" t="n">
-        <v>144.963635</v>
+        <v>144.956665</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -2119,50 +2119,50 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.8163949</v>
+        <v>-38.012111</v>
       </c>
       <c r="C98" t="n">
-        <v>144.9526066</v>
+        <v>145.090154</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.667111</v>
+        <v>-36.732518</v>
       </c>
       <c r="C99" t="n">
-        <v>144.8334808</v>
+        <v>146.967357</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C100" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -2173,90 +2173,90 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.836082</v>
+        <v>-37.927427</v>
       </c>
       <c r="C101" t="n">
-        <v>144.915383</v>
+        <v>145.116157</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.801332</v>
+        <v>-37.571236</v>
       </c>
       <c r="C102" t="n">
-        <v>144.963635</v>
+        <v>144.90978</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C103" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.837908</v>
+        <v>-37.704175</v>
       </c>
       <c r="C104" t="n">
-        <v>144.786218</v>
+        <v>144.998741</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C105" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -2281,500 +2281,500 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.841635</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C107" t="n">
-        <v>145.086235</v>
+        <v>144.9526066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.756286</v>
+        <v>-37.667111</v>
       </c>
       <c r="C108" t="n">
-        <v>144.811104</v>
+        <v>144.8334808</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C109" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.884267</v>
+        <v>-37.836082</v>
       </c>
       <c r="C110" t="n">
-        <v>145.017115</v>
+        <v>144.915383</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C111" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C112" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.841635</v>
+        <v>-37.837908</v>
       </c>
       <c r="C113" t="n">
-        <v>145.086235</v>
+        <v>144.786218</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C114" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.69261</v>
+        <v>-37.801332</v>
       </c>
       <c r="C115" t="n">
-        <v>145.063821</v>
+        <v>144.963635</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.689223</v>
+        <v>-37.841635</v>
       </c>
       <c r="C116" t="n">
-        <v>144.604708</v>
+        <v>145.086235</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.843632</v>
+        <v>-37.756286</v>
       </c>
       <c r="C117" t="n">
-        <v>144.781559</v>
+        <v>144.811104</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.730748</v>
+        <v>-37.715384</v>
       </c>
       <c r="C118" t="n">
-        <v>145.086489</v>
+        <v>144.811994</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.702513</v>
+        <v>-37.884267</v>
       </c>
       <c r="C119" t="n">
-        <v>144.802326</v>
+        <v>145.017115</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.673996</v>
+        <v>-36.314871</v>
       </c>
       <c r="C120" t="n">
-        <v>144.955354</v>
+        <v>145.04197</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.576594</v>
+        <v>-37.92849</v>
       </c>
       <c r="C121" t="n">
-        <v>144.728665</v>
+        <v>145.007454</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.879995</v>
+        <v>-37.841635</v>
       </c>
       <c r="C122" t="n">
-        <v>144.701577</v>
+        <v>145.086235</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.834014</v>
+        <v>-37.884267</v>
       </c>
       <c r="C123" t="n">
-        <v>144.652853</v>
+        <v>145.017115</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.942099</v>
+        <v>-37.69261</v>
       </c>
       <c r="C124" t="n">
-        <v>145.167684</v>
+        <v>145.063821</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.664667</v>
+        <v>-37.689223</v>
       </c>
       <c r="C125" t="n">
-        <v>144.74749</v>
+        <v>144.604708</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.665417</v>
+        <v>-37.843632</v>
       </c>
       <c r="C126" t="n">
-        <v>144.753359</v>
+        <v>144.781559</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.73899</v>
+        <v>-37.730748</v>
       </c>
       <c r="C127" t="n">
-        <v>144.679976</v>
+        <v>145.086489</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.596123</v>
+        <v>-37.702513</v>
       </c>
       <c r="C128" t="n">
-        <v>144.921401</v>
+        <v>144.802326</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.77238</v>
+        <v>-37.673996</v>
       </c>
       <c r="C129" t="n">
-        <v>144.888195</v>
+        <v>144.955354</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.783105</v>
+        <v>-37.576594</v>
       </c>
       <c r="C130" t="n">
-        <v>144.785398</v>
+        <v>144.728665</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.766147</v>
+        <v>-37.879995</v>
       </c>
       <c r="C131" t="n">
-        <v>145.020052</v>
+        <v>144.701577</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.689366</v>
+        <v>-37.834014</v>
       </c>
       <c r="C132" t="n">
-        <v>144.958878</v>
+        <v>144.652853</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.678278</v>
+        <v>-37.942099</v>
       </c>
       <c r="C133" t="n">
-        <v>144.432689</v>
+        <v>145.167684</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.810712</v>
+        <v>-37.664667</v>
       </c>
       <c r="C134" t="n">
-        <v>144.836118</v>
+        <v>144.74749</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2785,162 +2785,162 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.667111</v>
+        <v>-37.665417</v>
       </c>
       <c r="C135" t="n">
-        <v>144.8334808</v>
+        <v>144.753359</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.811678</v>
+        <v>-37.73899</v>
       </c>
       <c r="C136" t="n">
-        <v>144.889926</v>
+        <v>144.679976</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.797177</v>
+        <v>-37.596123</v>
       </c>
       <c r="C137" t="n">
-        <v>144.894632</v>
+        <v>144.921401</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.759223</v>
+        <v>-37.77238</v>
       </c>
       <c r="C138" t="n">
-        <v>144.816754</v>
+        <v>144.888195</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.844318</v>
+        <v>-37.783105</v>
       </c>
       <c r="C139" t="n">
-        <v>145.009818</v>
+        <v>144.785398</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.813239</v>
+        <v>-37.766147</v>
       </c>
       <c r="C140" t="n">
-        <v>145.048047</v>
+        <v>145.020052</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.7769407</v>
+        <v>-37.689366</v>
       </c>
       <c r="C141" t="n">
-        <v>144.987025</v>
+        <v>144.958878</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.772096</v>
+        <v>-37.678278</v>
       </c>
       <c r="C142" t="n">
-        <v>144.916095</v>
+        <v>144.432689</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C143" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -2965,320 +2965,320 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C145" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C146" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C147" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C148" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C149" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.8214527</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C150" t="n">
-        <v>144.983472</v>
+        <v>144.987025</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.800963</v>
+        <v>-37.772096</v>
       </c>
       <c r="C151" t="n">
-        <v>145.0729384</v>
+        <v>144.916095</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C152" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C153" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C154" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C155" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C156" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C157" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C158" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C159" t="n">
-        <v>145.0868276</v>
+        <v>144.983472</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.809265</v>
+        <v>-37.800963</v>
       </c>
       <c r="C160" t="n">
-        <v>144.994951</v>
+        <v>145.0729384</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.667111</v>
+        <v>-37.790783</v>
       </c>
       <c r="C161" t="n">
-        <v>144.8334808</v>
+        <v>144.998162</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C162" t="n">
-        <v>144.9680124</v>
+        <v>144.983613</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -3289,158 +3289,158 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C163" t="n">
-        <v>144.9526066</v>
+        <v>144.955806</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C164" t="n">
-        <v>144.3568376</v>
+        <v>144.9564881</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.028215</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C165" t="n">
-        <v>145.14336</v>
+        <v>144.9564881</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C166" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C167" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-37.720557</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C168" t="n">
-        <v>145.048232</v>
+        <v>145.0868276</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C169" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C170" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C171" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3469,160 +3469,322 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.8266608</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C173" t="n">
-        <v>145.0587903</v>
+        <v>144.3568376</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-37.848232</v>
+        <v>-37.028215</v>
       </c>
       <c r="C174" t="n">
-        <v>145.005508</v>
+        <v>145.14336</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C175" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C176" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C177" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C178" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-37.667111</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C179" t="n">
-        <v>144.8334808</v>
+        <v>144.3568376</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C180" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>-37.8163949</v>
+      </c>
+      <c r="C181" t="n">
+        <v>144.9526066</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Melbourne (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-37.8266608</v>
+      </c>
+      <c r="C182" t="n">
+        <v>145.0587903</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Boroondara (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C183" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C184" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C185" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C186" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C187" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B181" t="n">
+      <c r="B188" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C188" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C189" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C190" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D190" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D190"/>
+  <dimension ref="A1:D191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,50 +499,50 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
+          <t>13 Howard St, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.758211</v>
+        <v>-37.878812</v>
       </c>
       <c r="C8" t="n">
-        <v>145.044162</v>
+        <v>144.781325</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27 Smith St, Healesville VIC 3777</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.661037</v>
+        <v>-37.758211</v>
       </c>
       <c r="C9" t="n">
-        <v>145.508141</v>
+        <v>145.044162</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.66148</v>
+        <v>-37.661037</v>
       </c>
       <c r="C10" t="n">
-        <v>145.516046</v>
+        <v>145.508141</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -553,320 +553,320 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.684151</v>
+        <v>-37.66148</v>
       </c>
       <c r="C11" t="n">
-        <v>144.948507</v>
+        <v>145.516046</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.756487</v>
+        <v>-37.684151</v>
       </c>
       <c r="C12" t="n">
-        <v>144.972167</v>
+        <v>144.948507</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.87778</v>
+        <v>-37.756487</v>
       </c>
       <c r="C13" t="n">
-        <v>144.676933</v>
+        <v>144.972167</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.741374</v>
+        <v>-37.87778</v>
       </c>
       <c r="C14" t="n">
-        <v>144.992388</v>
+        <v>144.676933</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.801718</v>
+        <v>-37.741374</v>
       </c>
       <c r="C15" t="n">
-        <v>145.032141</v>
+        <v>144.992388</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.740508</v>
+        <v>-37.801718</v>
       </c>
       <c r="C16" t="n">
-        <v>145.075152</v>
+        <v>145.032141</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.845667</v>
+        <v>-37.740508</v>
       </c>
       <c r="C17" t="n">
-        <v>144.981921</v>
+        <v>145.075152</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.813306</v>
+        <v>-37.845667</v>
       </c>
       <c r="C18" t="n">
-        <v>144.849237</v>
+        <v>144.981921</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.690076</v>
+        <v>-37.813306</v>
       </c>
       <c r="C19" t="n">
-        <v>144.996836</v>
+        <v>144.849237</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.813215</v>
+        <v>-37.690076</v>
       </c>
       <c r="C20" t="n">
-        <v>144.965914</v>
+        <v>144.996836</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.796258</v>
+        <v>-37.813215</v>
       </c>
       <c r="C21" t="n">
-        <v>144.862235</v>
+        <v>144.965914</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.798908</v>
+        <v>-37.796258</v>
       </c>
       <c r="C22" t="n">
-        <v>144.956176</v>
+        <v>144.862235</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.788414</v>
+        <v>-37.798908</v>
       </c>
       <c r="C23" t="n">
-        <v>144.936951</v>
+        <v>144.956176</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.73908</v>
+        <v>-37.788414</v>
       </c>
       <c r="C24" t="n">
-        <v>145.002236</v>
+        <v>144.936951</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.785949</v>
+        <v>-37.73908</v>
       </c>
       <c r="C25" t="n">
-        <v>144.935308</v>
+        <v>145.002236</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.670681</v>
+        <v>-37.785949</v>
       </c>
       <c r="C26" t="n">
-        <v>144.850306</v>
+        <v>144.935308</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.817011</v>
+        <v>-37.670681</v>
       </c>
       <c r="C27" t="n">
-        <v>144.962265</v>
+        <v>144.850306</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.789871</v>
+        <v>-37.817011</v>
       </c>
       <c r="C28" t="n">
-        <v>144.926734</v>
+        <v>144.962265</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -877,14 +877,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.791989</v>
+        <v>-37.789871</v>
       </c>
       <c r="C29" t="n">
-        <v>144.940508</v>
+        <v>144.926734</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -895,194 +895,194 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.653023</v>
+        <v>-37.791989</v>
       </c>
       <c r="C30" t="n">
-        <v>145.014685</v>
+        <v>144.940508</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.766715</v>
+        <v>-37.653023</v>
       </c>
       <c r="C31" t="n">
-        <v>145.021149</v>
+        <v>145.014685</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.741667</v>
+        <v>-37.766715</v>
       </c>
       <c r="C32" t="n">
-        <v>144.908954</v>
+        <v>145.021149</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.759288</v>
+        <v>-37.741667</v>
       </c>
       <c r="C33" t="n">
-        <v>144.817921</v>
+        <v>144.908954</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.817743</v>
+        <v>-37.759288</v>
       </c>
       <c r="C34" t="n">
-        <v>144.992936</v>
+        <v>144.817921</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.813381</v>
+        <v>-37.817743</v>
       </c>
       <c r="C35" t="n">
-        <v>144.967076</v>
+        <v>144.992936</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.598146</v>
+        <v>-37.813381</v>
       </c>
       <c r="C36" t="n">
-        <v>145.068782</v>
+        <v>144.967076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.704738</v>
+        <v>-37.598146</v>
       </c>
       <c r="C37" t="n">
-        <v>144.86329</v>
+        <v>145.068782</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.815499</v>
+        <v>-37.704738</v>
       </c>
       <c r="C38" t="n">
-        <v>144.965882</v>
+        <v>144.86329</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.724684</v>
+        <v>-37.815499</v>
       </c>
       <c r="C39" t="n">
-        <v>144.940008</v>
+        <v>144.965882</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.752048</v>
+        <v>-37.724684</v>
       </c>
       <c r="C40" t="n">
-        <v>144.970526</v>
+        <v>144.940008</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1093,68 +1093,68 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.787776</v>
+        <v>-37.752048</v>
       </c>
       <c r="C41" t="n">
-        <v>144.829839</v>
+        <v>144.970526</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.817826</v>
+        <v>-37.787776</v>
       </c>
       <c r="C42" t="n">
-        <v>144.878737</v>
+        <v>144.829839</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.785683</v>
+        <v>-37.817826</v>
       </c>
       <c r="C43" t="n">
-        <v>144.994154</v>
+        <v>144.878737</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.812264</v>
+        <v>-37.785683</v>
       </c>
       <c r="C44" t="n">
-        <v>144.991241</v>
+        <v>144.994154</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1165,14 +1165,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.813934</v>
+        <v>-37.812264</v>
       </c>
       <c r="C45" t="n">
-        <v>144.999135</v>
+        <v>144.991241</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1183,32 +1183,32 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.81693</v>
+        <v>-37.813934</v>
       </c>
       <c r="C46" t="n">
-        <v>144.962296</v>
+        <v>144.999135</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.798908</v>
+        <v>-37.81693</v>
       </c>
       <c r="C47" t="n">
-        <v>144.956176</v>
+        <v>144.962296</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1219,176 +1219,176 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.870336</v>
+        <v>-37.798908</v>
       </c>
       <c r="C48" t="n">
-        <v>144.696569</v>
+        <v>144.956176</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.735123</v>
+        <v>-37.870336</v>
       </c>
       <c r="C49" t="n">
-        <v>144.738736</v>
+        <v>144.696569</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.581979</v>
+        <v>-37.735123</v>
       </c>
       <c r="C50" t="n">
-        <v>144.905951</v>
+        <v>144.738736</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.71597</v>
+        <v>-37.581979</v>
       </c>
       <c r="C51" t="n">
-        <v>144.935826</v>
+        <v>144.905951</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.74954</v>
+        <v>-37.71597</v>
       </c>
       <c r="C52" t="n">
-        <v>144.883252</v>
+        <v>144.935826</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.754926</v>
+        <v>-37.74954</v>
       </c>
       <c r="C53" t="n">
-        <v>144.966324</v>
+        <v>144.883252</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.875675</v>
+        <v>-37.754926</v>
       </c>
       <c r="C54" t="n">
-        <v>144.79145</v>
+        <v>144.966324</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.601756</v>
+        <v>-37.875675</v>
       </c>
       <c r="C55" t="n">
-        <v>144.905386</v>
+        <v>144.79145</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.778017</v>
+        <v>-37.601756</v>
       </c>
       <c r="C56" t="n">
-        <v>144.889266</v>
+        <v>144.905386</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.799002</v>
+        <v>-37.778017</v>
       </c>
       <c r="C57" t="n">
-        <v>144.894926</v>
+        <v>144.889266</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1399,68 +1399,68 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.837112</v>
+        <v>-37.799002</v>
       </c>
       <c r="C58" t="n">
-        <v>144.941595</v>
+        <v>144.894926</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.854529</v>
+        <v>-37.837112</v>
       </c>
       <c r="C59" t="n">
-        <v>144.721868</v>
+        <v>144.941595</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.774352</v>
+        <v>-37.854529</v>
       </c>
       <c r="C60" t="n">
-        <v>144.92733</v>
+        <v>144.721868</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.755176</v>
+        <v>-37.774352</v>
       </c>
       <c r="C61" t="n">
-        <v>144.90226</v>
+        <v>144.92733</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -1471,338 +1471,338 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.658638</v>
+        <v>-37.755176</v>
       </c>
       <c r="C62" t="n">
-        <v>145.076922</v>
+        <v>144.90226</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.675501</v>
+        <v>-37.658638</v>
       </c>
       <c r="C63" t="n">
-        <v>145.135999</v>
+        <v>145.076922</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.819298</v>
+        <v>-37.675501</v>
       </c>
       <c r="C64" t="n">
-        <v>145.129263</v>
+        <v>145.135999</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.791185</v>
+        <v>-37.819298</v>
       </c>
       <c r="C65" t="n">
-        <v>144.886937</v>
+        <v>145.129263</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.655759</v>
+        <v>-37.791185</v>
       </c>
       <c r="C66" t="n">
-        <v>145.032038</v>
+        <v>144.886937</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.764884</v>
+        <v>-37.655759</v>
       </c>
       <c r="C67" t="n">
-        <v>144.979606</v>
+        <v>145.032038</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.717149</v>
+        <v>-37.764884</v>
       </c>
       <c r="C68" t="n">
-        <v>144.808867</v>
+        <v>144.979606</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.718987</v>
+        <v>-37.717149</v>
       </c>
       <c r="C69" t="n">
-        <v>144.992857</v>
+        <v>144.808867</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.778539</v>
+        <v>-37.718987</v>
       </c>
       <c r="C70" t="n">
-        <v>144.875831</v>
+        <v>144.992857</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.690602</v>
+        <v>-37.778539</v>
       </c>
       <c r="C71" t="n">
-        <v>144.869104</v>
+        <v>144.875831</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.814598</v>
+        <v>-37.690602</v>
       </c>
       <c r="C72" t="n">
-        <v>144.762011</v>
+        <v>144.869104</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.933332</v>
+        <v>-37.814598</v>
       </c>
       <c r="C73" t="n">
-        <v>145.000542</v>
+        <v>144.762011</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.773754</v>
+        <v>-37.933332</v>
       </c>
       <c r="C74" t="n">
-        <v>144.888956</v>
+        <v>145.000542</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.744387</v>
+        <v>-37.773754</v>
       </c>
       <c r="C75" t="n">
-        <v>144.774297</v>
+        <v>144.888956</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.711211</v>
+        <v>-37.744387</v>
       </c>
       <c r="C76" t="n">
-        <v>144.738802</v>
+        <v>144.774297</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.816363</v>
+        <v>-37.711211</v>
       </c>
       <c r="C77" t="n">
-        <v>145.06656</v>
+        <v>144.738802</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-38.102082</v>
+        <v>-37.816363</v>
       </c>
       <c r="C78" t="n">
-        <v>145.265397</v>
+        <v>145.06656</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.684606</v>
+        <v>-38.102082</v>
       </c>
       <c r="C79" t="n">
-        <v>144.760227</v>
+        <v>145.265397</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.715384</v>
+        <v>-37.684606</v>
       </c>
       <c r="C80" t="n">
-        <v>144.811994</v>
+        <v>144.760227</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1813,410 +1813,410 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.738834</v>
+        <v>-37.715384</v>
       </c>
       <c r="C81" t="n">
-        <v>145.030187</v>
+        <v>144.811994</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-38.075826</v>
+        <v>-37.738834</v>
       </c>
       <c r="C82" t="n">
-        <v>145.473885</v>
+        <v>145.030187</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.837404</v>
+        <v>-38.075826</v>
       </c>
       <c r="C83" t="n">
-        <v>144.996291</v>
+        <v>145.473885</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.898104</v>
+        <v>-37.837404</v>
       </c>
       <c r="C84" t="n">
-        <v>145.160876</v>
+        <v>144.996291</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.890643</v>
+        <v>-37.898104</v>
       </c>
       <c r="C85" t="n">
-        <v>145.062546</v>
+        <v>145.160876</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.8135</v>
+        <v>-37.890643</v>
       </c>
       <c r="C86" t="n">
-        <v>144.969933</v>
+        <v>145.062546</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.581295</v>
+        <v>-37.8135</v>
       </c>
       <c r="C87" t="n">
-        <v>144.738024</v>
+        <v>144.969933</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.744387</v>
+        <v>-37.581295</v>
       </c>
       <c r="C88" t="n">
-        <v>144.774297</v>
+        <v>144.738024</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.735247</v>
+        <v>-37.744387</v>
       </c>
       <c r="C89" t="n">
-        <v>144.917023</v>
+        <v>144.774297</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.975685</v>
+        <v>-37.735247</v>
       </c>
       <c r="C90" t="n">
-        <v>145.216529</v>
+        <v>144.917023</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.688119</v>
+        <v>-37.975685</v>
       </c>
       <c r="C91" t="n">
-        <v>144.884379</v>
+        <v>145.216529</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.691402</v>
+        <v>-37.688119</v>
       </c>
       <c r="C92" t="n">
-        <v>145.213889</v>
+        <v>144.884379</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.760449</v>
+        <v>-37.691402</v>
       </c>
       <c r="C93" t="n">
-        <v>145.348691</v>
+        <v>145.213889</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-38.085076</v>
+        <v>-37.760449</v>
       </c>
       <c r="C94" t="n">
-        <v>145.46966</v>
+        <v>145.348691</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.740107</v>
+        <v>-38.085076</v>
       </c>
       <c r="C95" t="n">
-        <v>144.956047</v>
+        <v>145.46966</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.772859</v>
+        <v>-37.740107</v>
       </c>
       <c r="C96" t="n">
-        <v>145.294713</v>
+        <v>144.956047</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.798171</v>
+        <v>-37.772859</v>
       </c>
       <c r="C97" t="n">
-        <v>144.956665</v>
+        <v>145.294713</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-38.012111</v>
+        <v>-37.798171</v>
       </c>
       <c r="C98" t="n">
-        <v>145.090154</v>
+        <v>144.956665</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-36.732518</v>
+        <v>-38.012111</v>
       </c>
       <c r="C99" t="n">
-        <v>146.967357</v>
+        <v>145.090154</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.811362</v>
+        <v>-36.732518</v>
       </c>
       <c r="C100" t="n">
-        <v>144.973203</v>
+        <v>146.967357</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.927427</v>
+        <v>-37.811362</v>
       </c>
       <c r="C101" t="n">
-        <v>145.116157</v>
+        <v>144.973203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.571236</v>
+        <v>-37.927427</v>
       </c>
       <c r="C102" t="n">
-        <v>144.90978</v>
+        <v>145.116157</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.685249</v>
+        <v>-37.571236</v>
       </c>
       <c r="C103" t="n">
-        <v>144.92446</v>
+        <v>144.90978</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2227,68 +2227,68 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.704175</v>
+        <v>-37.685249</v>
       </c>
       <c r="C104" t="n">
-        <v>144.998741</v>
+        <v>144.92446</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.726306</v>
+        <v>-37.704175</v>
       </c>
       <c r="C105" t="n">
-        <v>145.069914</v>
+        <v>144.998741</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C106" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.8163949</v>
+        <v>-37.801332</v>
       </c>
       <c r="C107" t="n">
-        <v>144.9526066</v>
+        <v>144.963635</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -2299,72 +2299,72 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C108" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C109" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.836082</v>
+        <v>-37.801332</v>
       </c>
       <c r="C110" t="n">
-        <v>144.915383</v>
+        <v>144.963635</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C111" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -2389,36 +2389,36 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C113" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.801332</v>
+        <v>-37.837908</v>
       </c>
       <c r="C114" t="n">
-        <v>144.963635</v>
+        <v>144.786218</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
@@ -2443,50 +2443,50 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C116" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.756286</v>
+        <v>-37.841635</v>
       </c>
       <c r="C117" t="n">
-        <v>144.811104</v>
+        <v>145.086235</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.715384</v>
+        <v>-37.756286</v>
       </c>
       <c r="C118" t="n">
-        <v>144.811994</v>
+        <v>144.811104</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -2497,212 +2497,212 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.884267</v>
+        <v>-37.715384</v>
       </c>
       <c r="C119" t="n">
-        <v>145.017115</v>
+        <v>144.811994</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-36.314871</v>
+        <v>-37.884267</v>
       </c>
       <c r="C120" t="n">
-        <v>145.04197</v>
+        <v>145.017115</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.92849</v>
+        <v>-36.314871</v>
       </c>
       <c r="C121" t="n">
-        <v>145.007454</v>
+        <v>145.04197</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.841635</v>
+        <v>-37.92849</v>
       </c>
       <c r="C122" t="n">
-        <v>145.086235</v>
+        <v>145.007454</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.884267</v>
+        <v>-37.841635</v>
       </c>
       <c r="C123" t="n">
-        <v>145.017115</v>
+        <v>145.086235</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.69261</v>
+        <v>-37.884267</v>
       </c>
       <c r="C124" t="n">
-        <v>145.063821</v>
+        <v>145.017115</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.689223</v>
+        <v>-37.69261</v>
       </c>
       <c r="C125" t="n">
-        <v>144.604708</v>
+        <v>145.063821</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.843632</v>
+        <v>-37.689223</v>
       </c>
       <c r="C126" t="n">
-        <v>144.781559</v>
+        <v>144.604708</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.730748</v>
+        <v>-37.843632</v>
       </c>
       <c r="C127" t="n">
-        <v>145.086489</v>
+        <v>144.781559</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.702513</v>
+        <v>-37.730748</v>
       </c>
       <c r="C128" t="n">
-        <v>144.802326</v>
+        <v>145.086489</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.673996</v>
+        <v>-37.702513</v>
       </c>
       <c r="C129" t="n">
-        <v>144.955354</v>
+        <v>144.802326</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.576594</v>
+        <v>-37.673996</v>
       </c>
       <c r="C130" t="n">
-        <v>144.728665</v>
+        <v>144.955354</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -2713,32 +2713,32 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.879995</v>
+        <v>-37.576594</v>
       </c>
       <c r="C131" t="n">
-        <v>144.701577</v>
+        <v>144.728665</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.834014</v>
+        <v>-37.879995</v>
       </c>
       <c r="C132" t="n">
-        <v>144.652853</v>
+        <v>144.701577</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -2749,50 +2749,50 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.942099</v>
+        <v>-37.834014</v>
       </c>
       <c r="C133" t="n">
-        <v>145.167684</v>
+        <v>144.652853</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.664667</v>
+        <v>-37.942099</v>
       </c>
       <c r="C134" t="n">
-        <v>144.74749</v>
+        <v>145.167684</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.665417</v>
+        <v>-37.664667</v>
       </c>
       <c r="C135" t="n">
-        <v>144.753359</v>
+        <v>144.74749</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -2803,194 +2803,194 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.73899</v>
+        <v>-37.665417</v>
       </c>
       <c r="C136" t="n">
-        <v>144.679976</v>
+        <v>144.753359</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.596123</v>
+        <v>-37.73899</v>
       </c>
       <c r="C137" t="n">
-        <v>144.921401</v>
+        <v>144.679976</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.77238</v>
+        <v>-37.596123</v>
       </c>
       <c r="C138" t="n">
-        <v>144.888195</v>
+        <v>144.921401</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.783105</v>
+        <v>-37.77238</v>
       </c>
       <c r="C139" t="n">
-        <v>144.785398</v>
+        <v>144.888195</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.766147</v>
+        <v>-37.783105</v>
       </c>
       <c r="C140" t="n">
-        <v>145.020052</v>
+        <v>144.785398</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.689366</v>
+        <v>-37.766147</v>
       </c>
       <c r="C141" t="n">
-        <v>144.958878</v>
+        <v>145.020052</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.678278</v>
+        <v>-37.689366</v>
       </c>
       <c r="C142" t="n">
-        <v>144.432689</v>
+        <v>144.958878</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.810712</v>
+        <v>-37.678278</v>
       </c>
       <c r="C143" t="n">
-        <v>144.836118</v>
+        <v>144.432689</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C144" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.811678</v>
+        <v>-37.667111</v>
       </c>
       <c r="C145" t="n">
-        <v>144.889926</v>
+        <v>144.8334808</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.797177</v>
+        <v>-37.811678</v>
       </c>
       <c r="C146" t="n">
-        <v>144.894632</v>
+        <v>144.889926</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -3001,108 +3001,108 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.759223</v>
+        <v>-37.797177</v>
       </c>
       <c r="C147" t="n">
-        <v>144.816754</v>
+        <v>144.894632</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.844318</v>
+        <v>-37.759223</v>
       </c>
       <c r="C148" t="n">
-        <v>145.009818</v>
+        <v>144.816754</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.813239</v>
+        <v>-37.844318</v>
       </c>
       <c r="C149" t="n">
-        <v>145.048047</v>
+        <v>145.009818</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.7769407</v>
+        <v>-37.813239</v>
       </c>
       <c r="C150" t="n">
-        <v>144.987025</v>
+        <v>145.048047</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.772096</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C151" t="n">
-        <v>144.916095</v>
+        <v>144.987025</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C152" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -3217,104 +3217,104 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C159" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.800963</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C160" t="n">
-        <v>145.0729384</v>
+        <v>144.983472</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.790783</v>
+        <v>-37.800963</v>
       </c>
       <c r="C161" t="n">
-        <v>144.998162</v>
+        <v>145.0729384</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.8249813</v>
+        <v>-37.790783</v>
       </c>
       <c r="C162" t="n">
-        <v>144.983613</v>
+        <v>144.998162</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.8411037</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C163" t="n">
-        <v>144.955806</v>
+        <v>144.983613</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C164" t="n">
-        <v>144.9564881</v>
+        <v>144.955806</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -3343,18 +3343,18 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C166" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -3379,86 +3379,86 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-37.8633444</v>
+        <v>-38.199003</v>
       </c>
       <c r="C168" t="n">
-        <v>145.0868276</v>
+        <v>144.318418</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.809265</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C169" t="n">
-        <v>144.994951</v>
+        <v>145.0868276</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C170" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.7978092</v>
+        <v>-37.667111</v>
       </c>
       <c r="C171" t="n">
-        <v>144.9680124</v>
+        <v>144.8334808</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C172" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -3469,54 +3469,54 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C173" t="n">
-        <v>144.3568376</v>
+        <v>144.9526066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-37.028215</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C174" t="n">
-        <v>145.14336</v>
+        <v>144.3568376</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C175" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
@@ -3559,54 +3559,54 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C178" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C179" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C180" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
@@ -3631,36 +3631,36 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-37.8266608</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C182" t="n">
-        <v>145.0587903</v>
+        <v>144.9526066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C183" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -3739,18 +3739,18 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C188" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
@@ -3785,6 +3785,24 @@
         <v>144.8334808</v>
       </c>
       <c r="D190" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C191" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D191" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D191"/>
+  <dimension ref="A1:D194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -679,158 +679,158 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>10 English St, Essendon Fields VIC 3041</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.845667</v>
+        <v>-37.726876</v>
       </c>
       <c r="C18" t="n">
-        <v>144.981921</v>
+        <v>144.894023</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.813306</v>
+        <v>-37.845667</v>
       </c>
       <c r="C19" t="n">
-        <v>144.849237</v>
+        <v>144.981921</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.690076</v>
+        <v>-37.813306</v>
       </c>
       <c r="C20" t="n">
-        <v>144.996836</v>
+        <v>144.849237</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.813215</v>
+        <v>-37.690076</v>
       </c>
       <c r="C21" t="n">
-        <v>144.965914</v>
+        <v>144.996836</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.796258</v>
+        <v>-37.813215</v>
       </c>
       <c r="C22" t="n">
-        <v>144.862235</v>
+        <v>144.965914</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.798908</v>
+        <v>-37.796258</v>
       </c>
       <c r="C23" t="n">
-        <v>144.956176</v>
+        <v>144.862235</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.788414</v>
+        <v>-37.874191</v>
       </c>
       <c r="C24" t="n">
-        <v>144.936951</v>
+        <v>144.677393</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.73908</v>
+        <v>-37.798908</v>
       </c>
       <c r="C25" t="n">
-        <v>145.002236</v>
+        <v>144.956176</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.785949</v>
+        <v>-37.788414</v>
       </c>
       <c r="C26" t="n">
-        <v>144.935308</v>
+        <v>144.936951</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -841,68 +841,68 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.670681</v>
+        <v>-37.73908</v>
       </c>
       <c r="C27" t="n">
-        <v>144.850306</v>
+        <v>145.002236</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.817011</v>
+        <v>-37.785949</v>
       </c>
       <c r="C28" t="n">
-        <v>144.962265</v>
+        <v>144.935308</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.789871</v>
+        <v>-37.670681</v>
       </c>
       <c r="C29" t="n">
-        <v>144.926734</v>
+        <v>144.850306</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.791989</v>
+        <v>-37.817011</v>
       </c>
       <c r="C30" t="n">
-        <v>144.940508</v>
+        <v>144.962265</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -913,158 +913,158 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.653023</v>
+        <v>-38.259593</v>
       </c>
       <c r="C31" t="n">
-        <v>145.014685</v>
+        <v>144.53948</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.766715</v>
+        <v>-37.789871</v>
       </c>
       <c r="C32" t="n">
-        <v>145.021149</v>
+        <v>144.926734</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.741667</v>
+        <v>-37.791989</v>
       </c>
       <c r="C33" t="n">
-        <v>144.908954</v>
+        <v>144.940508</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.759288</v>
+        <v>-37.653023</v>
       </c>
       <c r="C34" t="n">
-        <v>144.817921</v>
+        <v>145.014685</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.817743</v>
+        <v>-37.766715</v>
       </c>
       <c r="C35" t="n">
-        <v>144.992936</v>
+        <v>145.021149</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.813381</v>
+        <v>-37.741667</v>
       </c>
       <c r="C36" t="n">
-        <v>144.967076</v>
+        <v>144.908954</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.598146</v>
+        <v>-37.759288</v>
       </c>
       <c r="C37" t="n">
-        <v>145.068782</v>
+        <v>144.817921</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.704738</v>
+        <v>-37.817743</v>
       </c>
       <c r="C38" t="n">
-        <v>144.86329</v>
+        <v>144.992936</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.815499</v>
+        <v>-37.813381</v>
       </c>
       <c r="C39" t="n">
-        <v>144.965882</v>
+        <v>144.967076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1075,1112 +1075,1112 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.724684</v>
+        <v>-37.598146</v>
       </c>
       <c r="C40" t="n">
-        <v>144.940008</v>
+        <v>145.068782</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.752048</v>
+        <v>-37.704738</v>
       </c>
       <c r="C41" t="n">
-        <v>144.970526</v>
+        <v>144.86329</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.787776</v>
+        <v>-37.815499</v>
       </c>
       <c r="C42" t="n">
-        <v>144.829839</v>
+        <v>144.965882</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.817826</v>
+        <v>-37.724684</v>
       </c>
       <c r="C43" t="n">
-        <v>144.878737</v>
+        <v>144.940008</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.785683</v>
+        <v>-37.752048</v>
       </c>
       <c r="C44" t="n">
-        <v>144.994154</v>
+        <v>144.970526</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.812264</v>
+        <v>-37.787776</v>
       </c>
       <c r="C45" t="n">
-        <v>144.991241</v>
+        <v>144.829839</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.813934</v>
+        <v>-37.817826</v>
       </c>
       <c r="C46" t="n">
-        <v>144.999135</v>
+        <v>144.878737</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.81693</v>
+        <v>-37.785683</v>
       </c>
       <c r="C47" t="n">
-        <v>144.962296</v>
+        <v>144.994154</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.798908</v>
+        <v>-37.812264</v>
       </c>
       <c r="C48" t="n">
-        <v>144.956176</v>
+        <v>144.991241</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.870336</v>
+        <v>-37.813934</v>
       </c>
       <c r="C49" t="n">
-        <v>144.696569</v>
+        <v>144.999135</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.735123</v>
+        <v>-37.81693</v>
       </c>
       <c r="C50" t="n">
-        <v>144.738736</v>
+        <v>144.962296</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.581979</v>
+        <v>-37.798908</v>
       </c>
       <c r="C51" t="n">
-        <v>144.905951</v>
+        <v>144.956176</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.71597</v>
+        <v>-37.870336</v>
       </c>
       <c r="C52" t="n">
-        <v>144.935826</v>
+        <v>144.696569</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.74954</v>
+        <v>-37.735123</v>
       </c>
       <c r="C53" t="n">
-        <v>144.883252</v>
+        <v>144.738736</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.754926</v>
+        <v>-37.581979</v>
       </c>
       <c r="C54" t="n">
-        <v>144.966324</v>
+        <v>144.905951</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.875675</v>
+        <v>-37.71597</v>
       </c>
       <c r="C55" t="n">
-        <v>144.79145</v>
+        <v>144.935826</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.601756</v>
+        <v>-37.74954</v>
       </c>
       <c r="C56" t="n">
-        <v>144.905386</v>
+        <v>144.883252</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.778017</v>
+        <v>-37.754926</v>
       </c>
       <c r="C57" t="n">
-        <v>144.889266</v>
+        <v>144.966324</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.799002</v>
+        <v>-37.875675</v>
       </c>
       <c r="C58" t="n">
-        <v>144.894926</v>
+        <v>144.79145</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.837112</v>
+        <v>-37.601756</v>
       </c>
       <c r="C59" t="n">
-        <v>144.941595</v>
+        <v>144.905386</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.854529</v>
+        <v>-37.778017</v>
       </c>
       <c r="C60" t="n">
-        <v>144.721868</v>
+        <v>144.889266</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.774352</v>
+        <v>-37.799002</v>
       </c>
       <c r="C61" t="n">
-        <v>144.92733</v>
+        <v>144.894926</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.755176</v>
+        <v>-37.837112</v>
       </c>
       <c r="C62" t="n">
-        <v>144.90226</v>
+        <v>144.941595</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.658638</v>
+        <v>-37.854529</v>
       </c>
       <c r="C63" t="n">
-        <v>145.076922</v>
+        <v>144.721868</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.675501</v>
+        <v>-37.774352</v>
       </c>
       <c r="C64" t="n">
-        <v>145.135999</v>
+        <v>144.92733</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.819298</v>
+        <v>-37.755176</v>
       </c>
       <c r="C65" t="n">
-        <v>145.129263</v>
+        <v>144.90226</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.791185</v>
+        <v>-37.658638</v>
       </c>
       <c r="C66" t="n">
-        <v>144.886937</v>
+        <v>145.076922</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.655759</v>
+        <v>-37.675501</v>
       </c>
       <c r="C67" t="n">
-        <v>145.032038</v>
+        <v>145.135999</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.764884</v>
+        <v>-37.819298</v>
       </c>
       <c r="C68" t="n">
-        <v>144.979606</v>
+        <v>145.129263</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.717149</v>
+        <v>-37.791185</v>
       </c>
       <c r="C69" t="n">
-        <v>144.808867</v>
+        <v>144.886937</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.718987</v>
+        <v>-37.655759</v>
       </c>
       <c r="C70" t="n">
-        <v>144.992857</v>
+        <v>145.032038</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.778539</v>
+        <v>-37.764884</v>
       </c>
       <c r="C71" t="n">
-        <v>144.875831</v>
+        <v>144.979606</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.690602</v>
+        <v>-37.717149</v>
       </c>
       <c r="C72" t="n">
-        <v>144.869104</v>
+        <v>144.808867</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.814598</v>
+        <v>-37.718987</v>
       </c>
       <c r="C73" t="n">
-        <v>144.762011</v>
+        <v>144.992857</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.933332</v>
+        <v>-37.778539</v>
       </c>
       <c r="C74" t="n">
-        <v>145.000542</v>
+        <v>144.875831</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.773754</v>
+        <v>-37.690602</v>
       </c>
       <c r="C75" t="n">
-        <v>144.888956</v>
+        <v>144.869104</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.744387</v>
+        <v>-37.814598</v>
       </c>
       <c r="C76" t="n">
-        <v>144.774297</v>
+        <v>144.762011</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.711211</v>
+        <v>-37.933332</v>
       </c>
       <c r="C77" t="n">
-        <v>144.738802</v>
+        <v>145.000542</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.816363</v>
+        <v>-37.773754</v>
       </c>
       <c r="C78" t="n">
-        <v>145.06656</v>
+        <v>144.888956</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-38.102082</v>
+        <v>-37.744387</v>
       </c>
       <c r="C79" t="n">
-        <v>145.265397</v>
+        <v>144.774297</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.684606</v>
+        <v>-37.711211</v>
       </c>
       <c r="C80" t="n">
-        <v>144.760227</v>
+        <v>144.738802</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.715384</v>
+        <v>-37.816363</v>
       </c>
       <c r="C81" t="n">
-        <v>144.811994</v>
+        <v>145.06656</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.738834</v>
+        <v>-38.102082</v>
       </c>
       <c r="C82" t="n">
-        <v>145.030187</v>
+        <v>145.265397</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-38.075826</v>
+        <v>-37.684606</v>
       </c>
       <c r="C83" t="n">
-        <v>145.473885</v>
+        <v>144.760227</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.837404</v>
+        <v>-37.715384</v>
       </c>
       <c r="C84" t="n">
-        <v>144.996291</v>
+        <v>144.811994</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.898104</v>
+        <v>-37.738834</v>
       </c>
       <c r="C85" t="n">
-        <v>145.160876</v>
+        <v>145.030187</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.890643</v>
+        <v>-38.075826</v>
       </c>
       <c r="C86" t="n">
-        <v>145.062546</v>
+        <v>145.473885</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.8135</v>
+        <v>-37.837404</v>
       </c>
       <c r="C87" t="n">
-        <v>144.969933</v>
+        <v>144.996291</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.581295</v>
+        <v>-37.898104</v>
       </c>
       <c r="C88" t="n">
-        <v>144.738024</v>
+        <v>145.160876</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.744387</v>
+        <v>-37.890643</v>
       </c>
       <c r="C89" t="n">
-        <v>144.774297</v>
+        <v>145.062546</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.735247</v>
+        <v>-37.8135</v>
       </c>
       <c r="C90" t="n">
-        <v>144.917023</v>
+        <v>144.969933</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.975685</v>
+        <v>-37.581295</v>
       </c>
       <c r="C91" t="n">
-        <v>145.216529</v>
+        <v>144.738024</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.688119</v>
+        <v>-37.744387</v>
       </c>
       <c r="C92" t="n">
-        <v>144.884379</v>
+        <v>144.774297</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.691402</v>
+        <v>-37.735247</v>
       </c>
       <c r="C93" t="n">
-        <v>145.213889</v>
+        <v>144.917023</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.760449</v>
+        <v>-37.975685</v>
       </c>
       <c r="C94" t="n">
-        <v>145.348691</v>
+        <v>145.216529</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-38.085076</v>
+        <v>-37.688119</v>
       </c>
       <c r="C95" t="n">
-        <v>145.46966</v>
+        <v>144.884379</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.740107</v>
+        <v>-37.691402</v>
       </c>
       <c r="C96" t="n">
-        <v>144.956047</v>
+        <v>145.213889</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.772859</v>
+        <v>-37.760449</v>
       </c>
       <c r="C97" t="n">
-        <v>145.294713</v>
+        <v>145.348691</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.798171</v>
+        <v>-38.085076</v>
       </c>
       <c r="C98" t="n">
-        <v>144.956665</v>
+        <v>145.46966</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-38.012111</v>
+        <v>-37.740107</v>
       </c>
       <c r="C99" t="n">
-        <v>145.090154</v>
+        <v>144.956047</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-36.732518</v>
+        <v>-37.772859</v>
       </c>
       <c r="C100" t="n">
-        <v>146.967357</v>
+        <v>145.294713</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.811362</v>
+        <v>-37.798171</v>
       </c>
       <c r="C101" t="n">
-        <v>144.973203</v>
+        <v>144.956665</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -2191,144 +2191,144 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.927427</v>
+        <v>-38.012111</v>
       </c>
       <c r="C102" t="n">
-        <v>145.116157</v>
+        <v>145.090154</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.571236</v>
+        <v>-36.732518</v>
       </c>
       <c r="C103" t="n">
-        <v>144.90978</v>
+        <v>146.967357</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.685249</v>
+        <v>-37.811362</v>
       </c>
       <c r="C104" t="n">
-        <v>144.92446</v>
+        <v>144.973203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.704175</v>
+        <v>-37.927427</v>
       </c>
       <c r="C105" t="n">
-        <v>144.998741</v>
+        <v>145.116157</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.726306</v>
+        <v>-37.571236</v>
       </c>
       <c r="C106" t="n">
-        <v>145.069914</v>
+        <v>144.90978</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C107" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.8163949</v>
+        <v>-37.704175</v>
       </c>
       <c r="C108" t="n">
-        <v>144.9526066</v>
+        <v>144.998741</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.667111</v>
+        <v>-37.726306</v>
       </c>
       <c r="C109" t="n">
-        <v>144.8334808</v>
+        <v>145.069914</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -2353,36 +2353,36 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.836082</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C111" t="n">
-        <v>144.915383</v>
+        <v>144.9526066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C112" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
@@ -2407,18 +2407,18 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.837908</v>
+        <v>-37.836082</v>
       </c>
       <c r="C114" t="n">
-        <v>144.786218</v>
+        <v>144.915383</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -2461,212 +2461,212 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.841635</v>
+        <v>-37.837908</v>
       </c>
       <c r="C117" t="n">
-        <v>145.086235</v>
+        <v>144.786218</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C118" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C119" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.884267</v>
+        <v>-37.841635</v>
       </c>
       <c r="C120" t="n">
-        <v>145.017115</v>
+        <v>145.086235</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-36.314871</v>
+        <v>-37.756286</v>
       </c>
       <c r="C121" t="n">
-        <v>145.04197</v>
+        <v>144.811104</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.92849</v>
+        <v>-37.715384</v>
       </c>
       <c r="C122" t="n">
-        <v>145.007454</v>
+        <v>144.811994</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.841635</v>
+        <v>-37.884267</v>
       </c>
       <c r="C123" t="n">
-        <v>145.086235</v>
+        <v>145.017115</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.884267</v>
+        <v>-36.314871</v>
       </c>
       <c r="C124" t="n">
-        <v>145.017115</v>
+        <v>145.04197</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.69261</v>
+        <v>-37.92849</v>
       </c>
       <c r="C125" t="n">
-        <v>145.063821</v>
+        <v>145.007454</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.689223</v>
+        <v>-37.841635</v>
       </c>
       <c r="C126" t="n">
-        <v>144.604708</v>
+        <v>145.086235</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.843632</v>
+        <v>-37.884267</v>
       </c>
       <c r="C127" t="n">
-        <v>144.781559</v>
+        <v>145.017115</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.730748</v>
+        <v>-37.69261</v>
       </c>
       <c r="C128" t="n">
-        <v>145.086489</v>
+        <v>145.063821</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -2677,302 +2677,302 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.702513</v>
+        <v>-37.689223</v>
       </c>
       <c r="C129" t="n">
-        <v>144.802326</v>
+        <v>144.604708</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.673996</v>
+        <v>-37.843632</v>
       </c>
       <c r="C130" t="n">
-        <v>144.955354</v>
+        <v>144.781559</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.576594</v>
+        <v>-37.730748</v>
       </c>
       <c r="C131" t="n">
-        <v>144.728665</v>
+        <v>145.086489</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.879995</v>
+        <v>-37.702513</v>
       </c>
       <c r="C132" t="n">
-        <v>144.701577</v>
+        <v>144.802326</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.834014</v>
+        <v>-37.673996</v>
       </c>
       <c r="C133" t="n">
-        <v>144.652853</v>
+        <v>144.955354</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.942099</v>
+        <v>-37.576594</v>
       </c>
       <c r="C134" t="n">
-        <v>145.167684</v>
+        <v>144.728665</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.664667</v>
+        <v>-37.879995</v>
       </c>
       <c r="C135" t="n">
-        <v>144.74749</v>
+        <v>144.701577</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.665417</v>
+        <v>-37.834014</v>
       </c>
       <c r="C136" t="n">
-        <v>144.753359</v>
+        <v>144.652853</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.73899</v>
+        <v>-37.942099</v>
       </c>
       <c r="C137" t="n">
-        <v>144.679976</v>
+        <v>145.167684</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.596123</v>
+        <v>-37.664667</v>
       </c>
       <c r="C138" t="n">
-        <v>144.921401</v>
+        <v>144.74749</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.77238</v>
+        <v>-37.665417</v>
       </c>
       <c r="C139" t="n">
-        <v>144.888195</v>
+        <v>144.753359</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.783105</v>
+        <v>-37.73899</v>
       </c>
       <c r="C140" t="n">
-        <v>144.785398</v>
+        <v>144.679976</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.766147</v>
+        <v>-37.596123</v>
       </c>
       <c r="C141" t="n">
-        <v>145.020052</v>
+        <v>144.921401</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.689366</v>
+        <v>-37.77238</v>
       </c>
       <c r="C142" t="n">
-        <v>144.958878</v>
+        <v>144.888195</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.678278</v>
+        <v>-37.783105</v>
       </c>
       <c r="C143" t="n">
-        <v>144.432689</v>
+        <v>144.785398</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.810712</v>
+        <v>-37.766147</v>
       </c>
       <c r="C144" t="n">
-        <v>144.836118</v>
+        <v>145.020052</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.667111</v>
+        <v>-37.689366</v>
       </c>
       <c r="C145" t="n">
-        <v>144.8334808</v>
+        <v>144.958878</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2983,180 +2983,180 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.811678</v>
+        <v>-37.678278</v>
       </c>
       <c r="C146" t="n">
-        <v>144.889926</v>
+        <v>144.432689</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.797177</v>
+        <v>-37.810712</v>
       </c>
       <c r="C147" t="n">
-        <v>144.894632</v>
+        <v>144.836118</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.759223</v>
+        <v>-37.667111</v>
       </c>
       <c r="C148" t="n">
-        <v>144.816754</v>
+        <v>144.8334808</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.844318</v>
+        <v>-37.811678</v>
       </c>
       <c r="C149" t="n">
-        <v>145.009818</v>
+        <v>144.889926</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.813239</v>
+        <v>-37.797177</v>
       </c>
       <c r="C150" t="n">
-        <v>145.048047</v>
+        <v>144.894632</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.7769407</v>
+        <v>-37.759223</v>
       </c>
       <c r="C151" t="n">
-        <v>144.987025</v>
+        <v>144.816754</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.772096</v>
+        <v>-37.844318</v>
       </c>
       <c r="C152" t="n">
-        <v>144.916095</v>
+        <v>145.009818</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C153" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C154" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C155" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -3235,68 +3235,68 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C160" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C161" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C162" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.8249813</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C163" t="n">
-        <v>144.983613</v>
+        <v>144.983472</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -3307,414 +3307,414 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.8411037</v>
+        <v>-37.800963</v>
       </c>
       <c r="C164" t="n">
-        <v>144.955806</v>
+        <v>145.0729384</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.8321731</v>
+        <v>-37.790783</v>
       </c>
       <c r="C165" t="n">
-        <v>144.9564881</v>
+        <v>144.998162</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.8321731</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C166" t="n">
-        <v>144.9564881</v>
+        <v>144.983613</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-38.199003</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C167" t="n">
-        <v>144.318418</v>
+        <v>144.955806</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-38.199003</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C168" t="n">
-        <v>144.318418</v>
+        <v>144.9564881</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C169" t="n">
-        <v>145.0868276</v>
+        <v>144.9564881</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-37.809265</v>
+        <v>-38.199003</v>
       </c>
       <c r="C170" t="n">
-        <v>144.994951</v>
+        <v>144.318418</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.667111</v>
+        <v>-38.199003</v>
       </c>
       <c r="C171" t="n">
-        <v>144.8334808</v>
+        <v>144.318418</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C172" t="n">
-        <v>144.9680124</v>
+        <v>145.0868276</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.8163949</v>
+        <v>-37.809265</v>
       </c>
       <c r="C173" t="n">
-        <v>144.9526066</v>
+        <v>144.994951</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C174" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-37.028215</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C175" t="n">
-        <v>145.14336</v>
+        <v>144.9680124</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-37.720557</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C176" t="n">
-        <v>145.048232</v>
+        <v>144.9526066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C177" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.720557</v>
+        <v>-37.028215</v>
       </c>
       <c r="C178" t="n">
-        <v>145.048232</v>
+        <v>145.14336</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C179" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C180" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C181" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C182" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-37.8266608</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C183" t="n">
-        <v>145.0587903</v>
+        <v>144.3568376</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C184" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C185" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C186" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -3757,52 +3757,106 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C189" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C190" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C191" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B191" t="n">
+      <c r="B192" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C192" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C193" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C194" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D194" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D194"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,374 +391,374 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1 Saintly Dr, Truganina VIC 3029</t>
+          <t>438 Somerville Rd, Tottenham VIC 3012</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.807645</v>
+        <v>-37.808952</v>
       </c>
       <c r="C2" t="n">
-        <v>144.746483</v>
+        <v>144.850888</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>16 Moreland St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.798908</v>
+        <v>-37.79998</v>
       </c>
       <c r="C3" t="n">
-        <v>144.956176</v>
+        <v>144.907861</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>30 Inverloch Cres, Dallas VIC 3047</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.759223</v>
+        <v>-37.66875</v>
       </c>
       <c r="C4" t="n">
-        <v>144.816754</v>
+        <v>144.929709</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>1 Saintly Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.653023</v>
+        <v>-37.807645</v>
       </c>
       <c r="C5" t="n">
-        <v>145.014685</v>
+        <v>144.746483</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>10 Fletcher St, Essendon VIC 3040</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.755206</v>
+        <v>-37.798908</v>
       </c>
       <c r="C6" t="n">
-        <v>144.925092</v>
+        <v>144.956176</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.766695</v>
+        <v>-37.759223</v>
       </c>
       <c r="C7" t="n">
-        <v>145.170655</v>
+        <v>144.816754</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Manningham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13 Howard St, Altona Meadows VIC 3028</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.878812</v>
+        <v>-37.653023</v>
       </c>
       <c r="C8" t="n">
-        <v>144.781325</v>
+        <v>145.014685</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
+          <t>10 Fletcher St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.758211</v>
+        <v>-37.755206</v>
       </c>
       <c r="C9" t="n">
-        <v>145.044162</v>
+        <v>144.925092</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>27 Smith St, Healesville VIC 3777</t>
+          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.661037</v>
+        <v>-37.766695</v>
       </c>
       <c r="C10" t="n">
-        <v>145.508141</v>
+        <v>145.170655</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Manningham (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
+          <t>13 Howard St, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.66148</v>
+        <v>-37.878812</v>
       </c>
       <c r="C11" t="n">
-        <v>145.516046</v>
+        <v>144.781325</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.684151</v>
+        <v>-37.758211</v>
       </c>
       <c r="C12" t="n">
-        <v>144.948507</v>
+        <v>145.044162</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.756487</v>
+        <v>-37.661037</v>
       </c>
       <c r="C13" t="n">
-        <v>144.972167</v>
+        <v>145.508141</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.87778</v>
+        <v>-37.66148</v>
       </c>
       <c r="C14" t="n">
-        <v>144.676933</v>
+        <v>145.516046</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.741374</v>
+        <v>-37.684151</v>
       </c>
       <c r="C15" t="n">
-        <v>144.992388</v>
+        <v>144.948507</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.801718</v>
+        <v>-37.756487</v>
       </c>
       <c r="C16" t="n">
-        <v>145.032141</v>
+        <v>144.972167</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.740508</v>
+        <v>-37.87778</v>
       </c>
       <c r="C17" t="n">
-        <v>145.075152</v>
+        <v>144.676933</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>10 English St, Essendon Fields VIC 3041</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.726876</v>
+        <v>-37.741374</v>
       </c>
       <c r="C18" t="n">
-        <v>144.894023</v>
+        <v>144.992388</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.845667</v>
+        <v>-37.801718</v>
       </c>
       <c r="C19" t="n">
-        <v>144.981921</v>
+        <v>145.032141</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.813306</v>
+        <v>-37.740508</v>
       </c>
       <c r="C20" t="n">
-        <v>144.849237</v>
+        <v>145.075152</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>10 English St, Essendon Fields VIC 3041</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.690076</v>
+        <v>-37.726876</v>
       </c>
       <c r="C21" t="n">
-        <v>144.996836</v>
+        <v>144.894023</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.813215</v>
+        <v>-37.845667</v>
       </c>
       <c r="C22" t="n">
-        <v>144.965914</v>
+        <v>144.981921</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -769,50 +769,50 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.796258</v>
+        <v>-37.813306</v>
       </c>
       <c r="C23" t="n">
-        <v>144.862235</v>
+        <v>144.849237</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.874191</v>
+        <v>-37.690076</v>
       </c>
       <c r="C24" t="n">
-        <v>144.677393</v>
+        <v>144.996836</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.798908</v>
+        <v>-37.813215</v>
       </c>
       <c r="C25" t="n">
-        <v>144.956176</v>
+        <v>144.965914</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -823,806 +823,806 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.788414</v>
+        <v>-37.796258</v>
       </c>
       <c r="C26" t="n">
-        <v>144.936951</v>
+        <v>144.862235</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.73908</v>
+        <v>-37.874191</v>
       </c>
       <c r="C27" t="n">
-        <v>145.002236</v>
+        <v>144.677393</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>41 Landsborough St, Warragul VIC 3820</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.785949</v>
+        <v>-38.172925</v>
       </c>
       <c r="C28" t="n">
-        <v>144.935308</v>
+        <v>145.927835</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Baw Baw (S)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.670681</v>
+        <v>-37.798908</v>
       </c>
       <c r="C29" t="n">
-        <v>144.850306</v>
+        <v>144.956176</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.817011</v>
+        <v>-37.788414</v>
       </c>
       <c r="C30" t="n">
-        <v>144.962265</v>
+        <v>144.936951</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-38.259593</v>
+        <v>-37.73908</v>
       </c>
       <c r="C31" t="n">
-        <v>144.53948</v>
+        <v>145.002236</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.789871</v>
+        <v>-37.785949</v>
       </c>
       <c r="C32" t="n">
-        <v>144.926734</v>
+        <v>144.935308</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.791989</v>
+        <v>-37.670681</v>
       </c>
       <c r="C33" t="n">
-        <v>144.940508</v>
+        <v>144.850306</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.653023</v>
+        <v>-37.817011</v>
       </c>
       <c r="C34" t="n">
-        <v>145.014685</v>
+        <v>144.962265</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.766715</v>
+        <v>-38.259593</v>
       </c>
       <c r="C35" t="n">
-        <v>145.021149</v>
+        <v>144.53948</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.741667</v>
+        <v>-37.789871</v>
       </c>
       <c r="C36" t="n">
-        <v>144.908954</v>
+        <v>144.926734</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.759288</v>
+        <v>-37.791989</v>
       </c>
       <c r="C37" t="n">
-        <v>144.817921</v>
+        <v>144.940508</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.817743</v>
+        <v>-37.653023</v>
       </c>
       <c r="C38" t="n">
-        <v>144.992936</v>
+        <v>145.014685</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.813381</v>
+        <v>-37.766715</v>
       </c>
       <c r="C39" t="n">
-        <v>144.967076</v>
+        <v>145.021149</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.598146</v>
+        <v>-37.741667</v>
       </c>
       <c r="C40" t="n">
-        <v>145.068782</v>
+        <v>144.908954</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.704738</v>
+        <v>-37.759288</v>
       </c>
       <c r="C41" t="n">
-        <v>144.86329</v>
+        <v>144.817921</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.815499</v>
+        <v>-37.817743</v>
       </c>
       <c r="C42" t="n">
-        <v>144.965882</v>
+        <v>144.992936</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.724684</v>
+        <v>-37.813381</v>
       </c>
       <c r="C43" t="n">
-        <v>144.940008</v>
+        <v>144.967076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.752048</v>
+        <v>-37.598146</v>
       </c>
       <c r="C44" t="n">
-        <v>144.970526</v>
+        <v>145.068782</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.787776</v>
+        <v>-37.704738</v>
       </c>
       <c r="C45" t="n">
-        <v>144.829839</v>
+        <v>144.86329</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.817826</v>
+        <v>-37.815499</v>
       </c>
       <c r="C46" t="n">
-        <v>144.878737</v>
+        <v>144.965882</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.785683</v>
+        <v>-37.724684</v>
       </c>
       <c r="C47" t="n">
-        <v>144.994154</v>
+        <v>144.940008</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.812264</v>
+        <v>-37.752048</v>
       </c>
       <c r="C48" t="n">
-        <v>144.991241</v>
+        <v>144.970526</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.813934</v>
+        <v>-37.787776</v>
       </c>
       <c r="C49" t="n">
-        <v>144.999135</v>
+        <v>144.829839</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.81693</v>
+        <v>-37.817826</v>
       </c>
       <c r="C50" t="n">
-        <v>144.962296</v>
+        <v>144.878737</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.798908</v>
+        <v>-37.785683</v>
       </c>
       <c r="C51" t="n">
-        <v>144.956176</v>
+        <v>144.994154</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.870336</v>
+        <v>-37.812264</v>
       </c>
       <c r="C52" t="n">
-        <v>144.696569</v>
+        <v>144.991241</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.735123</v>
+        <v>-37.813934</v>
       </c>
       <c r="C53" t="n">
-        <v>144.738736</v>
+        <v>144.999135</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.581979</v>
+        <v>-37.81693</v>
       </c>
       <c r="C54" t="n">
-        <v>144.905951</v>
+        <v>144.962296</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.71597</v>
+        <v>-37.798908</v>
       </c>
       <c r="C55" t="n">
-        <v>144.935826</v>
+        <v>144.956176</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.74954</v>
+        <v>-37.870336</v>
       </c>
       <c r="C56" t="n">
-        <v>144.883252</v>
+        <v>144.696569</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.754926</v>
+        <v>-37.735123</v>
       </c>
       <c r="C57" t="n">
-        <v>144.966324</v>
+        <v>144.738736</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.875675</v>
+        <v>-37.581979</v>
       </c>
       <c r="C58" t="n">
-        <v>144.79145</v>
+        <v>144.905951</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.601756</v>
+        <v>-37.71597</v>
       </c>
       <c r="C59" t="n">
-        <v>144.905386</v>
+        <v>144.935826</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.778017</v>
+        <v>-37.74954</v>
       </c>
       <c r="C60" t="n">
-        <v>144.889266</v>
+        <v>144.883252</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.799002</v>
+        <v>-37.754926</v>
       </c>
       <c r="C61" t="n">
-        <v>144.894926</v>
+        <v>144.966324</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.837112</v>
+        <v>-37.875675</v>
       </c>
       <c r="C62" t="n">
-        <v>144.941595</v>
+        <v>144.79145</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.854529</v>
+        <v>-37.601756</v>
       </c>
       <c r="C63" t="n">
-        <v>144.721868</v>
+        <v>144.905386</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.774352</v>
+        <v>-37.778017</v>
       </c>
       <c r="C64" t="n">
-        <v>144.92733</v>
+        <v>144.889266</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.755176</v>
+        <v>-37.799002</v>
       </c>
       <c r="C65" t="n">
-        <v>144.90226</v>
+        <v>144.894926</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.658638</v>
+        <v>-37.837112</v>
       </c>
       <c r="C66" t="n">
-        <v>145.076922</v>
+        <v>144.941595</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.675501</v>
+        <v>-37.854529</v>
       </c>
       <c r="C67" t="n">
-        <v>145.135999</v>
+        <v>144.721868</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.819298</v>
+        <v>-37.774352</v>
       </c>
       <c r="C68" t="n">
-        <v>145.129263</v>
+        <v>144.92733</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.791185</v>
+        <v>-37.755176</v>
       </c>
       <c r="C69" t="n">
-        <v>144.886937</v>
+        <v>144.90226</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.655759</v>
+        <v>-37.658638</v>
       </c>
       <c r="C70" t="n">
-        <v>145.032038</v>
+        <v>145.076922</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1633,140 +1633,140 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.764884</v>
+        <v>-37.675501</v>
       </c>
       <c r="C71" t="n">
-        <v>144.979606</v>
+        <v>145.135999</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.717149</v>
+        <v>-37.819298</v>
       </c>
       <c r="C72" t="n">
-        <v>144.808867</v>
+        <v>145.129263</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.718987</v>
+        <v>-37.791185</v>
       </c>
       <c r="C73" t="n">
-        <v>144.992857</v>
+        <v>144.886937</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.778539</v>
+        <v>-37.655759</v>
       </c>
       <c r="C74" t="n">
-        <v>144.875831</v>
+        <v>145.032038</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.690602</v>
+        <v>-37.764884</v>
       </c>
       <c r="C75" t="n">
-        <v>144.869104</v>
+        <v>144.979606</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.814598</v>
+        <v>-37.717149</v>
       </c>
       <c r="C76" t="n">
-        <v>144.762011</v>
+        <v>144.808867</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.933332</v>
+        <v>-37.718987</v>
       </c>
       <c r="C77" t="n">
-        <v>145.000542</v>
+        <v>144.992857</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.773754</v>
+        <v>-37.778539</v>
       </c>
       <c r="C78" t="n">
-        <v>144.888956</v>
+        <v>144.875831</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -1777,86 +1777,86 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.744387</v>
+        <v>-37.690602</v>
       </c>
       <c r="C79" t="n">
-        <v>144.774297</v>
+        <v>144.869104</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.711211</v>
+        <v>-37.814598</v>
       </c>
       <c r="C80" t="n">
-        <v>144.738802</v>
+        <v>144.762011</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.816363</v>
+        <v>-37.933332</v>
       </c>
       <c r="C81" t="n">
-        <v>145.06656</v>
+        <v>145.000542</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-38.102082</v>
+        <v>-37.773754</v>
       </c>
       <c r="C82" t="n">
-        <v>145.265397</v>
+        <v>144.888956</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.684606</v>
+        <v>-37.744387</v>
       </c>
       <c r="C83" t="n">
-        <v>144.760227</v>
+        <v>144.774297</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1867,212 +1867,212 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.715384</v>
+        <v>-37.711211</v>
       </c>
       <c r="C84" t="n">
-        <v>144.811994</v>
+        <v>144.738802</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.738834</v>
+        <v>-37.816363</v>
       </c>
       <c r="C85" t="n">
-        <v>145.030187</v>
+        <v>145.06656</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-38.075826</v>
+        <v>-38.102082</v>
       </c>
       <c r="C86" t="n">
-        <v>145.473885</v>
+        <v>145.265397</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.837404</v>
+        <v>-37.684606</v>
       </c>
       <c r="C87" t="n">
-        <v>144.996291</v>
+        <v>144.760227</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.898104</v>
+        <v>-37.715384</v>
       </c>
       <c r="C88" t="n">
-        <v>145.160876</v>
+        <v>144.811994</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.890643</v>
+        <v>-37.738834</v>
       </c>
       <c r="C89" t="n">
-        <v>145.062546</v>
+        <v>145.030187</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.8135</v>
+        <v>-38.075826</v>
       </c>
       <c r="C90" t="n">
-        <v>144.969933</v>
+        <v>145.473885</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.581295</v>
+        <v>-37.837404</v>
       </c>
       <c r="C91" t="n">
-        <v>144.738024</v>
+        <v>144.996291</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.744387</v>
+        <v>-37.898104</v>
       </c>
       <c r="C92" t="n">
-        <v>144.774297</v>
+        <v>145.160876</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.735247</v>
+        <v>-37.890643</v>
       </c>
       <c r="C93" t="n">
-        <v>144.917023</v>
+        <v>145.062546</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.975685</v>
+        <v>-37.8135</v>
       </c>
       <c r="C94" t="n">
-        <v>145.216529</v>
+        <v>144.969933</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.688119</v>
+        <v>-37.581295</v>
       </c>
       <c r="C95" t="n">
-        <v>144.884379</v>
+        <v>144.738024</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -2083,356 +2083,356 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.691402</v>
+        <v>-37.744387</v>
       </c>
       <c r="C96" t="n">
-        <v>145.213889</v>
+        <v>144.774297</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.760449</v>
+        <v>-37.735247</v>
       </c>
       <c r="C97" t="n">
-        <v>145.348691</v>
+        <v>144.917023</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-38.085076</v>
+        <v>-37.975685</v>
       </c>
       <c r="C98" t="n">
-        <v>145.46966</v>
+        <v>145.216529</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.740107</v>
+        <v>-37.688119</v>
       </c>
       <c r="C99" t="n">
-        <v>144.956047</v>
+        <v>144.884379</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.772859</v>
+        <v>-37.691402</v>
       </c>
       <c r="C100" t="n">
-        <v>145.294713</v>
+        <v>145.213889</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.798171</v>
+        <v>-37.760449</v>
       </c>
       <c r="C101" t="n">
-        <v>144.956665</v>
+        <v>145.348691</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-38.012111</v>
+        <v>-38.085076</v>
       </c>
       <c r="C102" t="n">
-        <v>145.090154</v>
+        <v>145.46966</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-36.732518</v>
+        <v>-37.740107</v>
       </c>
       <c r="C103" t="n">
-        <v>146.967357</v>
+        <v>144.956047</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.811362</v>
+        <v>-37.772859</v>
       </c>
       <c r="C104" t="n">
-        <v>144.973203</v>
+        <v>145.294713</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.927427</v>
+        <v>-37.798171</v>
       </c>
       <c r="C105" t="n">
-        <v>145.116157</v>
+        <v>144.956665</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.571236</v>
+        <v>-38.012111</v>
       </c>
       <c r="C106" t="n">
-        <v>144.90978</v>
+        <v>145.090154</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.685249</v>
+        <v>-36.732518</v>
       </c>
       <c r="C107" t="n">
-        <v>144.92446</v>
+        <v>146.967357</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.704175</v>
+        <v>-37.811362</v>
       </c>
       <c r="C108" t="n">
-        <v>144.998741</v>
+        <v>144.973203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.726306</v>
+        <v>-37.927427</v>
       </c>
       <c r="C109" t="n">
-        <v>145.069914</v>
+        <v>145.116157</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.801332</v>
+        <v>-37.571236</v>
       </c>
       <c r="C110" t="n">
-        <v>144.963635</v>
+        <v>144.90978</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.8163949</v>
+        <v>-37.685249</v>
       </c>
       <c r="C111" t="n">
-        <v>144.9526066</v>
+        <v>144.92446</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.667111</v>
+        <v>-37.704175</v>
       </c>
       <c r="C112" t="n">
-        <v>144.8334808</v>
+        <v>144.998741</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C113" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.836082</v>
+        <v>-37.801332</v>
       </c>
       <c r="C114" t="n">
-        <v>144.915383</v>
+        <v>144.963635</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C115" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2443,54 +2443,54 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C116" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C117" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.801332</v>
+        <v>-37.836082</v>
       </c>
       <c r="C118" t="n">
-        <v>144.963635</v>
+        <v>144.915383</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
@@ -2515,126 +2515,126 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C120" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.756286</v>
+        <v>-37.837908</v>
       </c>
       <c r="C121" t="n">
-        <v>144.811104</v>
+        <v>144.786218</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C122" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C123" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-36.314871</v>
+        <v>-37.841635</v>
       </c>
       <c r="C124" t="n">
-        <v>145.04197</v>
+        <v>145.086235</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.92849</v>
+        <v>-37.756286</v>
       </c>
       <c r="C125" t="n">
-        <v>145.007454</v>
+        <v>144.811104</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.841635</v>
+        <v>-37.715384</v>
       </c>
       <c r="C126" t="n">
-        <v>145.086235</v>
+        <v>144.811994</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -2659,284 +2659,284 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.69261</v>
+        <v>-36.314871</v>
       </c>
       <c r="C128" t="n">
-        <v>145.063821</v>
+        <v>145.04197</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.689223</v>
+        <v>-37.92849</v>
       </c>
       <c r="C129" t="n">
-        <v>144.604708</v>
+        <v>145.007454</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.843632</v>
+        <v>-37.841635</v>
       </c>
       <c r="C130" t="n">
-        <v>144.781559</v>
+        <v>145.086235</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.730748</v>
+        <v>-37.884267</v>
       </c>
       <c r="C131" t="n">
-        <v>145.086489</v>
+        <v>145.017115</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.702513</v>
+        <v>-37.69261</v>
       </c>
       <c r="C132" t="n">
-        <v>144.802326</v>
+        <v>145.063821</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.673996</v>
+        <v>-37.689223</v>
       </c>
       <c r="C133" t="n">
-        <v>144.955354</v>
+        <v>144.604708</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.576594</v>
+        <v>-37.843632</v>
       </c>
       <c r="C134" t="n">
-        <v>144.728665</v>
+        <v>144.781559</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.879995</v>
+        <v>-37.730748</v>
       </c>
       <c r="C135" t="n">
-        <v>144.701577</v>
+        <v>145.086489</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.834014</v>
+        <v>-37.702513</v>
       </c>
       <c r="C136" t="n">
-        <v>144.652853</v>
+        <v>144.802326</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.942099</v>
+        <v>-37.673996</v>
       </c>
       <c r="C137" t="n">
-        <v>145.167684</v>
+        <v>144.955354</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.664667</v>
+        <v>-37.576594</v>
       </c>
       <c r="C138" t="n">
-        <v>144.74749</v>
+        <v>144.728665</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.665417</v>
+        <v>-37.879995</v>
       </c>
       <c r="C139" t="n">
-        <v>144.753359</v>
+        <v>144.701577</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.73899</v>
+        <v>-37.834014</v>
       </c>
       <c r="C140" t="n">
-        <v>144.679976</v>
+        <v>144.652853</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.596123</v>
+        <v>-37.942099</v>
       </c>
       <c r="C141" t="n">
-        <v>144.921401</v>
+        <v>145.167684</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.77238</v>
+        <v>-37.664667</v>
       </c>
       <c r="C142" t="n">
-        <v>144.888195</v>
+        <v>144.74749</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.783105</v>
+        <v>-37.665417</v>
       </c>
       <c r="C143" t="n">
-        <v>144.785398</v>
+        <v>144.753359</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2947,32 +2947,32 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.766147</v>
+        <v>-37.73899</v>
       </c>
       <c r="C144" t="n">
-        <v>145.020052</v>
+        <v>144.679976</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.689366</v>
+        <v>-37.596123</v>
       </c>
       <c r="C145" t="n">
-        <v>144.958878</v>
+        <v>144.921401</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2983,32 +2983,32 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.678278</v>
+        <v>-37.77238</v>
       </c>
       <c r="C146" t="n">
-        <v>144.432689</v>
+        <v>144.888195</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.810712</v>
+        <v>-37.783105</v>
       </c>
       <c r="C147" t="n">
-        <v>144.836118</v>
+        <v>144.785398</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -3019,68 +3019,68 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.667111</v>
+        <v>-37.766147</v>
       </c>
       <c r="C148" t="n">
-        <v>144.8334808</v>
+        <v>145.020052</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.811678</v>
+        <v>-37.689366</v>
       </c>
       <c r="C149" t="n">
-        <v>144.889926</v>
+        <v>144.958878</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.797177</v>
+        <v>-37.678278</v>
       </c>
       <c r="C150" t="n">
-        <v>144.894632</v>
+        <v>144.432689</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.759223</v>
+        <v>-37.810712</v>
       </c>
       <c r="C151" t="n">
-        <v>144.816754</v>
+        <v>144.836118</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -3091,144 +3091,144 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.844318</v>
+        <v>-37.667111</v>
       </c>
       <c r="C152" t="n">
-        <v>145.009818</v>
+        <v>144.8334808</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.813239</v>
+        <v>-37.811678</v>
       </c>
       <c r="C153" t="n">
-        <v>145.048047</v>
+        <v>144.889926</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.7769407</v>
+        <v>-37.797177</v>
       </c>
       <c r="C154" t="n">
-        <v>144.987025</v>
+        <v>144.894632</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.772096</v>
+        <v>-37.759223</v>
       </c>
       <c r="C155" t="n">
-        <v>144.916095</v>
+        <v>144.816754</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C156" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C157" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C158" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C159" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
@@ -3289,504 +3289,504 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C163" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C164" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C165" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C166" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.8411037</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C167" t="n">
-        <v>144.955806</v>
+        <v>144.983472</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-37.8321731</v>
+        <v>-37.800963</v>
       </c>
       <c r="C168" t="n">
-        <v>144.9564881</v>
+        <v>145.0729384</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.8321731</v>
+        <v>-37.790783</v>
       </c>
       <c r="C169" t="n">
-        <v>144.9564881</v>
+        <v>144.998162</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-38.199003</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C170" t="n">
-        <v>144.318418</v>
+        <v>144.983613</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-38.199003</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C171" t="n">
-        <v>144.318418</v>
+        <v>144.955806</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C172" t="n">
-        <v>145.0868276</v>
+        <v>144.9564881</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.809265</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C173" t="n">
-        <v>144.994951</v>
+        <v>144.9564881</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-37.667111</v>
+        <v>-38.199003</v>
       </c>
       <c r="C174" t="n">
-        <v>144.8334808</v>
+        <v>144.318418</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-37.7978092</v>
+        <v>-38.199003</v>
       </c>
       <c r="C175" t="n">
-        <v>144.9680124</v>
+        <v>144.318418</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C176" t="n">
-        <v>144.9526066</v>
+        <v>145.0868276</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-38.1450096</v>
+        <v>-37.809265</v>
       </c>
       <c r="C177" t="n">
-        <v>144.3568376</v>
+        <v>144.994951</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.028215</v>
+        <v>-37.667111</v>
       </c>
       <c r="C178" t="n">
-        <v>145.14336</v>
+        <v>144.8334808</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-37.720557</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C179" t="n">
-        <v>145.048232</v>
+        <v>144.9680124</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-37.720557</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C180" t="n">
-        <v>145.048232</v>
+        <v>144.9526066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-37.720557</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C181" t="n">
-        <v>145.048232</v>
+        <v>144.3568376</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-37.667111</v>
+        <v>-37.028215</v>
       </c>
       <c r="C182" t="n">
-        <v>144.8334808</v>
+        <v>145.14336</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-38.1450096</v>
+        <v>-37.720557</v>
       </c>
       <c r="C183" t="n">
-        <v>144.3568376</v>
+        <v>145.048232</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C184" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-37.8163949</v>
+        <v>-37.720557</v>
       </c>
       <c r="C185" t="n">
-        <v>144.9526066</v>
+        <v>145.048232</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-37.8266608</v>
+        <v>-37.667111</v>
       </c>
       <c r="C186" t="n">
-        <v>145.0587903</v>
+        <v>144.8334808</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C187" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C188" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C189" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-37.848232</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C190" t="n">
-        <v>145.005508</v>
+        <v>145.0587903</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
@@ -3811,52 +3811,124 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C192" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-37.667111</v>
+        <v>-37.848232</v>
       </c>
       <c r="C193" t="n">
-        <v>144.8334808</v>
+        <v>145.005508</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C194" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C195" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B194" t="n">
+      <c r="B196" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C196" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C197" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C198" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D198" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,500 +391,500 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>438 Somerville Rd, Tottenham VIC 3012</t>
+          <t>484 Dohertys Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.808952</v>
+        <v>-37.824803</v>
       </c>
       <c r="C2" t="n">
-        <v>144.850888</v>
+        <v>144.737124</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>16 Moreland St, Footscray VIC 3011</t>
+          <t>8 Arnold St, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.79998</v>
+        <v>-37.81408</v>
       </c>
       <c r="C3" t="n">
-        <v>144.907861</v>
+        <v>145.118453</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30 Inverloch Cres, Dallas VIC 3047</t>
+          <t>510 Lygon St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.66875</v>
+        <v>-37.794602</v>
       </c>
       <c r="C4" t="n">
-        <v>144.929709</v>
+        <v>144.968261</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>1 Saintly Dr, Truganina VIC 3029</t>
+          <t>59-61 High St, Woodend VIC 3442</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.807645</v>
+        <v>-37.35824</v>
       </c>
       <c r="C5" t="n">
-        <v>144.746483</v>
+        <v>144.525773</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Macedon Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.798908</v>
+        <v>-37.78365</v>
       </c>
       <c r="C6" t="n">
-        <v>144.956176</v>
+        <v>144.77146</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>438 Somerville Rd, Tottenham VIC 3012</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.759223</v>
+        <v>-37.808952</v>
       </c>
       <c r="C7" t="n">
-        <v>144.816754</v>
+        <v>144.850888</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>16 Moreland St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.653023</v>
+        <v>-37.79998</v>
       </c>
       <c r="C8" t="n">
-        <v>145.014685</v>
+        <v>144.907861</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>10 Fletcher St, Essendon VIC 3040</t>
+          <t>30 Inverloch Cres, Dallas VIC 3047</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.755206</v>
+        <v>-37.66875</v>
       </c>
       <c r="C9" t="n">
-        <v>144.925092</v>
+        <v>144.929709</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
+          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.766695</v>
+        <v>-37.768353</v>
       </c>
       <c r="C10" t="n">
-        <v>145.170655</v>
+        <v>145.041766</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Manningham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13 Howard St, Altona Meadows VIC 3028</t>
+          <t>1 Saintly Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.878812</v>
+        <v>-37.807645</v>
       </c>
       <c r="C11" t="n">
-        <v>144.781325</v>
+        <v>144.746483</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.758211</v>
+        <v>-37.798908</v>
       </c>
       <c r="C12" t="n">
-        <v>145.044162</v>
+        <v>144.956176</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>27 Smith St, Healesville VIC 3777</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.661037</v>
+        <v>-37.759223</v>
       </c>
       <c r="C13" t="n">
-        <v>145.508141</v>
+        <v>144.816754</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.66148</v>
+        <v>-37.653023</v>
       </c>
       <c r="C14" t="n">
-        <v>145.516046</v>
+        <v>145.014685</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>10 Fletcher St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.684151</v>
+        <v>-37.755206</v>
       </c>
       <c r="C15" t="n">
-        <v>144.948507</v>
+        <v>144.925092</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.756487</v>
+        <v>-37.766695</v>
       </c>
       <c r="C16" t="n">
-        <v>144.972167</v>
+        <v>145.170655</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Manningham (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>13 Howard St, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.87778</v>
+        <v>-37.878812</v>
       </c>
       <c r="C17" t="n">
-        <v>144.676933</v>
+        <v>144.781325</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.741374</v>
+        <v>-37.758211</v>
       </c>
       <c r="C18" t="n">
-        <v>144.992388</v>
+        <v>145.044162</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.801718</v>
+        <v>-37.661037</v>
       </c>
       <c r="C19" t="n">
-        <v>145.032141</v>
+        <v>145.508141</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.740508</v>
+        <v>-37.66148</v>
       </c>
       <c r="C20" t="n">
-        <v>145.075152</v>
+        <v>145.516046</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>10 English St, Essendon Fields VIC 3041</t>
+          <t>15 Fletcher Rd, Frankston VIC 3199</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.726876</v>
+        <v>-38.138881</v>
       </c>
       <c r="C21" t="n">
-        <v>144.894023</v>
+        <v>145.124681</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Frankston (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.845667</v>
+        <v>-37.684151</v>
       </c>
       <c r="C22" t="n">
-        <v>144.981921</v>
+        <v>144.948507</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.813306</v>
+        <v>-37.756487</v>
       </c>
       <c r="C23" t="n">
-        <v>144.849237</v>
+        <v>144.972167</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.690076</v>
+        <v>-37.87778</v>
       </c>
       <c r="C24" t="n">
-        <v>144.996836</v>
+        <v>144.676933</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.813215</v>
+        <v>-37.741374</v>
       </c>
       <c r="C25" t="n">
-        <v>144.965914</v>
+        <v>144.992388</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.796258</v>
+        <v>-37.801718</v>
       </c>
       <c r="C26" t="n">
-        <v>144.862235</v>
+        <v>145.032141</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.874191</v>
+        <v>-37.740508</v>
       </c>
       <c r="C27" t="n">
-        <v>144.677393</v>
+        <v>145.075152</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>41 Landsborough St, Warragul VIC 3820</t>
+          <t>10 English St, Essendon Fields VIC 3041</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-38.172925</v>
+        <v>-37.726876</v>
       </c>
       <c r="C28" t="n">
-        <v>145.927835</v>
+        <v>144.894023</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Baw Baw (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.798908</v>
+        <v>-37.845667</v>
       </c>
       <c r="C29" t="n">
-        <v>144.956176</v>
+        <v>144.981921</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -895,122 +895,122 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.788414</v>
+        <v>-37.813306</v>
       </c>
       <c r="C30" t="n">
-        <v>144.936951</v>
+        <v>144.849237</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.73908</v>
+        <v>-37.690076</v>
       </c>
       <c r="C31" t="n">
-        <v>145.002236</v>
+        <v>144.996836</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.785949</v>
+        <v>-37.813215</v>
       </c>
       <c r="C32" t="n">
-        <v>144.935308</v>
+        <v>144.965914</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.670681</v>
+        <v>-37.796258</v>
       </c>
       <c r="C33" t="n">
-        <v>144.850306</v>
+        <v>144.862235</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.817011</v>
+        <v>-37.874191</v>
       </c>
       <c r="C34" t="n">
-        <v>144.962265</v>
+        <v>144.677393</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
+          <t>41 Landsborough St, Warragul VIC 3820</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-38.259593</v>
+        <v>-38.172925</v>
       </c>
       <c r="C35" t="n">
-        <v>144.53948</v>
+        <v>145.927835</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Baw Baw (S)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.789871</v>
+        <v>-37.798908</v>
       </c>
       <c r="C36" t="n">
-        <v>144.926734</v>
+        <v>144.956176</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1021,122 +1021,122 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.791989</v>
+        <v>-37.788414</v>
       </c>
       <c r="C37" t="n">
-        <v>144.940508</v>
+        <v>144.936951</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.653023</v>
+        <v>-37.73908</v>
       </c>
       <c r="C38" t="n">
-        <v>145.014685</v>
+        <v>145.002236</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.766715</v>
+        <v>-37.785949</v>
       </c>
       <c r="C39" t="n">
-        <v>145.021149</v>
+        <v>144.935308</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.741667</v>
+        <v>-37.670681</v>
       </c>
       <c r="C40" t="n">
-        <v>144.908954</v>
+        <v>144.850306</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.759288</v>
+        <v>-37.817011</v>
       </c>
       <c r="C41" t="n">
-        <v>144.817921</v>
+        <v>144.962265</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.817743</v>
+        <v>-38.259593</v>
       </c>
       <c r="C42" t="n">
-        <v>144.992936</v>
+        <v>144.53948</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.813381</v>
+        <v>-37.789871</v>
       </c>
       <c r="C43" t="n">
-        <v>144.967076</v>
+        <v>144.926734</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1147,716 +1147,716 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.598146</v>
+        <v>-37.791989</v>
       </c>
       <c r="C44" t="n">
-        <v>145.068782</v>
+        <v>144.940508</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.704738</v>
+        <v>-37.653023</v>
       </c>
       <c r="C45" t="n">
-        <v>144.86329</v>
+        <v>145.014685</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.815499</v>
+        <v>-37.766715</v>
       </c>
       <c r="C46" t="n">
-        <v>144.965882</v>
+        <v>145.021149</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.724684</v>
+        <v>-37.741667</v>
       </c>
       <c r="C47" t="n">
-        <v>144.940008</v>
+        <v>144.908954</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.752048</v>
+        <v>-37.759288</v>
       </c>
       <c r="C48" t="n">
-        <v>144.970526</v>
+        <v>144.817921</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.787776</v>
+        <v>-37.817743</v>
       </c>
       <c r="C49" t="n">
-        <v>144.829839</v>
+        <v>144.992936</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.817826</v>
+        <v>-37.813381</v>
       </c>
       <c r="C50" t="n">
-        <v>144.878737</v>
+        <v>144.967076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.785683</v>
+        <v>-37.598146</v>
       </c>
       <c r="C51" t="n">
-        <v>144.994154</v>
+        <v>145.068782</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.812264</v>
+        <v>-37.704738</v>
       </c>
       <c r="C52" t="n">
-        <v>144.991241</v>
+        <v>144.86329</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.813934</v>
+        <v>-37.815499</v>
       </c>
       <c r="C53" t="n">
-        <v>144.999135</v>
+        <v>144.965882</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.81693</v>
+        <v>-37.724684</v>
       </c>
       <c r="C54" t="n">
-        <v>144.962296</v>
+        <v>144.940008</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.798908</v>
+        <v>-37.752048</v>
       </c>
       <c r="C55" t="n">
-        <v>144.956176</v>
+        <v>144.970526</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.870336</v>
+        <v>-37.787776</v>
       </c>
       <c r="C56" t="n">
-        <v>144.696569</v>
+        <v>144.829839</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.735123</v>
+        <v>-37.817826</v>
       </c>
       <c r="C57" t="n">
-        <v>144.738736</v>
+        <v>144.878737</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.581979</v>
+        <v>-37.785683</v>
       </c>
       <c r="C58" t="n">
-        <v>144.905951</v>
+        <v>144.994154</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.71597</v>
+        <v>-37.812264</v>
       </c>
       <c r="C59" t="n">
-        <v>144.935826</v>
+        <v>144.991241</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.74954</v>
+        <v>-37.813934</v>
       </c>
       <c r="C60" t="n">
-        <v>144.883252</v>
+        <v>144.999135</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.754926</v>
+        <v>-37.81693</v>
       </c>
       <c r="C61" t="n">
-        <v>144.966324</v>
+        <v>144.962296</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.875675</v>
+        <v>-37.798908</v>
       </c>
       <c r="C62" t="n">
-        <v>144.79145</v>
+        <v>144.956176</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.601756</v>
+        <v>-37.870336</v>
       </c>
       <c r="C63" t="n">
-        <v>144.905386</v>
+        <v>144.696569</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.778017</v>
+        <v>-37.735123</v>
       </c>
       <c r="C64" t="n">
-        <v>144.889266</v>
+        <v>144.738736</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.799002</v>
+        <v>-37.581979</v>
       </c>
       <c r="C65" t="n">
-        <v>144.894926</v>
+        <v>144.905951</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.837112</v>
+        <v>-37.71597</v>
       </c>
       <c r="C66" t="n">
-        <v>144.941595</v>
+        <v>144.935826</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.854529</v>
+        <v>-37.74954</v>
       </c>
       <c r="C67" t="n">
-        <v>144.721868</v>
+        <v>144.883252</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.774352</v>
+        <v>-37.754926</v>
       </c>
       <c r="C68" t="n">
-        <v>144.92733</v>
+        <v>144.966324</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.755176</v>
+        <v>-37.875675</v>
       </c>
       <c r="C69" t="n">
-        <v>144.90226</v>
+        <v>144.79145</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.658638</v>
+        <v>-37.601756</v>
       </c>
       <c r="C70" t="n">
-        <v>145.076922</v>
+        <v>144.905386</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.675501</v>
+        <v>-37.778017</v>
       </c>
       <c r="C71" t="n">
-        <v>145.135999</v>
+        <v>144.889266</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.819298</v>
+        <v>-37.799002</v>
       </c>
       <c r="C72" t="n">
-        <v>145.129263</v>
+        <v>144.894926</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.791185</v>
+        <v>-37.837112</v>
       </c>
       <c r="C73" t="n">
-        <v>144.886937</v>
+        <v>144.941595</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.655759</v>
+        <v>-37.854529</v>
       </c>
       <c r="C74" t="n">
-        <v>145.032038</v>
+        <v>144.721868</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.764884</v>
+        <v>-37.774352</v>
       </c>
       <c r="C75" t="n">
-        <v>144.979606</v>
+        <v>144.92733</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.717149</v>
+        <v>-37.755176</v>
       </c>
       <c r="C76" t="n">
-        <v>144.808867</v>
+        <v>144.90226</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.718987</v>
+        <v>-37.658638</v>
       </c>
       <c r="C77" t="n">
-        <v>144.992857</v>
+        <v>145.076922</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.778539</v>
+        <v>-37.675501</v>
       </c>
       <c r="C78" t="n">
-        <v>144.875831</v>
+        <v>145.135999</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.690602</v>
+        <v>-37.819298</v>
       </c>
       <c r="C79" t="n">
-        <v>144.869104</v>
+        <v>145.129263</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.814598</v>
+        <v>-37.791185</v>
       </c>
       <c r="C80" t="n">
-        <v>144.762011</v>
+        <v>144.886937</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.933332</v>
+        <v>-37.655759</v>
       </c>
       <c r="C81" t="n">
-        <v>145.000542</v>
+        <v>145.032038</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.773754</v>
+        <v>-37.764884</v>
       </c>
       <c r="C82" t="n">
-        <v>144.888956</v>
+        <v>144.979606</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.744387</v>
+        <v>-37.717149</v>
       </c>
       <c r="C83" t="n">
-        <v>144.774297</v>
+        <v>144.808867</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1867,572 +1867,572 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.711211</v>
+        <v>-37.718987</v>
       </c>
       <c r="C84" t="n">
-        <v>144.738802</v>
+        <v>144.992857</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.816363</v>
+        <v>-37.778539</v>
       </c>
       <c r="C85" t="n">
-        <v>145.06656</v>
+        <v>144.875831</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-38.102082</v>
+        <v>-37.690602</v>
       </c>
       <c r="C86" t="n">
-        <v>145.265397</v>
+        <v>144.869104</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.684606</v>
+        <v>-37.814598</v>
       </c>
       <c r="C87" t="n">
-        <v>144.760227</v>
+        <v>144.762011</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.715384</v>
+        <v>-37.933332</v>
       </c>
       <c r="C88" t="n">
-        <v>144.811994</v>
+        <v>145.000542</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.738834</v>
+        <v>-37.773754</v>
       </c>
       <c r="C89" t="n">
-        <v>145.030187</v>
+        <v>144.888956</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-38.075826</v>
+        <v>-37.744387</v>
       </c>
       <c r="C90" t="n">
-        <v>145.473885</v>
+        <v>144.774297</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.837404</v>
+        <v>-37.711211</v>
       </c>
       <c r="C91" t="n">
-        <v>144.996291</v>
+        <v>144.738802</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.898104</v>
+        <v>-37.816363</v>
       </c>
       <c r="C92" t="n">
-        <v>145.160876</v>
+        <v>145.06656</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.890643</v>
+        <v>-38.102082</v>
       </c>
       <c r="C93" t="n">
-        <v>145.062546</v>
+        <v>145.265397</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.8135</v>
+        <v>-37.684606</v>
       </c>
       <c r="C94" t="n">
-        <v>144.969933</v>
+        <v>144.760227</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.581295</v>
+        <v>-37.715384</v>
       </c>
       <c r="C95" t="n">
-        <v>144.738024</v>
+        <v>144.811994</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.744387</v>
+        <v>-37.738834</v>
       </c>
       <c r="C96" t="n">
-        <v>144.774297</v>
+        <v>145.030187</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.735247</v>
+        <v>-38.075826</v>
       </c>
       <c r="C97" t="n">
-        <v>144.917023</v>
+        <v>145.473885</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.975685</v>
+        <v>-37.837404</v>
       </c>
       <c r="C98" t="n">
-        <v>145.216529</v>
+        <v>144.996291</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.688119</v>
+        <v>-37.898104</v>
       </c>
       <c r="C99" t="n">
-        <v>144.884379</v>
+        <v>145.160876</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.691402</v>
+        <v>-37.890643</v>
       </c>
       <c r="C100" t="n">
-        <v>145.213889</v>
+        <v>145.062546</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.760449</v>
+        <v>-37.8135</v>
       </c>
       <c r="C101" t="n">
-        <v>145.348691</v>
+        <v>144.969933</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-38.085076</v>
+        <v>-37.581295</v>
       </c>
       <c r="C102" t="n">
-        <v>145.46966</v>
+        <v>144.738024</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.740107</v>
+        <v>-37.744387</v>
       </c>
       <c r="C103" t="n">
-        <v>144.956047</v>
+        <v>144.774297</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.772859</v>
+        <v>-37.735247</v>
       </c>
       <c r="C104" t="n">
-        <v>145.294713</v>
+        <v>144.917023</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.798171</v>
+        <v>-37.975685</v>
       </c>
       <c r="C105" t="n">
-        <v>144.956665</v>
+        <v>145.216529</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-38.012111</v>
+        <v>-37.688119</v>
       </c>
       <c r="C106" t="n">
-        <v>145.090154</v>
+        <v>144.884379</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-36.732518</v>
+        <v>-37.691402</v>
       </c>
       <c r="C107" t="n">
-        <v>146.967357</v>
+        <v>145.213889</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.811362</v>
+        <v>-37.760449</v>
       </c>
       <c r="C108" t="n">
-        <v>144.973203</v>
+        <v>145.348691</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.927427</v>
+        <v>-38.085076</v>
       </c>
       <c r="C109" t="n">
-        <v>145.116157</v>
+        <v>145.46966</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.571236</v>
+        <v>-37.740107</v>
       </c>
       <c r="C110" t="n">
-        <v>144.90978</v>
+        <v>144.956047</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.685249</v>
+        <v>-37.772859</v>
       </c>
       <c r="C111" t="n">
-        <v>144.92446</v>
+        <v>145.294713</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.704175</v>
+        <v>-37.798171</v>
       </c>
       <c r="C112" t="n">
-        <v>144.998741</v>
+        <v>144.956665</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.726306</v>
+        <v>-38.012111</v>
       </c>
       <c r="C113" t="n">
-        <v>145.069914</v>
+        <v>145.090154</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.801332</v>
+        <v>-36.732518</v>
       </c>
       <c r="C114" t="n">
-        <v>144.963635</v>
+        <v>146.967357</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.8163949</v>
+        <v>-37.811362</v>
       </c>
       <c r="C115" t="n">
-        <v>144.9526066</v>
+        <v>144.973203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -2443,122 +2443,122 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.667111</v>
+        <v>-37.927427</v>
       </c>
       <c r="C116" t="n">
-        <v>144.8334808</v>
+        <v>145.116157</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.801332</v>
+        <v>-37.571236</v>
       </c>
       <c r="C117" t="n">
-        <v>144.963635</v>
+        <v>144.90978</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.836082</v>
+        <v>-37.685249</v>
       </c>
       <c r="C118" t="n">
-        <v>144.915383</v>
+        <v>144.92446</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C119" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C120" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.837908</v>
+        <v>-37.801332</v>
       </c>
       <c r="C121" t="n">
-        <v>144.786218</v>
+        <v>144.963635</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C122" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -2569,374 +2569,374 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.801332</v>
+        <v>-37.667111</v>
       </c>
       <c r="C123" t="n">
-        <v>144.963635</v>
+        <v>144.8334808</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C124" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.756286</v>
+        <v>-37.836082</v>
       </c>
       <c r="C125" t="n">
-        <v>144.811104</v>
+        <v>144.915383</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C126" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C127" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-36.314871</v>
+        <v>-37.837908</v>
       </c>
       <c r="C128" t="n">
-        <v>145.04197</v>
+        <v>144.786218</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C129" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C130" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.884267</v>
+        <v>-37.841635</v>
       </c>
       <c r="C131" t="n">
-        <v>145.017115</v>
+        <v>145.086235</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.69261</v>
+        <v>-37.756286</v>
       </c>
       <c r="C132" t="n">
-        <v>145.063821</v>
+        <v>144.811104</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.689223</v>
+        <v>-37.715384</v>
       </c>
       <c r="C133" t="n">
-        <v>144.604708</v>
+        <v>144.811994</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.843632</v>
+        <v>-37.884267</v>
       </c>
       <c r="C134" t="n">
-        <v>144.781559</v>
+        <v>145.017115</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.730748</v>
+        <v>-36.314871</v>
       </c>
       <c r="C135" t="n">
-        <v>145.086489</v>
+        <v>145.04197</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.702513</v>
+        <v>-37.92849</v>
       </c>
       <c r="C136" t="n">
-        <v>144.802326</v>
+        <v>145.007454</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.673996</v>
+        <v>-37.841635</v>
       </c>
       <c r="C137" t="n">
-        <v>144.955354</v>
+        <v>145.086235</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.576594</v>
+        <v>-37.884267</v>
       </c>
       <c r="C138" t="n">
-        <v>144.728665</v>
+        <v>145.017115</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.879995</v>
+        <v>-37.69261</v>
       </c>
       <c r="C139" t="n">
-        <v>144.701577</v>
+        <v>145.063821</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.834014</v>
+        <v>-37.689223</v>
       </c>
       <c r="C140" t="n">
-        <v>144.652853</v>
+        <v>144.604708</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.942099</v>
+        <v>-37.843632</v>
       </c>
       <c r="C141" t="n">
-        <v>145.167684</v>
+        <v>144.781559</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.664667</v>
+        <v>-37.730748</v>
       </c>
       <c r="C142" t="n">
-        <v>144.74749</v>
+        <v>145.086489</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.665417</v>
+        <v>-37.702513</v>
       </c>
       <c r="C143" t="n">
-        <v>144.753359</v>
+        <v>144.802326</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2947,32 +2947,32 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.73899</v>
+        <v>-37.673996</v>
       </c>
       <c r="C144" t="n">
-        <v>144.679976</v>
+        <v>144.955354</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.596123</v>
+        <v>-37.576594</v>
       </c>
       <c r="C145" t="n">
-        <v>144.921401</v>
+        <v>144.728665</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -2983,122 +2983,122 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.77238</v>
+        <v>-37.879995</v>
       </c>
       <c r="C146" t="n">
-        <v>144.888195</v>
+        <v>144.701577</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.783105</v>
+        <v>-37.834014</v>
       </c>
       <c r="C147" t="n">
-        <v>144.785398</v>
+        <v>144.652853</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.766147</v>
+        <v>-37.942099</v>
       </c>
       <c r="C148" t="n">
-        <v>145.020052</v>
+        <v>145.167684</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.689366</v>
+        <v>-37.664667</v>
       </c>
       <c r="C149" t="n">
-        <v>144.958878</v>
+        <v>144.74749</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.678278</v>
+        <v>-37.665417</v>
       </c>
       <c r="C150" t="n">
-        <v>144.432689</v>
+        <v>144.753359</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.810712</v>
+        <v>-37.73899</v>
       </c>
       <c r="C151" t="n">
-        <v>144.836118</v>
+        <v>144.679976</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.667111</v>
+        <v>-37.596123</v>
       </c>
       <c r="C152" t="n">
-        <v>144.8334808</v>
+        <v>144.921401</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -3109,14 +3109,14 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.811678</v>
+        <v>-37.77238</v>
       </c>
       <c r="C153" t="n">
-        <v>144.889926</v>
+        <v>144.888195</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -3127,500 +3127,500 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.797177</v>
+        <v>-37.783105</v>
       </c>
       <c r="C154" t="n">
-        <v>144.894632</v>
+        <v>144.785398</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.759223</v>
+        <v>-37.766147</v>
       </c>
       <c r="C155" t="n">
-        <v>144.816754</v>
+        <v>145.020052</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.844318</v>
+        <v>-37.689366</v>
       </c>
       <c r="C156" t="n">
-        <v>145.009818</v>
+        <v>144.958878</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.813239</v>
+        <v>-37.678278</v>
       </c>
       <c r="C157" t="n">
-        <v>145.048047</v>
+        <v>144.432689</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.7769407</v>
+        <v>-37.810712</v>
       </c>
       <c r="C158" t="n">
-        <v>144.987025</v>
+        <v>144.836118</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.772096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C159" t="n">
-        <v>144.916095</v>
+        <v>144.8334808</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C160" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C161" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C162" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C163" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C164" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C165" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.667111</v>
+        <v>-37.772096</v>
       </c>
       <c r="C166" t="n">
-        <v>144.8334808</v>
+        <v>144.916095</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.8214527</v>
+        <v>-37.667111</v>
       </c>
       <c r="C167" t="n">
-        <v>144.983472</v>
+        <v>144.8334808</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C168" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C169" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C170" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C171" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C172" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C173" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-38.199003</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C174" t="n">
-        <v>144.318418</v>
+        <v>144.983472</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-38.199003</v>
+        <v>-37.800963</v>
       </c>
       <c r="C175" t="n">
-        <v>144.318418</v>
+        <v>145.0729384</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-37.8633444</v>
+        <v>-37.790783</v>
       </c>
       <c r="C176" t="n">
-        <v>145.0868276</v>
+        <v>144.998162</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-37.809265</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C177" t="n">
-        <v>144.994951</v>
+        <v>144.983613</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.667111</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C178" t="n">
-        <v>144.8334808</v>
+        <v>144.955806</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C179" t="n">
-        <v>144.9680124</v>
+        <v>144.9564881</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C180" t="n">
-        <v>144.9526066</v>
+        <v>144.9564881</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-38.1450096</v>
+        <v>-38.199003</v>
       </c>
       <c r="C181" t="n">
-        <v>144.3568376</v>
+        <v>144.318418</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -3631,304 +3631,430 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-37.028215</v>
+        <v>-38.199003</v>
       </c>
       <c r="C182" t="n">
-        <v>145.14336</v>
+        <v>144.318418</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-37.720557</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C183" t="n">
-        <v>145.048232</v>
+        <v>145.0868276</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-37.720557</v>
+        <v>-37.809265</v>
       </c>
       <c r="C184" t="n">
-        <v>145.048232</v>
+        <v>144.994951</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-37.720557</v>
+        <v>-37.667111</v>
       </c>
       <c r="C185" t="n">
-        <v>145.048232</v>
+        <v>144.8334808</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-37.667111</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C186" t="n">
-        <v>144.8334808</v>
+        <v>144.9680124</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C187" t="n">
-        <v>144.3568376</v>
+        <v>144.9526066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C188" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-37.8163949</v>
+        <v>-37.028215</v>
       </c>
       <c r="C189" t="n">
-        <v>144.9526066</v>
+        <v>145.14336</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-37.8266608</v>
+        <v>-37.720557</v>
       </c>
       <c r="C190" t="n">
-        <v>145.0587903</v>
+        <v>145.048232</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C191" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C192" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C193" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C194" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C195" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C196" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-37.667111</v>
+        <v>-37.8266608</v>
       </c>
       <c r="C197" t="n">
-        <v>144.8334808</v>
+        <v>145.0587903</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C198" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C199" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C200" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C201" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C202" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B198" t="n">
+      <c r="B203" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C203" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C204" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C205" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D205" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D205"/>
+  <dimension ref="A1:D214"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,212 +391,212 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>484 Dohertys Rd, Truganina VIC 3029</t>
+          <t>101 Punt Rd, Windsor VIC 3181</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.824803</v>
+        <v>-37.851375</v>
       </c>
       <c r="C2" t="n">
-        <v>144.737124</v>
+        <v>144.98317</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8 Arnold St, Box Hill VIC 3128</t>
+          <t>484 Dohertys Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.81408</v>
+        <v>-37.824803</v>
       </c>
       <c r="C3" t="n">
-        <v>145.118453</v>
+        <v>144.737124</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>510 Lygon St, Carlton VIC 3053</t>
+          <t>8 Arnold St, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.794602</v>
+        <v>-37.81408</v>
       </c>
       <c r="C4" t="n">
-        <v>144.968261</v>
+        <v>145.118453</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>59-61 High St, Woodend VIC 3442</t>
+          <t>510 Lygon St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.35824</v>
+        <v>-37.794602</v>
       </c>
       <c r="C5" t="n">
-        <v>144.525773</v>
+        <v>144.968261</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Macedon Ranges (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
+          <t>59-61 High St, Woodend VIC 3442</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.78365</v>
+        <v>-37.35824</v>
       </c>
       <c r="C6" t="n">
-        <v>144.77146</v>
+        <v>144.525773</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Macedon Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>438 Somerville Rd, Tottenham VIC 3012</t>
+          <t>507 Campbell St, Swan Hill VIC 3585</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.808952</v>
+        <v>-35.355945</v>
       </c>
       <c r="C7" t="n">
-        <v>144.850888</v>
+        <v>143.562705</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Swan Hill (RC)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>16 Moreland St, Footscray VIC 3011</t>
+          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.79998</v>
+        <v>-37.78365</v>
       </c>
       <c r="C8" t="n">
-        <v>144.907861</v>
+        <v>144.77146</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30 Inverloch Cres, Dallas VIC 3047</t>
+          <t>438 Somerville Rd, Tottenham VIC 3012</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.66875</v>
+        <v>-37.808952</v>
       </c>
       <c r="C9" t="n">
-        <v>144.929709</v>
+        <v>144.850888</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
+          <t>16 Moreland St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.768353</v>
+        <v>-37.79998</v>
       </c>
       <c r="C10" t="n">
-        <v>145.041766</v>
+        <v>144.907861</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>1 Saintly Dr, Truganina VIC 3029</t>
+          <t>30 Inverloch Cres, Dallas VIC 3047</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.807645</v>
+        <v>-37.66875</v>
       </c>
       <c r="C11" t="n">
-        <v>144.746483</v>
+        <v>144.929709</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.798908</v>
+        <v>-37.768353</v>
       </c>
       <c r="C12" t="n">
-        <v>144.956176</v>
+        <v>145.041766</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>100 Sunshine Ave, Kealba VIC 3021</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.759223</v>
+        <v>-37.741864</v>
       </c>
       <c r="C13" t="n">
-        <v>144.816754</v>
+        <v>144.826315</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,410 +607,410 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>Shopping Village, 65 High St, Belmont VIC 3216</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.653023</v>
+        <v>-38.170245</v>
       </c>
       <c r="C14" t="n">
-        <v>145.014685</v>
+        <v>144.349263</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>10 Fletcher St, Essendon VIC 3040</t>
+          <t>McDonalds Rd, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.755206</v>
+        <v>-37.650834</v>
       </c>
       <c r="C15" t="n">
-        <v>144.925092</v>
+        <v>145.068828</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
+          <t>1 Saintly Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.766695</v>
+        <v>-37.807645</v>
       </c>
       <c r="C16" t="n">
-        <v>145.170655</v>
+        <v>144.746483</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Manningham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>13 Howard St, Altona Meadows VIC 3028</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.878812</v>
+        <v>-37.798908</v>
       </c>
       <c r="C17" t="n">
-        <v>144.781325</v>
+        <v>144.956176</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.758211</v>
+        <v>-37.759223</v>
       </c>
       <c r="C18" t="n">
-        <v>145.044162</v>
+        <v>144.816754</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>27 Smith St, Healesville VIC 3777</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.661037</v>
+        <v>-37.653023</v>
       </c>
       <c r="C19" t="n">
-        <v>145.508141</v>
+        <v>145.014685</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
+          <t>10 Fletcher St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.66148</v>
+        <v>-37.755206</v>
       </c>
       <c r="C20" t="n">
-        <v>145.516046</v>
+        <v>144.925092</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>15 Fletcher Rd, Frankston VIC 3199</t>
+          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-38.138881</v>
+        <v>-37.766695</v>
       </c>
       <c r="C21" t="n">
-        <v>145.124681</v>
+        <v>145.170655</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Frankston (C)</t>
+          <t>Manningham (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>13 Howard St, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.684151</v>
+        <v>-37.878812</v>
       </c>
       <c r="C22" t="n">
-        <v>144.948507</v>
+        <v>144.781325</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.756487</v>
+        <v>-37.758211</v>
       </c>
       <c r="C23" t="n">
-        <v>144.972167</v>
+        <v>145.044162</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.87778</v>
+        <v>-37.661037</v>
       </c>
       <c r="C24" t="n">
-        <v>144.676933</v>
+        <v>145.508141</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.741374</v>
+        <v>-37.66148</v>
       </c>
       <c r="C25" t="n">
-        <v>144.992388</v>
+        <v>145.516046</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>15 Fletcher Rd, Frankston VIC 3199</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.801718</v>
+        <v>-38.138881</v>
       </c>
       <c r="C26" t="n">
-        <v>145.032141</v>
+        <v>145.124681</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Frankston (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.740508</v>
+        <v>-37.684151</v>
       </c>
       <c r="C27" t="n">
-        <v>145.075152</v>
+        <v>144.948507</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>10 English St, Essendon Fields VIC 3041</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.726876</v>
+        <v>-37.756487</v>
       </c>
       <c r="C28" t="n">
-        <v>144.894023</v>
+        <v>144.972167</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.845667</v>
+        <v>-37.87778</v>
       </c>
       <c r="C29" t="n">
-        <v>144.981921</v>
+        <v>144.676933</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.813306</v>
+        <v>-37.741374</v>
       </c>
       <c r="C30" t="n">
-        <v>144.849237</v>
+        <v>144.992388</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.690076</v>
+        <v>-37.801718</v>
       </c>
       <c r="C31" t="n">
-        <v>144.996836</v>
+        <v>145.032141</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>64 Virginia St, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.813215</v>
+        <v>-37.87832</v>
       </c>
       <c r="C32" t="n">
-        <v>144.965914</v>
+        <v>145.1277</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.796258</v>
+        <v>-37.740508</v>
       </c>
       <c r="C33" t="n">
-        <v>144.862235</v>
+        <v>145.075152</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
+          <t>95 Hazel Glen Dr, Doreen VIC 3754</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.874191</v>
+        <v>-37.586944</v>
       </c>
       <c r="C34" t="n">
-        <v>144.677393</v>
+        <v>145.127624</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>41 Landsborough St, Warragul VIC 3820</t>
+          <t>10 English St, Essendon Fields VIC 3041</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-38.172925</v>
+        <v>-37.726876</v>
       </c>
       <c r="C35" t="n">
-        <v>145.927835</v>
+        <v>144.894023</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Baw Baw (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.798908</v>
+        <v>-37.845667</v>
       </c>
       <c r="C36" t="n">
-        <v>144.956176</v>
+        <v>144.981921</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1021,140 +1021,140 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.788414</v>
+        <v>-37.813306</v>
       </c>
       <c r="C37" t="n">
-        <v>144.936951</v>
+        <v>144.849237</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.73908</v>
+        <v>-37.690076</v>
       </c>
       <c r="C38" t="n">
-        <v>145.002236</v>
+        <v>144.996836</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.785949</v>
+        <v>-37.813215</v>
       </c>
       <c r="C39" t="n">
-        <v>144.935308</v>
+        <v>144.965914</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.670681</v>
+        <v>-37.796258</v>
       </c>
       <c r="C40" t="n">
-        <v>144.850306</v>
+        <v>144.862235</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.817011</v>
+        <v>-37.874191</v>
       </c>
       <c r="C41" t="n">
-        <v>144.962265</v>
+        <v>144.677393</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
+          <t>215 Bell St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-38.259593</v>
+        <v>-37.74638</v>
       </c>
       <c r="C42" t="n">
-        <v>144.53948</v>
+        <v>145.008039</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>41 Landsborough St, Warragul VIC 3820</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.789871</v>
+        <v>-38.172925</v>
       </c>
       <c r="C43" t="n">
-        <v>144.926734</v>
+        <v>145.927835</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Baw Baw (S)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.791989</v>
+        <v>-37.798908</v>
       </c>
       <c r="C44" t="n">
-        <v>144.940508</v>
+        <v>144.956176</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1165,32 +1165,32 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.653023</v>
+        <v>-37.788414</v>
       </c>
       <c r="C45" t="n">
-        <v>145.014685</v>
+        <v>144.936951</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.766715</v>
+        <v>-37.73908</v>
       </c>
       <c r="C46" t="n">
-        <v>145.021149</v>
+        <v>145.002236</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1201,14 +1201,14 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.741667</v>
+        <v>-37.785949</v>
       </c>
       <c r="C47" t="n">
-        <v>144.908954</v>
+        <v>144.935308</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1219,194 +1219,194 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.759288</v>
+        <v>-37.670681</v>
       </c>
       <c r="C48" t="n">
-        <v>144.817921</v>
+        <v>144.850306</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.817743</v>
+        <v>-37.817011</v>
       </c>
       <c r="C49" t="n">
-        <v>144.992936</v>
+        <v>144.962265</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.813381</v>
+        <v>-38.259593</v>
       </c>
       <c r="C50" t="n">
-        <v>144.967076</v>
+        <v>144.53948</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.598146</v>
+        <v>-37.789871</v>
       </c>
       <c r="C51" t="n">
-        <v>145.068782</v>
+        <v>144.926734</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.704738</v>
+        <v>-37.791989</v>
       </c>
       <c r="C52" t="n">
-        <v>144.86329</v>
+        <v>144.940508</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.815499</v>
+        <v>-37.653023</v>
       </c>
       <c r="C53" t="n">
-        <v>144.965882</v>
+        <v>145.014685</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.724684</v>
+        <v>-37.766715</v>
       </c>
       <c r="C54" t="n">
-        <v>144.940008</v>
+        <v>145.021149</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.752048</v>
+        <v>-37.741667</v>
       </c>
       <c r="C55" t="n">
-        <v>144.970526</v>
+        <v>144.908954</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>Craigieburn Plaza Shopping Centre, Craigieburn Road West &amp; Hanson Street, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.787776</v>
+        <v>-37.597833</v>
       </c>
       <c r="C56" t="n">
-        <v>144.829839</v>
+        <v>144.938591</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.817826</v>
+        <v>-37.759288</v>
       </c>
       <c r="C57" t="n">
-        <v>144.878737</v>
+        <v>144.817921</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.785683</v>
+        <v>-37.817743</v>
       </c>
       <c r="C58" t="n">
-        <v>144.994154</v>
+        <v>144.992936</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -1417,68 +1417,68 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.812264</v>
+        <v>-37.813381</v>
       </c>
       <c r="C59" t="n">
-        <v>144.991241</v>
+        <v>144.967076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.813934</v>
+        <v>-37.598146</v>
       </c>
       <c r="C60" t="n">
-        <v>144.999135</v>
+        <v>145.068782</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.81693</v>
+        <v>-37.704738</v>
       </c>
       <c r="C61" t="n">
-        <v>144.962296</v>
+        <v>144.86329</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.798908</v>
+        <v>-37.815499</v>
       </c>
       <c r="C62" t="n">
-        <v>144.956176</v>
+        <v>144.965882</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -1489,248 +1489,248 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.870336</v>
+        <v>-37.724684</v>
       </c>
       <c r="C63" t="n">
-        <v>144.696569</v>
+        <v>144.940008</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.735123</v>
+        <v>-37.752048</v>
       </c>
       <c r="C64" t="n">
-        <v>144.738736</v>
+        <v>144.970526</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.581979</v>
+        <v>-37.787776</v>
       </c>
       <c r="C65" t="n">
-        <v>144.905951</v>
+        <v>144.829839</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.71597</v>
+        <v>-37.817826</v>
       </c>
       <c r="C66" t="n">
-        <v>144.935826</v>
+        <v>144.878737</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.74954</v>
+        <v>-37.785683</v>
       </c>
       <c r="C67" t="n">
-        <v>144.883252</v>
+        <v>144.994154</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.754926</v>
+        <v>-37.812264</v>
       </c>
       <c r="C68" t="n">
-        <v>144.966324</v>
+        <v>144.991241</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.875675</v>
+        <v>-37.813934</v>
       </c>
       <c r="C69" t="n">
-        <v>144.79145</v>
+        <v>144.999135</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.601756</v>
+        <v>-37.81693</v>
       </c>
       <c r="C70" t="n">
-        <v>144.905386</v>
+        <v>144.962296</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.778017</v>
+        <v>-37.798908</v>
       </c>
       <c r="C71" t="n">
-        <v>144.889266</v>
+        <v>144.956176</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.799002</v>
+        <v>-37.870336</v>
       </c>
       <c r="C72" t="n">
-        <v>144.894926</v>
+        <v>144.696569</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.837112</v>
+        <v>-37.735123</v>
       </c>
       <c r="C73" t="n">
-        <v>144.941595</v>
+        <v>144.738736</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.854529</v>
+        <v>-37.581979</v>
       </c>
       <c r="C74" t="n">
-        <v>144.721868</v>
+        <v>144.905951</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.774352</v>
+        <v>-37.71597</v>
       </c>
       <c r="C75" t="n">
-        <v>144.92733</v>
+        <v>144.935826</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.755176</v>
+        <v>-37.74954</v>
       </c>
       <c r="C76" t="n">
-        <v>144.90226</v>
+        <v>144.883252</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1741,68 +1741,68 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.658638</v>
+        <v>-37.754926</v>
       </c>
       <c r="C77" t="n">
-        <v>145.076922</v>
+        <v>144.966324</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.675501</v>
+        <v>-37.875675</v>
       </c>
       <c r="C78" t="n">
-        <v>145.135999</v>
+        <v>144.79145</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.819298</v>
+        <v>-37.601756</v>
       </c>
       <c r="C79" t="n">
-        <v>145.129263</v>
+        <v>144.905386</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.791185</v>
+        <v>-37.778017</v>
       </c>
       <c r="C80" t="n">
-        <v>144.886937</v>
+        <v>144.889266</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -1813,158 +1813,158 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.655759</v>
+        <v>-37.799002</v>
       </c>
       <c r="C81" t="n">
-        <v>145.032038</v>
+        <v>144.894926</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.764884</v>
+        <v>-37.837112</v>
       </c>
       <c r="C82" t="n">
-        <v>144.979606</v>
+        <v>144.941595</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.717149</v>
+        <v>-37.854529</v>
       </c>
       <c r="C83" t="n">
-        <v>144.808867</v>
+        <v>144.721868</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.718987</v>
+        <v>-37.774352</v>
       </c>
       <c r="C84" t="n">
-        <v>144.992857</v>
+        <v>144.92733</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.778539</v>
+        <v>-37.755176</v>
       </c>
       <c r="C85" t="n">
-        <v>144.875831</v>
+        <v>144.90226</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.690602</v>
+        <v>-37.658638</v>
       </c>
       <c r="C86" t="n">
-        <v>144.869104</v>
+        <v>145.076922</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.814598</v>
+        <v>-37.675501</v>
       </c>
       <c r="C87" t="n">
-        <v>144.762011</v>
+        <v>145.135999</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.933332</v>
+        <v>-37.819298</v>
       </c>
       <c r="C88" t="n">
-        <v>145.000542</v>
+        <v>145.129263</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.773754</v>
+        <v>-37.791185</v>
       </c>
       <c r="C89" t="n">
-        <v>144.888956</v>
+        <v>144.886937</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1975,248 +1975,248 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.744387</v>
+        <v>-37.655759</v>
       </c>
       <c r="C90" t="n">
-        <v>144.774297</v>
+        <v>145.032038</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.711211</v>
+        <v>-37.764884</v>
       </c>
       <c r="C91" t="n">
-        <v>144.738802</v>
+        <v>144.979606</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.816363</v>
+        <v>-37.717149</v>
       </c>
       <c r="C92" t="n">
-        <v>145.06656</v>
+        <v>144.808867</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-38.102082</v>
+        <v>-37.718987</v>
       </c>
       <c r="C93" t="n">
-        <v>145.265397</v>
+        <v>144.992857</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.684606</v>
+        <v>-37.778539</v>
       </c>
       <c r="C94" t="n">
-        <v>144.760227</v>
+        <v>144.875831</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.715384</v>
+        <v>-37.690602</v>
       </c>
       <c r="C95" t="n">
-        <v>144.811994</v>
+        <v>144.869104</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.738834</v>
+        <v>-37.814598</v>
       </c>
       <c r="C96" t="n">
-        <v>145.030187</v>
+        <v>144.762011</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-38.075826</v>
+        <v>-37.933332</v>
       </c>
       <c r="C97" t="n">
-        <v>145.473885</v>
+        <v>145.000542</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.837404</v>
+        <v>-37.773754</v>
       </c>
       <c r="C98" t="n">
-        <v>144.996291</v>
+        <v>144.888956</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.898104</v>
+        <v>-37.744387</v>
       </c>
       <c r="C99" t="n">
-        <v>145.160876</v>
+        <v>144.774297</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.890643</v>
+        <v>-37.711211</v>
       </c>
       <c r="C100" t="n">
-        <v>145.062546</v>
+        <v>144.738802</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.8135</v>
+        <v>-37.816363</v>
       </c>
       <c r="C101" t="n">
-        <v>144.969933</v>
+        <v>145.06656</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.581295</v>
+        <v>-38.102082</v>
       </c>
       <c r="C102" t="n">
-        <v>144.738024</v>
+        <v>145.265397</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.744387</v>
+        <v>-37.684606</v>
       </c>
       <c r="C103" t="n">
-        <v>144.774297</v>
+        <v>144.760227</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -2227,320 +2227,320 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.735247</v>
+        <v>-37.715384</v>
       </c>
       <c r="C104" t="n">
-        <v>144.917023</v>
+        <v>144.811994</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.975685</v>
+        <v>-37.738834</v>
       </c>
       <c r="C105" t="n">
-        <v>145.216529</v>
+        <v>145.030187</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.688119</v>
+        <v>-38.075826</v>
       </c>
       <c r="C106" t="n">
-        <v>144.884379</v>
+        <v>145.473885</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.691402</v>
+        <v>-37.837404</v>
       </c>
       <c r="C107" t="n">
-        <v>145.213889</v>
+        <v>144.996291</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.760449</v>
+        <v>-37.898104</v>
       </c>
       <c r="C108" t="n">
-        <v>145.348691</v>
+        <v>145.160876</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-38.085076</v>
+        <v>-37.890643</v>
       </c>
       <c r="C109" t="n">
-        <v>145.46966</v>
+        <v>145.062546</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.740107</v>
+        <v>-37.8135</v>
       </c>
       <c r="C110" t="n">
-        <v>144.956047</v>
+        <v>144.969933</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.772859</v>
+        <v>-37.581295</v>
       </c>
       <c r="C111" t="n">
-        <v>145.294713</v>
+        <v>144.738024</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.798171</v>
+        <v>-37.744387</v>
       </c>
       <c r="C112" t="n">
-        <v>144.956665</v>
+        <v>144.774297</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-38.012111</v>
+        <v>-37.735247</v>
       </c>
       <c r="C113" t="n">
-        <v>145.090154</v>
+        <v>144.917023</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-36.732518</v>
+        <v>-37.975685</v>
       </c>
       <c r="C114" t="n">
-        <v>146.967357</v>
+        <v>145.216529</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.811362</v>
+        <v>-37.688119</v>
       </c>
       <c r="C115" t="n">
-        <v>144.973203</v>
+        <v>144.884379</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.927427</v>
+        <v>-37.691402</v>
       </c>
       <c r="C116" t="n">
-        <v>145.116157</v>
+        <v>145.213889</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.571236</v>
+        <v>-37.760449</v>
       </c>
       <c r="C117" t="n">
-        <v>144.90978</v>
+        <v>145.348691</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.685249</v>
+        <v>-38.085076</v>
       </c>
       <c r="C118" t="n">
-        <v>144.92446</v>
+        <v>145.46966</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.704175</v>
+        <v>-37.740107</v>
       </c>
       <c r="C119" t="n">
-        <v>144.998741</v>
+        <v>144.956047</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.726306</v>
+        <v>-37.772859</v>
       </c>
       <c r="C120" t="n">
-        <v>145.069914</v>
+        <v>145.294713</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.801332</v>
+        <v>-37.798171</v>
       </c>
       <c r="C121" t="n">
-        <v>144.963635</v>
+        <v>144.956665</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -2551,50 +2551,50 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.8163949</v>
+        <v>-38.012111</v>
       </c>
       <c r="C122" t="n">
-        <v>144.9526066</v>
+        <v>145.090154</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.667111</v>
+        <v>-36.732518</v>
       </c>
       <c r="C123" t="n">
-        <v>144.8334808</v>
+        <v>146.967357</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C124" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -2605,90 +2605,90 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.836082</v>
+        <v>-37.927427</v>
       </c>
       <c r="C125" t="n">
-        <v>144.915383</v>
+        <v>145.116157</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.801332</v>
+        <v>-37.571236</v>
       </c>
       <c r="C126" t="n">
-        <v>144.963635</v>
+        <v>144.90978</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C127" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.837908</v>
+        <v>-37.704175</v>
       </c>
       <c r="C128" t="n">
-        <v>144.786218</v>
+        <v>144.998741</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.801332</v>
+        <v>-37.726306</v>
       </c>
       <c r="C129" t="n">
-        <v>144.963635</v>
+        <v>145.069914</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -2713,500 +2713,500 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.841635</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C131" t="n">
-        <v>145.086235</v>
+        <v>144.9526066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.756286</v>
+        <v>-37.667111</v>
       </c>
       <c r="C132" t="n">
-        <v>144.811104</v>
+        <v>144.8334808</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.715384</v>
+        <v>-37.801332</v>
       </c>
       <c r="C133" t="n">
-        <v>144.811994</v>
+        <v>144.963635</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.884267</v>
+        <v>-37.836082</v>
       </c>
       <c r="C134" t="n">
-        <v>145.017115</v>
+        <v>144.915383</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C135" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.92849</v>
+        <v>-37.801332</v>
       </c>
       <c r="C136" t="n">
-        <v>145.007454</v>
+        <v>144.963635</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.841635</v>
+        <v>-37.837908</v>
       </c>
       <c r="C137" t="n">
-        <v>145.086235</v>
+        <v>144.786218</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C138" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.69261</v>
+        <v>-37.801332</v>
       </c>
       <c r="C139" t="n">
-        <v>145.063821</v>
+        <v>144.963635</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.689223</v>
+        <v>-37.841635</v>
       </c>
       <c r="C140" t="n">
-        <v>144.604708</v>
+        <v>145.086235</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.843632</v>
+        <v>-37.756286</v>
       </c>
       <c r="C141" t="n">
-        <v>144.781559</v>
+        <v>144.811104</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.730748</v>
+        <v>-37.715384</v>
       </c>
       <c r="C142" t="n">
-        <v>145.086489</v>
+        <v>144.811994</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.702513</v>
+        <v>-37.884267</v>
       </c>
       <c r="C143" t="n">
-        <v>144.802326</v>
+        <v>145.017115</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.673996</v>
+        <v>-36.314871</v>
       </c>
       <c r="C144" t="n">
-        <v>144.955354</v>
+        <v>145.04197</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.576594</v>
+        <v>-37.92849</v>
       </c>
       <c r="C145" t="n">
-        <v>144.728665</v>
+        <v>145.007454</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.879995</v>
+        <v>-37.841635</v>
       </c>
       <c r="C146" t="n">
-        <v>144.701577</v>
+        <v>145.086235</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.834014</v>
+        <v>-37.884267</v>
       </c>
       <c r="C147" t="n">
-        <v>144.652853</v>
+        <v>145.017115</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.942099</v>
+        <v>-37.69261</v>
       </c>
       <c r="C148" t="n">
-        <v>145.167684</v>
+        <v>145.063821</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.664667</v>
+        <v>-37.689223</v>
       </c>
       <c r="C149" t="n">
-        <v>144.74749</v>
+        <v>144.604708</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.665417</v>
+        <v>-37.843632</v>
       </c>
       <c r="C150" t="n">
-        <v>144.753359</v>
+        <v>144.781559</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.73899</v>
+        <v>-37.730748</v>
       </c>
       <c r="C151" t="n">
-        <v>144.679976</v>
+        <v>145.086489</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.596123</v>
+        <v>-37.702513</v>
       </c>
       <c r="C152" t="n">
-        <v>144.921401</v>
+        <v>144.802326</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.77238</v>
+        <v>-37.673996</v>
       </c>
       <c r="C153" t="n">
-        <v>144.888195</v>
+        <v>144.955354</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.783105</v>
+        <v>-37.576594</v>
       </c>
       <c r="C154" t="n">
-        <v>144.785398</v>
+        <v>144.728665</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.766147</v>
+        <v>-37.879995</v>
       </c>
       <c r="C155" t="n">
-        <v>145.020052</v>
+        <v>144.701577</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.689366</v>
+        <v>-37.834014</v>
       </c>
       <c r="C156" t="n">
-        <v>144.958878</v>
+        <v>144.652853</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.678278</v>
+        <v>-37.942099</v>
       </c>
       <c r="C157" t="n">
-        <v>144.432689</v>
+        <v>145.167684</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.810712</v>
+        <v>-37.664667</v>
       </c>
       <c r="C158" t="n">
-        <v>144.836118</v>
+        <v>144.74749</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -3217,162 +3217,162 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.667111</v>
+        <v>-37.665417</v>
       </c>
       <c r="C159" t="n">
-        <v>144.8334808</v>
+        <v>144.753359</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.811678</v>
+        <v>-37.73899</v>
       </c>
       <c r="C160" t="n">
-        <v>144.889926</v>
+        <v>144.679976</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.797177</v>
+        <v>-37.596123</v>
       </c>
       <c r="C161" t="n">
-        <v>144.894632</v>
+        <v>144.921401</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.759223</v>
+        <v>-37.77238</v>
       </c>
       <c r="C162" t="n">
-        <v>144.816754</v>
+        <v>144.888195</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.844318</v>
+        <v>-37.783105</v>
       </c>
       <c r="C163" t="n">
-        <v>145.009818</v>
+        <v>144.785398</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.813239</v>
+        <v>-37.766147</v>
       </c>
       <c r="C164" t="n">
-        <v>145.048047</v>
+        <v>145.020052</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.7769407</v>
+        <v>-37.689366</v>
       </c>
       <c r="C165" t="n">
-        <v>144.987025</v>
+        <v>144.958878</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.772096</v>
+        <v>-37.678278</v>
       </c>
       <c r="C166" t="n">
-        <v>144.916095</v>
+        <v>144.432689</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C167" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -3397,320 +3397,320 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C169" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C170" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C171" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C172" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C173" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-37.8214527</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C174" t="n">
-        <v>144.983472</v>
+        <v>144.987025</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-37.800963</v>
+        <v>-37.772096</v>
       </c>
       <c r="C175" t="n">
-        <v>145.0729384</v>
+        <v>144.916095</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C176" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C177" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C178" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C179" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C180" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C181" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C182" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-37.8633444</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C183" t="n">
-        <v>145.0868276</v>
+        <v>144.983472</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-37.809265</v>
+        <v>-37.800963</v>
       </c>
       <c r="C184" t="n">
-        <v>144.994951</v>
+        <v>145.0729384</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-37.667111</v>
+        <v>-37.790783</v>
       </c>
       <c r="C185" t="n">
-        <v>144.8334808</v>
+        <v>144.998162</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C186" t="n">
-        <v>144.9680124</v>
+        <v>144.983613</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -3721,158 +3721,158 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C187" t="n">
-        <v>144.9526066</v>
+        <v>144.955806</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C188" t="n">
-        <v>144.3568376</v>
+        <v>144.9564881</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-37.028215</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C189" t="n">
-        <v>145.14336</v>
+        <v>144.9564881</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C190" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C191" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-37.720557</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C192" t="n">
-        <v>145.048232</v>
+        <v>145.0868276</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-37.667111</v>
+        <v>-37.809265</v>
       </c>
       <c r="C193" t="n">
-        <v>144.8334808</v>
+        <v>144.994951</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-38.1450096</v>
+        <v>-37.667111</v>
       </c>
       <c r="C194" t="n">
-        <v>144.3568376</v>
+        <v>144.8334808</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-37.8163949</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C195" t="n">
-        <v>144.9526066</v>
+        <v>144.9680124</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -3901,160 +3901,322 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-37.8266608</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C197" t="n">
-        <v>145.0587903</v>
+        <v>144.3568376</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-37.848232</v>
+        <v>-37.028215</v>
       </c>
       <c r="C198" t="n">
-        <v>145.005508</v>
+        <v>145.14336</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C199" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C200" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C201" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C202" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-37.667111</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C203" t="n">
-        <v>144.8334808</v>
+        <v>144.3568376</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C204" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>-37.8163949</v>
+      </c>
+      <c r="C205" t="n">
+        <v>144.9526066</v>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Melbourne (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>-37.8266608</v>
+      </c>
+      <c r="C206" t="n">
+        <v>145.0587903</v>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Boroondara (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C207" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C208" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C209" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C210" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C211" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B205" t="n">
+      <c r="B212" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C212" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C213" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C214" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D214" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D214"/>
+  <dimension ref="A1:D222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,212 +391,212 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>101 Punt Rd, Windsor VIC 3181</t>
+          <t>30 North St, Ardeer VIC 3022</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.851375</v>
+        <v>-37.779326</v>
       </c>
       <c r="C2" t="n">
-        <v>144.98317</v>
+        <v>144.808335</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>484 Dohertys Rd, Truganina VIC 3029</t>
+          <t>11-13 Sunshine Rd, West Footscray VIC 3012</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.824803</v>
+        <v>-37.80155</v>
       </c>
       <c r="C3" t="n">
-        <v>144.737124</v>
+        <v>144.876365</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8 Arnold St, Box Hill VIC 3128</t>
+          <t>36-38 Permas Way, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.81408</v>
+        <v>-37.817457</v>
       </c>
       <c r="C4" t="n">
-        <v>145.118453</v>
+        <v>144.739448</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>510 Lygon St, Carlton VIC 3053</t>
+          <t>Endeavour Hills Shopping Centre, 974 Heatherton Rd, Endeavour Hills VIC 3802</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.794602</v>
+        <v>-37.976866</v>
       </c>
       <c r="C5" t="n">
-        <v>144.968261</v>
+        <v>145.259225</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>59-61 High St, Woodend VIC 3442</t>
+          <t>216 Burgundy St, Heidelberg VIC 3084</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.35824</v>
+        <v>-37.755011</v>
       </c>
       <c r="C6" t="n">
-        <v>144.525773</v>
+        <v>145.060577</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Macedon Ranges (S)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>507 Campbell St, Swan Hill VIC 3585</t>
+          <t>101 Punt Rd, Windsor VIC 3181</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-35.355945</v>
+        <v>-37.851375</v>
       </c>
       <c r="C7" t="n">
-        <v>143.562705</v>
+        <v>144.98317</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Swan Hill (RC)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
+          <t>484 Dohertys Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.78365</v>
+        <v>-37.824803</v>
       </c>
       <c r="C8" t="n">
-        <v>144.77146</v>
+        <v>144.737124</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>438 Somerville Rd, Tottenham VIC 3012</t>
+          <t>8 Arnold St, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.808952</v>
+        <v>-37.81408</v>
       </c>
       <c r="C9" t="n">
-        <v>144.850888</v>
+        <v>145.118453</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>16 Moreland St, Footscray VIC 3011</t>
+          <t>510 Lygon St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.79998</v>
+        <v>-37.794602</v>
       </c>
       <c r="C10" t="n">
-        <v>144.907861</v>
+        <v>144.968261</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>30 Inverloch Cres, Dallas VIC 3047</t>
+          <t>59-61 High St, Woodend VIC 3442</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.66875</v>
+        <v>-37.35824</v>
       </c>
       <c r="C11" t="n">
-        <v>144.929709</v>
+        <v>144.525773</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Macedon Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
+          <t>507 Campbell St, Swan Hill VIC 3585</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.768353</v>
+        <v>-35.355945</v>
       </c>
       <c r="C12" t="n">
-        <v>145.041766</v>
+        <v>143.562705</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Swan Hill (RC)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>100 Sunshine Ave, Kealba VIC 3021</t>
+          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.741864</v>
+        <v>-37.78365</v>
       </c>
       <c r="C13" t="n">
-        <v>144.826315</v>
+        <v>144.77146</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -607,86 +607,86 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shopping Village, 65 High St, Belmont VIC 3216</t>
+          <t>438 Somerville Rd, Tottenham VIC 3012</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-38.170245</v>
+        <v>-37.808952</v>
       </c>
       <c r="C14" t="n">
-        <v>144.349263</v>
+        <v>144.850888</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>McDonalds Rd, Mill Park VIC 3082</t>
+          <t>16 Moreland St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.650834</v>
+        <v>-37.79998</v>
       </c>
       <c r="C15" t="n">
-        <v>145.068828</v>
+        <v>144.907861</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1 Saintly Dr, Truganina VIC 3029</t>
+          <t>30 Inverloch Cres, Dallas VIC 3047</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.807645</v>
+        <v>-37.66875</v>
       </c>
       <c r="C16" t="n">
-        <v>144.746483</v>
+        <v>144.929709</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.798908</v>
+        <v>-37.768353</v>
       </c>
       <c r="C17" t="n">
-        <v>144.956176</v>
+        <v>145.041766</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>100 Sunshine Ave, Kealba VIC 3021</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.759223</v>
+        <v>-37.741864</v>
       </c>
       <c r="C18" t="n">
-        <v>144.816754</v>
+        <v>144.826315</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -697,590 +697,590 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>Shopping Village, 65 High St, Belmont VIC 3216</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.653023</v>
+        <v>-38.170245</v>
       </c>
       <c r="C19" t="n">
-        <v>145.014685</v>
+        <v>144.349263</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>10 Fletcher St, Essendon VIC 3040</t>
+          <t>McDonalds Rd, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.755206</v>
+        <v>-37.650834</v>
       </c>
       <c r="C20" t="n">
-        <v>144.925092</v>
+        <v>145.068828</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
+          <t>1 Saintly Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.766695</v>
+        <v>-37.807645</v>
       </c>
       <c r="C21" t="n">
-        <v>145.170655</v>
+        <v>144.746483</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Manningham (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>13 Howard St, Altona Meadows VIC 3028</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.878812</v>
+        <v>-37.798908</v>
       </c>
       <c r="C22" t="n">
-        <v>144.781325</v>
+        <v>144.956176</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.758211</v>
+        <v>-37.759223</v>
       </c>
       <c r="C23" t="n">
-        <v>145.044162</v>
+        <v>144.816754</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>27 Smith St, Healesville VIC 3777</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.661037</v>
+        <v>-37.653023</v>
       </c>
       <c r="C24" t="n">
-        <v>145.508141</v>
+        <v>145.014685</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
+          <t>10 Fletcher St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.66148</v>
+        <v>-37.755206</v>
       </c>
       <c r="C25" t="n">
-        <v>145.516046</v>
+        <v>144.925092</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>15 Fletcher Rd, Frankston VIC 3199</t>
+          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-38.138881</v>
+        <v>-37.766695</v>
       </c>
       <c r="C26" t="n">
-        <v>145.124681</v>
+        <v>145.170655</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Frankston (C)</t>
+          <t>Manningham (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>13 Howard St, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.684151</v>
+        <v>-37.878812</v>
       </c>
       <c r="C27" t="n">
-        <v>144.948507</v>
+        <v>144.781325</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.756487</v>
+        <v>-37.758211</v>
       </c>
       <c r="C28" t="n">
-        <v>144.972167</v>
+        <v>145.044162</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.87778</v>
+        <v>-37.661037</v>
       </c>
       <c r="C29" t="n">
-        <v>144.676933</v>
+        <v>145.508141</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.741374</v>
+        <v>-37.66148</v>
       </c>
       <c r="C30" t="n">
-        <v>144.992388</v>
+        <v>145.516046</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>25 Main St, Greensborough VIC 3088</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.801718</v>
+        <v>-37.70206</v>
       </c>
       <c r="C31" t="n">
-        <v>145.032141</v>
+        <v>145.102638</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>64 Virginia St, Mount Waverley VIC 3149</t>
+          <t>15 Fletcher Rd, Frankston VIC 3199</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.87832</v>
+        <v>-38.138881</v>
       </c>
       <c r="C32" t="n">
-        <v>145.1277</v>
+        <v>145.124681</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Frankston (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.740508</v>
+        <v>-37.684151</v>
       </c>
       <c r="C33" t="n">
-        <v>145.075152</v>
+        <v>144.948507</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>95 Hazel Glen Dr, Doreen VIC 3754</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.586944</v>
+        <v>-37.756487</v>
       </c>
       <c r="C34" t="n">
-        <v>145.127624</v>
+        <v>144.972167</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>10 English St, Essendon Fields VIC 3041</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.726876</v>
+        <v>-37.87778</v>
       </c>
       <c r="C35" t="n">
-        <v>144.894023</v>
+        <v>144.676933</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.845667</v>
+        <v>-37.741374</v>
       </c>
       <c r="C36" t="n">
-        <v>144.981921</v>
+        <v>144.992388</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.813306</v>
+        <v>-37.801718</v>
       </c>
       <c r="C37" t="n">
-        <v>144.849237</v>
+        <v>145.032141</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>64 Virginia St, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.690076</v>
+        <v>-37.87832</v>
       </c>
       <c r="C38" t="n">
-        <v>144.996836</v>
+        <v>145.1277</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.813215</v>
+        <v>-37.740508</v>
       </c>
       <c r="C39" t="n">
-        <v>144.965914</v>
+        <v>145.075152</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>Sunshine Market Place, 80 Harvester Rd, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.796258</v>
+        <v>-37.780483</v>
       </c>
       <c r="C40" t="n">
-        <v>144.862235</v>
+        <v>144.831981</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
+          <t>95 Hazel Glen Dr, Doreen VIC 3754</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.874191</v>
+        <v>-37.586944</v>
       </c>
       <c r="C41" t="n">
-        <v>144.677393</v>
+        <v>145.127624</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>215 Bell St, Preston VIC 3072</t>
+          <t>10 English St, Essendon Fields VIC 3041</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.74638</v>
+        <v>-37.726876</v>
       </c>
       <c r="C42" t="n">
-        <v>145.008039</v>
+        <v>144.894023</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>41 Landsborough St, Warragul VIC 3820</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-38.172925</v>
+        <v>-37.845667</v>
       </c>
       <c r="C43" t="n">
-        <v>145.927835</v>
+        <v>144.981921</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Baw Baw (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.798908</v>
+        <v>-37.813306</v>
       </c>
       <c r="C44" t="n">
-        <v>144.956176</v>
+        <v>144.849237</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.788414</v>
+        <v>-37.690076</v>
       </c>
       <c r="C45" t="n">
-        <v>144.936951</v>
+        <v>144.996836</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.73908</v>
+        <v>-37.813215</v>
       </c>
       <c r="C46" t="n">
-        <v>145.002236</v>
+        <v>144.965914</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.785949</v>
+        <v>-37.796258</v>
       </c>
       <c r="C47" t="n">
-        <v>144.935308</v>
+        <v>144.862235</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.670681</v>
+        <v>-37.874191</v>
       </c>
       <c r="C48" t="n">
-        <v>144.850306</v>
+        <v>144.677393</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>215 Bell St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.817011</v>
+        <v>-37.74638</v>
       </c>
       <c r="C49" t="n">
-        <v>144.962265</v>
+        <v>145.008039</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
+          <t>41 Landsborough St, Warragul VIC 3820</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-38.259593</v>
+        <v>-38.172925</v>
       </c>
       <c r="C50" t="n">
-        <v>144.53948</v>
+        <v>145.927835</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Baw Baw (S)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.789871</v>
+        <v>-37.798908</v>
       </c>
       <c r="C51" t="n">
-        <v>144.926734</v>
+        <v>144.956176</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1291,140 +1291,140 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.791989</v>
+        <v>-37.788414</v>
       </c>
       <c r="C52" t="n">
-        <v>144.940508</v>
+        <v>144.936951</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.653023</v>
+        <v>-37.73908</v>
       </c>
       <c r="C53" t="n">
-        <v>145.014685</v>
+        <v>145.002236</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.766715</v>
+        <v>-37.785949</v>
       </c>
       <c r="C54" t="n">
-        <v>145.021149</v>
+        <v>144.935308</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.741667</v>
+        <v>-37.670681</v>
       </c>
       <c r="C55" t="n">
-        <v>144.908954</v>
+        <v>144.850306</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Craigieburn Plaza Shopping Centre, Craigieburn Road West &amp; Hanson Street, Craigieburn VIC 3064</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.597833</v>
+        <v>-37.817011</v>
       </c>
       <c r="C56" t="n">
-        <v>144.938591</v>
+        <v>144.962265</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.759288</v>
+        <v>-38.259593</v>
       </c>
       <c r="C57" t="n">
-        <v>144.817921</v>
+        <v>144.53948</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.817743</v>
+        <v>-37.789871</v>
       </c>
       <c r="C58" t="n">
-        <v>144.992936</v>
+        <v>144.926734</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.813381</v>
+        <v>-37.791989</v>
       </c>
       <c r="C59" t="n">
-        <v>144.967076</v>
+        <v>144.940508</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.598146</v>
+        <v>-37.653023</v>
       </c>
       <c r="C60" t="n">
-        <v>145.068782</v>
+        <v>145.014685</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -1453,176 +1453,176 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.704738</v>
+        <v>-37.766715</v>
       </c>
       <c r="C61" t="n">
-        <v>144.86329</v>
+        <v>145.021149</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.815499</v>
+        <v>-37.741667</v>
       </c>
       <c r="C62" t="n">
-        <v>144.965882</v>
+        <v>144.908954</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>Craigieburn Plaza Shopping Centre, Craigieburn Road West &amp; Hanson Street, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.724684</v>
+        <v>-37.597833</v>
       </c>
       <c r="C63" t="n">
-        <v>144.940008</v>
+        <v>144.938591</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.752048</v>
+        <v>-37.759288</v>
       </c>
       <c r="C64" t="n">
-        <v>144.970526</v>
+        <v>144.817921</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.787776</v>
+        <v>-37.817743</v>
       </c>
       <c r="C65" t="n">
-        <v>144.829839</v>
+        <v>144.992936</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.817826</v>
+        <v>-37.813381</v>
       </c>
       <c r="C66" t="n">
-        <v>144.878737</v>
+        <v>144.967076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.785683</v>
+        <v>-37.598146</v>
       </c>
       <c r="C67" t="n">
-        <v>144.994154</v>
+        <v>145.068782</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>Hogans Road &amp; Derrimut Road, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.812264</v>
+        <v>-37.862231</v>
       </c>
       <c r="C68" t="n">
-        <v>144.991241</v>
+        <v>144.687222</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.813934</v>
+        <v>-37.704738</v>
       </c>
       <c r="C69" t="n">
-        <v>144.999135</v>
+        <v>144.86329</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.81693</v>
+        <v>-37.815499</v>
       </c>
       <c r="C70" t="n">
-        <v>144.962296</v>
+        <v>144.965882</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1633,248 +1633,248 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.798908</v>
+        <v>-37.724684</v>
       </c>
       <c r="C71" t="n">
-        <v>144.956176</v>
+        <v>144.940008</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.870336</v>
+        <v>-37.752048</v>
       </c>
       <c r="C72" t="n">
-        <v>144.696569</v>
+        <v>144.970526</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.735123</v>
+        <v>-37.787776</v>
       </c>
       <c r="C73" t="n">
-        <v>144.738736</v>
+        <v>144.829839</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.581979</v>
+        <v>-37.817826</v>
       </c>
       <c r="C74" t="n">
-        <v>144.905951</v>
+        <v>144.878737</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.71597</v>
+        <v>-37.785683</v>
       </c>
       <c r="C75" t="n">
-        <v>144.935826</v>
+        <v>144.994154</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.74954</v>
+        <v>-37.812264</v>
       </c>
       <c r="C76" t="n">
-        <v>144.883252</v>
+        <v>144.991241</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.754926</v>
+        <v>-37.813934</v>
       </c>
       <c r="C77" t="n">
-        <v>144.966324</v>
+        <v>144.999135</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.875675</v>
+        <v>-37.81693</v>
       </c>
       <c r="C78" t="n">
-        <v>144.79145</v>
+        <v>144.962296</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.601756</v>
+        <v>-37.798908</v>
       </c>
       <c r="C79" t="n">
-        <v>144.905386</v>
+        <v>144.956176</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.778017</v>
+        <v>-37.870336</v>
       </c>
       <c r="C80" t="n">
-        <v>144.889266</v>
+        <v>144.696569</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.799002</v>
+        <v>-37.735123</v>
       </c>
       <c r="C81" t="n">
-        <v>144.894926</v>
+        <v>144.738736</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.837112</v>
+        <v>-37.581979</v>
       </c>
       <c r="C82" t="n">
-        <v>144.941595</v>
+        <v>144.905951</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.854529</v>
+        <v>-37.71597</v>
       </c>
       <c r="C83" t="n">
-        <v>144.721868</v>
+        <v>144.935826</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.774352</v>
+        <v>-37.74954</v>
       </c>
       <c r="C84" t="n">
-        <v>144.92733</v>
+        <v>144.883252</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -1885,86 +1885,86 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.755176</v>
+        <v>-37.754926</v>
       </c>
       <c r="C85" t="n">
-        <v>144.90226</v>
+        <v>144.966324</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.658638</v>
+        <v>-37.875675</v>
       </c>
       <c r="C86" t="n">
-        <v>145.076922</v>
+        <v>144.79145</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.675501</v>
+        <v>-37.601756</v>
       </c>
       <c r="C87" t="n">
-        <v>145.135999</v>
+        <v>144.905386</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.819298</v>
+        <v>-37.778017</v>
       </c>
       <c r="C88" t="n">
-        <v>145.129263</v>
+        <v>144.889266</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.791185</v>
+        <v>-37.799002</v>
       </c>
       <c r="C89" t="n">
-        <v>144.886937</v>
+        <v>144.894926</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -1975,410 +1975,410 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.655759</v>
+        <v>-37.837112</v>
       </c>
       <c r="C90" t="n">
-        <v>145.032038</v>
+        <v>144.941595</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.764884</v>
+        <v>-37.854529</v>
       </c>
       <c r="C91" t="n">
-        <v>144.979606</v>
+        <v>144.721868</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.717149</v>
+        <v>-37.774352</v>
       </c>
       <c r="C92" t="n">
-        <v>144.808867</v>
+        <v>144.92733</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.718987</v>
+        <v>-37.755176</v>
       </c>
       <c r="C93" t="n">
-        <v>144.992857</v>
+        <v>144.90226</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.778539</v>
+        <v>-37.658638</v>
       </c>
       <c r="C94" t="n">
-        <v>144.875831</v>
+        <v>145.076922</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.690602</v>
+        <v>-37.675501</v>
       </c>
       <c r="C95" t="n">
-        <v>144.869104</v>
+        <v>145.135999</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.814598</v>
+        <v>-37.819298</v>
       </c>
       <c r="C96" t="n">
-        <v>144.762011</v>
+        <v>145.129263</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.933332</v>
+        <v>-37.791185</v>
       </c>
       <c r="C97" t="n">
-        <v>145.000542</v>
+        <v>144.886937</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.773754</v>
+        <v>-37.655759</v>
       </c>
       <c r="C98" t="n">
-        <v>144.888956</v>
+        <v>145.032038</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.744387</v>
+        <v>-37.764884</v>
       </c>
       <c r="C99" t="n">
-        <v>144.774297</v>
+        <v>144.979606</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.711211</v>
+        <v>-37.717149</v>
       </c>
       <c r="C100" t="n">
-        <v>144.738802</v>
+        <v>144.808867</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.816363</v>
+        <v>-37.718987</v>
       </c>
       <c r="C101" t="n">
-        <v>145.06656</v>
+        <v>144.992857</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-38.102082</v>
+        <v>-37.778539</v>
       </c>
       <c r="C102" t="n">
-        <v>145.265397</v>
+        <v>144.875831</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.684606</v>
+        <v>-37.690602</v>
       </c>
       <c r="C103" t="n">
-        <v>144.760227</v>
+        <v>144.869104</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.715384</v>
+        <v>-37.814598</v>
       </c>
       <c r="C104" t="n">
-        <v>144.811994</v>
+        <v>144.762011</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.738834</v>
+        <v>-37.933332</v>
       </c>
       <c r="C105" t="n">
-        <v>145.030187</v>
+        <v>145.000542</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-38.075826</v>
+        <v>-37.773754</v>
       </c>
       <c r="C106" t="n">
-        <v>145.473885</v>
+        <v>144.888956</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.837404</v>
+        <v>-37.744387</v>
       </c>
       <c r="C107" t="n">
-        <v>144.996291</v>
+        <v>144.774297</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.898104</v>
+        <v>-37.711211</v>
       </c>
       <c r="C108" t="n">
-        <v>145.160876</v>
+        <v>144.738802</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.890643</v>
+        <v>-37.816363</v>
       </c>
       <c r="C109" t="n">
-        <v>145.062546</v>
+        <v>145.06656</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-37.8135</v>
+        <v>-38.102082</v>
       </c>
       <c r="C110" t="n">
-        <v>144.969933</v>
+        <v>145.265397</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.581295</v>
+        <v>-37.684606</v>
       </c>
       <c r="C111" t="n">
-        <v>144.738024</v>
+        <v>144.760227</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.744387</v>
+        <v>-37.715384</v>
       </c>
       <c r="C112" t="n">
-        <v>144.774297</v>
+        <v>144.811994</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -2389,450 +2389,450 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.735247</v>
+        <v>-37.738834</v>
       </c>
       <c r="C113" t="n">
-        <v>144.917023</v>
+        <v>145.030187</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-37.975685</v>
+        <v>-38.075826</v>
       </c>
       <c r="C114" t="n">
-        <v>145.216529</v>
+        <v>145.473885</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.688119</v>
+        <v>-37.837404</v>
       </c>
       <c r="C115" t="n">
-        <v>144.884379</v>
+        <v>144.996291</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.691402</v>
+        <v>-37.898104</v>
       </c>
       <c r="C116" t="n">
-        <v>145.213889</v>
+        <v>145.160876</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.760449</v>
+        <v>-37.890643</v>
       </c>
       <c r="C117" t="n">
-        <v>145.348691</v>
+        <v>145.062546</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-38.085076</v>
+        <v>-37.8135</v>
       </c>
       <c r="C118" t="n">
-        <v>145.46966</v>
+        <v>144.969933</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.740107</v>
+        <v>-37.581295</v>
       </c>
       <c r="C119" t="n">
-        <v>144.956047</v>
+        <v>144.738024</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.772859</v>
+        <v>-37.744387</v>
       </c>
       <c r="C120" t="n">
-        <v>145.294713</v>
+        <v>144.774297</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.798171</v>
+        <v>-37.735247</v>
       </c>
       <c r="C121" t="n">
-        <v>144.956665</v>
+        <v>144.917023</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-38.012111</v>
+        <v>-37.975685</v>
       </c>
       <c r="C122" t="n">
-        <v>145.090154</v>
+        <v>145.216529</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-36.732518</v>
+        <v>-37.688119</v>
       </c>
       <c r="C123" t="n">
-        <v>146.967357</v>
+        <v>144.884379</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.811362</v>
+        <v>-37.691402</v>
       </c>
       <c r="C124" t="n">
-        <v>144.973203</v>
+        <v>145.213889</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.927427</v>
+        <v>-37.760449</v>
       </c>
       <c r="C125" t="n">
-        <v>145.116157</v>
+        <v>145.348691</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-37.571236</v>
+        <v>-38.085076</v>
       </c>
       <c r="C126" t="n">
-        <v>144.90978</v>
+        <v>145.46966</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.685249</v>
+        <v>-37.740107</v>
       </c>
       <c r="C127" t="n">
-        <v>144.92446</v>
+        <v>144.956047</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.704175</v>
+        <v>-37.772859</v>
       </c>
       <c r="C128" t="n">
-        <v>144.998741</v>
+        <v>145.294713</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.726306</v>
+        <v>-37.798171</v>
       </c>
       <c r="C129" t="n">
-        <v>145.069914</v>
+        <v>144.956665</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-37.801332</v>
+        <v>-38.012111</v>
       </c>
       <c r="C130" t="n">
-        <v>144.963635</v>
+        <v>145.090154</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-37.8163949</v>
+        <v>-36.732518</v>
       </c>
       <c r="C131" t="n">
-        <v>144.9526066</v>
+        <v>146.967357</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.667111</v>
+        <v>-37.811362</v>
       </c>
       <c r="C132" t="n">
-        <v>144.8334808</v>
+        <v>144.973203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.801332</v>
+        <v>-37.927427</v>
       </c>
       <c r="C133" t="n">
-        <v>144.963635</v>
+        <v>145.116157</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.836082</v>
+        <v>-37.571236</v>
       </c>
       <c r="C134" t="n">
-        <v>144.915383</v>
+        <v>144.90978</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C135" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C136" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.837908</v>
+        <v>-37.726306</v>
       </c>
       <c r="C137" t="n">
-        <v>144.786218</v>
+        <v>145.069914</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
@@ -2857,14 +2857,14 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.801332</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C139" t="n">
-        <v>144.963635</v>
+        <v>144.9526066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -2875,392 +2875,392 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.841635</v>
+        <v>-37.667111</v>
       </c>
       <c r="C140" t="n">
-        <v>145.086235</v>
+        <v>144.8334808</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C141" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.715384</v>
+        <v>-37.836082</v>
       </c>
       <c r="C142" t="n">
-        <v>144.811994</v>
+        <v>144.915383</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C143" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C144" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.92849</v>
+        <v>-37.837908</v>
       </c>
       <c r="C145" t="n">
-        <v>145.007454</v>
+        <v>144.786218</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C146" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C147" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.69261</v>
+        <v>-37.841635</v>
       </c>
       <c r="C148" t="n">
-        <v>145.063821</v>
+        <v>145.086235</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.689223</v>
+        <v>-37.756286</v>
       </c>
       <c r="C149" t="n">
-        <v>144.604708</v>
+        <v>144.811104</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.843632</v>
+        <v>-37.715384</v>
       </c>
       <c r="C150" t="n">
-        <v>144.781559</v>
+        <v>144.811994</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.730748</v>
+        <v>-37.884267</v>
       </c>
       <c r="C151" t="n">
-        <v>145.086489</v>
+        <v>145.017115</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-37.702513</v>
+        <v>-36.314871</v>
       </c>
       <c r="C152" t="n">
-        <v>144.802326</v>
+        <v>145.04197</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.673996</v>
+        <v>-37.92849</v>
       </c>
       <c r="C153" t="n">
-        <v>144.955354</v>
+        <v>145.007454</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.576594</v>
+        <v>-37.841635</v>
       </c>
       <c r="C154" t="n">
-        <v>144.728665</v>
+        <v>145.086235</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.879995</v>
+        <v>-37.884267</v>
       </c>
       <c r="C155" t="n">
-        <v>144.701577</v>
+        <v>145.017115</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.834014</v>
+        <v>-37.69261</v>
       </c>
       <c r="C156" t="n">
-        <v>144.652853</v>
+        <v>145.063821</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.942099</v>
+        <v>-37.689223</v>
       </c>
       <c r="C157" t="n">
-        <v>145.167684</v>
+        <v>144.604708</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.664667</v>
+        <v>-37.843632</v>
       </c>
       <c r="C158" t="n">
-        <v>144.74749</v>
+        <v>144.781559</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.665417</v>
+        <v>-37.730748</v>
       </c>
       <c r="C159" t="n">
-        <v>144.753359</v>
+        <v>145.086489</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.73899</v>
+        <v>-37.702513</v>
       </c>
       <c r="C160" t="n">
-        <v>144.679976</v>
+        <v>144.802326</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.596123</v>
+        <v>-37.673996</v>
       </c>
       <c r="C161" t="n">
-        <v>144.921401</v>
+        <v>144.955354</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -3271,104 +3271,104 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.77238</v>
+        <v>-37.576594</v>
       </c>
       <c r="C162" t="n">
-        <v>144.888195</v>
+        <v>144.728665</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.783105</v>
+        <v>-37.879995</v>
       </c>
       <c r="C163" t="n">
-        <v>144.785398</v>
+        <v>144.701577</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.766147</v>
+        <v>-37.834014</v>
       </c>
       <c r="C164" t="n">
-        <v>145.020052</v>
+        <v>144.652853</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.689366</v>
+        <v>-37.942099</v>
       </c>
       <c r="C165" t="n">
-        <v>144.958878</v>
+        <v>145.167684</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.678278</v>
+        <v>-37.664667</v>
       </c>
       <c r="C166" t="n">
-        <v>144.432689</v>
+        <v>144.74749</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.810712</v>
+        <v>-37.665417</v>
       </c>
       <c r="C167" t="n">
-        <v>144.836118</v>
+        <v>144.753359</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -3379,50 +3379,50 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-37.667111</v>
+        <v>-37.73899</v>
       </c>
       <c r="C168" t="n">
-        <v>144.8334808</v>
+        <v>144.679976</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.811678</v>
+        <v>-37.596123</v>
       </c>
       <c r="C169" t="n">
-        <v>144.889926</v>
+        <v>144.921401</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-37.797177</v>
+        <v>-37.77238</v>
       </c>
       <c r="C170" t="n">
-        <v>144.894632</v>
+        <v>144.888195</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -3433,14 +3433,14 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.759223</v>
+        <v>-37.783105</v>
       </c>
       <c r="C171" t="n">
-        <v>144.816754</v>
+        <v>144.785398</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3451,72 +3451,72 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.844318</v>
+        <v>-37.766147</v>
       </c>
       <c r="C172" t="n">
-        <v>145.009818</v>
+        <v>145.020052</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.813239</v>
+        <v>-37.689366</v>
       </c>
       <c r="C173" t="n">
-        <v>145.048047</v>
+        <v>144.958878</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-37.7769407</v>
+        <v>-37.678278</v>
       </c>
       <c r="C174" t="n">
-        <v>144.987025</v>
+        <v>144.432689</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-37.772096</v>
+        <v>-37.810712</v>
       </c>
       <c r="C175" t="n">
-        <v>144.916095</v>
+        <v>144.836118</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -3541,284 +3541,284 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C177" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C178" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C179" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-37.667111</v>
+        <v>-37.844318</v>
       </c>
       <c r="C180" t="n">
-        <v>144.8334808</v>
+        <v>145.009818</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-37.667111</v>
+        <v>-37.813239</v>
       </c>
       <c r="C181" t="n">
-        <v>144.8334808</v>
+        <v>145.048047</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-37.667111</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C182" t="n">
-        <v>144.8334808</v>
+        <v>144.987025</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-37.8214527</v>
+        <v>-37.772096</v>
       </c>
       <c r="C183" t="n">
-        <v>144.983472</v>
+        <v>144.916095</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-37.800963</v>
+        <v>-37.667111</v>
       </c>
       <c r="C184" t="n">
-        <v>145.0729384</v>
+        <v>144.8334808</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-37.790783</v>
+        <v>-37.667111</v>
       </c>
       <c r="C185" t="n">
-        <v>144.998162</v>
+        <v>144.8334808</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-37.8249813</v>
+        <v>-37.667111</v>
       </c>
       <c r="C186" t="n">
-        <v>144.983613</v>
+        <v>144.8334808</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C187" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C188" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C189" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C190" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-38.199003</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C191" t="n">
-        <v>144.318418</v>
+        <v>144.983472</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-37.8633444</v>
+        <v>-37.800963</v>
       </c>
       <c r="C192" t="n">
-        <v>145.0868276</v>
+        <v>145.0729384</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3829,14 +3829,14 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-37.809265</v>
+        <v>-37.790783</v>
       </c>
       <c r="C193" t="n">
-        <v>144.994951</v>
+        <v>144.998162</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3847,144 +3847,144 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-37.667111</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C194" t="n">
-        <v>144.8334808</v>
+        <v>144.983613</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-37.7978092</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C195" t="n">
-        <v>144.9680124</v>
+        <v>144.955806</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-37.8163949</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C196" t="n">
-        <v>144.9526066</v>
+        <v>144.9564881</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C197" t="n">
-        <v>144.3568376</v>
+        <v>144.9564881</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-37.028215</v>
+        <v>-38.199003</v>
       </c>
       <c r="C198" t="n">
-        <v>145.14336</v>
+        <v>144.318418</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C199" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-37.720557</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C200" t="n">
-        <v>145.048232</v>
+        <v>145.0868276</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-37.720557</v>
+        <v>-37.809265</v>
       </c>
       <c r="C201" t="n">
-        <v>145.048232</v>
+        <v>144.994951</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
@@ -4009,18 +4009,18 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-38.1450096</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C203" t="n">
-        <v>144.3568376</v>
+        <v>144.9680124</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
@@ -4045,178 +4045,322 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-37.8163949</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C205" t="n">
-        <v>144.9526066</v>
+        <v>144.3568376</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-37.8266608</v>
+        <v>-37.028215</v>
       </c>
       <c r="C206" t="n">
-        <v>145.0587903</v>
+        <v>145.14336</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C207" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C208" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C209" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-37.848232</v>
+        <v>-37.667111</v>
       </c>
       <c r="C210" t="n">
-        <v>145.005508</v>
+        <v>144.8334808</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C211" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C212" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-37.667111</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C213" t="n">
-        <v>144.8334808</v>
+        <v>144.9526066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>-37.8266608</v>
+      </c>
+      <c r="C214" t="n">
+        <v>145.0587903</v>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>Boroondara (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C215" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C216" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C217" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C218" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C219" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B214" t="n">
+      <c r="B220" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C220" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C221" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C222" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D222" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D222"/>
+  <dimension ref="A1:D233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,896 +391,896 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30 North St, Ardeer VIC 3022</t>
+          <t>76-86 North Rd, Avondale Heights VIC 3034</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-37.779326</v>
+        <v>-37.7551</v>
       </c>
       <c r="C2" t="n">
-        <v>144.808335</v>
+        <v>144.855688</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11-13 Sunshine Rd, West Footscray VIC 3012</t>
+          <t>125/175 Patullos Ln, Somerton VIC 3062</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-37.80155</v>
+        <v>-37.621509</v>
       </c>
       <c r="C3" t="n">
-        <v>144.876365</v>
+        <v>144.942485</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>36-38 Permas Way, Truganina VIC 3029</t>
+          <t>20 Reid St, Ardeer VIC 3022</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-37.817457</v>
+        <v>-37.77198</v>
       </c>
       <c r="C4" t="n">
-        <v>144.739448</v>
+        <v>144.804867</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Endeavour Hills Shopping Centre, 974 Heatherton Rd, Endeavour Hills VIC 3802</t>
+          <t>F1/26 Stephen Rd, Dandenong South VIC 3175</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-37.976866</v>
+        <v>-38.010222</v>
       </c>
       <c r="C5" t="n">
-        <v>145.259225</v>
+        <v>145.212394</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>216 Burgundy St, Heidelberg VIC 3084</t>
+          <t>24-36 Lorne St, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.755011</v>
+        <v>-37.716356</v>
       </c>
       <c r="C6" t="n">
-        <v>145.060577</v>
+        <v>144.975854</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>101 Punt Rd, Windsor VIC 3181</t>
+          <t>Corella Rd, Sunshine West VIC 3023</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.851375</v>
+        <v>-37.797693</v>
       </c>
       <c r="C7" t="n">
-        <v>144.98317</v>
+        <v>144.806024</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>484 Dohertys Rd, Truganina VIC 3029</t>
+          <t>30 North St, Ardeer VIC 3022</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.824803</v>
+        <v>-37.779326</v>
       </c>
       <c r="C8" t="n">
-        <v>144.737124</v>
+        <v>144.808335</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8 Arnold St, Box Hill VIC 3128</t>
+          <t>11-13 Sunshine Rd, West Footscray VIC 3012</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.81408</v>
+        <v>-37.80155</v>
       </c>
       <c r="C9" t="n">
-        <v>145.118453</v>
+        <v>144.876365</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>510 Lygon St, Carlton VIC 3053</t>
+          <t>36-38 Permas Way, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.794602</v>
+        <v>-37.817457</v>
       </c>
       <c r="C10" t="n">
-        <v>144.968261</v>
+        <v>144.739448</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>59-61 High St, Woodend VIC 3442</t>
+          <t>Endeavour Hills Shopping Centre, 974 Heatherton Rd, Endeavour Hills VIC 3802</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.35824</v>
+        <v>-37.976866</v>
       </c>
       <c r="C11" t="n">
-        <v>144.525773</v>
+        <v>145.259225</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Macedon Ranges (S)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>507 Campbell St, Swan Hill VIC 3585</t>
+          <t>216 Burgundy St, Heidelberg VIC 3084</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-35.355945</v>
+        <v>-37.755011</v>
       </c>
       <c r="C12" t="n">
-        <v>143.562705</v>
+        <v>145.060577</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Swan Hill (RC)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
+          <t>101 Punt Rd, Windsor VIC 3181</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.78365</v>
+        <v>-37.851375</v>
       </c>
       <c r="C13" t="n">
-        <v>144.77146</v>
+        <v>144.98317</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>438 Somerville Rd, Tottenham VIC 3012</t>
+          <t>484 Dohertys Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.808952</v>
+        <v>-37.824803</v>
       </c>
       <c r="C14" t="n">
-        <v>144.850888</v>
+        <v>144.737124</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>16 Moreland St, Footscray VIC 3011</t>
+          <t>8 Arnold St, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.79998</v>
+        <v>-37.81408</v>
       </c>
       <c r="C15" t="n">
-        <v>144.907861</v>
+        <v>145.118453</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>30 Inverloch Cres, Dallas VIC 3047</t>
+          <t>510 Lygon St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.66875</v>
+        <v>-37.794602</v>
       </c>
       <c r="C16" t="n">
-        <v>144.929709</v>
+        <v>144.968261</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
+          <t>59-61 High St, Woodend VIC 3442</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.768353</v>
+        <v>-37.35824</v>
       </c>
       <c r="C17" t="n">
-        <v>145.041766</v>
+        <v>144.525773</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Macedon Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>100 Sunshine Ave, Kealba VIC 3021</t>
+          <t>507 Campbell St, Swan Hill VIC 3585</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-37.741864</v>
+        <v>-35.355945</v>
       </c>
       <c r="C18" t="n">
-        <v>144.826315</v>
+        <v>143.562705</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Swan Hill (RC)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shopping Village, 65 High St, Belmont VIC 3216</t>
+          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-38.170245</v>
+        <v>-37.78365</v>
       </c>
       <c r="C19" t="n">
-        <v>144.349263</v>
+        <v>144.77146</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>McDonalds Rd, Mill Park VIC 3082</t>
+          <t>438 Somerville Rd, Tottenham VIC 3012</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.650834</v>
+        <v>-37.808952</v>
       </c>
       <c r="C20" t="n">
-        <v>145.068828</v>
+        <v>144.850888</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1 Saintly Dr, Truganina VIC 3029</t>
+          <t>16 Moreland St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.807645</v>
+        <v>-37.79998</v>
       </c>
       <c r="C21" t="n">
-        <v>144.746483</v>
+        <v>144.907861</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>30 Inverloch Cres, Dallas VIC 3047</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.798908</v>
+        <v>-37.66875</v>
       </c>
       <c r="C22" t="n">
-        <v>144.956176</v>
+        <v>144.929709</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.759223</v>
+        <v>-37.768353</v>
       </c>
       <c r="C23" t="n">
-        <v>144.816754</v>
+        <v>145.041766</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>100 Sunshine Ave, Kealba VIC 3021</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.653023</v>
+        <v>-37.741864</v>
       </c>
       <c r="C24" t="n">
-        <v>145.014685</v>
+        <v>144.826315</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>10 Fletcher St, Essendon VIC 3040</t>
+          <t>Shopping Village, 65 High St, Belmont VIC 3216</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-37.755206</v>
+        <v>-38.170245</v>
       </c>
       <c r="C25" t="n">
-        <v>144.925092</v>
+        <v>144.349263</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
+          <t>McDonalds Rd, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.766695</v>
+        <v>-37.650834</v>
       </c>
       <c r="C26" t="n">
-        <v>145.170655</v>
+        <v>145.068828</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Manningham (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>13 Howard St, Altona Meadows VIC 3028</t>
+          <t>1 Saintly Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.878812</v>
+        <v>-37.807645</v>
       </c>
       <c r="C27" t="n">
-        <v>144.781325</v>
+        <v>144.746483</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.758211</v>
+        <v>-37.798908</v>
       </c>
       <c r="C28" t="n">
-        <v>145.044162</v>
+        <v>144.956176</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>27 Smith St, Healesville VIC 3777</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.661037</v>
+        <v>-37.759223</v>
       </c>
       <c r="C29" t="n">
-        <v>145.508141</v>
+        <v>144.816754</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.66148</v>
+        <v>-37.653023</v>
       </c>
       <c r="C30" t="n">
-        <v>145.516046</v>
+        <v>145.014685</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>25 Main St, Greensborough VIC 3088</t>
+          <t>10 Fletcher St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.70206</v>
+        <v>-37.755206</v>
       </c>
       <c r="C31" t="n">
-        <v>145.102638</v>
+        <v>144.925092</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>15 Fletcher Rd, Frankston VIC 3199</t>
+          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-38.138881</v>
+        <v>-37.766695</v>
       </c>
       <c r="C32" t="n">
-        <v>145.124681</v>
+        <v>145.170655</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Frankston (C)</t>
+          <t>Manningham (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>13 Howard St, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.684151</v>
+        <v>-37.878812</v>
       </c>
       <c r="C33" t="n">
-        <v>144.948507</v>
+        <v>144.781325</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.756487</v>
+        <v>-37.758211</v>
       </c>
       <c r="C34" t="n">
-        <v>144.972167</v>
+        <v>145.044162</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.87778</v>
+        <v>-37.661037</v>
       </c>
       <c r="C35" t="n">
-        <v>144.676933</v>
+        <v>145.508141</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.741374</v>
+        <v>-37.66148</v>
       </c>
       <c r="C36" t="n">
-        <v>144.992388</v>
+        <v>145.516046</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>25 Main St, Greensborough VIC 3088</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.801718</v>
+        <v>-37.70206</v>
       </c>
       <c r="C37" t="n">
-        <v>145.032141</v>
+        <v>145.102638</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>64 Virginia St, Mount Waverley VIC 3149</t>
+          <t>15 Fletcher Rd, Frankston VIC 3199</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-37.87832</v>
+        <v>-38.138881</v>
       </c>
       <c r="C38" t="n">
-        <v>145.1277</v>
+        <v>145.124681</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Frankston (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.740508</v>
+        <v>-37.684151</v>
       </c>
       <c r="C39" t="n">
-        <v>145.075152</v>
+        <v>144.948507</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sunshine Market Place, 80 Harvester Rd, Sunshine VIC 3020</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.780483</v>
+        <v>-37.756487</v>
       </c>
       <c r="C40" t="n">
-        <v>144.831981</v>
+        <v>144.972167</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>95 Hazel Glen Dr, Doreen VIC 3754</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.586944</v>
+        <v>-37.87778</v>
       </c>
       <c r="C41" t="n">
-        <v>145.127624</v>
+        <v>144.676933</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>10 English St, Essendon Fields VIC 3041</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.726876</v>
+        <v>-37.741374</v>
       </c>
       <c r="C42" t="n">
-        <v>144.894023</v>
+        <v>144.992388</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.845667</v>
+        <v>-37.801718</v>
       </c>
       <c r="C43" t="n">
-        <v>144.981921</v>
+        <v>145.032141</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.813306</v>
+        <v>-37.798908</v>
       </c>
       <c r="C44" t="n">
-        <v>144.849237</v>
+        <v>144.956176</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>20 Flemington Rd, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.690076</v>
+        <v>-37.79862</v>
       </c>
       <c r="C45" t="n">
-        <v>144.996836</v>
+        <v>144.954858</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>64 Virginia St, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.813215</v>
+        <v>-37.87832</v>
       </c>
       <c r="C46" t="n">
-        <v>144.965914</v>
+        <v>145.1277</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.796258</v>
+        <v>-37.740508</v>
       </c>
       <c r="C47" t="n">
-        <v>144.862235</v>
+        <v>145.075152</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
+          <t>Sunshine Market Place, 80 Harvester Rd, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.874191</v>
+        <v>-37.780483</v>
       </c>
       <c r="C48" t="n">
-        <v>144.677393</v>
+        <v>144.831981</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>215 Bell St, Preston VIC 3072</t>
+          <t>95 Hazel Glen Dr, Doreen VIC 3754</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.74638</v>
+        <v>-37.586944</v>
       </c>
       <c r="C49" t="n">
-        <v>145.008039</v>
+        <v>145.127624</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>41 Landsborough St, Warragul VIC 3820</t>
+          <t>10 English St, Essendon Fields VIC 3041</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-38.172925</v>
+        <v>-37.726876</v>
       </c>
       <c r="C50" t="n">
-        <v>145.927835</v>
+        <v>144.894023</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Baw Baw (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.798908</v>
+        <v>-37.845667</v>
       </c>
       <c r="C51" t="n">
-        <v>144.956176</v>
+        <v>144.981921</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1291,338 +1291,338 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.788414</v>
+        <v>-37.813306</v>
       </c>
       <c r="C52" t="n">
-        <v>144.936951</v>
+        <v>144.849237</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.73908</v>
+        <v>-37.690076</v>
       </c>
       <c r="C53" t="n">
-        <v>145.002236</v>
+        <v>144.996836</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.785949</v>
+        <v>-37.813215</v>
       </c>
       <c r="C54" t="n">
-        <v>144.935308</v>
+        <v>144.965914</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.670681</v>
+        <v>-37.796258</v>
       </c>
       <c r="C55" t="n">
-        <v>144.850306</v>
+        <v>144.862235</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>Arena Shopping Centre, Princes Hwy, Officer VIC 3809</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-37.817011</v>
+        <v>-38.06438</v>
       </c>
       <c r="C56" t="n">
-        <v>144.962265</v>
+        <v>145.435603</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
+          <t>906 Main Rd, Eltham VIC 3095</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-38.259593</v>
+        <v>-37.715121</v>
       </c>
       <c r="C57" t="n">
-        <v>144.53948</v>
+        <v>145.148411</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>67 Ashley St Central West Shopping Centre, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.789871</v>
+        <v>-37.793658</v>
       </c>
       <c r="C58" t="n">
-        <v>144.926734</v>
+        <v>144.861504</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.791989</v>
+        <v>-37.874191</v>
       </c>
       <c r="C59" t="n">
-        <v>144.940508</v>
+        <v>144.677393</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>215 Bell St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.653023</v>
+        <v>-37.74638</v>
       </c>
       <c r="C60" t="n">
-        <v>145.014685</v>
+        <v>145.008039</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>41 Landsborough St, Warragul VIC 3820</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-37.766715</v>
+        <v>-38.172925</v>
       </c>
       <c r="C61" t="n">
-        <v>145.021149</v>
+        <v>145.927835</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Baw Baw (S)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.741667</v>
+        <v>-37.798908</v>
       </c>
       <c r="C62" t="n">
-        <v>144.908954</v>
+        <v>144.956176</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Craigieburn Plaza Shopping Centre, Craigieburn Road West &amp; Hanson Street, Craigieburn VIC 3064</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.597833</v>
+        <v>-37.788414</v>
       </c>
       <c r="C63" t="n">
-        <v>144.938591</v>
+        <v>144.936951</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.759288</v>
+        <v>-37.73908</v>
       </c>
       <c r="C64" t="n">
-        <v>144.817921</v>
+        <v>145.002236</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>89 Bridge Rd, Richmond VIC 3121</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.817743</v>
+        <v>-37.785949</v>
       </c>
       <c r="C65" t="n">
-        <v>144.992936</v>
+        <v>144.935308</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.813381</v>
+        <v>-37.670681</v>
       </c>
       <c r="C66" t="n">
-        <v>144.967076</v>
+        <v>144.850306</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2 Wellington St, Mernda VIC 3754</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.598146</v>
+        <v>-37.817011</v>
       </c>
       <c r="C67" t="n">
-        <v>145.068782</v>
+        <v>144.962265</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Hogans Road &amp; Derrimut Road, Hoppers Crossing VIC 3029</t>
+          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-37.862231</v>
+        <v>-38.259593</v>
       </c>
       <c r="C68" t="n">
-        <v>144.687222</v>
+        <v>144.53948</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.704738</v>
+        <v>-37.789871</v>
       </c>
       <c r="C69" t="n">
-        <v>144.86329</v>
+        <v>144.926734</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>230 Collins St, Melbourne VIC 3000</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.815499</v>
+        <v>-37.791989</v>
       </c>
       <c r="C70" t="n">
-        <v>144.965882</v>
+        <v>144.940508</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1633,104 +1633,104 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.724684</v>
+        <v>-37.653023</v>
       </c>
       <c r="C71" t="n">
-        <v>144.940008</v>
+        <v>145.014685</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>40 The Grove, Coburg VIC 3058</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.752048</v>
+        <v>-37.766715</v>
       </c>
       <c r="C72" t="n">
-        <v>144.970526</v>
+        <v>145.021149</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>16 Watt St, Sunshine VIC 3020</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.787776</v>
+        <v>-37.741667</v>
       </c>
       <c r="C73" t="n">
-        <v>144.829839</v>
+        <v>144.908954</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>40 Court St, Yarraville VIC 3013</t>
+          <t>Craigieburn Plaza Shopping Centre, Craigieburn Road West &amp; Hanson Street, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-37.817826</v>
+        <v>-37.597833</v>
       </c>
       <c r="C74" t="n">
-        <v>144.878737</v>
+        <v>144.938591</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-37.785683</v>
+        <v>-37.759288</v>
       </c>
       <c r="C75" t="n">
-        <v>144.994154</v>
+        <v>144.817921</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>67/81 Hoddle St, Richmond VIC 3121</t>
+          <t>89 Bridge Rd, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-37.812264</v>
+        <v>-37.817743</v>
       </c>
       <c r="C76" t="n">
-        <v>144.991241</v>
+        <v>144.992936</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -1741,122 +1741,122 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>130 Church St, Richmond VIC 3121</t>
+          <t>level 9/225 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-37.813934</v>
+        <v>-37.813381</v>
       </c>
       <c r="C77" t="n">
-        <v>144.999135</v>
+        <v>144.967076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
+          <t>2 Wellington St, Mernda VIC 3754</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-37.81693</v>
+        <v>-37.598146</v>
       </c>
       <c r="C78" t="n">
-        <v>144.962296</v>
+        <v>145.068782</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>Hogans Road &amp; Derrimut Road, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-37.798908</v>
+        <v>-37.862231</v>
       </c>
       <c r="C79" t="n">
-        <v>144.956176</v>
+        <v>144.687222</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
+          <t>140 Sharps Rd, Tullamarine VIC 3043</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-37.870336</v>
+        <v>-37.704738</v>
       </c>
       <c r="C80" t="n">
-        <v>144.696569</v>
+        <v>144.86329</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
+          <t>230 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-37.735123</v>
+        <v>-37.815499</v>
       </c>
       <c r="C81" t="n">
-        <v>144.738736</v>
+        <v>144.965882</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
+          <t>200 Cumberland Rd, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-37.581979</v>
+        <v>-37.724684</v>
       </c>
       <c r="C82" t="n">
-        <v>144.905951</v>
+        <v>144.940008</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
+          <t>40 The Grove, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-37.71597</v>
+        <v>-37.752048</v>
       </c>
       <c r="C83" t="n">
-        <v>144.935826</v>
+        <v>144.970526</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -1867,140 +1867,140 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>41 Rosehill Rd, Essendon VIC 3040</t>
+          <t>16 Watt St, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-37.74954</v>
+        <v>-37.787776</v>
       </c>
       <c r="C84" t="n">
-        <v>144.883252</v>
+        <v>144.829839</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
+          <t>40 Court St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-37.754926</v>
+        <v>-37.817826</v>
       </c>
       <c r="C85" t="n">
-        <v>144.966324</v>
+        <v>144.878737</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
+          <t>476 Queens Parade, Fitzroy North VIC 3068</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-37.875675</v>
+        <v>-37.785683</v>
       </c>
       <c r="C86" t="n">
-        <v>144.79145</v>
+        <v>144.994154</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
+          <t>67/81 Hoddle St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-37.601756</v>
+        <v>-37.812264</v>
       </c>
       <c r="C87" t="n">
-        <v>144.905386</v>
+        <v>144.991241</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2 River St, Maribyrnong VIC 3032</t>
+          <t>130 Church St, Richmond VIC 3121</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-37.778017</v>
+        <v>-37.813934</v>
       </c>
       <c r="C88" t="n">
-        <v>144.889266</v>
+        <v>144.999135</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>298 Barkly St, Footscray VIC 3011</t>
+          <t>Optus Centre, 1/367 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-37.799002</v>
+        <v>-37.81693</v>
       </c>
       <c r="C89" t="n">
-        <v>144.894926</v>
+        <v>144.962296</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-37.837112</v>
+        <v>-37.798908</v>
       </c>
       <c r="C90" t="n">
-        <v>144.941595</v>
+        <v>144.956176</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>201 Sayers Rd, Truganina VIC 3029</t>
+          <t>2 Fraser St, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-37.854529</v>
+        <v>-37.870336</v>
       </c>
       <c r="C91" t="n">
-        <v>144.721868</v>
+        <v>144.696569</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -2011,356 +2011,356 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Bank St, Ascot Vale VIC 3032</t>
+          <t>3-37 The Crossing, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-37.774352</v>
+        <v>-37.735123</v>
       </c>
       <c r="C92" t="n">
-        <v>144.92733</v>
+        <v>144.738736</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>286 Buckley St, Essendon VIC 3040</t>
+          <t>51-81 Grevillea St, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-37.755176</v>
+        <v>-37.581979</v>
       </c>
       <c r="C93" t="n">
-        <v>144.90226</v>
+        <v>144.905951</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
+          <t>2-10 Pascoe St, Pascoe Vale VIC 3044</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-37.658638</v>
+        <v>-37.71597</v>
       </c>
       <c r="C94" t="n">
-        <v>145.076922</v>
+        <v>144.935826</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
+          <t>41 Rosehill Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-37.675501</v>
+        <v>-37.74954</v>
       </c>
       <c r="C95" t="n">
-        <v>145.135999</v>
+        <v>144.883252</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
+          <t>157-163 Moreland Rd, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-37.819298</v>
+        <v>-37.754926</v>
       </c>
       <c r="C96" t="n">
-        <v>145.129263</v>
+        <v>144.966324</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>35 Mavis St, Footscray VIC 3011</t>
+          <t>62 Everingham Rd, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-37.791185</v>
+        <v>-37.875675</v>
       </c>
       <c r="C97" t="n">
-        <v>144.886937</v>
+        <v>144.79145</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>400 Dalton Rd, Epping VIC 3076</t>
+          <t>2 Rhyolite Dr, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-37.655759</v>
+        <v>-37.601756</v>
       </c>
       <c r="C98" t="n">
-        <v>145.032038</v>
+        <v>144.905386</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>195A Stewart St, Brunswick East VIC 3057</t>
+          <t>2 River St, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-37.764884</v>
+        <v>-37.778017</v>
       </c>
       <c r="C99" t="n">
-        <v>144.979606</v>
+        <v>144.889266</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Swindon Cres, Keilor Downs VIC 3038</t>
+          <t>298 Barkly St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-37.717149</v>
+        <v>-37.799002</v>
       </c>
       <c r="C100" t="n">
-        <v>144.808867</v>
+        <v>144.894926</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
+          <t>Pool St &amp;, Nott St, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-37.718987</v>
+        <v>-37.837112</v>
       </c>
       <c r="C101" t="n">
-        <v>144.992857</v>
+        <v>144.941595</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
+          <t>201 Sayers Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-37.778539</v>
+        <v>-37.854529</v>
       </c>
       <c r="C102" t="n">
-        <v>144.875831</v>
+        <v>144.721868</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
+          <t>Bank St, Ascot Vale VIC 3032</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-37.690602</v>
+        <v>-37.774352</v>
       </c>
       <c r="C103" t="n">
-        <v>144.869104</v>
+        <v>144.92733</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
+          <t>286 Buckley St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-37.814598</v>
+        <v>-37.755176</v>
       </c>
       <c r="C104" t="n">
-        <v>144.762011</v>
+        <v>144.90226</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>59 Holyrood St, Hampton VIC 3188</t>
+          <t>400 Plenty Road, Cnr University Dr, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-37.933332</v>
+        <v>-37.658638</v>
       </c>
       <c r="C105" t="n">
-        <v>145.000542</v>
+        <v>145.076922</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>13 Old Diamond Creek Rd, Diamond Creek VIC 3089</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-37.773754</v>
+        <v>-37.675501</v>
       </c>
       <c r="C106" t="n">
-        <v>144.888956</v>
+        <v>145.135999</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>1058 Whitehorse Rd, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-37.744387</v>
+        <v>-37.819298</v>
       </c>
       <c r="C107" t="n">
-        <v>144.774297</v>
+        <v>145.129263</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
+          <t>35 Mavis St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-37.711211</v>
+        <v>-37.791185</v>
       </c>
       <c r="C108" t="n">
-        <v>144.738802</v>
+        <v>144.886937</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
+          <t>400 Dalton Rd, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-37.816363</v>
+        <v>-37.655759</v>
       </c>
       <c r="C109" t="n">
-        <v>145.06656</v>
+        <v>145.032038</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>135 Duff St, Cranbourne VIC 3977</t>
+          <t>195A Stewart St, Brunswick East VIC 3057</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-38.102082</v>
+        <v>-37.764884</v>
       </c>
       <c r="C110" t="n">
-        <v>145.265397</v>
+        <v>144.979606</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>41 Manchester Dr, Sydenham VIC 3037</t>
+          <t>Swindon Cres, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-37.684606</v>
+        <v>-37.717149</v>
       </c>
       <c r="C111" t="n">
-        <v>144.760227</v>
+        <v>144.808867</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -2371,320 +2371,320 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>763 Gilbert Rd, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-37.715384</v>
+        <v>-37.718987</v>
       </c>
       <c r="C112" t="n">
-        <v>144.811994</v>
+        <v>144.992857</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2-50 Murray Rd, Preston VIC 3072</t>
+          <t>2/44 Hampstead Rd, Maidstone VIC 3012</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-37.738834</v>
+        <v>-37.778539</v>
       </c>
       <c r="C113" t="n">
-        <v>145.030187</v>
+        <v>144.875831</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
+          <t>275 Melrose Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-38.075826</v>
+        <v>-37.690602</v>
       </c>
       <c r="C114" t="n">
-        <v>145.473885</v>
+        <v>144.869104</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
+          <t>12-18 Distribution Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-37.837404</v>
+        <v>-37.814598</v>
       </c>
       <c r="C115" t="n">
-        <v>144.996291</v>
+        <v>144.762011</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
+          <t>59 Holyrood St, Hampton VIC 3188</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-37.898104</v>
+        <v>-37.933332</v>
       </c>
       <c r="C116" t="n">
-        <v>145.160876</v>
+        <v>145.000542</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6 Ames Ave, Carnegie VIC 3163</t>
+          <t>Highpoint Shopping Centre, 120-200 Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-37.890643</v>
+        <v>-37.773754</v>
       </c>
       <c r="C117" t="n">
-        <v>145.062546</v>
+        <v>144.888956</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>111 Little Collins St, Melbourne VIC 3000</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-37.8135</v>
+        <v>-37.744387</v>
       </c>
       <c r="C118" t="n">
-        <v>144.969933</v>
+        <v>144.774297</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>63 Macedon St, Sunbury VIC 3429</t>
+          <t>22-50 Becca Way, Caroline Springs VIC 3023</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-37.581295</v>
+        <v>-37.711211</v>
       </c>
       <c r="C119" t="n">
-        <v>144.738024</v>
+        <v>144.738802</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>25 Dover St, Albanvale VIC 3021</t>
+          <t>55 Mont Albert Rd, Canterbury VIC 3126</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-37.744387</v>
+        <v>-37.816363</v>
       </c>
       <c r="C120" t="n">
-        <v>144.774297</v>
+        <v>145.06656</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
+          <t>135 Duff St, Cranbourne VIC 3977</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-37.735247</v>
+        <v>-38.102082</v>
       </c>
       <c r="C121" t="n">
-        <v>144.917023</v>
+        <v>145.265397</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
+          <t>41 Manchester Dr, Sydenham VIC 3037</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-37.975685</v>
+        <v>-37.684606</v>
       </c>
       <c r="C122" t="n">
-        <v>145.216529</v>
+        <v>144.760227</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-37.688119</v>
+        <v>-37.715384</v>
       </c>
       <c r="C123" t="n">
-        <v>144.884379</v>
+        <v>144.811994</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
+          <t>2-50 Murray Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-37.691402</v>
+        <v>-37.738834</v>
       </c>
       <c r="C124" t="n">
-        <v>145.213889</v>
+        <v>145.030187</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
+          <t>11/13 Wakenshaw Cres, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-37.760449</v>
+        <v>-38.075826</v>
       </c>
       <c r="C125" t="n">
-        <v>145.348691</v>
+        <v>145.473885</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Livingstone Blvd, Pakenham VIC 3810</t>
+          <t>Level 1/670 Chapel St, South Yarra VIC 3141</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-38.085076</v>
+        <v>-37.837404</v>
       </c>
       <c r="C126" t="n">
-        <v>145.46966</v>
+        <v>144.996291</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>248 Bell St, Coburg VIC 3058</t>
+          <t>499 Springvale Rd, Glen Waverley VIC 3150</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>-37.740107</v>
+        <v>-37.898104</v>
       </c>
       <c r="C127" t="n">
-        <v>144.956047</v>
+        <v>145.160876</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
+          <t>6 Ames Ave, Carnegie VIC 3163</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>-37.772859</v>
+        <v>-37.890643</v>
       </c>
       <c r="C128" t="n">
-        <v>145.294713</v>
+        <v>145.062546</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Maroondah (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>1G Royal Parade, Parkville VIC 3052</t>
+          <t>111 Little Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>-37.798171</v>
+        <v>-37.8135</v>
       </c>
       <c r="C129" t="n">
-        <v>144.956665</v>
+        <v>144.969933</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -2695,86 +2695,86 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
+          <t>63 Macedon St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>-38.012111</v>
+        <v>-37.581295</v>
       </c>
       <c r="C130" t="n">
-        <v>145.090154</v>
+        <v>144.738024</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Kingston (C) (Vic.)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Hawthorn Ln, Bright VIC 3741</t>
+          <t>25 Dover St, Albanvale VIC 3021</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>-36.732518</v>
+        <v>-37.744387</v>
       </c>
       <c r="C131" t="n">
-        <v>146.967357</v>
+        <v>144.774297</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Alpine (S)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Spring St, East Melbourne VIC 3002</t>
+          <t>14-34 Lloyd St, Strathmore VIC 3041</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>-37.811362</v>
+        <v>-37.735247</v>
       </c>
       <c r="C132" t="n">
-        <v>144.973203</v>
+        <v>144.917023</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>12 Burton Ave, Clayton VIC 3168</t>
+          <t>126/128 Cleeland St, Dandenong VIC 3175</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>-37.927427</v>
+        <v>-37.975685</v>
       </c>
       <c r="C133" t="n">
-        <v>145.116157</v>
+        <v>145.216529</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
+          <t>Gladstone Park Shopping Centre Rooftop Level, 8-43 Gladstone Park Dr, Gladstone Park VIC 3043</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>-37.571236</v>
+        <v>-37.688119</v>
       </c>
       <c r="C134" t="n">
-        <v>144.90978</v>
+        <v>144.884379</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -2785,158 +2785,158 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
+          <t>20 Graham Rd, Kangaroo Ground VIC 3097</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>-37.685249</v>
+        <v>-37.691402</v>
       </c>
       <c r="C135" t="n">
-        <v>144.92446</v>
+        <v>145.213889</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
+          <t>3/33 Hutchinson St, Lilydale VIC 3140</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>-37.704175</v>
+        <v>-37.760449</v>
       </c>
       <c r="C136" t="n">
-        <v>144.998741</v>
+        <v>145.348691</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Birdwood Ave, Macleod VIC 3085</t>
+          <t>Livingstone Blvd, Pakenham VIC 3810</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>-37.726306</v>
+        <v>-38.085076</v>
       </c>
       <c r="C137" t="n">
-        <v>145.069914</v>
+        <v>145.46966</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>248 Bell St, Coburg VIC 3058</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>-37.801332</v>
+        <v>-37.740107</v>
       </c>
       <c r="C138" t="n">
-        <v>144.963635</v>
+        <v>144.956047</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>24-26 Dorset Rd, Croydon VIC 3136</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>-37.8163949</v>
+        <v>-37.772859</v>
       </c>
       <c r="C139" t="n">
-        <v>144.9526066</v>
+        <v>145.294713</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Maroondah (C)</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC</t>
+          <t>1G Royal Parade, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>-37.667111</v>
+        <v>-37.798171</v>
       </c>
       <c r="C140" t="n">
-        <v>144.8334808</v>
+        <v>144.956665</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Cnr Nepean Highway and, Station St, Aspendale VIC 3195</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>-37.801332</v>
+        <v>-38.012111</v>
       </c>
       <c r="C141" t="n">
-        <v>144.963635</v>
+        <v>145.090154</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Kingston (C) (Vic.)</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
+          <t>Hawthorn Ln, Bright VIC 3741</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>-37.836082</v>
+        <v>-36.732518</v>
       </c>
       <c r="C142" t="n">
-        <v>144.915383</v>
+        <v>146.967357</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Alpine (S)</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>Spring St, East Melbourne VIC 3002</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>-37.801332</v>
+        <v>-37.811362</v>
       </c>
       <c r="C143" t="n">
-        <v>144.963635</v>
+        <v>144.973203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -2947,302 +2947,302 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>12 Burton Ave, Clayton VIC 3168</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>-37.801332</v>
+        <v>-37.927427</v>
       </c>
       <c r="C144" t="n">
-        <v>144.963635</v>
+        <v>145.116157</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>9-11 Maria St, Laverton North VIC 3026</t>
+          <t>202 - 226 Newbury Blvd, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>-37.837908</v>
+        <v>-37.571236</v>
       </c>
       <c r="C145" t="n">
-        <v>144.786218</v>
+        <v>144.90978</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>408 Camp Rd., Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>-37.801332</v>
+        <v>-37.685249</v>
       </c>
       <c r="C146" t="n">
-        <v>144.963635</v>
+        <v>144.92446</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>701 Swanston St, Carlton VIC 3053</t>
+          <t>65A Glasgow Ave, Reservoir VIC 3073</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>-37.801332</v>
+        <v>-37.704175</v>
       </c>
       <c r="C147" t="n">
-        <v>144.963635</v>
+        <v>144.998741</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>Birdwood Ave, Macleod VIC 3085</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>-37.841635</v>
+        <v>-37.726306</v>
       </c>
       <c r="C148" t="n">
-        <v>145.086235</v>
+        <v>145.069914</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>1A Oleander Dr, St Albans VIC 3021</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>-37.756286</v>
+        <v>-37.801332</v>
       </c>
       <c r="C149" t="n">
-        <v>144.811104</v>
+        <v>144.963635</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>-37.715384</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C150" t="n">
-        <v>144.811994</v>
+        <v>144.9526066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>Melbourne Airport, VIC</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>-37.884267</v>
+        <v>-37.667111</v>
       </c>
       <c r="C151" t="n">
-        <v>145.017115</v>
+        <v>144.8334808</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>88 Fenaughty St, Kyabram VIC 3620</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>-36.314871</v>
+        <v>-37.801332</v>
       </c>
       <c r="C152" t="n">
-        <v>145.04197</v>
+        <v>144.963635</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Campaspe (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>163 South Rd, Brighton East VIC 3187</t>
+          <t>195 Williamstown Rd, Port Melbourne VIC 3207</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>-37.92849</v>
+        <v>-37.836082</v>
       </c>
       <c r="C153" t="n">
-        <v>145.007454</v>
+        <v>144.915383</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Bayside (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>49 Lynden St, Camberwell VIC 3124</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>-37.841635</v>
+        <v>-37.801332</v>
       </c>
       <c r="C154" t="n">
-        <v>145.086235</v>
+        <v>144.963635</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>-37.884267</v>
+        <v>-37.801332</v>
       </c>
       <c r="C155" t="n">
-        <v>145.017115</v>
+        <v>144.963635</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Glen Eira (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
+          <t>9-11 Maria St, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>-37.69261</v>
+        <v>-37.837908</v>
       </c>
       <c r="C156" t="n">
-        <v>145.063821</v>
+        <v>144.786218</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>66-84 High St, Melton VIC 3337</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>-37.689223</v>
+        <v>-37.801332</v>
       </c>
       <c r="C157" t="n">
-        <v>144.604708</v>
+        <v>144.963635</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
+          <t>701 Swanston St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>-37.843632</v>
+        <v>-37.801332</v>
       </c>
       <c r="C158" t="n">
-        <v>144.781559</v>
+        <v>144.963635</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>-37.730748</v>
+        <v>-37.841635</v>
       </c>
       <c r="C159" t="n">
-        <v>145.086489</v>
+        <v>145.086235</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
+          <t>1A Oleander Dr, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>-37.702513</v>
+        <v>-37.756286</v>
       </c>
       <c r="C160" t="n">
-        <v>144.802326</v>
+        <v>144.811104</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -3253,140 +3253,140 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
+          <t>100-110 Odessa Ave, Keilor Downs VIC 3038</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>-37.673996</v>
+        <v>-37.715384</v>
       </c>
       <c r="C161" t="n">
-        <v>144.955354</v>
+        <v>144.811994</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>7-11 Horne St, Sunbury VIC 3429</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>-37.576594</v>
+        <v>-37.884267</v>
       </c>
       <c r="C162" t="n">
-        <v>144.728665</v>
+        <v>145.017115</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
+          <t>88 Fenaughty St, Kyabram VIC 3620</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>-37.879995</v>
+        <v>-36.314871</v>
       </c>
       <c r="C163" t="n">
-        <v>144.701577</v>
+        <v>145.04197</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Campaspe (S)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>388 Davis Rd, Tarneit VIC 3029</t>
+          <t>163 South Rd, Brighton East VIC 3187</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>-37.834014</v>
+        <v>-37.92849</v>
       </c>
       <c r="C164" t="n">
-        <v>144.652853</v>
+        <v>145.007454</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Bayside (C)</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
+          <t>49 Lynden St, Camberwell VIC 3124</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>-37.942099</v>
+        <v>-37.841635</v>
       </c>
       <c r="C165" t="n">
-        <v>145.167684</v>
+        <v>145.086235</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Greater Dandenong (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>294 Kooyong Rd, Caulfield VIC 3162</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>-37.664667</v>
+        <v>-37.884267</v>
       </c>
       <c r="C166" t="n">
-        <v>144.74749</v>
+        <v>145.017115</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Glen Eira (C)</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
+          <t>1428 Plenty Rd, Bundoora VIC 3083</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>-37.665417</v>
+        <v>-37.69261</v>
       </c>
       <c r="C167" t="n">
-        <v>144.753359</v>
+        <v>145.063821</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>1789 Western Fwy, Rockbank VIC 3335</t>
+          <t>66-84 High St, Melton VIC 3337</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>-37.73899</v>
+        <v>-37.689223</v>
       </c>
       <c r="C168" t="n">
-        <v>144.679976</v>
+        <v>144.604708</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -3397,50 +3397,50 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
+          <t>7 Fitzgerald Rd, Laverton North VIC 3026</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>-37.596123</v>
+        <v>-37.843632</v>
       </c>
       <c r="C169" t="n">
-        <v>144.921401</v>
+        <v>144.781559</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
+          <t>375 Lower Plenty Rd, Yallambie VIC 3085</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>-37.77238</v>
+        <v>-37.730748</v>
       </c>
       <c r="C170" t="n">
-        <v>144.888195</v>
+        <v>145.086489</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
+          <t>Cnr Agonis Drive &amp;, Sunshine Ave, Taylors Lakes VIC 3038</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>-37.783105</v>
+        <v>-37.702513</v>
       </c>
       <c r="C171" t="n">
-        <v>144.785398</v>
+        <v>144.802326</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -3451,32 +3451,32 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>8/306 Station St, Fairfield VIC 3078</t>
+          <t>1603 Hume Hwy, Campbellfield VIC 3061</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>-37.766147</v>
+        <v>-37.673996</v>
       </c>
       <c r="C172" t="n">
-        <v>145.020052</v>
+        <v>144.955354</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
+          <t>7-11 Horne St, Sunbury VIC 3429</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>-37.689366</v>
+        <v>-37.576594</v>
       </c>
       <c r="C173" t="n">
-        <v>144.958878</v>
+        <v>144.728665</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -3487,194 +3487,194 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
+          <t>34-48 Morris Rd, Hoppers Crossing VIC 3030</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>-37.678278</v>
+        <v>-37.879995</v>
       </c>
       <c r="C174" t="n">
-        <v>144.432689</v>
+        <v>144.701577</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Moorabool (S)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
+          <t>388 Davis Rd, Tarneit VIC 3029</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>-37.810712</v>
+        <v>-37.834014</v>
       </c>
       <c r="C175" t="n">
-        <v>144.836118</v>
+        <v>144.652853</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Cnr Princes Hwy &amp;, Smith Rd, Springvale VIC 3171</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>-37.667111</v>
+        <v>-37.942099</v>
       </c>
       <c r="C176" t="n">
-        <v>144.8334808</v>
+        <v>145.167684</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Dandenong (C)</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>107 Gamon St, Yarraville VIC 3013</t>
+          <t>BP Northbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>-37.811678</v>
+        <v>-37.664667</v>
       </c>
       <c r="C177" t="n">
-        <v>144.889926</v>
+        <v>144.74749</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>48 Geelong Rd, Footscray VIC 3011</t>
+          <t>BP Southbound, Calder Fwy, Keilor North VIC 3036</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>-37.797177</v>
+        <v>-37.665417</v>
       </c>
       <c r="C178" t="n">
-        <v>144.894632</v>
+        <v>144.753359</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>1789 Western Fwy, Rockbank VIC 3335</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>-37.759223</v>
+        <v>-37.73899</v>
       </c>
       <c r="C179" t="n">
-        <v>144.816754</v>
+        <v>144.679976</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
+          <t>256 Craigieburn Road West, Craigieburn VIC 3064</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>-37.844318</v>
+        <v>-37.596123</v>
       </c>
       <c r="C180" t="n">
-        <v>145.009818</v>
+        <v>144.921401</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>349 Barkers Rd, Kew VIC 3101</t>
+          <t>Highpoint Shopping Centre, Rosamond Rd, Maribyrnong VIC 3032</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>-37.813239</v>
+        <v>-37.77238</v>
       </c>
       <c r="C181" t="n">
-        <v>145.048047</v>
+        <v>144.888195</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
+          <t>447 Foleys Rd, Ravenhall VIC 3023</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>-37.7769407</v>
+        <v>-37.783105</v>
       </c>
       <c r="C182" t="n">
-        <v>144.987025</v>
+        <v>144.785398</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
+          <t>8/306 Station St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>-37.772096</v>
+        <v>-37.766147</v>
       </c>
       <c r="C183" t="n">
-        <v>144.916095</v>
+        <v>145.020052</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>1410 Sydney Rd, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>-37.667111</v>
+        <v>-37.689366</v>
       </c>
       <c r="C184" t="n">
-        <v>144.8334808</v>
+        <v>144.958878</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -3685,36 +3685,36 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Grant Lodge, 6 Clarinda St, Bacchus Marsh VIC 3340</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>-37.667111</v>
+        <v>-37.678278</v>
       </c>
       <c r="C185" t="n">
-        <v>144.8334808</v>
+        <v>144.432689</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moorabool (S)</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>690 Geelong Rd, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>-37.667111</v>
+        <v>-37.810712</v>
       </c>
       <c r="C186" t="n">
-        <v>144.8334808</v>
+        <v>144.836118</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
@@ -3739,86 +3739,86 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>107 Gamon St, Yarraville VIC 3013</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>-37.667111</v>
+        <v>-37.811678</v>
       </c>
       <c r="C188" t="n">
-        <v>144.8334808</v>
+        <v>144.889926</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>48 Geelong Rd, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>-37.667111</v>
+        <v>-37.797177</v>
       </c>
       <c r="C189" t="n">
-        <v>144.8334808</v>
+        <v>144.894632</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>-37.667111</v>
+        <v>-37.759223</v>
       </c>
       <c r="C190" t="n">
-        <v>144.8334808</v>
+        <v>144.816754</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
+          <t>Toorak Primary School, Canterbury Road, Toorak, VIC, 3142</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>-37.8214527</v>
+        <v>-37.844318</v>
       </c>
       <c r="C191" t="n">
-        <v>144.983472</v>
+        <v>145.009818</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Stonnington (C)</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
+          <t>349 Barkers Rd, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>-37.800963</v>
+        <v>-37.813239</v>
       </c>
       <c r="C192" t="n">
-        <v>145.0729384</v>
+        <v>145.048047</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -3829,14 +3829,14 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
+          <t>Mary Miller Café, Fitzroy North, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>-37.790783</v>
+        <v>-37.7769407</v>
       </c>
       <c r="C193" t="n">
-        <v>144.998162</v>
+        <v>144.987025</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -3847,486 +3847,486 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
+          <t>No. 19 Café, Ascot Vale, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>-37.8249813</v>
+        <v>-37.772096</v>
       </c>
       <c r="C194" t="n">
-        <v>144.983613</v>
+        <v>144.916095</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>-37.8411037</v>
+        <v>-37.667111</v>
       </c>
       <c r="C195" t="n">
-        <v>144.955806</v>
+        <v>144.8334808</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C196" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>-37.8321731</v>
+        <v>-37.667111</v>
       </c>
       <c r="C197" t="n">
-        <v>144.9564881</v>
+        <v>144.8334808</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C198" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>-38.199003</v>
+        <v>-37.667111</v>
       </c>
       <c r="C199" t="n">
-        <v>144.318418</v>
+        <v>144.8334808</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>-37.8633444</v>
+        <v>-37.667111</v>
       </c>
       <c r="C200" t="n">
-        <v>145.0868276</v>
+        <v>144.8334808</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>-37.809265</v>
+        <v>-37.667111</v>
       </c>
       <c r="C201" t="n">
-        <v>144.994951</v>
+        <v>144.8334808</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Yarra (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>T20 Cricket World Cup Final, Melbourne Cricket Ground, MCC Members Level 2, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>-37.667111</v>
+        <v>-37.8214527</v>
       </c>
       <c r="C202" t="n">
-        <v>144.8334808</v>
+        <v>144.983472</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
+          <t>Myrtle Oval, Macleay Park, North Balwyn, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>-37.7978092</v>
+        <v>-37.800963</v>
       </c>
       <c r="C203" t="n">
-        <v>144.9680124</v>
+        <v>145.0729384</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Ramsden Street Oval, Clifton Hill, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>-37.8163949</v>
+        <v>-37.790783</v>
       </c>
       <c r="C204" t="n">
-        <v>144.9526066</v>
+        <v>144.998162</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>AAMI Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8249813</v>
       </c>
       <c r="C205" t="n">
-        <v>144.3568376</v>
+        <v>144.983613</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
+          <t>Albert Park Hotel, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>-37.028215</v>
+        <v>-37.8411037</v>
       </c>
       <c r="C206" t="n">
-        <v>145.14336</v>
+        <v>144.955806</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Mitchell (S)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>-37.720557</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C207" t="n">
-        <v>145.048232</v>
+        <v>144.9564881</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>South Melbourne Market, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>-37.720557</v>
+        <v>-37.8321731</v>
       </c>
       <c r="C208" t="n">
-        <v>145.048232</v>
+        <v>144.9564881</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>-37.720557</v>
+        <v>-38.199003</v>
       </c>
       <c r="C209" t="n">
-        <v>145.048232</v>
+        <v>144.318418</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>Coles Waurn Ponds, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>-37.667111</v>
+        <v>-38.199003</v>
       </c>
       <c r="C210" t="n">
-        <v>144.8334808</v>
+        <v>144.318418</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+          <t>Ashburton Park, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>-38.1450096</v>
+        <v>-37.8633444</v>
       </c>
       <c r="C211" t="n">
-        <v>144.3568376</v>
+        <v>145.0868276</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Pho Hung Vuong 2 Vietnamese Restaurant in Richmond, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>-37.8163949</v>
+        <v>-37.809265</v>
       </c>
       <c r="C212" t="n">
-        <v>144.9526066</v>
+        <v>144.994951</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Yarra (C)</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>-37.8163949</v>
+        <v>-37.667111</v>
       </c>
       <c r="C213" t="n">
-        <v>144.9526066</v>
+        <v>144.8334808</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+          <t>Cinema Nova, Carlton, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>-37.8266608</v>
+        <v>-37.7978092</v>
       </c>
       <c r="C214" t="n">
-        <v>145.0587903</v>
+        <v>144.9680124</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>-37.848232</v>
+        <v>-37.8163949</v>
       </c>
       <c r="C215" t="n">
-        <v>145.005508</v>
+        <v>144.9526066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>-37.848232</v>
+        <v>-38.1450096</v>
       </c>
       <c r="C216" t="n">
-        <v>145.005508</v>
+        <v>144.3568376</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>Wine by Sam - Seymour, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>-37.848232</v>
+        <v>-37.028215</v>
       </c>
       <c r="C217" t="n">
-        <v>145.005508</v>
+        <v>145.14336</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Mitchell (S)</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C218" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>-37.848232</v>
+        <v>-37.720557</v>
       </c>
       <c r="C219" t="n">
-        <v>145.005508</v>
+        <v>145.048232</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Stonnington (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+          <t>La Trobe University, Bundoora Campus, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>-37.667111</v>
+        <v>-37.720557</v>
       </c>
       <c r="C220" t="n">
-        <v>144.8334808</v>
+        <v>145.048232</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
@@ -4351,16 +4351,214 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
+          <t>Geelong Train Station, Geelong, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>-38.1450096</v>
+      </c>
+      <c r="C222" t="n">
+        <v>144.3568376</v>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>Greater Geelong (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>-37.8163949</v>
+      </c>
+      <c r="C223" t="n">
+        <v>144.9526066</v>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Melbourne (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Southern Cross Train Station, Southern Cross, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>-37.8163949</v>
+      </c>
+      <c r="C224" t="n">
+        <v>144.9526066</v>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Melbourne (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Camberwell Train Station, Camberwell, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>-37.8266608</v>
+      </c>
+      <c r="C225" t="n">
+        <v>145.0587903</v>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Boroondara (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C226" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C227" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C228" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C229" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Toorak Clinic  575 Malvern Rd, Toorak, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>-37.848232</v>
+      </c>
+      <c r="C230" t="n">
+        <v>145.005508</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>Stonnington (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
           <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
         </is>
       </c>
-      <c r="B222" t="n">
+      <c r="B231" t="n">
         <v>-37.667111</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C231" t="n">
         <v>144.8334808</v>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C232" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>Hume (C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Melbourne Airport, VIC, AU&amp;countrycode=AU</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>-37.667111</v>
+      </c>
+      <c r="C233" t="n">
+        <v>144.8334808</v>
+      </c>
+      <c r="D233" t="inlineStr">
         <is>
           <t>Hume (C)</t>
         </is>

--- a/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
+++ b/Coronavirus COVID-19 - VIC AU Exposure sites LGA.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D233"/>
+  <dimension ref="A1:D234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,50 +463,50 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>24-36 Lorne St, Fawkner VIC 3060</t>
+          <t>481 Plenty Rd, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37.716356</v>
+        <v>-37.73636</v>
       </c>
       <c r="C6" t="n">
-        <v>144.975854</v>
+        <v>145.012539</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Corella Rd, Sunshine West VIC 3023</t>
+          <t>24-36 Lorne St, Fawkner VIC 3060</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-37.797693</v>
+        <v>-37.716356</v>
       </c>
       <c r="C7" t="n">
-        <v>144.806024</v>
+        <v>144.975854</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30 North St, Ardeer VIC 3022</t>
+          <t>Corella Rd, Sunshine West VIC 3023</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-37.779326</v>
+        <v>-37.797693</v>
       </c>
       <c r="C8" t="n">
-        <v>144.808335</v>
+        <v>144.806024</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -517,230 +517,230 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>11-13 Sunshine Rd, West Footscray VIC 3012</t>
+          <t>30 North St, Ardeer VIC 3022</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-37.80155</v>
+        <v>-37.779326</v>
       </c>
       <c r="C9" t="n">
-        <v>144.876365</v>
+        <v>144.808335</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>36-38 Permas Way, Truganina VIC 3029</t>
+          <t>11-13 Sunshine Rd, West Footscray VIC 3012</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-37.817457</v>
+        <v>-37.80155</v>
       </c>
       <c r="C10" t="n">
-        <v>144.739448</v>
+        <v>144.876365</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Endeavour Hills Shopping Centre, 974 Heatherton Rd, Endeavour Hills VIC 3802</t>
+          <t>36-38 Permas Way, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-37.976866</v>
+        <v>-37.817457</v>
       </c>
       <c r="C11" t="n">
-        <v>145.259225</v>
+        <v>144.739448</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Casey (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>216 Burgundy St, Heidelberg VIC 3084</t>
+          <t>Endeavour Hills Shopping Centre, 974 Heatherton Rd, Endeavour Hills VIC 3802</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-37.755011</v>
+        <v>-37.976866</v>
       </c>
       <c r="C12" t="n">
-        <v>145.060577</v>
+        <v>145.259225</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Casey (C)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>101 Punt Rd, Windsor VIC 3181</t>
+          <t>216 Burgundy St, Heidelberg VIC 3084</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-37.851375</v>
+        <v>-37.755011</v>
       </c>
       <c r="C13" t="n">
-        <v>144.98317</v>
+        <v>145.060577</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Port Phillip (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>484 Dohertys Rd, Truganina VIC 3029</t>
+          <t>101 Punt Rd, Windsor VIC 3181</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-37.824803</v>
+        <v>-37.851375</v>
       </c>
       <c r="C14" t="n">
-        <v>144.737124</v>
+        <v>144.98317</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Port Phillip (C)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8 Arnold St, Box Hill VIC 3128</t>
+          <t>484 Dohertys Rd, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-37.81408</v>
+        <v>-37.824803</v>
       </c>
       <c r="C15" t="n">
-        <v>145.118453</v>
+        <v>144.737124</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Whitehorse (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>510 Lygon St, Carlton VIC 3053</t>
+          <t>8 Arnold St, Box Hill VIC 3128</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-37.794602</v>
+        <v>-37.81408</v>
       </c>
       <c r="C16" t="n">
-        <v>144.968261</v>
+        <v>145.118453</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whitehorse (C)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>59-61 High St, Woodend VIC 3442</t>
+          <t>510 Lygon St, Carlton VIC 3053</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-37.35824</v>
+        <v>-37.794602</v>
       </c>
       <c r="C17" t="n">
-        <v>144.525773</v>
+        <v>144.968261</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Macedon Ranges (S)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>507 Campbell St, Swan Hill VIC 3585</t>
+          <t>59-61 High St, Woodend VIC 3442</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-35.355945</v>
+        <v>-37.35824</v>
       </c>
       <c r="C18" t="n">
-        <v>143.562705</v>
+        <v>144.525773</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Swan Hill (RC)</t>
+          <t>Macedon Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
+          <t>507 Campbell St, Swan Hill VIC 3585</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-37.78365</v>
+        <v>-35.355945</v>
       </c>
       <c r="C19" t="n">
-        <v>144.77146</v>
+        <v>143.562705</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Swan Hill (RC)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>438 Somerville Rd, Tottenham VIC 3012</t>
+          <t>Derrimut Village, Mt Derrimut Rd &amp;, Foleys Rd, Deer Park VIC 3023</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-37.808952</v>
+        <v>-37.78365</v>
       </c>
       <c r="C20" t="n">
-        <v>144.850888</v>
+        <v>144.77146</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>16 Moreland St, Footscray VIC 3011</t>
+          <t>438 Somerville Rd, Tottenham VIC 3012</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-37.79998</v>
+        <v>-37.808952</v>
       </c>
       <c r="C21" t="n">
-        <v>144.907861</v>
+        <v>144.850888</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -751,266 +751,266 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>30 Inverloch Cres, Dallas VIC 3047</t>
+          <t>16 Moreland St, Footscray VIC 3011</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-37.66875</v>
+        <v>-37.79998</v>
       </c>
       <c r="C22" t="n">
-        <v>144.929709</v>
+        <v>144.907861</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
+          <t>30 Inverloch Cres, Dallas VIC 3047</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-37.768353</v>
+        <v>-37.66875</v>
       </c>
       <c r="C23" t="n">
-        <v>145.041766</v>
+        <v>144.929709</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>100 Sunshine Ave, Kealba VIC 3021</t>
+          <t>4 Livingstone St, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-37.741864</v>
+        <v>-37.768353</v>
       </c>
       <c r="C24" t="n">
-        <v>144.826315</v>
+        <v>145.041766</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Shopping Village, 65 High St, Belmont VIC 3216</t>
+          <t>100 Sunshine Ave, Kealba VIC 3021</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-38.170245</v>
+        <v>-37.741864</v>
       </c>
       <c r="C25" t="n">
-        <v>144.349263</v>
+        <v>144.826315</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>McDonalds Rd, Mill Park VIC 3082</t>
+          <t>Shopping Village, 65 High St, Belmont VIC 3216</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-37.650834</v>
+        <v>-38.170245</v>
       </c>
       <c r="C26" t="n">
-        <v>145.068828</v>
+        <v>144.349263</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1 Saintly Dr, Truganina VIC 3029</t>
+          <t>McDonalds Rd, Mill Park VIC 3082</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-37.807645</v>
+        <v>-37.650834</v>
       </c>
       <c r="C27" t="n">
-        <v>144.746483</v>
+        <v>145.068828</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Melton (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>1 Saintly Dr, Truganina VIC 3029</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-37.798908</v>
+        <v>-37.807645</v>
       </c>
       <c r="C28" t="n">
-        <v>144.956176</v>
+        <v>144.746483</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Melton (C)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>176 Furlong Rd, St Albans VIC 3021</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-37.759223</v>
+        <v>-37.798908</v>
       </c>
       <c r="C29" t="n">
-        <v>144.816754</v>
+        <v>144.956176</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>176 Furlong Rd, St Albans VIC 3021</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-37.653023</v>
+        <v>-37.759223</v>
       </c>
       <c r="C30" t="n">
-        <v>145.014685</v>
+        <v>144.816754</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>10 Fletcher St, Essendon VIC 3040</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-37.755206</v>
+        <v>-37.653023</v>
       </c>
       <c r="C31" t="n">
-        <v>144.925092</v>
+        <v>145.014685</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
+          <t>10 Fletcher St, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-37.766695</v>
+        <v>-37.755206</v>
       </c>
       <c r="C32" t="n">
-        <v>145.170655</v>
+        <v>144.925092</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Manningham (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>13 Howard St, Altona Meadows VIC 3028</t>
+          <t>107-111 Andersons Creek Rd, Doncaster East VIC 3109</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-37.878812</v>
+        <v>-37.766695</v>
       </c>
       <c r="C33" t="n">
-        <v>144.781325</v>
+        <v>145.170655</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Hobsons Bay (C)</t>
+          <t>Manningham (C)</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
+          <t>13 Howard St, Altona Meadows VIC 3028</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-37.758211</v>
+        <v>-37.878812</v>
       </c>
       <c r="C34" t="n">
-        <v>145.044162</v>
+        <v>144.781325</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Hobsons Bay (C)</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>27 Smith St, Healesville VIC 3777</t>
+          <t>250 Waterdale Rd, Ivanhoe VIC 3079</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-37.661037</v>
+        <v>-37.758211</v>
       </c>
       <c r="C35" t="n">
-        <v>145.508141</v>
+        <v>145.044162</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yarra Ranges (S)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
+          <t>27 Smith St, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-37.66148</v>
+        <v>-37.661037</v>
       </c>
       <c r="C36" t="n">
-        <v>145.516046</v>
+        <v>145.508141</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1021,158 +1021,158 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>25 Main St, Greensborough VIC 3088</t>
+          <t>17-19 Lalors Rd, Healesville VIC 3777</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-37.70206</v>
+        <v>-37.66148</v>
       </c>
       <c r="C37" t="n">
-        <v>145.102638</v>
+        <v>145.516046</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Yarra Ranges (S)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>15 Fletcher Rd, Frankston VIC 3199</t>
+          <t>25 Main St, Greensborough VIC 3088</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-38.138881</v>
+        <v>-37.70206</v>
       </c>
       <c r="C38" t="n">
-        <v>145.124681</v>
+        <v>145.102638</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Frankston (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
+          <t>15 Fletcher Rd, Frankston VIC 3199</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-37.684151</v>
+        <v>-38.138881</v>
       </c>
       <c r="C39" t="n">
-        <v>144.948507</v>
+        <v>145.124681</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Frankston (C)</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>82 Moreland Rd, Brunswick VIC 3056</t>
+          <t>75 Northcorp Blvd, Broadmeadows VIC 3047</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-37.756487</v>
+        <v>-37.684151</v>
       </c>
       <c r="C40" t="n">
-        <v>144.972167</v>
+        <v>144.948507</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Moreland (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>265 Heaths Rd, Werribee VIC 3030</t>
+          <t>82 Moreland Rd, Brunswick VIC 3056</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-37.87778</v>
+        <v>-37.756487</v>
       </c>
       <c r="C41" t="n">
-        <v>144.676933</v>
+        <v>144.972167</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Moreland (C)</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>78 Bruce St, Preston VIC 3072</t>
+          <t>265 Heaths Rd, Werribee VIC 3030</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-37.741374</v>
+        <v>-37.87778</v>
       </c>
       <c r="C42" t="n">
-        <v>144.992388</v>
+        <v>144.676933</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>55 Walpole St, Kew VIC 3101</t>
+          <t>78 Bruce St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-37.801718</v>
+        <v>-37.741374</v>
       </c>
       <c r="C43" t="n">
-        <v>145.032141</v>
+        <v>144.992388</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Boroondara (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>55 Walpole St, Kew VIC 3101</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-37.798908</v>
+        <v>-37.801718</v>
       </c>
       <c r="C44" t="n">
-        <v>144.956176</v>
+        <v>145.032141</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Boroondara (C)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20 Flemington Rd, Parkville VIC 3052</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-37.79862</v>
+        <v>-37.798908</v>
       </c>
       <c r="C45" t="n">
-        <v>144.954858</v>
+        <v>144.956176</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1183,446 +1183,446 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>64 Virginia St, Mount Waverley VIC 3149</t>
+          <t>20 Flemington Rd, Parkville VIC 3052</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-37.87832</v>
+        <v>-37.79862</v>
       </c>
       <c r="C46" t="n">
-        <v>145.1277</v>
+        <v>144.954858</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Monash (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
+          <t>64 Virginia St, Mount Waverley VIC 3149</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-37.740508</v>
+        <v>-37.87832</v>
       </c>
       <c r="C47" t="n">
-        <v>145.075152</v>
+        <v>145.1277</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Banyule (C)</t>
+          <t>Monash (C)</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sunshine Market Place, 80 Harvester Rd, Sunshine VIC 3020</t>
+          <t>230 Rosanna Rd, Rosanna VIC 3084</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-37.780483</v>
+        <v>-37.740508</v>
       </c>
       <c r="C48" t="n">
-        <v>144.831981</v>
+        <v>145.075152</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Banyule (C)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>95 Hazel Glen Dr, Doreen VIC 3754</t>
+          <t>Sunshine Market Place, 80 Harvester Rd, Sunshine VIC 3020</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-37.586944</v>
+        <v>-37.780483</v>
       </c>
       <c r="C49" t="n">
-        <v>145.127624</v>
+        <v>144.831981</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>10 English St, Essendon Fields VIC 3041</t>
+          <t>95 Hazel Glen Dr, Doreen VIC 3754</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-37.726876</v>
+        <v>-37.586944</v>
       </c>
       <c r="C50" t="n">
-        <v>144.894023</v>
+        <v>145.127624</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>55 Commercial Rd, Melbourne VIC 3004</t>
+          <t>10 English St, Essendon Fields VIC 3041</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-37.845667</v>
+        <v>-37.726876</v>
       </c>
       <c r="C51" t="n">
-        <v>144.981921</v>
+        <v>144.894023</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
+          <t>55 Commercial Rd, Melbourne VIC 3004</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-37.813306</v>
+        <v>-37.845667</v>
       </c>
       <c r="C52" t="n">
-        <v>144.849237</v>
+        <v>144.981921</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Brimbank (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>4 Norwich Ave, Thomastown VIC 3074</t>
+          <t>30 Industry Park Dr, Brooklyn VIC 3012</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-37.690076</v>
+        <v>-37.813306</v>
       </c>
       <c r="C53" t="n">
-        <v>144.996836</v>
+        <v>144.849237</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Brimbank (C)</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>246-260 Bourke St, Melbourne VIC 3000</t>
+          <t>4 Norwich Ave, Thomastown VIC 3074</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-37.813215</v>
+        <v>-37.690076</v>
       </c>
       <c r="C54" t="n">
-        <v>144.965914</v>
+        <v>144.996836</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>9 Ashley St, Braybrook VIC 3019</t>
+          <t>246-260 Bourke St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-37.796258</v>
+        <v>-37.813215</v>
       </c>
       <c r="C55" t="n">
-        <v>144.862235</v>
+        <v>144.965914</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Arena Shopping Centre, Princes Hwy, Officer VIC 3809</t>
+          <t>9 Ashley St, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-38.06438</v>
+        <v>-37.796258</v>
       </c>
       <c r="C56" t="n">
-        <v>145.435603</v>
+        <v>144.862235</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Cardinia (S)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>906 Main Rd, Eltham VIC 3095</t>
+          <t>Arena Shopping Centre, Princes Hwy, Officer VIC 3809</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-37.715121</v>
+        <v>-38.06438</v>
       </c>
       <c r="C57" t="n">
-        <v>145.148411</v>
+        <v>145.435603</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Nillumbik (S)</t>
+          <t>Cardinia (S)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>67 Ashley St Central West Shopping Centre, Braybrook VIC 3019</t>
+          <t>906 Main Rd, Eltham VIC 3095</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-37.793658</v>
+        <v>-37.715121</v>
       </c>
       <c r="C58" t="n">
-        <v>144.861504</v>
+        <v>145.148411</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Maribyrnong (C)</t>
+          <t>Nillumbik (S)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
+          <t>67 Ashley St Central West Shopping Centre, Braybrook VIC 3019</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-37.874191</v>
+        <v>-37.793658</v>
       </c>
       <c r="C59" t="n">
-        <v>144.677393</v>
+        <v>144.861504</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Wyndham (C)</t>
+          <t>Maribyrnong (C)</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>215 Bell St, Preston VIC 3072</t>
+          <t>Cnr Heaths and, Derrimut Rd, Hoppers Crossing VIC 3029</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-37.74638</v>
+        <v>-37.874191</v>
       </c>
       <c r="C60" t="n">
-        <v>145.008039</v>
+        <v>144.677393</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Wyndham (C)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>41 Landsborough St, Warragul VIC 3820</t>
+          <t>215 Bell St, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-38.172925</v>
+        <v>-37.74638</v>
       </c>
       <c r="C61" t="n">
-        <v>145.927835</v>
+        <v>145.008039</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Baw Baw (S)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>300 Grattan St, Parkville VIC 3050</t>
+          <t>41 Landsborough St, Warragul VIC 3820</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-37.798908</v>
+        <v>-38.172925</v>
       </c>
       <c r="C62" t="n">
-        <v>144.956176</v>
+        <v>145.927835</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Baw Baw (S)</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>120 Racecourse Rd, Flemington VIC 3031</t>
+          <t>300 Grattan St, Parkville VIC 3050</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-37.788414</v>
+        <v>-37.798908</v>
       </c>
       <c r="C63" t="n">
-        <v>144.936951</v>
+        <v>144.956176</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30A The Centreway, Preston VIC 3072</t>
+          <t>120 Racecourse Rd, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-37.73908</v>
+        <v>-37.788414</v>
       </c>
       <c r="C64" t="n">
-        <v>145.002236</v>
+        <v>144.936951</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>100 Victoria St, Flemington VIC 3031</t>
+          <t>30A The Centreway, Preston VIC 3072</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-37.785949</v>
+        <v>-37.73908</v>
       </c>
       <c r="C65" t="n">
-        <v>144.935308</v>
+        <v>145.002236</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
+          <t>100 Victoria St, Flemington VIC 3031</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-37.670681</v>
+        <v>-37.785949</v>
       </c>
       <c r="C66" t="n">
-        <v>144.850306</v>
+        <v>144.935308</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Hume (C)</t>
+          <t>Moonee Valley (C)</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>373 Collins St, Melbourne VIC 3000</t>
+          <t>Arrival Dr, Melbourne Airport VIC 3045</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-37.817011</v>
+        <v>-37.670681</v>
       </c>
       <c r="C67" t="n">
-        <v>144.962265</v>
+        <v>144.850306</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Hume (C)</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
+          <t>373 Collins St, Melbourne VIC 3000</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-38.259593</v>
+        <v>-37.817011</v>
       </c>
       <c r="C68" t="n">
-        <v>144.53948</v>
+        <v>144.962265</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Greater Geelong (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>44 Market St, Kensington VIC 3031</t>
+          <t>4-50 Shell Rd, Ocean Grove VIC 3226</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-37.789871</v>
+        <v>-38.259593</v>
       </c>
       <c r="C69" t="n">
-        <v>144.926734</v>
+        <v>144.53948</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Melbourne (C)</t>
+          <t>Greater Geelong (C)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>33 Alfred St, North Melbourne VIC 3051</t>
+          <t>44 Market St, Kensington VIC 3031</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-37.791989</v>
+        <v>-37.789871</v>
       </c>
       <c r="C70" t="n">
-        <v>144.940508</v>
+        <v>144.926734</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1633,230 +1633,230 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>185 Cooper St, Epping VIC 3076</t>
+          <t>33 Alfred St, North Melbourne VIC 3051</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-37.653023</v>
+        <v>-37.791989</v>
       </c>
       <c r="C71" t="n">
-        <v>145.014685</v>
+        <v>144.940508</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Whittlesea (C)</t>
+          <t>Melbourne (C)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>260-264 Arthur St, Fairfield VIC 3078</t>
+          <t>185 Cooper St, Epping VIC 3076</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-37.766715</v>
+        <v>-37.653023</v>
       </c>
       <c r="C72" t="n">
-        <v>145.021149</v>
+        <v>145.014685</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Darebin (C)</t>
+          <t>Whittlesea (C)</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>16 Bulla Rd, Essendon VIC 3040</t>
+          <t>260-264 Arthur St, Fairfield VIC 3078</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-37.741667</v>
+        <v>-37.766715</v>
       </c>
       <c r="C73" t="n">
-        <v>144.908954</v>
+        <v>145.021149</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Moonee Valley (C)</t>
+          <t>Darebin (C)</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Craigieburn Plaza Shopping Centre, Craigieburn Road West &amp; Hanson Street, Craigieburn VIC 3064</t>
+          <t>16 Bulla Rd, Essendon VIC 3040</t>
         </is>
       </c>
       <c r="B74" 